--- a/2019/Inversiones.xlsx
+++ b/2019/Inversiones.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8C685D5D-80BC-459F-AF53-0CFAE3F04B5F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB99573-0A71-45B6-9227-2148B9E625FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,12 +15,19 @@
     <sheet name="Fondo" sheetId="6" r:id="rId5"/>
     <sheet name="Criterios" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="118">
   <si>
     <t>% =</t>
   </si>
@@ -420,6 +427,9 @@
   </si>
   <si>
     <t>Hasta 31 Diciembre</t>
+  </si>
+  <si>
+    <t>Custodia de acciones  ITX.MC</t>
   </si>
 </sst>
 </file>
@@ -2180,10 +2190,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:V45"/>
+  <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView topLeftCell="G16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U32" sqref="U32"/>
+    <sheetView topLeftCell="G19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2763,7 +2773,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -2789,7 +2799,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
@@ -2824,7 +2834,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>46</v>
       </c>
@@ -2862,7 +2872,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>46</v>
       </c>
@@ -2901,7 +2911,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -2919,500 +2929,532 @@
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
+      <c r="R21" s="9">
+        <v>-25.87</v>
+      </c>
       <c r="S21" s="10"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H23" s="15">
-        <f t="shared" ref="H23:O23" si="0">SUM(H3:H22)</f>
+      <c r="T21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="10"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H24" s="15">
+        <f t="shared" ref="H24:O24" si="0">SUM(H3:H23)</f>
         <v>17571.839999999997</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I24" s="15">
         <f t="shared" si="0"/>
         <v>42.26</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J24" s="15">
         <f t="shared" si="0"/>
         <v>13.75</v>
       </c>
-      <c r="K23" s="15">
+      <c r="K24" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L23" s="15">
+      <c r="L24" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M23" s="15">
+      <c r="M24" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N23" s="15">
+      <c r="N24" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O23" s="15">
+      <c r="O24" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R23" s="15">
-        <f>SUM(R3:R22)</f>
-        <v>3253.2156679999994</v>
-      </c>
-      <c r="S23" s="16">
-        <f>SUM(S3:S22)</f>
+      <c r="R24" s="15">
+        <f>SUM(R3:R23)</f>
+        <v>3227.3456679999995</v>
+      </c>
+      <c r="S24" s="16">
+        <f>SUM(S3:S23)</f>
         <v>3.7548916419551364</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="str">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="51"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="39" t="str">
         <f>'Operacion 1'!B$3</f>
         <v>ABI.BR</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B26" s="8">
         <f>'Operacion 1'!B$2</f>
         <v>42234</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="14">
+      <c r="C26" s="8"/>
+      <c r="D26" s="14">
         <f>'Operacion 1'!B$5</f>
         <v>62</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E26" s="9">
         <f>'Operacion 1'!B$4</f>
         <v>89</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F26" s="9">
         <f>'Operacion 1'!B$6</f>
         <v>120</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G26" s="10">
         <f>'Operacion 1'!B$7</f>
         <v>0.348314606741573</v>
       </c>
-      <c r="H25" s="9">
-        <f>(E25*D25)</f>
+      <c r="H26" s="9">
+        <f>(E26*D26)</f>
         <v>5518</v>
       </c>
-      <c r="I25" s="9">
-        <f>IF((H25*0.005)&lt;20,20,(H25*0.005))</f>
+      <c r="I26" s="9">
+        <f>IF((H26*0.005)&lt;20,20,(H26*0.005))</f>
         <v>27.59</v>
       </c>
-      <c r="J25" s="9">
-        <f>SUM(H25:I25)*0.0027</f>
+      <c r="J26" s="9">
+        <f>SUM(H26:I26)*0.0027</f>
         <v>14.973093</v>
       </c>
-      <c r="K25" s="9">
-        <f>SUM(H25:J25)</f>
+      <c r="K26" s="9">
+        <f>SUM(H26:J26)</f>
         <v>5560.5630929999998</v>
       </c>
-      <c r="L25" s="9">
-        <f>D25*F25</f>
+      <c r="L26" s="9">
+        <f>D26*F26</f>
         <v>7440</v>
       </c>
-      <c r="M25" s="9">
-        <f>IF((L25*0.005)&lt;20,-20,-(L25*0.005))</f>
+      <c r="M26" s="9">
+        <f>IF((L26*0.005)&lt;20,-20,-(L26*0.005))</f>
         <v>-37.200000000000003</v>
       </c>
-      <c r="N25" s="9">
-        <f>-(SUM(L25:M25)*0.0027)</f>
+      <c r="N26" s="9">
+        <f>-(SUM(L26:M26)*0.0027)</f>
         <v>-19.987560000000002</v>
       </c>
-      <c r="O25" s="9">
-        <f>SUM(L25:N25)</f>
+      <c r="O26" s="9">
+        <f>SUM(L26:N26)</f>
         <v>7382.8124400000006</v>
       </c>
-      <c r="P25" s="9">
-        <f>I25-M25</f>
+      <c r="P26" s="9">
+        <f>I26-M26</f>
         <v>64.790000000000006</v>
       </c>
-      <c r="Q25" s="9">
-        <f>J25-N25</f>
+      <c r="Q26" s="9">
+        <f>J26-N26</f>
         <v>34.960653000000001</v>
       </c>
-      <c r="R25" s="9">
-        <f t="shared" ref="R25:R26" si="1">O25-K25</f>
+      <c r="R26" s="9">
+        <f t="shared" ref="R26:R27" si="1">O26-K26</f>
         <v>1822.2493470000009</v>
       </c>
-      <c r="S25" s="10">
-        <f>R25/K25</f>
+      <c r="S26" s="10">
+        <f>R26/K26</f>
         <v>0.32770949929404947</v>
       </c>
-      <c r="T25" t="s">
+      <c r="T26" t="s">
         <v>111</v>
       </c>
-      <c r="U25" t="s">
+      <c r="U26" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="str">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="39" t="str">
         <f>'Operacion 2'!B$3</f>
         <v>DAI.DE</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B27" s="8">
         <f>'Operacion 2'!B$2</f>
         <v>42471</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="14">
+      <c r="C27" s="8"/>
+      <c r="D27" s="14">
         <f>'Operacion 2'!B$5</f>
         <v>40</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E27" s="9">
         <f>'Operacion 2'!B$4</f>
         <v>49.94</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F27" s="9">
         <f>'Operacion 2'!B$6</f>
         <v>57</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G27" s="10">
         <f>'Operacion 2'!B$7</f>
         <v>0.14136964357228687</v>
       </c>
-      <c r="H26" s="9">
-        <f t="shared" ref="H26:H27" si="2">E26*D26</f>
+      <c r="H27" s="9">
+        <f t="shared" ref="H27:H28" si="2">E27*D27</f>
         <v>1997.6</v>
       </c>
-      <c r="I26" s="9">
-        <f>IF((H26*0.0075)&lt;30,30,(H26*0.0075))</f>
+      <c r="I27" s="9">
+        <f>IF((H27*0.0075)&lt;30,30,(H27*0.0075))</f>
         <v>30</v>
       </c>
-      <c r="J26" s="9">
-        <f>H26*0.0027</f>
+      <c r="J27" s="9">
+        <f>H27*0.0027</f>
         <v>5.3935199999999996</v>
       </c>
-      <c r="K26" s="9">
-        <f t="shared" ref="K26:K27" si="3">SUM(H26:J26)</f>
+      <c r="K27" s="9">
+        <f t="shared" ref="K27:K28" si="3">SUM(H27:J27)</f>
         <v>2032.99352</v>
       </c>
-      <c r="L26" s="9">
-        <f t="shared" ref="L26:L27" si="4">D26*F26</f>
+      <c r="L27" s="9">
+        <f t="shared" ref="L27:L28" si="4">D27*F27</f>
         <v>2280</v>
       </c>
-      <c r="M26" s="9">
-        <f>IF((L26*0.0075)&lt;30,-30,-(L26*0.0075))</f>
+      <c r="M27" s="9">
+        <f>IF((L27*0.0075)&lt;30,-30,-(L27*0.0075))</f>
         <v>-30</v>
       </c>
-      <c r="N26" s="9">
-        <f>-(L26*0.0027)</f>
+      <c r="N27" s="9">
+        <f>-(L27*0.0027)</f>
         <v>-6.1560000000000006</v>
       </c>
-      <c r="O26" s="9">
-        <f t="shared" ref="O26:O27" si="5">SUM(L26:N26)</f>
+      <c r="O27" s="9">
+        <f t="shared" ref="O27:O28" si="5">SUM(L27:N27)</f>
         <v>2243.8440000000001</v>
       </c>
-      <c r="P26" s="9">
-        <f t="shared" ref="P26:P27" si="6">I26-M26</f>
+      <c r="P27" s="9">
+        <f t="shared" ref="P27:P28" si="6">I27-M27</f>
         <v>60</v>
       </c>
-      <c r="Q26" s="9">
-        <f t="shared" ref="Q26:Q27" si="7">J26-N26</f>
+      <c r="Q27" s="9">
+        <f t="shared" ref="Q27:Q28" si="7">J27-N27</f>
         <v>11.549520000000001</v>
       </c>
-      <c r="R26" s="9">
+      <c r="R27" s="9">
         <f t="shared" si="1"/>
         <v>210.85048000000006</v>
       </c>
-      <c r="S26" s="10">
-        <f t="shared" ref="S26" si="8">R26/K26</f>
+      <c r="S27" s="10">
+        <f t="shared" ref="S27" si="8">R27/K27</f>
         <v>0.10371429024525373</v>
       </c>
-      <c r="T26" t="s">
+      <c r="T27" t="s">
         <v>110</v>
       </c>
-      <c r="U26" t="s">
+      <c r="U27" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="str">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="39" t="str">
         <f>'Operacion 3'!B3</f>
         <v>ITX.MC</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B28" s="8">
         <f>'Operacion 3'!B$2</f>
         <v>43154</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="14">
+      <c r="C28" s="8"/>
+      <c r="D28" s="14">
         <f>'Operacion 3'!B$5</f>
         <v>196</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E28" s="9">
         <f>'Operacion 3'!B$4</f>
         <v>25.98</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F28" s="9">
         <f>'Operacion 3'!B$6</f>
         <v>31.82</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G28" s="10">
         <f>'Operacion 3'!B$7</f>
         <v>0.22478829869130101</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H28" s="9">
         <f t="shared" si="2"/>
         <v>5092.08</v>
       </c>
-      <c r="I27" s="9">
-        <f>IF((H27*(0.0075+0.0008))&lt;30,30,(H27*(0.0075+0.0008)))</f>
+      <c r="I28" s="9">
+        <f>IF((H28*(0.0075+0.0008))&lt;30,30,(H28*(0.0075+0.0008)))</f>
         <v>42.264263999999997</v>
       </c>
-      <c r="J27" s="9">
-        <f>H27*0.0027</f>
+      <c r="J28" s="9">
+        <f>H28*0.0027</f>
         <v>13.748616</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K28" s="9">
         <f t="shared" si="3"/>
         <v>5148.0928800000002</v>
       </c>
-      <c r="L27" s="9">
+      <c r="L28" s="9">
         <f t="shared" si="4"/>
         <v>6236.72</v>
       </c>
-      <c r="M27" s="9">
-        <f>IF((L27*(0.0075+0.0008))&lt;30,-30,-(L27*(0.0075+0.0008)))</f>
+      <c r="M28" s="9">
+        <f>IF((L28*(0.0075+0.0008))&lt;30,-30,-(L28*(0.0075+0.0008)))</f>
         <v>-51.764776000000005</v>
       </c>
-      <c r="N27" s="9">
-        <f>-(L27*0.0027)</f>
+      <c r="N28" s="9">
+        <f>-(L28*0.0027)</f>
         <v>-16.839144000000001</v>
       </c>
-      <c r="O27" s="9">
+      <c r="O28" s="9">
         <f t="shared" si="5"/>
         <v>6168.1160800000007</v>
       </c>
-      <c r="P27" s="9">
+      <c r="P28" s="9">
         <f t="shared" si="6"/>
         <v>94.029040000000009</v>
       </c>
-      <c r="Q27" s="9">
+      <c r="Q28" s="9">
         <f t="shared" si="7"/>
         <v>30.587760000000003</v>
       </c>
-      <c r="R27" s="9">
-        <f>O27-K27</f>
+      <c r="R28" s="9">
+        <f>O28-K28</f>
         <v>1020.0232000000005</v>
       </c>
-      <c r="S27" s="10">
-        <f>R27/K27</f>
+      <c r="S28" s="10">
+        <f>R28/K28</f>
         <v>0.19813612997596122</v>
       </c>
-      <c r="T27" t="s">
+      <c r="T28" t="s">
         <v>58</v>
       </c>
-      <c r="U27" t="s">
+      <c r="U28" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D29" s="48"/>
-      <c r="H29" s="48" t="s">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R29" s="56">
+        <f>R28+SUM(R19:R21)</f>
+        <v>1068.4132000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D30" s="48"/>
+      <c r="H30" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48" t="s">
+      <c r="I30" s="48"/>
+      <c r="J30" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="R29" s="48"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="F30" s="5"/>
-      <c r="G30" s="48"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="T31" t="s">
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="R30" s="48"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F31" s="5"/>
+      <c r="G31" s="48"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T32" t="s">
         <v>70</v>
       </c>
-      <c r="U31">
+      <c r="U32">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="T32" t="s">
+    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="T33" t="s">
         <v>68</v>
       </c>
-      <c r="U32">
+      <c r="U33">
         <v>31.82</v>
       </c>
-      <c r="V32" t="s">
+      <c r="V33" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33">
-        <v>74.89</v>
-      </c>
-      <c r="F33">
-        <v>52</v>
-      </c>
-      <c r="G33" s="10">
-        <f>1-(F33/E33)</f>
-        <v>0.30564828415008682</v>
-      </c>
-      <c r="N33">
-        <v>6769.84</v>
-      </c>
-      <c r="O33">
-        <v>74.459999999999994</v>
-      </c>
-      <c r="P33" s="5">
-        <v>6695.38</v>
-      </c>
-      <c r="S33" s="10"/>
-      <c r="T33" t="s">
-        <v>69</v>
-      </c>
-      <c r="U33" s="3">
-        <f>(U32/U31)-1</f>
-        <v>0.4463636363636363</v>
-      </c>
-      <c r="V33" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="34" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E34">
-        <v>182.08</v>
+        <v>74.89</v>
       </c>
       <c r="F34">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="G34" s="10">
         <f>1-(F34/E34)</f>
-        <v>0.30799648506151145</v>
-      </c>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
+        <v>0.30564828415008682</v>
+      </c>
+      <c r="N34">
+        <v>6769.84</v>
+      </c>
+      <c r="O34">
+        <v>74.459999999999994</v>
+      </c>
       <c r="P34" s="5">
-        <f>P33-K27</f>
-        <v>1547.28712</v>
-      </c>
-      <c r="R34" s="5"/>
+        <v>6695.38</v>
+      </c>
+      <c r="S34" s="10"/>
+      <c r="T34" t="s">
+        <v>69</v>
+      </c>
+      <c r="U34" s="3">
+        <f>(U33/U32)-1</f>
+        <v>0.4463636363636363</v>
+      </c>
+      <c r="V34" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="35" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E35">
-        <v>93.54</v>
+        <v>182.08</v>
       </c>
       <c r="F35">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="G35" s="10">
         <f>1-(F35/E35)</f>
-        <v>0.30511011332050464</v>
-      </c>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
+        <v>0.30799648506151145</v>
+      </c>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="P35" s="56">
-        <f>P34*0.1</f>
-        <v>154.728712</v>
-      </c>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5">
+        <f>P34-K28</f>
+        <v>1547.28712</v>
+      </c>
+      <c r="R35" s="5"/>
     </row>
     <row r="36" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>109</v>
+      <c r="D36" t="s">
+        <v>65</v>
       </c>
       <c r="E36">
-        <v>20</v>
+        <v>93.54</v>
       </c>
       <c r="F36">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="G36" s="10">
         <f>1-(F36/E36)</f>
+        <v>0.30511011332050464</v>
+      </c>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="5"/>
+      <c r="P36" s="56">
+        <f>P35*0.1</f>
+        <v>154.728712</v>
+      </c>
+    </row>
+    <row r="37" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37">
+        <v>20</v>
+      </c>
+      <c r="F37">
+        <v>14</v>
+      </c>
+      <c r="G37" s="10">
+        <f>1-(F37/E37)</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="P36" s="56">
-        <f>P34-P35</f>
+      <c r="P37" s="56">
+        <f>P35-P36</f>
         <v>1392.5584079999999</v>
       </c>
-      <c r="R36" s="43"/>
-    </row>
-    <row r="37" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="F37" s="5"/>
-      <c r="R37" s="9"/>
+      <c r="R37" s="43"/>
     </row>
     <row r="38" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="R38" s="45"/>
+      <c r="F38" s="5"/>
+      <c r="R38" s="9"/>
     </row>
     <row r="39" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="R39" s="50"/>
-      <c r="S39" s="48"/>
-      <c r="T39" s="5"/>
-    </row>
-    <row r="40" spans="3:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F40" s="5"/>
-      <c r="R40" s="57"/>
-      <c r="S40" s="49"/>
+      <c r="R39" s="45"/>
+    </row>
+    <row r="40" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="R40" s="50"/>
+      <c r="S40" s="48"/>
       <c r="T40" s="5"/>
     </row>
-    <row r="41" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="E41" s="5"/>
+    <row r="41" spans="3:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F41" s="5"/>
-      <c r="R41" s="45"/>
+      <c r="R41" s="57"/>
+      <c r="S41" s="49"/>
+      <c r="T41" s="5"/>
     </row>
     <row r="42" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="T42" s="5"/>
+      <c r="R42" s="45"/>
     </row>
     <row r="43" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="R43" s="43"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="T43" s="5"/>
     </row>
     <row r="44" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="R44" s="44"/>
+      <c r="R44" s="43"/>
     </row>
     <row r="45" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="R45" s="57"/>
+      <c r="R45" s="44"/>
+    </row>
+    <row r="46" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="R46" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3430,7 +3472,7 @@
   <dimension ref="A2:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3460,12 +3502,12 @@
         <v>75</v>
       </c>
       <c r="B3" s="56">
-        <f>816.38+B11</f>
-        <v>5908.46</v>
+        <f>790.51+B11</f>
+        <v>5882.59</v>
       </c>
       <c r="C3" s="3">
         <f>B3/B$6</f>
-        <v>0.80022916085412532</v>
+        <v>0.79952674720934436</v>
       </c>
       <c r="D3" s="56">
         <f>D$6*C3</f>
@@ -3482,7 +3524,7 @@
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C5" si="0">B4/B$6</f>
-        <v>0.16252542845766077</v>
+        <v>0.1630968836262961</v>
       </c>
       <c r="D4" s="56">
         <f t="shared" ref="D4:D5" si="1">D$6*C4</f>
@@ -3498,7 +3540,7 @@
       </c>
       <c r="C5" s="3">
         <f t="shared" si="0"/>
-        <v>3.724541068821393E-2</v>
+        <v>3.7376369164359526E-2</v>
       </c>
       <c r="D5" s="56">
         <f t="shared" si="1"/>
@@ -3511,11 +3553,11 @@
       </c>
       <c r="B6" s="56">
         <f>SUM(B3:B5)</f>
-        <v>7383.46</v>
+        <v>7357.59</v>
       </c>
       <c r="C6" s="3">
         <f>SUM(C3:C5)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D6" s="56">
         <v>0</v>
@@ -3538,7 +3580,7 @@
       </c>
       <c r="B12" s="56">
         <f>B6-B11</f>
-        <v>2291.38</v>
+        <v>2265.5100000000002</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">

--- a/2019/Inversiones.xlsx
+++ b/2019/Inversiones.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB99573-0A71-45B6-9227-2148B9E625FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630239ED-BE97-41C9-816F-9207B91B8E0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Operacion 1" sheetId="1" r:id="rId1"/>
@@ -1891,7 +1891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2192,8 +2192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView topLeftCell="G19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView tabSelected="1" topLeftCell="H19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3287,7 +3287,7 @@
         <v>70</v>
       </c>
       <c r="U32">
-        <v>22</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="33" spans="3:22" x14ac:dyDescent="0.25">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="U34" s="3">
         <f>(U33/U32)-1</f>
-        <v>0.4463636363636363</v>
+        <v>0.35404255319148947</v>
       </c>
       <c r="V34" t="s">
         <v>83</v>
@@ -3471,8 +3471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2019/Inversiones.xlsx
+++ b/2019/Inversiones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630239ED-BE97-41C9-816F-9207B91B8E0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BF2ED4-6303-4053-8430-14C7744401DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2193,7 +2193,7 @@
   <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U33" sqref="U33"/>
+      <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3287,7 +3287,7 @@
         <v>70</v>
       </c>
       <c r="U32">
-        <v>23.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="3:22" x14ac:dyDescent="0.25">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="U34" s="3">
         <f>(U33/U32)-1</f>
-        <v>0.35404255319148947</v>
+        <v>0.32583333333333342</v>
       </c>
       <c r="V34" t="s">
         <v>83</v>
@@ -3472,7 +3472,7 @@
   <dimension ref="A2:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2019/Inversiones.xlsx
+++ b/2019/Inversiones.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BF2ED4-6303-4053-8430-14C7744401DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B397C827-206B-46E8-B341-9A04F2AE7278}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Operacion 1" sheetId="1" r:id="rId1"/>
@@ -426,10 +426,10 @@
     <t>Dinero Bloqueado</t>
   </si>
   <si>
-    <t>Hasta 31 Diciembre</t>
-  </si>
-  <si>
     <t>Custodia de acciones  ITX.MC</t>
+  </si>
+  <si>
+    <t>Hasta 30 de Abril</t>
   </si>
 </sst>
 </file>
@@ -1891,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2012,7 +2012,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="5">
-        <v>31.82</v>
+        <v>30.56</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>34</v>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="B7" s="3">
         <f>(B6/B4)-1</f>
-        <v>0.22478829869130101</v>
+        <v>0.17628945342571201</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>37</v>
@@ -2192,8 +2192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
+    <sheetView topLeftCell="H16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="S21" s="10"/>
       <c r="T21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -3195,11 +3195,11 @@
       </c>
       <c r="F28" s="9">
         <f>'Operacion 3'!B$6</f>
-        <v>31.82</v>
+        <v>30.56</v>
       </c>
       <c r="G28" s="10">
         <f>'Operacion 3'!B$7</f>
-        <v>0.22478829869130101</v>
+        <v>0.17628945342571201</v>
       </c>
       <c r="H28" s="9">
         <f t="shared" si="2"/>
@@ -3219,35 +3219,35 @@
       </c>
       <c r="L28" s="9">
         <f t="shared" si="4"/>
-        <v>6236.72</v>
+        <v>5989.7599999999993</v>
       </c>
       <c r="M28" s="9">
         <f>IF((L28*(0.0075+0.0008))&lt;30,-30,-(L28*(0.0075+0.0008)))</f>
-        <v>-51.764776000000005</v>
+        <v>-49.715007999999997</v>
       </c>
       <c r="N28" s="9">
         <f>-(L28*0.0027)</f>
-        <v>-16.839144000000001</v>
+        <v>-16.172352</v>
       </c>
       <c r="O28" s="9">
         <f t="shared" si="5"/>
-        <v>6168.1160800000007</v>
+        <v>5923.8726399999996</v>
       </c>
       <c r="P28" s="9">
         <f t="shared" si="6"/>
-        <v>94.029040000000009</v>
+        <v>91.979271999999995</v>
       </c>
       <c r="Q28" s="9">
         <f t="shared" si="7"/>
-        <v>30.587760000000003</v>
+        <v>29.920968000000002</v>
       </c>
       <c r="R28" s="9">
         <f>O28-K28</f>
-        <v>1020.0232000000005</v>
+        <v>775.77975999999944</v>
       </c>
       <c r="S28" s="10">
         <f>R28/K28</f>
-        <v>0.19813612997596122</v>
+        <v>0.15069265028489529</v>
       </c>
       <c r="T28" t="s">
         <v>58</v>
@@ -3259,7 +3259,11 @@
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="R29" s="56">
         <f>R28+SUM(R19:R21)</f>
-        <v>1068.4132000000004</v>
+        <v>824.16975999999943</v>
+      </c>
+      <c r="S29" s="10">
+        <f>R29/K28</f>
+        <v>0.16009224759752186</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -3305,10 +3309,10 @@
         <v>68</v>
       </c>
       <c r="U33">
-        <v>31.82</v>
+        <v>30.56</v>
       </c>
       <c r="V33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="3:22" x14ac:dyDescent="0.25">
@@ -3340,7 +3344,7 @@
       </c>
       <c r="U34" s="3">
         <f>(U33/U32)-1</f>
-        <v>0.32583333333333342</v>
+        <v>0.27333333333333321</v>
       </c>
       <c r="V34" t="s">
         <v>83</v>
@@ -3471,8 +3475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2019/Inversiones.xlsx
+++ b/2019/Inversiones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B397C827-206B-46E8-B341-9A04F2AE7278}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9C4E87-8CFC-4C3A-A891-7A5935A75E48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3476,7 +3476,7 @@
   <dimension ref="A2:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3506,12 +3506,12 @@
         <v>75</v>
       </c>
       <c r="B3" s="56">
-        <f>790.51+B11</f>
-        <v>5882.59</v>
+        <f>820.51+B11</f>
+        <v>5912.59</v>
       </c>
       <c r="C3" s="3">
         <f>B3/B$6</f>
-        <v>0.79952674720934436</v>
+        <v>0.79549524459172372</v>
       </c>
       <c r="D3" s="56">
         <f>D$6*C3</f>
@@ -3523,12 +3523,12 @@
         <v>79</v>
       </c>
       <c r="B4" s="56">
-        <f>1200</f>
-        <v>1200</v>
+        <f>1220</f>
+        <v>1220</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C5" si="0">B4/B$6</f>
-        <v>0.1630968836262961</v>
+        <v>0.16414197473559014</v>
       </c>
       <c r="D4" s="56">
         <f t="shared" ref="D4:D5" si="1">D$6*C4</f>
@@ -3540,11 +3540,11 @@
         <v>80</v>
       </c>
       <c r="B5" s="56">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" si="0"/>
-        <v>3.7376369164359526E-2</v>
+        <v>4.0362780672686102E-2</v>
       </c>
       <c r="D5" s="56">
         <f t="shared" si="1"/>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="B6" s="56">
         <f>SUM(B3:B5)</f>
-        <v>7357.59</v>
+        <v>7432.59</v>
       </c>
       <c r="C6" s="3">
         <f>SUM(C3:C5)</f>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="B12" s="56">
         <f>B6-B11</f>
-        <v>2265.5100000000002</v>
+        <v>2340.5100000000002</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">

--- a/2019/Inversiones.xlsx
+++ b/2019/Inversiones.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9C4E87-8CFC-4C3A-A891-7A5935A75E48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D3EC17-DC57-4F94-9426-4AE0CA380454}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Operacion 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="120">
   <si>
     <t>% =</t>
   </si>
@@ -414,9 +414,6 @@
     <t>OPERACION 1 (BE,NL)</t>
   </si>
   <si>
-    <t>Dinero no bloqueado</t>
-  </si>
-  <si>
     <t>4. Bajada especulativa: Muchas opciones de venta PUT (&gt; 1%)</t>
   </si>
   <si>
@@ -426,10 +423,19 @@
     <t>Dinero Bloqueado</t>
   </si>
   <si>
-    <t>Custodia de acciones  ITX.MC</t>
-  </si>
-  <si>
     <t>Hasta 30 de Abril</t>
+  </si>
+  <si>
+    <t>7. Que no reparta dividendos o lo haga en acciones que no se sea ampliacion de capital</t>
+  </si>
+  <si>
+    <t>Custodia de acciones  ITX.MC Enero/2019</t>
+  </si>
+  <si>
+    <t>Custodia de acciones  ITX.MC 2018</t>
+  </si>
+  <si>
+    <t>Coche</t>
   </si>
 </sst>
 </file>
@@ -1606,7 +1612,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,7 +1630,7 @@
         <v>32</v>
       </c>
       <c r="B1" s="5">
-        <v>2000</v>
+        <v>4100</v>
       </c>
       <c r="D1" s="63" t="s">
         <v>1</v>
@@ -1659,7 +1665,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>3</v>
@@ -1680,7 +1686,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="5">
-        <v>49.94</v>
+        <v>67.92</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>4</v>
@@ -1703,7 +1709,7 @@
       </c>
       <c r="B5" s="32">
         <f>TRUNC(B1/B4)</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>5</v>
@@ -1726,7 +1732,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="5">
-        <v>57</v>
+        <v>76.849999999999994</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>34</v>
@@ -1742,7 +1748,7 @@
       </c>
       <c r="B7" s="3">
         <f>(B6/B4)-1</f>
-        <v>0.14136964357228687</v>
+        <v>0.1314782096584215</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>37</v>
@@ -1794,7 +1800,7 @@
       </c>
       <c r="B12" s="5">
         <f>(B4*0.1155)+B4</f>
-        <v>55.708069999999999</v>
+        <v>75.764759999999995</v>
       </c>
       <c r="D12" s="40" t="s">
         <v>10</v>
@@ -2012,7 +2018,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="5">
-        <v>30.56</v>
+        <v>30.57</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>34</v>
@@ -2028,7 +2034,7 @@
       </c>
       <c r="B7" s="3">
         <f>(B6/B4)-1</f>
-        <v>0.17628945342571201</v>
+        <v>0.1766743648960738</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>37</v>
@@ -2190,10 +2196,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:V46"/>
+  <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView topLeftCell="H16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U34" sqref="U34"/>
+    <sheetView tabSelected="1" topLeftCell="H19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2934,7 +2940,7 @@
       </c>
       <c r="S21" s="10"/>
       <c r="T21" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -2955,510 +2961,549 @@
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
+      <c r="R22" s="9">
+        <v>-2.1800000000000002</v>
+      </c>
       <c r="S22" s="10"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H24" s="15">
-        <f t="shared" ref="H24:O24" si="0">SUM(H3:H23)</f>
+      <c r="T22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="10"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H25" s="15">
+        <f t="shared" ref="H25:O25" si="0">SUM(H3:H24)</f>
         <v>17571.839999999997</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I25" s="15">
         <f t="shared" si="0"/>
         <v>42.26</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J25" s="15">
         <f t="shared" si="0"/>
         <v>13.75</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K25" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L24" s="15">
+      <c r="L25" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M24" s="15">
+      <c r="M25" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N24" s="15">
+      <c r="N25" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O24" s="15">
+      <c r="O25" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R24" s="15">
-        <f>SUM(R3:R23)</f>
-        <v>3227.3456679999995</v>
-      </c>
-      <c r="S24" s="16">
-        <f>SUM(S3:S23)</f>
+      <c r="R25" s="15">
+        <f>SUM(R3:R24)</f>
+        <v>3225.1656679999996</v>
+      </c>
+      <c r="S25" s="16">
+        <f>SUM(S3:S24)</f>
         <v>3.7548916419551364</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="51"/>
-    </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="str">
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26">
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="39" t="str">
         <f>'Operacion 1'!B$3</f>
         <v>ABI.BR</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B27" s="8">
         <f>'Operacion 1'!B$2</f>
         <v>42234</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="14">
+      <c r="C27" s="8"/>
+      <c r="D27" s="14">
         <f>'Operacion 1'!B$5</f>
         <v>62</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E27" s="9">
         <f>'Operacion 1'!B$4</f>
         <v>89</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F27" s="9">
         <f>'Operacion 1'!B$6</f>
         <v>120</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G27" s="10">
         <f>'Operacion 1'!B$7</f>
         <v>0.348314606741573</v>
       </c>
-      <c r="H26" s="9">
-        <f>(E26*D26)</f>
+      <c r="H27" s="9">
+        <f>(E27*D27)</f>
         <v>5518</v>
       </c>
-      <c r="I26" s="9">
-        <f>IF((H26*0.005)&lt;20,20,(H26*0.005))</f>
+      <c r="I27" s="9">
+        <f>IF((H27*0.005)&lt;20,20,(H27*0.005))</f>
         <v>27.59</v>
       </c>
-      <c r="J26" s="9">
-        <f>SUM(H26:I26)*0.0027</f>
+      <c r="J27" s="9">
+        <f>SUM(H27:I27)*0.0027</f>
         <v>14.973093</v>
       </c>
-      <c r="K26" s="9">
-        <f>SUM(H26:J26)</f>
+      <c r="K27" s="9">
+        <f>SUM(H27:J27)</f>
         <v>5560.5630929999998</v>
       </c>
-      <c r="L26" s="9">
-        <f>D26*F26</f>
+      <c r="L27" s="9">
+        <f>D27*F27</f>
         <v>7440</v>
       </c>
-      <c r="M26" s="9">
-        <f>IF((L26*0.005)&lt;20,-20,-(L26*0.005))</f>
+      <c r="M27" s="9">
+        <f>IF((L27*0.005)&lt;20,-20,-(L27*0.005))</f>
         <v>-37.200000000000003</v>
       </c>
-      <c r="N26" s="9">
-        <f>-(SUM(L26:M26)*0.0027)</f>
+      <c r="N27" s="9">
+        <f>-(SUM(L27:M27)*0.0027)</f>
         <v>-19.987560000000002</v>
       </c>
-      <c r="O26" s="9">
-        <f>SUM(L26:N26)</f>
+      <c r="O27" s="9">
+        <f>SUM(L27:N27)</f>
         <v>7382.8124400000006</v>
       </c>
-      <c r="P26" s="9">
-        <f>I26-M26</f>
+      <c r="P27" s="9">
+        <f>I27-M27</f>
         <v>64.790000000000006</v>
       </c>
-      <c r="Q26" s="9">
-        <f>J26-N26</f>
+      <c r="Q27" s="9">
+        <f>J27-N27</f>
         <v>34.960653000000001</v>
       </c>
-      <c r="R26" s="9">
-        <f t="shared" ref="R26:R27" si="1">O26-K26</f>
+      <c r="R27" s="9">
+        <f t="shared" ref="R27:R28" si="1">O27-K27</f>
         <v>1822.2493470000009</v>
       </c>
-      <c r="S26" s="10">
-        <f>R26/K26</f>
+      <c r="S27" s="10">
+        <f>R27/K27</f>
         <v>0.32770949929404947</v>
       </c>
-      <c r="T26" t="s">
+      <c r="T27" t="s">
         <v>111</v>
       </c>
-      <c r="U26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="str">
+      <c r="U27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="39" t="str">
         <f>'Operacion 2'!B$3</f>
-        <v>DAI.DE</v>
-      </c>
-      <c r="B27" s="8">
+        <v>BMV.DE</v>
+      </c>
+      <c r="B28" s="8">
         <f>'Operacion 2'!B$2</f>
         <v>42471</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="14">
+      <c r="C28" s="8"/>
+      <c r="D28" s="14">
         <f>'Operacion 2'!B$5</f>
-        <v>40</v>
-      </c>
-      <c r="E27" s="9">
+        <v>60</v>
+      </c>
+      <c r="E28" s="9">
         <f>'Operacion 2'!B$4</f>
-        <v>49.94</v>
-      </c>
-      <c r="F27" s="9">
+        <v>67.92</v>
+      </c>
+      <c r="F28" s="9">
         <f>'Operacion 2'!B$6</f>
-        <v>57</v>
-      </c>
-      <c r="G27" s="10">
+        <v>76.849999999999994</v>
+      </c>
+      <c r="G28" s="10">
         <f>'Operacion 2'!B$7</f>
-        <v>0.14136964357228687</v>
-      </c>
-      <c r="H27" s="9">
-        <f t="shared" ref="H27:H28" si="2">E27*D27</f>
-        <v>1997.6</v>
-      </c>
-      <c r="I27" s="9">
-        <f>IF((H27*0.0075)&lt;30,30,(H27*0.0075))</f>
-        <v>30</v>
-      </c>
-      <c r="J27" s="9">
-        <f>H27*0.0027</f>
-        <v>5.3935199999999996</v>
-      </c>
-      <c r="K27" s="9">
-        <f t="shared" ref="K27:K28" si="3">SUM(H27:J27)</f>
-        <v>2032.99352</v>
-      </c>
-      <c r="L27" s="9">
-        <f t="shared" ref="L27:L28" si="4">D27*F27</f>
-        <v>2280</v>
-      </c>
-      <c r="M27" s="9">
-        <f>IF((L27*0.0075)&lt;30,-30,-(L27*0.0075))</f>
-        <v>-30</v>
-      </c>
-      <c r="N27" s="9">
-        <f>-(L27*0.0027)</f>
-        <v>-6.1560000000000006</v>
-      </c>
-      <c r="O27" s="9">
-        <f t="shared" ref="O27:O28" si="5">SUM(L27:N27)</f>
-        <v>2243.8440000000001</v>
-      </c>
-      <c r="P27" s="9">
-        <f t="shared" ref="P27:P28" si="6">I27-M27</f>
-        <v>60</v>
-      </c>
-      <c r="Q27" s="9">
-        <f t="shared" ref="Q27:Q28" si="7">J27-N27</f>
-        <v>11.549520000000001</v>
-      </c>
-      <c r="R27" s="9">
+        <v>0.1314782096584215</v>
+      </c>
+      <c r="H28" s="9">
+        <f t="shared" ref="H28:H29" si="2">E28*D28</f>
+        <v>4075.2000000000003</v>
+      </c>
+      <c r="I28" s="9">
+        <f>IF((H28*(0.0075+0.0008))&lt;30,30,(H28*(0.0075+0.0008)))</f>
+        <v>33.824159999999999</v>
+      </c>
+      <c r="J28" s="9">
+        <f>H28*0.0035</f>
+        <v>14.263200000000001</v>
+      </c>
+      <c r="K28" s="9">
+        <f t="shared" ref="K28:K29" si="3">SUM(H28:J28)</f>
+        <v>4123.2873600000003</v>
+      </c>
+      <c r="L28" s="9">
+        <f t="shared" ref="L28:L29" si="4">D28*F28</f>
+        <v>4611</v>
+      </c>
+      <c r="M28" s="9">
+        <f>IF((L28*(0.0075+0.0008))&lt;30,-30,-(L28*(0.0075+0.0008)))</f>
+        <v>-38.271300000000004</v>
+      </c>
+      <c r="N28" s="9">
+        <f>-(L28*0.0035)</f>
+        <v>-16.138500000000001</v>
+      </c>
+      <c r="O28" s="9">
+        <f t="shared" ref="O28:O29" si="5">SUM(L28:N28)</f>
+        <v>4556.5901999999996</v>
+      </c>
+      <c r="P28" s="9">
+        <f t="shared" ref="P28:P29" si="6">I28-M28</f>
+        <v>72.095460000000003</v>
+      </c>
+      <c r="Q28" s="9">
+        <f t="shared" ref="Q28:Q29" si="7">J28-N28</f>
+        <v>30.401700000000002</v>
+      </c>
+      <c r="R28" s="9">
         <f t="shared" si="1"/>
-        <v>210.85048000000006</v>
-      </c>
-      <c r="S27" s="10">
-        <f t="shared" ref="S27" si="8">R27/K27</f>
-        <v>0.10371429024525373</v>
-      </c>
-      <c r="T27" t="s">
+        <v>433.30283999999938</v>
+      </c>
+      <c r="S28" s="10">
+        <f t="shared" ref="S28" si="8">R28/K28</f>
+        <v>0.10508674321452079</v>
+      </c>
+      <c r="T28" t="s">
         <v>110</v>
       </c>
-      <c r="U27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="str">
+      <c r="U28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="39" t="str">
         <f>'Operacion 3'!B3</f>
         <v>ITX.MC</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B29" s="8">
         <f>'Operacion 3'!B$2</f>
         <v>43154</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="14">
+      <c r="C29" s="8"/>
+      <c r="D29" s="14">
         <f>'Operacion 3'!B$5</f>
         <v>196</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E29" s="9">
         <f>'Operacion 3'!B$4</f>
         <v>25.98</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F29" s="9">
         <f>'Operacion 3'!B$6</f>
-        <v>30.56</v>
-      </c>
-      <c r="G28" s="10">
+        <v>30.57</v>
+      </c>
+      <c r="G29" s="10">
         <f>'Operacion 3'!B$7</f>
-        <v>0.17628945342571201</v>
-      </c>
-      <c r="H28" s="9">
+        <v>0.1766743648960738</v>
+      </c>
+      <c r="H29" s="9">
         <f t="shared" si="2"/>
         <v>5092.08</v>
       </c>
-      <c r="I28" s="9">
-        <f>IF((H28*(0.0075+0.0008))&lt;30,30,(H28*(0.0075+0.0008)))</f>
+      <c r="I29" s="9">
+        <f>IF((H29*(0.0075+0.0008))&lt;30,30,(H29*(0.0075+0.0008)))</f>
         <v>42.264263999999997</v>
       </c>
-      <c r="J28" s="9">
-        <f>H28*0.0027</f>
+      <c r="J29" s="9">
+        <f>H29*0.0027</f>
         <v>13.748616</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K29" s="9">
         <f t="shared" si="3"/>
         <v>5148.0928800000002</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L29" s="9">
         <f t="shared" si="4"/>
-        <v>5989.7599999999993</v>
-      </c>
-      <c r="M28" s="9">
-        <f>IF((L28*(0.0075+0.0008))&lt;30,-30,-(L28*(0.0075+0.0008)))</f>
-        <v>-49.715007999999997</v>
-      </c>
-      <c r="N28" s="9">
-        <f>-(L28*0.0027)</f>
-        <v>-16.172352</v>
-      </c>
-      <c r="O28" s="9">
+        <v>5991.72</v>
+      </c>
+      <c r="M29" s="9">
+        <f>IF((L29*(0.0075+0.0008))&lt;30,-30,-(L29*(0.0075+0.0008)))</f>
+        <v>-49.731276000000001</v>
+      </c>
+      <c r="N29" s="9">
+        <f>-(L29*0.0035)</f>
+        <v>-20.971020000000003</v>
+      </c>
+      <c r="O29" s="9">
         <f t="shared" si="5"/>
-        <v>5923.8726399999996</v>
-      </c>
-      <c r="P28" s="9">
+        <v>5921.0177039999999</v>
+      </c>
+      <c r="P29" s="9">
         <f t="shared" si="6"/>
-        <v>91.979271999999995</v>
-      </c>
-      <c r="Q28" s="9">
+        <v>91.995540000000005</v>
+      </c>
+      <c r="Q29" s="9">
         <f t="shared" si="7"/>
-        <v>29.920968000000002</v>
-      </c>
-      <c r="R28" s="9">
-        <f>O28-K28</f>
-        <v>775.77975999999944</v>
-      </c>
-      <c r="S28" s="10">
-        <f>R28/K28</f>
-        <v>0.15069265028489529</v>
-      </c>
-      <c r="T28" t="s">
+        <v>34.719636000000001</v>
+      </c>
+      <c r="R29" s="9">
+        <f>O29-K29</f>
+        <v>772.92482399999972</v>
+      </c>
+      <c r="S29" s="10">
+        <f>R29/K29</f>
+        <v>0.1501380884177054</v>
+      </c>
+      <c r="T29" t="s">
         <v>58</v>
       </c>
-      <c r="U28" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="R29" s="56">
-        <f>R28+SUM(R19:R21)</f>
-        <v>824.16975999999943</v>
-      </c>
-      <c r="S29" s="10">
-        <f>R29/K28</f>
-        <v>0.16009224759752186</v>
+      <c r="U29" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D30" s="48"/>
-      <c r="H30" s="48" t="s">
+      <c r="R30" s="56">
+        <f>R29+SUM(R19:R22)</f>
+        <v>819.13482399999975</v>
+      </c>
+      <c r="S30" s="10">
+        <f>R30/K29</f>
+        <v>0.15911422794687413</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D31" s="48"/>
+      <c r="H31" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48" t="s">
+      <c r="I31" s="48"/>
+      <c r="J31" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="R30" s="48"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F31" s="5"/>
-      <c r="G31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="R31" s="48"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="T32" t="s">
+      <c r="F32" s="5"/>
+      <c r="G32" s="48"/>
+    </row>
+    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="T33" t="s">
         <v>70</v>
       </c>
-      <c r="U32">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="T33" t="s">
+      <c r="U33">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="T34" t="s">
         <v>68</v>
       </c>
-      <c r="U33">
+      <c r="U34">
         <v>30.56</v>
       </c>
-      <c r="V33" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34">
-        <v>74.89</v>
-      </c>
-      <c r="F34">
-        <v>52</v>
-      </c>
-      <c r="G34" s="10">
-        <f>1-(F34/E34)</f>
-        <v>0.30564828415008682</v>
-      </c>
-      <c r="N34">
-        <v>6769.84</v>
-      </c>
-      <c r="O34">
-        <v>74.459999999999994</v>
-      </c>
-      <c r="P34" s="5">
-        <v>6695.38</v>
-      </c>
-      <c r="S34" s="10"/>
-      <c r="T34" t="s">
-        <v>69</v>
-      </c>
-      <c r="U34" s="3">
-        <f>(U33/U32)-1</f>
-        <v>0.27333333333333321</v>
-      </c>
       <c r="V34" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E35">
-        <v>182.08</v>
+        <v>74.89</v>
       </c>
       <c r="F35">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="G35" s="10">
         <f>1-(F35/E35)</f>
-        <v>0.30799648506151145</v>
-      </c>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
+        <v>0.30564828415008682</v>
+      </c>
+      <c r="N35">
+        <v>6769.84</v>
+      </c>
+      <c r="O35">
+        <v>74.459999999999994</v>
+      </c>
       <c r="P35" s="5">
-        <f>P34-K28</f>
-        <v>1547.28712</v>
-      </c>
-      <c r="R35" s="5"/>
+        <v>6695.38</v>
+      </c>
+      <c r="S35" s="10"/>
+      <c r="T35" t="s">
+        <v>69</v>
+      </c>
+      <c r="U35" s="3">
+        <f>(U34/U33)-1</f>
+        <v>0.24734693877551006</v>
+      </c>
+      <c r="V35" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="36" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E36">
-        <v>93.54</v>
+        <v>182.08</v>
       </c>
       <c r="F36">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="G36" s="10">
         <f>1-(F36/E36)</f>
-        <v>0.30511011332050464</v>
-      </c>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
+        <v>0.30799648506151145</v>
+      </c>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="P36" s="56">
-        <f>P35*0.1</f>
-        <v>154.728712</v>
-      </c>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5">
+        <f>P35-K29</f>
+        <v>1547.28712</v>
+      </c>
+      <c r="R36" s="5"/>
     </row>
     <row r="37" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>109</v>
+      <c r="D37" t="s">
+        <v>65</v>
       </c>
       <c r="E37">
-        <v>20</v>
+        <v>93.54</v>
       </c>
       <c r="F37">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="G37" s="10">
         <f>1-(F37/E37)</f>
+        <v>0.30511011332050464</v>
+      </c>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="5"/>
+      <c r="P37" s="56">
+        <f>P36*0.1</f>
+        <v>154.728712</v>
+      </c>
+    </row>
+    <row r="38" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38">
+        <v>20</v>
+      </c>
+      <c r="F38">
+        <v>14</v>
+      </c>
+      <c r="G38" s="10">
+        <f>1-(F38/E38)</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="P37" s="56">
-        <f>P35-P36</f>
+      <c r="P38" s="56">
+        <f>P36-P37</f>
         <v>1392.5584079999999</v>
       </c>
-      <c r="R37" s="43"/>
-    </row>
-    <row r="38" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="F38" s="5"/>
-      <c r="R38" s="9"/>
+      <c r="R38" s="43"/>
     </row>
     <row r="39" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="R39" s="45"/>
+      <c r="F39" s="5"/>
+      <c r="R39" s="9"/>
+      <c r="S39">
+        <f>(0.00242*12)</f>
+        <v>2.9039999999999996E-2</v>
+      </c>
     </row>
     <row r="40" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="R40" s="50"/>
-      <c r="S40" s="48"/>
-      <c r="T40" s="5"/>
-    </row>
-    <row r="41" spans="3:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F41" s="5"/>
-      <c r="R41" s="57"/>
-      <c r="S41" s="49"/>
+      <c r="O40" s="9"/>
+      <c r="R40" s="45"/>
+      <c r="S40">
+        <f>4700*S39</f>
+        <v>136.48799999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="P41" s="3"/>
+      <c r="R41" s="50"/>
+      <c r="S41" s="48"/>
       <c r="T41" s="5"/>
     </row>
-    <row r="42" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="E42" s="5"/>
+    <row r="42" spans="3:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F42" s="5"/>
-      <c r="R42" s="45"/>
+      <c r="R42" s="57"/>
+      <c r="S42" s="49"/>
+      <c r="T42" s="5"/>
     </row>
     <row r="43" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="T43" s="5"/>
+      <c r="R43" s="45"/>
     </row>
     <row r="44" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="R44" s="43"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="T44" s="5"/>
     </row>
     <row r="45" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="R45" s="44"/>
+      <c r="R45" s="43"/>
     </row>
     <row r="46" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="R46" s="57"/>
+      <c r="R46" s="44"/>
+    </row>
+    <row r="47" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="R47" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3475,8 +3520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3506,15 +3551,15 @@
         <v>75</v>
       </c>
       <c r="B3" s="56">
-        <f>820.51+B11</f>
-        <v>5912.59</v>
+        <f>838.33</f>
+        <v>838.33</v>
       </c>
       <c r="C3" s="3">
-        <f>B3/B$6</f>
-        <v>0.79549524459172372</v>
+        <f>B3/B$7</f>
+        <v>0.2045540500642945</v>
       </c>
       <c r="D3" s="56">
-        <f>D$6*C3</f>
+        <f>D$7*C3</f>
         <v>0</v>
       </c>
     </row>
@@ -3527,11 +3572,11 @@
         <v>1220</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" ref="C4:C5" si="0">B4/B$6</f>
-        <v>0.16414197473559014</v>
+        <f t="shared" ref="C4:C6" si="0">B4/B$7</f>
+        <v>0.29768222666305544</v>
       </c>
       <c r="D4" s="56">
-        <f t="shared" ref="D4:D5" si="1">D$6*C4</f>
+        <f t="shared" ref="D4:D6" si="1">D$7*C4</f>
         <v>0</v>
       </c>
     </row>
@@ -3544,7 +3589,7 @@
       </c>
       <c r="C5" s="3">
         <f t="shared" si="0"/>
-        <v>4.0362780672686102E-2</v>
+        <v>7.3200547540095598E-2</v>
       </c>
       <c r="D5" s="56">
         <f t="shared" si="1"/>
@@ -3553,26 +3598,42 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="56">
+        <v>1740</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.42456317573255448</v>
+      </c>
+      <c r="D6" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="56">
-        <f>SUM(B3:B5)</f>
-        <v>7432.59</v>
-      </c>
-      <c r="C6" s="3">
-        <f>SUM(C3:C5)</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="D6" s="56">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B7" s="56">
+        <f>SUM(B3:B6)</f>
+        <v>4098.33</v>
+      </c>
+      <c r="C7" s="3">
+        <f>SUM(C4:C6)</f>
+        <v>0.7954459499357055</v>
+      </c>
+      <c r="D7" s="56">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" s="56">
         <v>5092.08</v>
@@ -3580,11 +3641,11 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="B12" s="56">
-        <f>B6-B11</f>
-        <v>2340.5100000000002</v>
+        <f>B7+B11</f>
+        <v>9190.41</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
@@ -3604,7 +3665,7 @@
   <dimension ref="A2:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3636,7 +3697,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3647,6 +3708,11 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">

--- a/2019/Inversiones.xlsx
+++ b/2019/Inversiones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D3EC17-DC57-4F94-9426-4AE0CA380454}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FA4E63-4027-4ED5-8891-4FB5958AAD51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1611,8 +1611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1898,7 +1898,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2198,8 +2198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U35" sqref="U35"/>
+    <sheetView tabSelected="1" topLeftCell="H25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3326,7 +3326,7 @@
         <v>70</v>
       </c>
       <c r="U33">
-        <v>24.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="3:22" x14ac:dyDescent="0.25">
@@ -3344,7 +3344,7 @@
         <v>68</v>
       </c>
       <c r="U34">
-        <v>30.56</v>
+        <v>30.57</v>
       </c>
       <c r="V34" t="s">
         <v>115</v>
@@ -3379,7 +3379,7 @@
       </c>
       <c r="U35" s="3">
         <f>(U34/U33)-1</f>
-        <v>0.24734693877551006</v>
+        <v>0.27374999999999994</v>
       </c>
       <c r="V35" t="s">
         <v>83</v>

--- a/2019/Inversiones.xlsx
+++ b/2019/Inversiones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FA4E63-4027-4ED5-8891-4FB5958AAD51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EE8E3C-ADC1-4E93-A666-B587BEDE8CEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="122">
   <si>
     <t>% =</t>
   </si>
@@ -436,6 +436,12 @@
   </si>
   <si>
     <t>Coche</t>
+  </si>
+  <si>
+    <t>Entre 25 y 27.5</t>
+  </si>
+  <si>
+    <t>Inditex</t>
   </si>
 </sst>
 </file>
@@ -1611,8 +1617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1672,7 +1678,7 @@
       </c>
       <c r="E3" s="24">
         <f>IF(B$7 &gt;= 0.11,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="17" t="s">
         <v>25</v>
@@ -1686,7 +1692,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="5">
-        <v>67.92</v>
+        <v>67.52</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>4</v>
@@ -1732,7 +1738,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="5">
-        <v>76.849999999999994</v>
+        <v>74.52</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>34</v>
@@ -1748,7 +1754,7 @@
       </c>
       <c r="B7" s="3">
         <f>(B6/B4)-1</f>
-        <v>0.1314782096584215</v>
+        <v>0.10367298578199047</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>37</v>
@@ -1791,7 +1797,7 @@
       </c>
       <c r="E11" s="22">
         <f ca="1">SUM(E3:E10)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1800,7 +1806,7 @@
       </c>
       <c r="B12" s="5">
         <f>(B4*0.1155)+B4</f>
-        <v>75.764759999999995</v>
+        <v>75.318559999999991</v>
       </c>
       <c r="D12" s="40" t="s">
         <v>10</v>
@@ -2198,8 +2204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S38" sqref="S38"/>
+    <sheetView tabSelected="1" topLeftCell="H22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3145,63 +3151,63 @@
       </c>
       <c r="E28" s="9">
         <f>'Operacion 2'!B$4</f>
-        <v>67.92</v>
+        <v>67.52</v>
       </c>
       <c r="F28" s="9">
         <f>'Operacion 2'!B$6</f>
-        <v>76.849999999999994</v>
+        <v>74.52</v>
       </c>
       <c r="G28" s="10">
         <f>'Operacion 2'!B$7</f>
-        <v>0.1314782096584215</v>
+        <v>0.10367298578199047</v>
       </c>
       <c r="H28" s="9">
         <f t="shared" ref="H28:H29" si="2">E28*D28</f>
-        <v>4075.2000000000003</v>
+        <v>4051.2</v>
       </c>
       <c r="I28" s="9">
         <f>IF((H28*(0.0075+0.0008))&lt;30,30,(H28*(0.0075+0.0008)))</f>
-        <v>33.824159999999999</v>
+        <v>33.624960000000002</v>
       </c>
       <c r="J28" s="9">
         <f>H28*0.0035</f>
-        <v>14.263200000000001</v>
+        <v>14.1792</v>
       </c>
       <c r="K28" s="9">
         <f t="shared" ref="K28:K29" si="3">SUM(H28:J28)</f>
-        <v>4123.2873600000003</v>
+        <v>4099.0041599999995</v>
       </c>
       <c r="L28" s="9">
         <f t="shared" ref="L28:L29" si="4">D28*F28</f>
-        <v>4611</v>
+        <v>4471.2</v>
       </c>
       <c r="M28" s="9">
         <f>IF((L28*(0.0075+0.0008))&lt;30,-30,-(L28*(0.0075+0.0008)))</f>
-        <v>-38.271300000000004</v>
+        <v>-37.110959999999999</v>
       </c>
       <c r="N28" s="9">
         <f>-(L28*0.0035)</f>
-        <v>-16.138500000000001</v>
+        <v>-15.6492</v>
       </c>
       <c r="O28" s="9">
         <f t="shared" ref="O28:O29" si="5">SUM(L28:N28)</f>
-        <v>4556.5901999999996</v>
+        <v>4418.43984</v>
       </c>
       <c r="P28" s="9">
         <f t="shared" ref="P28:P29" si="6">I28-M28</f>
-        <v>72.095460000000003</v>
+        <v>70.735919999999993</v>
       </c>
       <c r="Q28" s="9">
         <f t="shared" ref="Q28:Q29" si="7">J28-N28</f>
-        <v>30.401700000000002</v>
+        <v>29.828400000000002</v>
       </c>
       <c r="R28" s="9">
         <f t="shared" si="1"/>
-        <v>433.30283999999938</v>
+        <v>319.4356800000005</v>
       </c>
       <c r="S28" s="10">
         <f t="shared" ref="S28" si="8">R28/K28</f>
-        <v>0.10508674321452079</v>
+        <v>7.7930069726984741E-2</v>
       </c>
       <c r="T28" t="s">
         <v>110</v>
@@ -3480,7 +3486,12 @@
     </row>
     <row r="42" spans="3:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F42" s="5"/>
-      <c r="R42" s="57"/>
+      <c r="Q42" t="s">
+        <v>121</v>
+      </c>
+      <c r="R42" s="57" t="s">
+        <v>120</v>
+      </c>
       <c r="S42" s="49"/>
       <c r="T42" s="5"/>
     </row>

--- a/2019/Inversiones.xlsx
+++ b/2019/Inversiones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EE8E3C-ADC1-4E93-A666-B587BEDE8CEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDA1128-317E-4836-80FD-570AC18ECB35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="124">
   <si>
     <t>% =</t>
   </si>
@@ -442,6 +442,12 @@
   </si>
   <si>
     <t>Inditex</t>
+  </si>
+  <si>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>Entre 68 y 74.5</t>
   </si>
 </sst>
 </file>
@@ -1618,7 +1624,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2204,8 +2210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R42" sqref="R42"/>
+    <sheetView tabSelected="1" topLeftCell="F28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R43" sqref="R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3498,7 +3504,12 @@
     <row r="43" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
-      <c r="R43" s="45"/>
+      <c r="Q43" t="s">
+        <v>122</v>
+      </c>
+      <c r="R43" s="57" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="44" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E44" s="5"/>

--- a/2019/Inversiones.xlsx
+++ b/2019/Inversiones.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDA1128-317E-4836-80FD-570AC18ECB35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B776B8-D4AE-4692-A879-EF0F0DE25760}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Operacion 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="127">
   <si>
     <t>% =</t>
   </si>
@@ -448,6 +448,15 @@
   </si>
   <si>
     <t>Entre 68 y 74.5</t>
+  </si>
+  <si>
+    <t>Previsto</t>
+  </si>
+  <si>
+    <t>Intradia</t>
+  </si>
+  <si>
+    <t>68.11-75.54</t>
   </si>
 </sst>
 </file>
@@ -2210,8 +2219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R43" sqref="R43"/>
+    <sheetView tabSelected="1" topLeftCell="J16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3338,7 +3347,7 @@
         <v>70</v>
       </c>
       <c r="U33">
-        <v>24</v>
+        <v>26.75</v>
       </c>
     </row>
     <row r="34" spans="3:22" x14ac:dyDescent="0.25">
@@ -3391,7 +3400,7 @@
       </c>
       <c r="U35" s="3">
         <f>(U34/U33)-1</f>
-        <v>0.27374999999999994</v>
+        <v>0.14280373831775695</v>
       </c>
       <c r="V35" t="s">
         <v>83</v>
@@ -3486,8 +3495,12 @@
     </row>
     <row r="41" spans="3:22" x14ac:dyDescent="0.25">
       <c r="P41" s="3"/>
-      <c r="R41" s="50"/>
-      <c r="S41" s="48"/>
+      <c r="R41" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="S41" s="48" t="s">
+        <v>125</v>
+      </c>
       <c r="T41" s="5"/>
     </row>
     <row r="42" spans="3:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -3509,6 +3522,9 @@
       </c>
       <c r="R43" s="57" t="s">
         <v>123</v>
+      </c>
+      <c r="S43" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="3:22" x14ac:dyDescent="0.25">

--- a/2019/Inversiones.xlsx
+++ b/2019/Inversiones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B776B8-D4AE-4692-A879-EF0F0DE25760}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66173159-5919-4F97-92E6-058A3659EE9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -429,9 +429,6 @@
     <t>7. Que no reparta dividendos o lo haga en acciones que no se sea ampliacion de capital</t>
   </si>
   <si>
-    <t>Custodia de acciones  ITX.MC Enero/2019</t>
-  </si>
-  <si>
     <t>Custodia de acciones  ITX.MC 2018</t>
   </si>
   <si>
@@ -457,6 +454,9 @@
   </si>
   <si>
     <t>68.11-75.54</t>
+  </si>
+  <si>
+    <t>Custodia de acciones  ITX.MC 2019</t>
   </si>
 </sst>
 </file>
@@ -1633,7 +1633,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1707,7 +1707,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="5">
-        <v>67.52</v>
+        <v>68.08</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>4</v>
@@ -1753,7 +1753,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="5">
-        <v>74.52</v>
+        <v>75.52</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>34</v>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="B7" s="3">
         <f>(B6/B4)-1</f>
-        <v>0.10367298578199047</v>
+        <v>0.10928319623971805</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>37</v>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B12" s="5">
         <f>(B4*0.1155)+B4</f>
-        <v>75.318559999999991</v>
+        <v>75.943240000000003</v>
       </c>
       <c r="D12" s="40" t="s">
         <v>10</v>
@@ -2217,10 +2217,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:V47"/>
+  <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U34" sqref="U34"/>
+    <sheetView tabSelected="1" topLeftCell="H25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V39" sqref="V39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="S21" s="10"/>
       <c r="T21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -2983,11 +2983,12 @@
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9">
-        <v>-2.1800000000000002</v>
+        <f>-2.18-2.26</f>
+        <v>-4.4399999999999995</v>
       </c>
       <c r="S22" s="10"/>
       <c r="T22" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -3046,7 +3047,7 @@
       </c>
       <c r="R25" s="15">
         <f>SUM(R3:R24)</f>
-        <v>3225.1656679999996</v>
+        <v>3222.9056679999994</v>
       </c>
       <c r="S25" s="16">
         <f>SUM(S3:S24)</f>
@@ -3166,63 +3167,63 @@
       </c>
       <c r="E28" s="9">
         <f>'Operacion 2'!B$4</f>
-        <v>67.52</v>
+        <v>68.08</v>
       </c>
       <c r="F28" s="9">
         <f>'Operacion 2'!B$6</f>
-        <v>74.52</v>
+        <v>75.52</v>
       </c>
       <c r="G28" s="10">
         <f>'Operacion 2'!B$7</f>
-        <v>0.10367298578199047</v>
+        <v>0.10928319623971805</v>
       </c>
       <c r="H28" s="9">
         <f t="shared" ref="H28:H29" si="2">E28*D28</f>
-        <v>4051.2</v>
+        <v>4084.7999999999997</v>
       </c>
       <c r="I28" s="9">
         <f>IF((H28*(0.0075+0.0008))&lt;30,30,(H28*(0.0075+0.0008)))</f>
-        <v>33.624960000000002</v>
+        <v>33.903839999999995</v>
       </c>
       <c r="J28" s="9">
         <f>H28*0.0035</f>
-        <v>14.1792</v>
+        <v>14.296799999999999</v>
       </c>
       <c r="K28" s="9">
         <f t="shared" ref="K28:K29" si="3">SUM(H28:J28)</f>
-        <v>4099.0041599999995</v>
+        <v>4133.0006400000002</v>
       </c>
       <c r="L28" s="9">
         <f t="shared" ref="L28:L29" si="4">D28*F28</f>
-        <v>4471.2</v>
+        <v>4531.2</v>
       </c>
       <c r="M28" s="9">
         <f>IF((L28*(0.0075+0.0008))&lt;30,-30,-(L28*(0.0075+0.0008)))</f>
-        <v>-37.110959999999999</v>
+        <v>-37.608959999999996</v>
       </c>
       <c r="N28" s="9">
         <f>-(L28*0.0035)</f>
-        <v>-15.6492</v>
+        <v>-15.8592</v>
       </c>
       <c r="O28" s="9">
         <f t="shared" ref="O28:O29" si="5">SUM(L28:N28)</f>
-        <v>4418.43984</v>
+        <v>4477.7318400000004</v>
       </c>
       <c r="P28" s="9">
         <f t="shared" ref="P28:P29" si="6">I28-M28</f>
-        <v>70.735919999999993</v>
+        <v>71.512799999999999</v>
       </c>
       <c r="Q28" s="9">
         <f t="shared" ref="Q28:Q29" si="7">J28-N28</f>
-        <v>29.828400000000002</v>
+        <v>30.155999999999999</v>
       </c>
       <c r="R28" s="9">
         <f t="shared" si="1"/>
-        <v>319.4356800000005</v>
+        <v>344.73120000000017</v>
       </c>
       <c r="S28" s="10">
         <f t="shared" ref="S28" si="8">R28/K28</f>
-        <v>7.7930069726984741E-2</v>
+        <v>8.3409423328809393E-2</v>
       </c>
       <c r="T28" t="s">
         <v>110</v>
@@ -3315,11 +3316,11 @@
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="R30" s="56">
         <f>R29+SUM(R19:R22)</f>
-        <v>819.13482399999975</v>
+        <v>816.87482399999976</v>
       </c>
       <c r="S30" s="10">
         <f>R30/K29</f>
-        <v>0.15911422794687413</v>
+        <v>0.1586752304282435</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
@@ -3496,20 +3497,20 @@
     <row r="41" spans="3:22" x14ac:dyDescent="0.25">
       <c r="P41" s="3"/>
       <c r="R41" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="S41" s="48" t="s">
         <v>124</v>
-      </c>
-      <c r="S41" s="48" t="s">
-        <v>125</v>
       </c>
       <c r="T41" s="5"/>
     </row>
     <row r="42" spans="3:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F42" s="5"/>
       <c r="Q42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R42" s="57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S42" s="49"/>
       <c r="T42" s="5"/>
@@ -3518,13 +3519,13 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="Q43" t="s">
+        <v>121</v>
+      </c>
+      <c r="R43" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="R43" s="57" t="s">
-        <v>123</v>
-      </c>
       <c r="S43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="3:22" x14ac:dyDescent="0.25">
@@ -3542,6 +3543,28 @@
     </row>
     <row r="47" spans="3:22" x14ac:dyDescent="0.25">
       <c r="R47" s="57"/>
+      <c r="S47">
+        <f>5000/12</f>
+        <v>416.66666666666669</v>
+      </c>
+    </row>
+    <row r="48" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="S48">
+        <f>2.2/S47</f>
+        <v>5.28E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S49">
+        <f>100*S48</f>
+        <v>0.52800000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S50">
+        <f>2.2*12</f>
+        <v>26.400000000000002</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3559,7 +3582,7 @@
   <dimension ref="A2:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3636,7 +3659,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6" s="56">
         <v>1740</v>
@@ -3703,7 +3726,7 @@
   <dimension ref="A2:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2019/Inversiones.xlsx
+++ b/2019/Inversiones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66173159-5919-4F97-92E6-058A3659EE9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766C0487-384D-4E58-82CC-BBE577529586}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2219,8 +2219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V39" sqref="V39"/>
+    <sheetView tabSelected="1" topLeftCell="H28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R49" sqref="R49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2019/Inversiones.xlsx
+++ b/2019/Inversiones.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766C0487-384D-4E58-82CC-BBE577529586}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7314A54-EF27-4C21-BF62-9BA9C76471B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Operacion 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="141">
   <si>
     <t>% =</t>
   </si>
@@ -457,6 +457,48 @@
   </si>
   <si>
     <t>Custodia de acciones  ITX.MC 2019</t>
+  </si>
+  <si>
+    <t>Interim dividend payment</t>
+  </si>
+  <si>
+    <t>First Quarter Results</t>
+  </si>
+  <si>
+    <t>12 June 2019</t>
+  </si>
+  <si>
+    <t>Annual General Meeting</t>
+  </si>
+  <si>
+    <t>16 July 2019</t>
+  </si>
+  <si>
+    <t>First Half Results</t>
+  </si>
+  <si>
+    <t>11 September 2019</t>
+  </si>
+  <si>
+    <t>Final dividend payment</t>
+  </si>
+  <si>
+    <t>4 November 2019</t>
+  </si>
+  <si>
+    <t>Third Quarter Results</t>
+  </si>
+  <si>
+    <t>11 December 2019</t>
+  </si>
+  <si>
+    <t>Full Year 2019</t>
+  </si>
+  <si>
+    <t>March 2020 (tbc)</t>
+  </si>
+  <si>
+    <t>71.28-76.50</t>
   </si>
 </sst>
 </file>
@@ -860,7 +902,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -992,6 +1034,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1633,7 +1676,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1707,7 +1750,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="5">
-        <v>68.08</v>
+        <v>68.069999999999993</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>4</v>
@@ -1753,7 +1796,10 @@
         <v>30</v>
       </c>
       <c r="B6" s="5">
-        <v>75.52</v>
+        <v>75.430000000000007</v>
+      </c>
+      <c r="C6">
+        <v>76.430000000000007</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>34</v>
@@ -1769,7 +1815,7 @@
       </c>
       <c r="B7" s="3">
         <f>(B6/B4)-1</f>
-        <v>0.10928319623971805</v>
+        <v>0.10812399001028372</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>37</v>
@@ -1821,7 +1867,7 @@
       </c>
       <c r="B12" s="5">
         <f>(B4*0.1155)+B4</f>
-        <v>75.943240000000003</v>
+        <v>75.932084999999987</v>
       </c>
       <c r="D12" s="40" t="s">
         <v>10</v>
@@ -2217,10 +2263,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:V50"/>
+  <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R49" sqref="R49"/>
+    <sheetView topLeftCell="H25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3167,63 +3213,63 @@
       </c>
       <c r="E28" s="9">
         <f>'Operacion 2'!B$4</f>
-        <v>68.08</v>
+        <v>68.069999999999993</v>
       </c>
       <c r="F28" s="9">
         <f>'Operacion 2'!B$6</f>
-        <v>75.52</v>
+        <v>75.430000000000007</v>
       </c>
       <c r="G28" s="10">
         <f>'Operacion 2'!B$7</f>
-        <v>0.10928319623971805</v>
+        <v>0.10812399001028372</v>
       </c>
       <c r="H28" s="9">
         <f t="shared" ref="H28:H29" si="2">E28*D28</f>
-        <v>4084.7999999999997</v>
+        <v>4084.2</v>
       </c>
       <c r="I28" s="9">
         <f>IF((H28*(0.0075+0.0008))&lt;30,30,(H28*(0.0075+0.0008)))</f>
-        <v>33.903839999999995</v>
+        <v>33.898859999999999</v>
       </c>
       <c r="J28" s="9">
         <f>H28*0.0035</f>
-        <v>14.296799999999999</v>
+        <v>14.294699999999999</v>
       </c>
       <c r="K28" s="9">
         <f t="shared" ref="K28:K29" si="3">SUM(H28:J28)</f>
-        <v>4133.0006400000002</v>
+        <v>4132.3935600000004</v>
       </c>
       <c r="L28" s="9">
         <f t="shared" ref="L28:L29" si="4">D28*F28</f>
-        <v>4531.2</v>
+        <v>4525.8</v>
       </c>
       <c r="M28" s="9">
         <f>IF((L28*(0.0075+0.0008))&lt;30,-30,-(L28*(0.0075+0.0008)))</f>
-        <v>-37.608959999999996</v>
+        <v>-37.564140000000002</v>
       </c>
       <c r="N28" s="9">
         <f>-(L28*0.0035)</f>
-        <v>-15.8592</v>
+        <v>-15.840300000000001</v>
       </c>
       <c r="O28" s="9">
         <f t="shared" ref="O28:O29" si="5">SUM(L28:N28)</f>
-        <v>4477.7318400000004</v>
+        <v>4472.3955599999999</v>
       </c>
       <c r="P28" s="9">
         <f t="shared" ref="P28:P29" si="6">I28-M28</f>
-        <v>71.512799999999999</v>
+        <v>71.462999999999994</v>
       </c>
       <c r="Q28" s="9">
         <f t="shared" ref="Q28:Q29" si="7">J28-N28</f>
-        <v>30.155999999999999</v>
+        <v>30.134999999999998</v>
       </c>
       <c r="R28" s="9">
         <f t="shared" si="1"/>
-        <v>344.73120000000017</v>
+        <v>340.0019999999995</v>
       </c>
       <c r="S28" s="10">
         <f t="shared" ref="S28" si="8">R28/K28</f>
-        <v>8.3409423328809393E-2</v>
+        <v>8.2277255315439862E-2</v>
       </c>
       <c r="T28" t="s">
         <v>110</v>
@@ -3532,16 +3578,31 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
+      <c r="J44" t="s">
+        <v>127</v>
+      </c>
       <c r="R44" s="5"/>
+      <c r="S44" t="s">
+        <v>140</v>
+      </c>
       <c r="T44" s="5"/>
     </row>
     <row r="45" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="J45" s="67">
+        <v>43587</v>
+      </c>
       <c r="R45" s="43"/>
     </row>
     <row r="46" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="J46" t="s">
+        <v>128</v>
+      </c>
       <c r="R46" s="44"/>
     </row>
     <row r="47" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="J47" t="s">
+        <v>129</v>
+      </c>
       <c r="R47" s="57"/>
       <c r="S47">
         <f>5000/12</f>
@@ -3549,21 +3610,65 @@
       </c>
     </row>
     <row r="48" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="J48" t="s">
+        <v>130</v>
+      </c>
       <c r="S48">
         <f>2.2/S47</f>
         <v>5.28E-3</v>
       </c>
     </row>
-    <row r="49" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J49" t="s">
+        <v>131</v>
+      </c>
       <c r="S49">
         <f>100*S48</f>
         <v>0.52800000000000002</v>
       </c>
     </row>
-    <row r="50" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J50" t="s">
+        <v>132</v>
+      </c>
       <c r="S50">
         <f>2.2*12</f>
         <v>26.400000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J51" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J52" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J54" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J55" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J56" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J57" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3581,8 +3686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2019/Inversiones.xlsx
+++ b/2019/Inversiones.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7314A54-EF27-4C21-BF62-9BA9C76471B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B80F11-21AD-4EA8-BA52-2047A1541826}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27525" windowHeight="10635" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Operacion 1" sheetId="1" r:id="rId1"/>
@@ -1007,6 +1007,7 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1034,7 +1035,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1396,15 +1396,15 @@
       <c r="B1" s="5">
         <v>5600</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="63"/>
+      <c r="E1" s="64"/>
       <c r="F1" s="28"/>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="58"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1413,10 +1413,10 @@
       <c r="B2" s="4">
         <v>42234</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="62"/>
+      <c r="E2" s="63"/>
       <c r="H2" s="29" t="s">
         <v>26</v>
       </c>
@@ -1485,11 +1485,11 @@
       <c r="H5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="59" t="str">
+      <c r="I5" s="60" t="str">
         <f>IF(I4=2,"Se puede COMPRAR","Nada")</f>
         <v>Se puede COMPRAR</v>
       </c>
-      <c r="J5" s="60"/>
+      <c r="J5" s="61"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1696,15 +1696,15 @@
       <c r="B1" s="5">
         <v>4100</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="63"/>
+      <c r="E1" s="64"/>
       <c r="F1" s="28"/>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="58"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1713,10 +1713,10 @@
       <c r="B2" s="4">
         <v>42471</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="62"/>
+      <c r="E2" s="63"/>
       <c r="H2" s="29" t="s">
         <v>26</v>
       </c>
@@ -1785,11 +1785,11 @@
       <c r="H5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="59" t="str">
+      <c r="I5" s="60" t="str">
         <f>IF(I4=2,"Se puede COMPRAR","Nada")</f>
         <v>Se puede COMPRAR</v>
       </c>
-      <c r="J5" s="60"/>
+      <c r="J5" s="61"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1985,15 +1985,15 @@
       <c r="B1" s="5">
         <v>5100</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="63"/>
+      <c r="E1" s="64"/>
       <c r="F1" s="28"/>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="58"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2002,10 +2002,10 @@
       <c r="B2" s="4">
         <v>43154</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="62"/>
+      <c r="E2" s="63"/>
       <c r="H2" s="29" t="s">
         <v>26</v>
       </c>
@@ -2074,11 +2074,11 @@
       <c r="H5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="59" t="str">
+      <c r="I5" s="60" t="str">
         <f>IF(I4=2,"Se puede COMPRAR","Nada")</f>
         <v>Se puede COMPRAR</v>
       </c>
-      <c r="J5" s="60"/>
+      <c r="J5" s="61"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2265,8 +2265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView topLeftCell="H25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView tabSelected="1" topLeftCell="G31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T40" sqref="T40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2283,23 +2283,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="65" t="s">
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="66" t="s">
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -3228,8 +3228,8 @@
         <v>4084.2</v>
       </c>
       <c r="I28" s="9">
-        <f>IF((H28*(0.0075+0.0008))&lt;30,30,(H28*(0.0075+0.0008)))</f>
-        <v>33.898859999999999</v>
+        <f>IF((H28*(0.0075))&lt;30,30,(H28*(0.0075)))</f>
+        <v>30.631499999999999</v>
       </c>
       <c r="J28" s="9">
         <f>H28*0.0035</f>
@@ -3237,15 +3237,15 @@
       </c>
       <c r="K28" s="9">
         <f t="shared" ref="K28:K29" si="3">SUM(H28:J28)</f>
-        <v>4132.3935600000004</v>
+        <v>4129.1262000000006</v>
       </c>
       <c r="L28" s="9">
         <f t="shared" ref="L28:L29" si="4">D28*F28</f>
         <v>4525.8</v>
       </c>
       <c r="M28" s="9">
-        <f>IF((L28*(0.0075+0.0008))&lt;30,-30,-(L28*(0.0075+0.0008)))</f>
-        <v>-37.564140000000002</v>
+        <f>IF((L28*(0.0075))&lt;30,-30,-(L28*(0.0075)))</f>
+        <v>-33.9435</v>
       </c>
       <c r="N28" s="9">
         <f>-(L28*0.0035)</f>
@@ -3253,11 +3253,11 @@
       </c>
       <c r="O28" s="9">
         <f t="shared" ref="O28:O29" si="5">SUM(L28:N28)</f>
-        <v>4472.3955599999999</v>
+        <v>4476.0162</v>
       </c>
       <c r="P28" s="9">
         <f t="shared" ref="P28:P29" si="6">I28-M28</f>
-        <v>71.462999999999994</v>
+        <v>64.575000000000003</v>
       </c>
       <c r="Q28" s="9">
         <f t="shared" ref="Q28:Q29" si="7">J28-N28</f>
@@ -3265,11 +3265,11 @@
       </c>
       <c r="R28" s="9">
         <f t="shared" si="1"/>
-        <v>340.0019999999995</v>
+        <v>346.88999999999942</v>
       </c>
       <c r="S28" s="10">
         <f t="shared" ref="S28" si="8">R28/K28</f>
-        <v>8.2277255315439862E-2</v>
+        <v>8.401051050461944E-2</v>
       </c>
       <c r="T28" t="s">
         <v>110</v>
@@ -3325,8 +3325,8 @@
         <v>5991.72</v>
       </c>
       <c r="M29" s="9">
-        <f>IF((L29*(0.0075+0.0008))&lt;30,-30,-(L29*(0.0075+0.0008)))</f>
-        <v>-49.731276000000001</v>
+        <f>IF((L29*(0.0075))&lt;30,-30,-(L29*(0.0075)))</f>
+        <v>-44.937899999999999</v>
       </c>
       <c r="N29" s="9">
         <f>-(L29*0.0035)</f>
@@ -3334,11 +3334,11 @@
       </c>
       <c r="O29" s="9">
         <f t="shared" si="5"/>
-        <v>5921.0177039999999</v>
+        <v>5925.8110800000004</v>
       </c>
       <c r="P29" s="9">
         <f t="shared" si="6"/>
-        <v>91.995540000000005</v>
+        <v>87.202163999999996</v>
       </c>
       <c r="Q29" s="9">
         <f t="shared" si="7"/>
@@ -3346,11 +3346,11 @@
       </c>
       <c r="R29" s="9">
         <f>O29-K29</f>
-        <v>772.92482399999972</v>
+        <v>777.71820000000025</v>
       </c>
       <c r="S29" s="10">
         <f>R29/K29</f>
-        <v>0.1501380884177054</v>
+        <v>0.15106918583799914</v>
       </c>
       <c r="T29" t="s">
         <v>58</v>
@@ -3362,11 +3362,11 @@
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="R30" s="56">
         <f>R29+SUM(R19:R22)</f>
-        <v>816.87482399999976</v>
+        <v>821.6682000000003</v>
       </c>
       <c r="S30" s="10">
         <f>R30/K29</f>
-        <v>0.1586752304282435</v>
+        <v>0.15960632784853723</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
@@ -3394,7 +3394,7 @@
         <v>70</v>
       </c>
       <c r="U33">
-        <v>26.75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="3:22" x14ac:dyDescent="0.25">
@@ -3447,7 +3447,7 @@
       </c>
       <c r="U35" s="3">
         <f>(U34/U33)-1</f>
-        <v>0.14280373831775695</v>
+        <v>0.17576923076923068</v>
       </c>
       <c r="V35" t="s">
         <v>83</v>
@@ -3588,7 +3588,7 @@
       <c r="T44" s="5"/>
     </row>
     <row r="45" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="J45" s="67">
+      <c r="J45" s="58">
         <v>43587</v>
       </c>
       <c r="R45" s="43"/>
@@ -3686,8 +3686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3717,12 +3717,11 @@
         <v>75</v>
       </c>
       <c r="B3" s="56">
-        <f>838.33</f>
-        <v>838.33</v>
+        <v>1000</v>
       </c>
       <c r="C3" s="3">
         <f>B3/B$7</f>
-        <v>0.2045540500642945</v>
+        <v>0.24390243902439024</v>
       </c>
       <c r="D3" s="56">
         <f>D$7*C3</f>
@@ -3734,12 +3733,12 @@
         <v>79</v>
       </c>
       <c r="B4" s="56">
-        <f>1220</f>
-        <v>1220</v>
+        <f>1230</f>
+        <v>1230</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" si="0">B4/B$7</f>
-        <v>0.29768222666305544</v>
+        <v>0.3</v>
       </c>
       <c r="D4" s="56">
         <f t="shared" ref="D4:D6" si="1">D$7*C4</f>
@@ -3751,11 +3750,11 @@
         <v>80</v>
       </c>
       <c r="B5" s="56">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" si="0"/>
-        <v>7.3200547540095598E-2</v>
+        <v>0.12195121951219512</v>
       </c>
       <c r="D5" s="56">
         <f t="shared" si="1"/>
@@ -3767,11 +3766,11 @@
         <v>118</v>
       </c>
       <c r="B6" s="56">
-        <v>1740</v>
+        <v>1370</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" si="0"/>
-        <v>0.42456317573255448</v>
+        <v>0.33414634146341465</v>
       </c>
       <c r="D6" s="56">
         <f t="shared" si="1"/>
@@ -3784,11 +3783,11 @@
       </c>
       <c r="B7" s="56">
         <f>SUM(B3:B6)</f>
-        <v>4098.33</v>
+        <v>4100</v>
       </c>
       <c r="C7" s="3">
         <f>SUM(C4:C6)</f>
-        <v>0.7954459499357055</v>
+        <v>0.75609756097560976</v>
       </c>
       <c r="D7" s="56">
         <v>0</v>
@@ -3811,7 +3810,7 @@
       </c>
       <c r="B12" s="56">
         <f>B7+B11</f>
-        <v>9190.41</v>
+        <v>9192.08</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">

--- a/2019/Inversiones.xlsx
+++ b/2019/Inversiones.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B80F11-21AD-4EA8-BA52-2047A1541826}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44902F87-7656-414A-9F05-8BE2DF70457F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27525" windowHeight="10635" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27525" windowHeight="10635" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Operacion 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="143">
   <si>
     <t>% =</t>
   </si>
@@ -499,6 +499,12 @@
   </si>
   <si>
     <t>71.28-76.50</t>
+  </si>
+  <si>
+    <t>BMW.DE</t>
+  </si>
+  <si>
+    <t>Comisiones+Impuestos Compra BMW.DE</t>
   </si>
 </sst>
 </file>
@@ -1676,7 +1682,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1796,7 +1802,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="5">
-        <v>75.430000000000007</v>
+        <v>75.53</v>
       </c>
       <c r="C6">
         <v>76.430000000000007</v>
@@ -1815,7 +1821,7 @@
       </c>
       <c r="B7" s="3">
         <f>(B6/B4)-1</f>
-        <v>0.10812399001028372</v>
+        <v>0.10959306596151031</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>37</v>
@@ -2263,10 +2269,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:V57"/>
+  <dimension ref="A1:V58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T40" sqref="T40"/>
+    <sheetView topLeftCell="H16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3038,16 +3044,24 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
+      <c r="A23" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="8">
+        <v>43550</v>
+      </c>
       <c r="C23" s="8"/>
       <c r="D23" s="14"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="10"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
+      <c r="I23" s="9">
+        <v>30.631499999999999</v>
+      </c>
+      <c r="J23" s="9">
+        <v>14.294699999999999</v>
+      </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
@@ -3055,619 +3069,646 @@
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
+      <c r="R23" s="9">
+        <f>-I23-J23</f>
+        <v>-44.926199999999994</v>
+      </c>
       <c r="S23" s="10"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H25" s="15">
-        <f t="shared" ref="H25:O25" si="0">SUM(H3:H24)</f>
+      <c r="T23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="10"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H26" s="15">
+        <f t="shared" ref="H26:O26" si="0">SUM(H3:H25)</f>
         <v>17571.839999999997</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I26" s="15">
         <f t="shared" si="0"/>
-        <v>42.26</v>
-      </c>
-      <c r="J25" s="15">
+        <v>72.891499999999994</v>
+      </c>
+      <c r="J26" s="15">
         <f t="shared" si="0"/>
-        <v>13.75</v>
-      </c>
-      <c r="K25" s="15">
+        <v>28.044699999999999</v>
+      </c>
+      <c r="K26" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L25" s="15">
+      <c r="L26" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M25" s="15">
+      <c r="M26" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N25" s="15">
+      <c r="N26" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O25" s="15">
+      <c r="O26" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R25" s="15">
-        <f>SUM(R3:R24)</f>
-        <v>3222.9056679999994</v>
-      </c>
-      <c r="S25" s="16">
-        <f>SUM(S3:S24)</f>
+      <c r="R26" s="15">
+        <f>SUM(R3:R25)</f>
+        <v>3177.9794679999995</v>
+      </c>
+      <c r="S26" s="16">
+        <f>SUM(S3:S25)</f>
         <v>3.7548916419551364</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="51"/>
+      <c r="U27">
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="str">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="39" t="str">
         <f>'Operacion 1'!B$3</f>
         <v>ABI.BR</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B28" s="8">
         <f>'Operacion 1'!B$2</f>
         <v>42234</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="14">
+      <c r="C28" s="8"/>
+      <c r="D28" s="14">
         <f>'Operacion 1'!B$5</f>
         <v>62</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E28" s="9">
         <f>'Operacion 1'!B$4</f>
         <v>89</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F28" s="9">
         <f>'Operacion 1'!B$6</f>
         <v>120</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G28" s="10">
         <f>'Operacion 1'!B$7</f>
         <v>0.348314606741573</v>
       </c>
-      <c r="H27" s="9">
-        <f>(E27*D27)</f>
+      <c r="H28" s="9">
+        <f>(E28*D28)</f>
         <v>5518</v>
       </c>
-      <c r="I27" s="9">
-        <f>IF((H27*0.005)&lt;20,20,(H27*0.005))</f>
+      <c r="I28" s="9">
+        <f>IF((H28*0.005)&lt;20,20,(H28*0.005))</f>
         <v>27.59</v>
       </c>
-      <c r="J27" s="9">
-        <f>SUM(H27:I27)*0.0027</f>
+      <c r="J28" s="9">
+        <f>SUM(H28:I28)*0.0027</f>
         <v>14.973093</v>
       </c>
-      <c r="K27" s="9">
-        <f>SUM(H27:J27)</f>
+      <c r="K28" s="9">
+        <f>SUM(H28:J28)</f>
         <v>5560.5630929999998</v>
       </c>
-      <c r="L27" s="9">
-        <f>D27*F27</f>
+      <c r="L28" s="9">
+        <f>D28*F28</f>
         <v>7440</v>
       </c>
-      <c r="M27" s="9">
-        <f>IF((L27*0.005)&lt;20,-20,-(L27*0.005))</f>
+      <c r="M28" s="9">
+        <f>IF((L28*0.005)&lt;20,-20,-(L28*0.005))</f>
         <v>-37.200000000000003</v>
       </c>
-      <c r="N27" s="9">
-        <f>-(SUM(L27:M27)*0.0027)</f>
+      <c r="N28" s="9">
+        <f>-(SUM(L28:M28)*0.0027)</f>
         <v>-19.987560000000002</v>
       </c>
-      <c r="O27" s="9">
-        <f>SUM(L27:N27)</f>
+      <c r="O28" s="9">
+        <f>SUM(L28:N28)</f>
         <v>7382.8124400000006</v>
       </c>
-      <c r="P27" s="9">
-        <f>I27-M27</f>
+      <c r="P28" s="9">
+        <f>I28-M28</f>
         <v>64.790000000000006</v>
       </c>
-      <c r="Q27" s="9">
-        <f>J27-N27</f>
+      <c r="Q28" s="9">
+        <f>J28-N28</f>
         <v>34.960653000000001</v>
       </c>
-      <c r="R27" s="9">
-        <f t="shared" ref="R27:R28" si="1">O27-K27</f>
+      <c r="R28" s="9">
+        <f t="shared" ref="R28:R29" si="1">O28-K28</f>
         <v>1822.2493470000009</v>
       </c>
-      <c r="S27" s="10">
-        <f>R27/K27</f>
+      <c r="S28" s="10">
+        <f>R28/K28</f>
         <v>0.32770949929404947</v>
       </c>
-      <c r="T27" t="s">
+      <c r="T28" t="s">
         <v>111</v>
       </c>
-      <c r="U27" t="s">
+      <c r="U28" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="str">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="39" t="str">
         <f>'Operacion 2'!B$3</f>
         <v>BMV.DE</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B29" s="8">
         <f>'Operacion 2'!B$2</f>
         <v>42471</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="14">
+      <c r="C29" s="8"/>
+      <c r="D29" s="14">
         <f>'Operacion 2'!B$5</f>
         <v>60</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E29" s="9">
         <f>'Operacion 2'!B$4</f>
         <v>68.069999999999993</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F29" s="9">
         <f>'Operacion 2'!B$6</f>
-        <v>75.430000000000007</v>
-      </c>
-      <c r="G28" s="10">
+        <v>75.53</v>
+      </c>
+      <c r="G29" s="10">
         <f>'Operacion 2'!B$7</f>
-        <v>0.10812399001028372</v>
-      </c>
-      <c r="H28" s="9">
-        <f t="shared" ref="H28:H29" si="2">E28*D28</f>
+        <v>0.10959306596151031</v>
+      </c>
+      <c r="H29" s="9">
+        <f t="shared" ref="H29:H30" si="2">E29*D29</f>
         <v>4084.2</v>
       </c>
-      <c r="I28" s="9">
-        <f>IF((H28*(0.0075))&lt;30,30,(H28*(0.0075)))</f>
+      <c r="I29" s="9">
+        <f>IF((H29*(0.0075))&lt;30,30,(H29*(0.0075)))</f>
         <v>30.631499999999999</v>
       </c>
-      <c r="J28" s="9">
-        <f>H28*0.0035</f>
+      <c r="J29" s="9">
+        <f>H29*0.0035</f>
         <v>14.294699999999999</v>
       </c>
-      <c r="K28" s="9">
-        <f t="shared" ref="K28:K29" si="3">SUM(H28:J28)</f>
+      <c r="K29" s="9">
+        <f t="shared" ref="K29:K30" si="3">SUM(H29:J29)</f>
         <v>4129.1262000000006</v>
       </c>
-      <c r="L28" s="9">
-        <f t="shared" ref="L28:L29" si="4">D28*F28</f>
-        <v>4525.8</v>
-      </c>
-      <c r="M28" s="9">
-        <f>IF((L28*(0.0075))&lt;30,-30,-(L28*(0.0075)))</f>
-        <v>-33.9435</v>
-      </c>
-      <c r="N28" s="9">
-        <f>-(L28*0.0035)</f>
-        <v>-15.840300000000001</v>
-      </c>
-      <c r="O28" s="9">
-        <f t="shared" ref="O28:O29" si="5">SUM(L28:N28)</f>
-        <v>4476.0162</v>
-      </c>
-      <c r="P28" s="9">
-        <f t="shared" ref="P28:P29" si="6">I28-M28</f>
-        <v>64.575000000000003</v>
-      </c>
-      <c r="Q28" s="9">
-        <f t="shared" ref="Q28:Q29" si="7">J28-N28</f>
-        <v>30.134999999999998</v>
-      </c>
-      <c r="R28" s="9">
+      <c r="L29" s="9">
+        <f t="shared" ref="L29:L30" si="4">D29*F29</f>
+        <v>4531.8</v>
+      </c>
+      <c r="M29" s="9">
+        <f>IF((L29*(0.0075))&lt;30,-30,-(L29*(0.0075)))</f>
+        <v>-33.988500000000002</v>
+      </c>
+      <c r="N29" s="9">
+        <f>-(L29*0.0035)</f>
+        <v>-15.861300000000002</v>
+      </c>
+      <c r="O29" s="9">
+        <f t="shared" ref="O29:O30" si="5">SUM(L29:N29)</f>
+        <v>4481.9502000000002</v>
+      </c>
+      <c r="P29" s="9">
+        <f t="shared" ref="P29:P30" si="6">I29-M29</f>
+        <v>64.62</v>
+      </c>
+      <c r="Q29" s="9">
+        <f t="shared" ref="Q29:Q30" si="7">J29-N29</f>
+        <v>30.155999999999999</v>
+      </c>
+      <c r="R29" s="9">
         <f t="shared" si="1"/>
-        <v>346.88999999999942</v>
-      </c>
-      <c r="S28" s="10">
-        <f t="shared" ref="S28" si="8">R28/K28</f>
-        <v>8.401051050461944E-2</v>
-      </c>
-      <c r="T28" t="s">
+        <v>352.82399999999961</v>
+      </c>
+      <c r="S29" s="10">
+        <f t="shared" ref="S29" si="8">R29/K29</f>
+        <v>8.5447618433168629E-2</v>
+      </c>
+      <c r="T29" t="s">
         <v>110</v>
       </c>
-      <c r="U28" t="s">
+      <c r="U29" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="str">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="39" t="str">
         <f>'Operacion 3'!B3</f>
         <v>ITX.MC</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B30" s="8">
         <f>'Operacion 3'!B$2</f>
         <v>43154</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="14">
+      <c r="C30" s="8"/>
+      <c r="D30" s="14">
         <f>'Operacion 3'!B$5</f>
         <v>196</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E30" s="9">
         <f>'Operacion 3'!B$4</f>
         <v>25.98</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F30" s="9">
         <f>'Operacion 3'!B$6</f>
         <v>30.57</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G30" s="10">
         <f>'Operacion 3'!B$7</f>
         <v>0.1766743648960738</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H30" s="9">
         <f t="shared" si="2"/>
         <v>5092.08</v>
       </c>
-      <c r="I29" s="9">
-        <f>IF((H29*(0.0075+0.0008))&lt;30,30,(H29*(0.0075+0.0008)))</f>
+      <c r="I30" s="9">
+        <f>IF((H30*(0.0075+0.0008))&lt;30,30,(H30*(0.0075+0.0008)))</f>
         <v>42.264263999999997</v>
       </c>
-      <c r="J29" s="9">
-        <f>H29*0.0027</f>
+      <c r="J30" s="9">
+        <f>H30*0.0027</f>
         <v>13.748616</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K30" s="9">
         <f t="shared" si="3"/>
         <v>5148.0928800000002</v>
       </c>
-      <c r="L29" s="9">
+      <c r="L30" s="9">
         <f t="shared" si="4"/>
         <v>5991.72</v>
       </c>
-      <c r="M29" s="9">
-        <f>IF((L29*(0.0075))&lt;30,-30,-(L29*(0.0075)))</f>
+      <c r="M30" s="9">
+        <f>IF((L30*(0.0075))&lt;30,-30,-(L30*(0.0075)))</f>
         <v>-44.937899999999999</v>
       </c>
-      <c r="N29" s="9">
-        <f>-(L29*0.0035)</f>
+      <c r="N30" s="9">
+        <f>-(L30*0.0035)</f>
         <v>-20.971020000000003</v>
       </c>
-      <c r="O29" s="9">
+      <c r="O30" s="9">
         <f t="shared" si="5"/>
         <v>5925.8110800000004</v>
       </c>
-      <c r="P29" s="9">
+      <c r="P30" s="9">
         <f t="shared" si="6"/>
         <v>87.202163999999996</v>
       </c>
-      <c r="Q29" s="9">
+      <c r="Q30" s="9">
         <f t="shared" si="7"/>
         <v>34.719636000000001</v>
       </c>
-      <c r="R29" s="9">
-        <f>O29-K29</f>
+      <c r="R30" s="9">
+        <f>O30-K30</f>
         <v>777.71820000000025</v>
       </c>
-      <c r="S29" s="10">
-        <f>R29/K29</f>
+      <c r="S30" s="10">
+        <f>R30/K30</f>
         <v>0.15106918583799914</v>
       </c>
-      <c r="T29" t="s">
+      <c r="T30" t="s">
         <v>58</v>
       </c>
-      <c r="U29" t="s">
+      <c r="U30" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="R30" s="56">
-        <f>R29+SUM(R19:R22)</f>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R31" s="56">
+        <f>R30+SUM(R19:R22)</f>
         <v>821.6682000000003</v>
       </c>
-      <c r="S30" s="10">
-        <f>R30/K29</f>
+      <c r="S31" s="10">
+        <f>R31/K30</f>
         <v>0.15960632784853723</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D31" s="48"/>
-      <c r="H31" s="48" t="s">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D32" s="48"/>
+      <c r="H32" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48" t="s">
+      <c r="I32" s="48"/>
+      <c r="J32" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="R31" s="48"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F32" s="5"/>
-      <c r="G32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="R32" s="48"/>
     </row>
     <row r="33" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="T33" t="s">
+      <c r="F33" s="5"/>
+      <c r="G33" s="48"/>
+    </row>
+    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="T34" t="s">
         <v>70</v>
       </c>
-      <c r="U33">
+      <c r="U34">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="T34" t="s">
+    <row r="35" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="T35" t="s">
         <v>68</v>
       </c>
-      <c r="U34">
+      <c r="U35">
         <v>30.57</v>
       </c>
-      <c r="V34" t="s">
+      <c r="V35" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35">
-        <v>74.89</v>
-      </c>
-      <c r="F35">
-        <v>52</v>
-      </c>
-      <c r="G35" s="10">
-        <f>1-(F35/E35)</f>
-        <v>0.30564828415008682</v>
-      </c>
-      <c r="N35">
-        <v>6769.84</v>
-      </c>
-      <c r="O35">
-        <v>74.459999999999994</v>
-      </c>
-      <c r="P35" s="5">
-        <v>6695.38</v>
-      </c>
-      <c r="S35" s="10"/>
-      <c r="T35" t="s">
-        <v>69</v>
-      </c>
-      <c r="U35" s="3">
-        <f>(U34/U33)-1</f>
-        <v>0.17576923076923068</v>
-      </c>
-      <c r="V35" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="36" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E36">
-        <v>182.08</v>
+        <v>74.89</v>
       </c>
       <c r="F36">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="G36" s="10">
         <f>1-(F36/E36)</f>
-        <v>0.30799648506151145</v>
-      </c>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
+        <v>0.30564828415008682</v>
+      </c>
+      <c r="N36">
+        <v>6769.84</v>
+      </c>
+      <c r="O36">
+        <v>74.459999999999994</v>
+      </c>
       <c r="P36" s="5">
-        <f>P35-K29</f>
-        <v>1547.28712</v>
-      </c>
-      <c r="R36" s="5"/>
+        <v>6695.38</v>
+      </c>
+      <c r="S36" s="10"/>
+      <c r="T36" t="s">
+        <v>69</v>
+      </c>
+      <c r="U36" s="3">
+        <f>(U35/U34)-1</f>
+        <v>0.17576923076923068</v>
+      </c>
+      <c r="V36" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="37" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E37">
-        <v>93.54</v>
+        <v>182.08</v>
       </c>
       <c r="F37">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="G37" s="10">
         <f>1-(F37/E37)</f>
-        <v>0.30511011332050464</v>
-      </c>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
+        <v>0.30799648506151145</v>
+      </c>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-      <c r="P37" s="56">
-        <f>P36*0.1</f>
-        <v>154.728712</v>
-      </c>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5">
+        <f>P36-K30</f>
+        <v>1547.28712</v>
+      </c>
+      <c r="R37" s="5"/>
     </row>
     <row r="38" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>109</v>
+      <c r="D38" t="s">
+        <v>65</v>
       </c>
       <c r="E38">
-        <v>20</v>
+        <v>93.54</v>
       </c>
       <c r="F38">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="G38" s="10">
         <f>1-(F38/E38)</f>
+        <v>0.30511011332050464</v>
+      </c>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="5"/>
+      <c r="P38" s="56">
+        <f>P37*0.1</f>
+        <v>154.728712</v>
+      </c>
+    </row>
+    <row r="39" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39">
+        <v>20</v>
+      </c>
+      <c r="F39">
+        <v>14</v>
+      </c>
+      <c r="G39" s="10">
+        <f>1-(F39/E39)</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="P38" s="56">
-        <f>P36-P37</f>
+      <c r="P39" s="56">
+        <f>P37-P38</f>
         <v>1392.5584079999999</v>
       </c>
-      <c r="R38" s="43"/>
-    </row>
-    <row r="39" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="F39" s="5"/>
-      <c r="R39" s="9"/>
-      <c r="S39">
+      <c r="R39" s="43"/>
+    </row>
+    <row r="40" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="F40" s="5"/>
+      <c r="R40" s="9"/>
+      <c r="S40">
         <f>(0.00242*12)</f>
         <v>2.9039999999999996E-2</v>
       </c>
     </row>
-    <row r="40" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="O40" s="9"/>
-      <c r="R40" s="45"/>
-      <c r="S40">
-        <f>4700*S39</f>
+    <row r="41" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="O41" s="9"/>
+      <c r="R41" s="45"/>
+      <c r="S41">
+        <f>4700*S40</f>
         <v>136.48799999999997</v>
       </c>
     </row>
-    <row r="41" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="P41" s="3"/>
-      <c r="R41" s="50" t="s">
+    <row r="42" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="P42" s="3"/>
+      <c r="R42" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="S41" s="48" t="s">
+      <c r="S42" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="T41" s="5"/>
-    </row>
-    <row r="42" spans="3:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F42" s="5"/>
-      <c r="Q42" t="s">
-        <v>120</v>
-      </c>
-      <c r="R42" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="S42" s="49"/>
       <c r="T42" s="5"/>
     </row>
-    <row r="43" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="E43" s="5"/>
+    <row r="43" spans="3:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F43" s="5"/>
       <c r="Q43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R43" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="S43" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="S43" s="49"/>
+      <c r="T43" s="5"/>
     </row>
     <row r="44" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="J44" t="s">
+      <c r="Q44" t="s">
+        <v>121</v>
+      </c>
+      <c r="R44" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="S44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="J45" t="s">
         <v>127</v>
       </c>
-      <c r="R44" s="5"/>
-      <c r="S44" t="s">
+      <c r="R45" s="5"/>
+      <c r="S45" t="s">
         <v>140</v>
       </c>
-      <c r="T44" s="5"/>
-    </row>
-    <row r="45" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="J45" s="58">
+      <c r="T45" s="5"/>
+    </row>
+    <row r="46" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="J46" s="58">
         <v>43587</v>
       </c>
-      <c r="R45" s="43"/>
-    </row>
-    <row r="46" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="J46" t="s">
-        <v>128</v>
-      </c>
-      <c r="R46" s="44"/>
+      <c r="R46" s="43"/>
     </row>
     <row r="47" spans="3:22" x14ac:dyDescent="0.25">
       <c r="J47" t="s">
+        <v>128</v>
+      </c>
+      <c r="R47" s="44"/>
+    </row>
+    <row r="48" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="J48" t="s">
         <v>129</v>
       </c>
-      <c r="R47" s="57"/>
-      <c r="S47">
+      <c r="R48" s="57"/>
+      <c r="S48">
         <f>5000/12</f>
         <v>416.66666666666669</v>
       </c>
     </row>
-    <row r="48" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="J48" t="s">
-        <v>130</v>
-      </c>
-      <c r="S48">
-        <f>2.2/S47</f>
-        <v>5.28E-3</v>
-      </c>
-    </row>
     <row r="49" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S49">
-        <f>100*S48</f>
-        <v>0.52800000000000002</v>
+        <f>2.2/S48</f>
+        <v>5.28E-3</v>
       </c>
     </row>
     <row r="50" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J50" t="s">
+        <v>131</v>
+      </c>
+      <c r="S50">
+        <f>100*S49</f>
+        <v>0.52800000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J51" t="s">
         <v>132</v>
       </c>
-      <c r="S50">
+      <c r="S51">
         <f>2.2*12</f>
         <v>26.400000000000002</v>
       </c>
     </row>
-    <row r="51" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J51" t="s">
-        <v>133</v>
-      </c>
-    </row>
     <row r="52" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J56" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J57" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J58" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3686,8 +3727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3717,15 +3758,16 @@
         <v>75</v>
       </c>
       <c r="B3" s="56">
-        <v>1000</v>
+        <f>1000-15.8</f>
+        <v>984.2</v>
       </c>
       <c r="C3" s="3">
         <f>B3/B$7</f>
-        <v>0.24390243902439024</v>
+        <v>0.24097742519954951</v>
       </c>
       <c r="D3" s="56">
         <f>D$7*C3</f>
-        <v>0</v>
+        <v>85.021655158905062</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3738,11 +3780,11 @@
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" si="0">B4/B$7</f>
-        <v>0.3</v>
+        <v>0.30116057000146906</v>
       </c>
       <c r="D4" s="56">
         <f t="shared" ref="D4:D6" si="1">D$7*C4</f>
-        <v>0</v>
+        <v>106.25547230791831</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3754,11 +3796,11 @@
       </c>
       <c r="C5" s="3">
         <f t="shared" si="0"/>
-        <v>0.12195121951219512</v>
+        <v>0.12242299593555654</v>
       </c>
       <c r="D5" s="56">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>43.193281425983059</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3770,11 +3812,11 @@
       </c>
       <c r="C6" s="3">
         <f t="shared" si="0"/>
-        <v>0.33414634146341465</v>
+        <v>0.33543900886342493</v>
       </c>
       <c r="D6" s="56">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>118.34959110719358</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3783,18 +3825,24 @@
       </c>
       <c r="B7" s="56">
         <f>SUM(B3:B6)</f>
-        <v>4100</v>
+        <v>4084.2</v>
       </c>
       <c r="C7" s="3">
-        <f>SUM(C4:C6)</f>
-        <v>0.75609756097560976</v>
+        <f>SUM(C3:C6)</f>
+        <v>1</v>
       </c>
       <c r="D7" s="56">
-        <v>0</v>
+        <v>352.82</v>
       </c>
       <c r="E7" t="s">
         <v>84</v>
       </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="56"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="56"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3810,7 +3858,7 @@
       </c>
       <c r="B12" s="56">
         <f>B7+B11</f>
-        <v>9192.08</v>
+        <v>9176.2799999999988</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">

--- a/2019/Inversiones.xlsx
+++ b/2019/Inversiones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44902F87-7656-414A-9F05-8BE2DF70457F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DDEC83-F374-451B-B0BE-BAEC0C2D703A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27525" windowHeight="10635" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="143">
   <si>
     <t>% =</t>
   </si>
@@ -1682,7 +1682,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2269,10 +2269,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:V58"/>
+  <dimension ref="A1:W58"/>
   <sheetViews>
-    <sheetView topLeftCell="H16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView topLeftCell="J31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U45" sqref="U45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3426,19 +3426,28 @@
       <c r="O32" s="48"/>
       <c r="R32" s="48"/>
     </row>
-    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:23" x14ac:dyDescent="0.25">
       <c r="F33" s="5"/>
       <c r="G33" s="48"/>
-    </row>
-    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="U33" t="s">
+        <v>46</v>
+      </c>
+      <c r="V33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="3:23" x14ac:dyDescent="0.25">
       <c r="T34" t="s">
         <v>70</v>
       </c>
       <c r="U34">
         <v>26</v>
       </c>
-    </row>
-    <row r="35" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="V34">
+        <v>68.069999999999993</v>
+      </c>
+    </row>
+    <row r="35" spans="3:23" x14ac:dyDescent="0.25">
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -3455,11 +3464,14 @@
       <c r="U35">
         <v>30.57</v>
       </c>
-      <c r="V35" t="s">
+      <c r="V35">
+        <v>75.53</v>
+      </c>
+      <c r="W35" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:23" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>64</v>
       </c>
@@ -3490,11 +3502,15 @@
         <f>(U35/U34)-1</f>
         <v>0.17576923076923068</v>
       </c>
-      <c r="V36" t="s">
+      <c r="V36" s="3">
+        <f>(V35/V34)-1</f>
+        <v>0.10959306596151031</v>
+      </c>
+      <c r="W36" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:23" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>63</v>
       </c>
@@ -3522,7 +3538,7 @@
       </c>
       <c r="R37" s="5"/>
     </row>
-    <row r="38" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:23" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>65</v>
       </c>
@@ -3545,7 +3561,7 @@
         <v>154.728712</v>
       </c>
     </row>
-    <row r="39" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>109</v>
       </c>
@@ -3565,7 +3581,7 @@
       </c>
       <c r="R39" s="43"/>
     </row>
-    <row r="40" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:23" x14ac:dyDescent="0.25">
       <c r="F40" s="5"/>
       <c r="R40" s="9"/>
       <c r="S40">
@@ -3573,7 +3589,7 @@
         <v>2.9039999999999996E-2</v>
       </c>
     </row>
-    <row r="41" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:23" x14ac:dyDescent="0.25">
       <c r="O41" s="9"/>
       <c r="R41" s="45"/>
       <c r="S41">
@@ -3581,7 +3597,7 @@
         <v>136.48799999999997</v>
       </c>
     </row>
-    <row r="42" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:23" x14ac:dyDescent="0.25">
       <c r="P42" s="3"/>
       <c r="R42" s="50" t="s">
         <v>123</v>
@@ -3591,7 +3607,7 @@
       </c>
       <c r="T42" s="5"/>
     </row>
-    <row r="43" spans="3:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F43" s="5"/>
       <c r="Q43" t="s">
         <v>120</v>
@@ -3602,7 +3618,7 @@
       <c r="S43" s="49"/>
       <c r="T43" s="5"/>
     </row>
-    <row r="44" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:23" x14ac:dyDescent="0.25">
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="Q44" t="s">
@@ -3615,7 +3631,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:23" x14ac:dyDescent="0.25">
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -3628,19 +3644,19 @@
       </c>
       <c r="T45" s="5"/>
     </row>
-    <row r="46" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:23" x14ac:dyDescent="0.25">
       <c r="J46" s="58">
         <v>43587</v>
       </c>
       <c r="R46" s="43"/>
     </row>
-    <row r="47" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:23" x14ac:dyDescent="0.25">
       <c r="J47" t="s">
         <v>128</v>
       </c>
       <c r="R47" s="44"/>
     </row>
-    <row r="48" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:23" x14ac:dyDescent="0.25">
       <c r="J48" t="s">
         <v>129</v>
       </c>
@@ -3728,7 +3744,7 @@
   <dimension ref="A2:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3877,8 +3893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2019/Inversiones.xlsx
+++ b/2019/Inversiones.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DDEC83-F374-451B-B0BE-BAEC0C2D703A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E486AACA-06F9-4FB8-8279-27134B1D485B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27525" windowHeight="10635" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27525" windowHeight="10635" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Operacion 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="144">
   <si>
     <t>% =</t>
   </si>
@@ -505,6 +505,9 @@
   </si>
   <si>
     <t>Comisiones+Impuestos Compra BMW.DE</t>
+  </si>
+  <si>
+    <t>Custodia de acciones  03/2019</t>
   </si>
 </sst>
 </file>
@@ -2269,10 +2272,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:W58"/>
+  <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView topLeftCell="J31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U45" sqref="U45"/>
+    <sheetView tabSelected="1" topLeftCell="J13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3096,635 +3099,662 @@
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
+      <c r="R24" s="9">
+        <f>-3.09</f>
+        <v>-3.09</v>
+      </c>
       <c r="S24" s="10"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H26" s="15">
-        <f t="shared" ref="H26:O26" si="0">SUM(H3:H25)</f>
+      <c r="T24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="10"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H27" s="15">
+        <f t="shared" ref="H27:O27" si="0">SUM(H3:H26)</f>
         <v>17571.839999999997</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I27" s="15">
         <f t="shared" si="0"/>
         <v>72.891499999999994</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J27" s="15">
         <f t="shared" si="0"/>
         <v>28.044699999999999</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K27" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L26" s="15">
+      <c r="L27" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M26" s="15">
+      <c r="M27" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N26" s="15">
+      <c r="N27" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O26" s="15">
+      <c r="O27" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R26" s="15">
-        <f>SUM(R3:R25)</f>
-        <v>3177.9794679999995</v>
-      </c>
-      <c r="S26" s="16">
-        <f>SUM(S3:S25)</f>
+      <c r="R27" s="15">
+        <f>SUM(R3:R26)</f>
+        <v>3174.8894679999994</v>
+      </c>
+      <c r="S27" s="16">
+        <f>SUM(S3:S26)</f>
         <v>3.7548916419551364</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="51"/>
-      <c r="U27">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
+      <c r="U28">
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="str">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="39" t="str">
         <f>'Operacion 1'!B$3</f>
         <v>ABI.BR</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B29" s="8">
         <f>'Operacion 1'!B$2</f>
         <v>42234</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="14">
+      <c r="C29" s="8"/>
+      <c r="D29" s="14">
         <f>'Operacion 1'!B$5</f>
         <v>62</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E29" s="9">
         <f>'Operacion 1'!B$4</f>
         <v>89</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F29" s="9">
         <f>'Operacion 1'!B$6</f>
         <v>120</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G29" s="10">
         <f>'Operacion 1'!B$7</f>
         <v>0.348314606741573</v>
       </c>
-      <c r="H28" s="9">
-        <f>(E28*D28)</f>
+      <c r="H29" s="9">
+        <f>(E29*D29)</f>
         <v>5518</v>
       </c>
-      <c r="I28" s="9">
-        <f>IF((H28*0.005)&lt;20,20,(H28*0.005))</f>
+      <c r="I29" s="9">
+        <f>IF((H29*0.005)&lt;20,20,(H29*0.005))</f>
         <v>27.59</v>
       </c>
-      <c r="J28" s="9">
-        <f>SUM(H28:I28)*0.0027</f>
+      <c r="J29" s="9">
+        <f>SUM(H29:I29)*0.0027</f>
         <v>14.973093</v>
       </c>
-      <c r="K28" s="9">
-        <f>SUM(H28:J28)</f>
+      <c r="K29" s="9">
+        <f>SUM(H29:J29)</f>
         <v>5560.5630929999998</v>
       </c>
-      <c r="L28" s="9">
-        <f>D28*F28</f>
+      <c r="L29" s="9">
+        <f>D29*F29</f>
         <v>7440</v>
       </c>
-      <c r="M28" s="9">
-        <f>IF((L28*0.005)&lt;20,-20,-(L28*0.005))</f>
+      <c r="M29" s="9">
+        <f>IF((L29*0.005)&lt;20,-20,-(L29*0.005))</f>
         <v>-37.200000000000003</v>
       </c>
-      <c r="N28" s="9">
-        <f>-(SUM(L28:M28)*0.0027)</f>
+      <c r="N29" s="9">
+        <f>-(SUM(L29:M29)*0.0027)</f>
         <v>-19.987560000000002</v>
       </c>
-      <c r="O28" s="9">
-        <f>SUM(L28:N28)</f>
+      <c r="O29" s="9">
+        <f>SUM(L29:N29)</f>
         <v>7382.8124400000006</v>
       </c>
-      <c r="P28" s="9">
-        <f>I28-M28</f>
+      <c r="P29" s="9">
+        <f>I29-M29</f>
         <v>64.790000000000006</v>
       </c>
-      <c r="Q28" s="9">
-        <f>J28-N28</f>
+      <c r="Q29" s="9">
+        <f>J29-N29</f>
         <v>34.960653000000001</v>
       </c>
-      <c r="R28" s="9">
-        <f t="shared" ref="R28:R29" si="1">O28-K28</f>
+      <c r="R29" s="9">
+        <f t="shared" ref="R29:R30" si="1">O29-K29</f>
         <v>1822.2493470000009</v>
       </c>
-      <c r="S28" s="10">
-        <f>R28/K28</f>
+      <c r="S29" s="10">
+        <f>R29/K29</f>
         <v>0.32770949929404947</v>
       </c>
-      <c r="T28" t="s">
+      <c r="T29" t="s">
         <v>111</v>
       </c>
-      <c r="U28" t="s">
+      <c r="U29" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="str">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="39" t="str">
         <f>'Operacion 2'!B$3</f>
         <v>BMV.DE</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B30" s="8">
         <f>'Operacion 2'!B$2</f>
         <v>42471</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="14">
+      <c r="C30" s="8"/>
+      <c r="D30" s="14">
         <f>'Operacion 2'!B$5</f>
         <v>60</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E30" s="9">
         <f>'Operacion 2'!B$4</f>
         <v>68.069999999999993</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F30" s="9">
         <f>'Operacion 2'!B$6</f>
         <v>75.53</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G30" s="10">
         <f>'Operacion 2'!B$7</f>
         <v>0.10959306596151031</v>
       </c>
-      <c r="H29" s="9">
-        <f t="shared" ref="H29:H30" si="2">E29*D29</f>
+      <c r="H30" s="9">
+        <f t="shared" ref="H30:H31" si="2">E30*D30</f>
         <v>4084.2</v>
       </c>
-      <c r="I29" s="9">
-        <f>IF((H29*(0.0075))&lt;30,30,(H29*(0.0075)))</f>
+      <c r="I30" s="9">
+        <f>IF((H30*(0.0075))&lt;30,30,(H30*(0.0075)))</f>
         <v>30.631499999999999</v>
       </c>
-      <c r="J29" s="9">
-        <f>H29*0.0035</f>
+      <c r="J30" s="9">
+        <f>H30*0.0035</f>
         <v>14.294699999999999</v>
       </c>
-      <c r="K29" s="9">
-        <f t="shared" ref="K29:K30" si="3">SUM(H29:J29)</f>
+      <c r="K30" s="9">
+        <f t="shared" ref="K30:K31" si="3">SUM(H30:J30)</f>
         <v>4129.1262000000006</v>
       </c>
-      <c r="L29" s="9">
-        <f t="shared" ref="L29:L30" si="4">D29*F29</f>
+      <c r="L30" s="9">
+        <f t="shared" ref="L30:L31" si="4">D30*F30</f>
         <v>4531.8</v>
       </c>
-      <c r="M29" s="9">
-        <f>IF((L29*(0.0075))&lt;30,-30,-(L29*(0.0075)))</f>
+      <c r="M30" s="9">
+        <f>IF((L30*(0.0075))&lt;30,-30,-(L30*(0.0075)))</f>
         <v>-33.988500000000002</v>
       </c>
-      <c r="N29" s="9">
-        <f>-(L29*0.0035)</f>
+      <c r="N30" s="9">
+        <f>-(L30*0.0035)</f>
         <v>-15.861300000000002</v>
       </c>
-      <c r="O29" s="9">
-        <f t="shared" ref="O29:O30" si="5">SUM(L29:N29)</f>
+      <c r="O30" s="9">
+        <f t="shared" ref="O30:O31" si="5">SUM(L30:N30)</f>
         <v>4481.9502000000002</v>
       </c>
-      <c r="P29" s="9">
-        <f t="shared" ref="P29:P30" si="6">I29-M29</f>
+      <c r="P30" s="9">
+        <f t="shared" ref="P30:P31" si="6">I30-M30</f>
         <v>64.62</v>
       </c>
-      <c r="Q29" s="9">
-        <f t="shared" ref="Q29:Q30" si="7">J29-N29</f>
+      <c r="Q30" s="9">
+        <f t="shared" ref="Q30:Q31" si="7">J30-N30</f>
         <v>30.155999999999999</v>
       </c>
-      <c r="R29" s="9">
+      <c r="R30" s="9">
         <f t="shared" si="1"/>
         <v>352.82399999999961</v>
       </c>
-      <c r="S29" s="10">
-        <f t="shared" ref="S29" si="8">R29/K29</f>
+      <c r="S30" s="10">
+        <f t="shared" ref="S30" si="8">R30/K30</f>
         <v>8.5447618433168629E-2</v>
       </c>
-      <c r="T29" t="s">
+      <c r="T30" t="s">
         <v>110</v>
       </c>
-      <c r="U29" t="s">
+      <c r="U30" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="str">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="39" t="str">
         <f>'Operacion 3'!B3</f>
         <v>ITX.MC</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B31" s="8">
         <f>'Operacion 3'!B$2</f>
         <v>43154</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="14">
+      <c r="C31" s="8"/>
+      <c r="D31" s="14">
         <f>'Operacion 3'!B$5</f>
         <v>196</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E31" s="9">
         <f>'Operacion 3'!B$4</f>
         <v>25.98</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F31" s="9">
         <f>'Operacion 3'!B$6</f>
         <v>30.57</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G31" s="10">
         <f>'Operacion 3'!B$7</f>
         <v>0.1766743648960738</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H31" s="9">
         <f t="shared" si="2"/>
         <v>5092.08</v>
       </c>
-      <c r="I30" s="9">
-        <f>IF((H30*(0.0075+0.0008))&lt;30,30,(H30*(0.0075+0.0008)))</f>
+      <c r="I31" s="9">
+        <f>IF((H31*(0.0075+0.0008))&lt;30,30,(H31*(0.0075+0.0008)))</f>
         <v>42.264263999999997</v>
       </c>
-      <c r="J30" s="9">
-        <f>H30*0.0027</f>
+      <c r="J31" s="9">
+        <f>H31*0.0027</f>
         <v>13.748616</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K31" s="9">
         <f t="shared" si="3"/>
         <v>5148.0928800000002</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L31" s="9">
         <f t="shared" si="4"/>
         <v>5991.72</v>
       </c>
-      <c r="M30" s="9">
-        <f>IF((L30*(0.0075))&lt;30,-30,-(L30*(0.0075)))</f>
+      <c r="M31" s="9">
+        <f>IF((L31*(0.0075))&lt;30,-30,-(L31*(0.0075)))</f>
         <v>-44.937899999999999</v>
       </c>
-      <c r="N30" s="9">
-        <f>-(L30*0.0035)</f>
+      <c r="N31" s="9">
+        <f>-(L31*0.0035)</f>
         <v>-20.971020000000003</v>
       </c>
-      <c r="O30" s="9">
+      <c r="O31" s="9">
         <f t="shared" si="5"/>
         <v>5925.8110800000004</v>
       </c>
-      <c r="P30" s="9">
+      <c r="P31" s="9">
         <f t="shared" si="6"/>
         <v>87.202163999999996</v>
       </c>
-      <c r="Q30" s="9">
+      <c r="Q31" s="9">
         <f t="shared" si="7"/>
         <v>34.719636000000001</v>
       </c>
-      <c r="R30" s="9">
-        <f>O30-K30</f>
+      <c r="R31" s="9">
+        <f>O31-K31</f>
         <v>777.71820000000025</v>
       </c>
-      <c r="S30" s="10">
-        <f>R30/K30</f>
+      <c r="S31" s="10">
+        <f>R31/K31</f>
         <v>0.15106918583799914</v>
       </c>
-      <c r="T30" t="s">
+      <c r="T31" t="s">
         <v>58</v>
       </c>
-      <c r="U30" t="s">
+      <c r="U31" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="R31" s="56">
-        <f>R30+SUM(R19:R22)</f>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R32" s="56">
+        <f>R31+SUM(R19:R22)</f>
         <v>821.6682000000003</v>
       </c>
-      <c r="S31" s="10">
-        <f>R31/K30</f>
+      <c r="S32" s="10">
+        <f>R32/K31</f>
         <v>0.15960632784853723</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D32" s="48"/>
-      <c r="H32" s="48" t="s">
+    <row r="33" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="D33" s="48"/>
+      <c r="H33" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48" t="s">
+      <c r="I33" s="48"/>
+      <c r="J33" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="R32" s="48"/>
-    </row>
-    <row r="33" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="F33" s="5"/>
-      <c r="G33" s="48"/>
-      <c r="U33" t="s">
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="R33" s="48"/>
+    </row>
+    <row r="34" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="F34" s="5"/>
+      <c r="G34" s="48"/>
+      <c r="U34" t="s">
         <v>46</v>
       </c>
-      <c r="V33" t="s">
+      <c r="V34" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="T34" t="s">
+    <row r="35" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="T35" t="s">
         <v>70</v>
       </c>
-      <c r="U34">
+      <c r="U35">
         <v>26</v>
       </c>
-      <c r="V34">
+      <c r="V35">
         <v>68.069999999999993</v>
       </c>
     </row>
-    <row r="35" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="T35" t="s">
+    <row r="36" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="T36" t="s">
         <v>68</v>
       </c>
-      <c r="U35">
+      <c r="U36">
         <v>30.57</v>
       </c>
-      <c r="V35">
+      <c r="V36">
         <v>75.53</v>
       </c>
-      <c r="W35" t="s">
+      <c r="W36" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36">
-        <v>74.89</v>
-      </c>
-      <c r="F36">
-        <v>52</v>
-      </c>
-      <c r="G36" s="10">
-        <f>1-(F36/E36)</f>
-        <v>0.30564828415008682</v>
-      </c>
-      <c r="N36">
-        <v>6769.84</v>
-      </c>
-      <c r="O36">
-        <v>74.459999999999994</v>
-      </c>
-      <c r="P36" s="5">
-        <v>6695.38</v>
-      </c>
-      <c r="S36" s="10"/>
-      <c r="T36" t="s">
-        <v>69</v>
-      </c>
-      <c r="U36" s="3">
-        <f>(U35/U34)-1</f>
-        <v>0.17576923076923068</v>
-      </c>
-      <c r="V36" s="3">
-        <f>(V35/V34)-1</f>
-        <v>0.10959306596151031</v>
-      </c>
-      <c r="W36" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="37" spans="3:23" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E37">
-        <v>182.08</v>
+        <v>74.89</v>
       </c>
       <c r="F37">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="G37" s="10">
         <f>1-(F37/E37)</f>
-        <v>0.30799648506151145</v>
-      </c>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
+        <v>0.30564828415008682</v>
+      </c>
+      <c r="N37">
+        <v>6769.84</v>
+      </c>
+      <c r="O37">
+        <v>74.459999999999994</v>
+      </c>
       <c r="P37" s="5">
-        <f>P36-K30</f>
-        <v>1547.28712</v>
-      </c>
-      <c r="R37" s="5"/>
+        <v>6695.38</v>
+      </c>
+      <c r="S37" s="10"/>
+      <c r="T37" t="s">
+        <v>69</v>
+      </c>
+      <c r="U37" s="3">
+        <f>(U36/U35)-1</f>
+        <v>0.17576923076923068</v>
+      </c>
+      <c r="V37" s="3">
+        <f>(V36/V35)-1</f>
+        <v>0.10959306596151031</v>
+      </c>
+      <c r="W37" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="38" spans="3:23" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E38">
-        <v>93.54</v>
+        <v>182.08</v>
       </c>
       <c r="F38">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="G38" s="10">
         <f>1-(F38/E38)</f>
-        <v>0.30511011332050464</v>
-      </c>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
+        <v>0.30799648506151145</v>
+      </c>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="P38" s="56">
-        <f>P37*0.1</f>
-        <v>154.728712</v>
-      </c>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5">
+        <f>P37-K31</f>
+        <v>1547.28712</v>
+      </c>
+      <c r="R38" s="5"/>
     </row>
     <row r="39" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>109</v>
+      <c r="D39" t="s">
+        <v>65</v>
       </c>
       <c r="E39">
-        <v>20</v>
+        <v>93.54</v>
       </c>
       <c r="F39">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="G39" s="10">
         <f>1-(F39/E39)</f>
+        <v>0.30511011332050464</v>
+      </c>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="5"/>
+      <c r="P39" s="56">
+        <f>P38*0.1</f>
+        <v>154.728712</v>
+      </c>
+    </row>
+    <row r="40" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>109</v>
+      </c>
+      <c r="E40">
+        <v>20</v>
+      </c>
+      <c r="F40">
+        <v>14</v>
+      </c>
+      <c r="G40" s="10">
+        <f>1-(F40/E40)</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="P39" s="56">
-        <f>P37-P38</f>
+      <c r="P40" s="56">
+        <f>P38-P39</f>
         <v>1392.5584079999999</v>
       </c>
-      <c r="R39" s="43"/>
-    </row>
-    <row r="40" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="F40" s="5"/>
-      <c r="R40" s="9"/>
-      <c r="S40">
+      <c r="R40" s="43"/>
+    </row>
+    <row r="41" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="F41" s="5"/>
+      <c r="R41" s="9"/>
+      <c r="S41">
         <f>(0.00242*12)</f>
         <v>2.9039999999999996E-2</v>
       </c>
     </row>
-    <row r="41" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="O41" s="9"/>
-      <c r="R41" s="45"/>
-      <c r="S41">
-        <f>4700*S40</f>
+    <row r="42" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="O42" s="9"/>
+      <c r="R42" s="45"/>
+      <c r="S42">
+        <f>4700*S41</f>
         <v>136.48799999999997</v>
       </c>
     </row>
-    <row r="42" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="P42" s="3"/>
-      <c r="R42" s="50" t="s">
+    <row r="43" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="P43" s="3"/>
+      <c r="R43" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="S42" s="48" t="s">
+      <c r="S43" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="T42" s="5"/>
-    </row>
-    <row r="43" spans="3:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F43" s="5"/>
-      <c r="Q43" t="s">
-        <v>120</v>
-      </c>
-      <c r="R43" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="S43" s="49"/>
       <c r="T43" s="5"/>
     </row>
-    <row r="44" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="E44" s="5"/>
+    <row r="44" spans="3:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F44" s="5"/>
       <c r="Q44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R44" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="S44" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="S44" s="49"/>
+      <c r="T44" s="5"/>
     </row>
     <row r="45" spans="3:23" x14ac:dyDescent="0.25">
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="J45" t="s">
+      <c r="Q45" t="s">
+        <v>121</v>
+      </c>
+      <c r="R45" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="S45" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="J46" t="s">
         <v>127</v>
       </c>
-      <c r="R45" s="5"/>
-      <c r="S45" t="s">
+      <c r="R46" s="5"/>
+      <c r="S46" t="s">
         <v>140</v>
       </c>
-      <c r="T45" s="5"/>
-    </row>
-    <row r="46" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="J46" s="58">
+      <c r="T46" s="5"/>
+    </row>
+    <row r="47" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="J47" s="58">
         <v>43587</v>
       </c>
-      <c r="R46" s="43"/>
-    </row>
-    <row r="47" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="J47" t="s">
-        <v>128</v>
-      </c>
-      <c r="R47" s="44"/>
+      <c r="R47" s="43"/>
     </row>
     <row r="48" spans="3:23" x14ac:dyDescent="0.25">
       <c r="J48" t="s">
+        <v>128</v>
+      </c>
+      <c r="R48" s="44"/>
+    </row>
+    <row r="49" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J49" t="s">
         <v>129</v>
       </c>
-      <c r="R48" s="57"/>
-      <c r="S48">
+      <c r="R49" s="57"/>
+      <c r="S49">
         <f>5000/12</f>
         <v>416.66666666666669</v>
       </c>
     </row>
-    <row r="49" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J49" t="s">
-        <v>130</v>
-      </c>
-      <c r="S49">
-        <f>2.2/S48</f>
-        <v>5.28E-3</v>
-      </c>
-    </row>
     <row r="50" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S50">
-        <f>100*S49</f>
-        <v>0.52800000000000002</v>
+        <f>2.2/S49</f>
+        <v>5.28E-3</v>
       </c>
     </row>
     <row r="51" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J51" t="s">
+        <v>131</v>
+      </c>
+      <c r="S51">
+        <f>100*S50</f>
+        <v>0.52800000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J52" t="s">
         <v>132</v>
       </c>
-      <c r="S51">
+      <c r="S52">
         <f>2.2*12</f>
         <v>26.400000000000002</v>
       </c>
     </row>
-    <row r="52" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J52" t="s">
-        <v>133</v>
-      </c>
-    </row>
     <row r="53" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J56" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J58" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J59" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3743,8 +3773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2019/Inversiones.xlsx
+++ b/2019/Inversiones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E486AACA-06F9-4FB8-8279-27134B1D485B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AED9ED-0B71-46F8-A3B5-78F0B7EA13CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27525" windowHeight="10635" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2274,8 +2274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView tabSelected="1" topLeftCell="J22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V37" sqref="V37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3474,7 +3474,7 @@
         <v>26</v>
       </c>
       <c r="V35">
-        <v>68.069999999999993</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="3:23" x14ac:dyDescent="0.25">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="V37" s="3">
         <f>(V36/V35)-1</f>
-        <v>0.10959306596151031</v>
+        <v>6.3802816901408432E-2</v>
       </c>
       <c r="W37" t="s">
         <v>83</v>

--- a/2019/Inversiones.xlsx
+++ b/2019/Inversiones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AED9ED-0B71-46F8-A3B5-78F0B7EA13CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0153EC07-8C5F-4840-9C23-35607FEB5C7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27525" windowHeight="10635" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="144">
   <si>
     <t>% =</t>
   </si>
@@ -429,9 +429,6 @@
     <t>7. Que no reparta dividendos o lo haga en acciones que no se sea ampliacion de capital</t>
   </si>
   <si>
-    <t>Custodia de acciones  ITX.MC 2018</t>
-  </si>
-  <si>
     <t>Coche</t>
   </si>
   <si>
@@ -456,9 +453,6 @@
     <t>68.11-75.54</t>
   </si>
   <si>
-    <t>Custodia de acciones  ITX.MC 2019</t>
-  </si>
-  <si>
     <t>Interim dividend payment</t>
   </si>
   <si>
@@ -507,7 +501,13 @@
     <t>Comisiones+Impuestos Compra BMW.DE</t>
   </si>
   <si>
-    <t>Custodia de acciones  03/2019</t>
+    <t>Venta</t>
+  </si>
+  <si>
+    <t>Custodia de acciones 2018</t>
+  </si>
+  <si>
+    <t>Custodia de acciones 2019</t>
   </si>
 </sst>
 </file>
@@ -2274,8 +2274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V37" sqref="V37"/>
+    <sheetView tabSelected="1" topLeftCell="I7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="S21" s="10"/>
       <c r="T21" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -3038,17 +3038,17 @@
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9">
-        <f>-2.18-2.26</f>
-        <v>-4.4399999999999995</v>
+        <f>-2.18-2.26-3.09</f>
+        <v>-7.5299999999999994</v>
       </c>
       <c r="S22" s="10"/>
       <c r="T22" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B23" s="8">
         <v>43550</v>
@@ -3078,34 +3078,69 @@
       </c>
       <c r="S23" s="10"/>
       <c r="T23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
+      <c r="A24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="8">
+        <v>43545</v>
+      </c>
+      <c r="C24" s="8">
+        <v>43567</v>
+      </c>
+      <c r="D24" s="14">
+        <v>60</v>
+      </c>
+      <c r="E24" s="9">
+        <v>68.069999999999993</v>
+      </c>
+      <c r="F24" s="9">
+        <v>75.53</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0.10959306596151031</v>
+      </c>
+      <c r="H24" s="9">
+        <v>4084.2</v>
+      </c>
+      <c r="I24" s="9">
+        <v>30.631499999999999</v>
+      </c>
+      <c r="J24" s="9">
+        <v>14.294699999999999</v>
+      </c>
+      <c r="K24" s="9">
+        <v>4129.1262000000006</v>
+      </c>
+      <c r="L24" s="9">
+        <v>4531.8</v>
+      </c>
+      <c r="M24" s="9">
+        <v>-33.988500000000002</v>
+      </c>
+      <c r="N24" s="9">
+        <v>-15.861300000000002</v>
+      </c>
+      <c r="O24" s="9">
+        <v>4481.9502000000002</v>
+      </c>
+      <c r="P24" s="9">
+        <v>64.62</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>30.155999999999999</v>
+      </c>
       <c r="R24" s="9">
-        <f>-3.09</f>
-        <v>-3.09</v>
-      </c>
-      <c r="S24" s="10"/>
+        <v>352.82399999999961</v>
+      </c>
+      <c r="S24" s="10">
+        <v>8.5447618433168629E-2</v>
+      </c>
       <c r="T24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -3132,43 +3167,43 @@
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H27" s="15">
         <f t="shared" ref="H27:O27" si="0">SUM(H3:H26)</f>
-        <v>17571.839999999997</v>
+        <v>21656.039999999997</v>
       </c>
       <c r="I27" s="15">
         <f t="shared" si="0"/>
-        <v>72.891499999999994</v>
+        <v>103.523</v>
       </c>
       <c r="J27" s="15">
         <f t="shared" si="0"/>
-        <v>28.044699999999999</v>
+        <v>42.339399999999998</v>
       </c>
       <c r="K27" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4129.1262000000006</v>
       </c>
       <c r="L27" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4531.8</v>
       </c>
       <c r="M27" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-33.988500000000002</v>
       </c>
       <c r="N27" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-15.861300000000002</v>
       </c>
       <c r="O27" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4481.9502000000002</v>
       </c>
       <c r="R27" s="15">
         <f>SUM(R3:R26)</f>
-        <v>3174.8894679999994</v>
+        <v>3527.713467999999</v>
       </c>
       <c r="S27" s="16">
         <f>SUM(S3:S26)</f>
-        <v>3.7548916419551364</v>
+        <v>3.8403392603883049</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -3433,11 +3468,11 @@
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="R32" s="56">
         <f>R31+SUM(R19:R22)</f>
-        <v>821.6682000000003</v>
+        <v>818.57820000000027</v>
       </c>
       <c r="S32" s="10">
         <f>R32/K31</f>
-        <v>0.15960632784853723</v>
+        <v>0.15900610557748915</v>
       </c>
     </row>
     <row r="33" spans="3:23" x14ac:dyDescent="0.25">
@@ -3463,7 +3498,7 @@
         <v>46</v>
       </c>
       <c r="V34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="3:23" x14ac:dyDescent="0.25">
@@ -3474,7 +3509,7 @@
         <v>26</v>
       </c>
       <c r="V35">
-        <v>71</v>
+        <v>73.510000000000005</v>
       </c>
     </row>
     <row r="36" spans="3:23" x14ac:dyDescent="0.25">
@@ -3534,7 +3569,7 @@
       </c>
       <c r="V37" s="3">
         <f>(V36/V35)-1</f>
-        <v>6.3802816901408432E-2</v>
+        <v>2.7479254523194108E-2</v>
       </c>
       <c r="W37" t="s">
         <v>83</v>
@@ -3630,20 +3665,20 @@
     <row r="43" spans="3:23" x14ac:dyDescent="0.25">
       <c r="P43" s="3"/>
       <c r="R43" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="S43" s="48" t="s">
         <v>123</v>
-      </c>
-      <c r="S43" s="48" t="s">
-        <v>124</v>
       </c>
       <c r="T43" s="5"/>
     </row>
     <row r="44" spans="3:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F44" s="5"/>
       <c r="Q44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R44" s="57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S44" s="49"/>
       <c r="T44" s="5"/>
@@ -3652,13 +3687,13 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="Q45" t="s">
+        <v>120</v>
+      </c>
+      <c r="R45" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="R45" s="57" t="s">
-        <v>122</v>
-      </c>
       <c r="S45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="3:23" x14ac:dyDescent="0.25">
@@ -3666,11 +3701,11 @@
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="J46" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="R46" s="5"/>
       <c r="S46" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="T46" s="5"/>
     </row>
@@ -3682,13 +3717,13 @@
     </row>
     <row r="48" spans="3:23" x14ac:dyDescent="0.25">
       <c r="J48" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="R48" s="44"/>
     </row>
     <row r="49" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J49" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="R49" s="57"/>
       <c r="S49">
@@ -3698,7 +3733,7 @@
     </row>
     <row r="50" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J50" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="S50">
         <f>2.2/S49</f>
@@ -3707,7 +3742,7 @@
     </row>
     <row r="51" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J51" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="S51">
         <f>100*S50</f>
@@ -3716,7 +3751,7 @@
     </row>
     <row r="52" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J52" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="S52">
         <f>2.2*12</f>
@@ -3725,37 +3760,37 @@
     </row>
     <row r="53" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J53" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J54" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J55" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J56" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J57" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J58" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J59" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3774,7 +3809,7 @@
   <dimension ref="A2:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3851,7 +3886,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" s="56">
         <v>1370</v>

--- a/2019/Inversiones.xlsx
+++ b/2019/Inversiones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0153EC07-8C5F-4840-9C23-35607FEB5C7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609010E4-FDC9-4AB7-9349-EA1B3EAD6319}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27525" windowHeight="10635" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1685,7 +1685,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1703,7 +1703,7 @@
         <v>32</v>
       </c>
       <c r="B1" s="5">
-        <v>4100</v>
+        <v>4050</v>
       </c>
       <c r="D1" s="64" t="s">
         <v>1</v>
@@ -1738,14 +1738,14 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="24">
         <f>IF(B$7 &gt;= 0.11,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="17" t="s">
         <v>25</v>
@@ -1759,7 +1759,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="5">
-        <v>68.069999999999993</v>
+        <v>138.03</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>4</v>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="B5" s="32">
         <f>TRUNC(B1/B4)</f>
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>5</v>
@@ -1805,7 +1805,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="5">
-        <v>75.53</v>
+        <v>155.03</v>
       </c>
       <c r="C6">
         <v>76.430000000000007</v>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="B7" s="3">
         <f>(B6/B4)-1</f>
-        <v>0.10959306596151031</v>
+        <v>0.12316163152937776</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>37</v>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="E11" s="22">
         <f ca="1">SUM(E3:E10)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="B12" s="5">
         <f>(B4*0.1155)+B4</f>
-        <v>75.932084999999987</v>
+        <v>153.972465</v>
       </c>
       <c r="D12" s="40" t="s">
         <v>10</v>
@@ -2274,8 +2274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+    <sheetView tabSelected="1" topLeftCell="I19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3306,7 +3306,7 @@
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="str">
         <f>'Operacion 2'!B$3</f>
-        <v>BMV.DE</v>
+        <v>DAI.DE</v>
       </c>
       <c r="B30" s="8">
         <f>'Operacion 2'!B$2</f>
@@ -3315,67 +3315,67 @@
       <c r="C30" s="8"/>
       <c r="D30" s="14">
         <f>'Operacion 2'!B$5</f>
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="E30" s="9">
         <f>'Operacion 2'!B$4</f>
-        <v>68.069999999999993</v>
+        <v>138.03</v>
       </c>
       <c r="F30" s="9">
         <f>'Operacion 2'!B$6</f>
-        <v>75.53</v>
+        <v>155.03</v>
       </c>
       <c r="G30" s="10">
         <f>'Operacion 2'!B$7</f>
-        <v>0.10959306596151031</v>
+        <v>0.12316163152937776</v>
       </c>
       <c r="H30" s="9">
         <f t="shared" ref="H30:H31" si="2">E30*D30</f>
-        <v>4084.2</v>
+        <v>4002.87</v>
       </c>
       <c r="I30" s="9">
         <f>IF((H30*(0.0075))&lt;30,30,(H30*(0.0075)))</f>
-        <v>30.631499999999999</v>
+        <v>30.021524999999997</v>
       </c>
       <c r="J30" s="9">
         <f>H30*0.0035</f>
-        <v>14.294699999999999</v>
+        <v>14.010045</v>
       </c>
       <c r="K30" s="9">
         <f t="shared" ref="K30:K31" si="3">SUM(H30:J30)</f>
-        <v>4129.1262000000006</v>
+        <v>4046.90157</v>
       </c>
       <c r="L30" s="9">
         <f t="shared" ref="L30:L31" si="4">D30*F30</f>
-        <v>4531.8</v>
+        <v>4495.87</v>
       </c>
       <c r="M30" s="9">
         <f>IF((L30*(0.0075))&lt;30,-30,-(L30*(0.0075)))</f>
-        <v>-33.988500000000002</v>
+        <v>-33.719024999999995</v>
       </c>
       <c r="N30" s="9">
         <f>-(L30*0.0035)</f>
-        <v>-15.861300000000002</v>
+        <v>-15.735545</v>
       </c>
       <c r="O30" s="9">
         <f t="shared" ref="O30:O31" si="5">SUM(L30:N30)</f>
-        <v>4481.9502000000002</v>
+        <v>4446.41543</v>
       </c>
       <c r="P30" s="9">
         <f t="shared" ref="P30:P31" si="6">I30-M30</f>
-        <v>64.62</v>
+        <v>63.740549999999992</v>
       </c>
       <c r="Q30" s="9">
         <f t="shared" ref="Q30:Q31" si="7">J30-N30</f>
-        <v>30.155999999999999</v>
+        <v>29.74559</v>
       </c>
       <c r="R30" s="9">
         <f t="shared" si="1"/>
-        <v>352.82399999999961</v>
+        <v>399.51386000000002</v>
       </c>
       <c r="S30" s="10">
         <f t="shared" ref="S30" si="8">R30/K30</f>
-        <v>8.5447618433168629E-2</v>
+        <v>9.8720923424880827E-2</v>
       </c>
       <c r="T30" t="s">
         <v>110</v>
@@ -3809,7 +3809,7 @@
   <dimension ref="A2:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3839,16 +3839,16 @@
         <v>75</v>
       </c>
       <c r="B3" s="56">
-        <f>1000-15.8</f>
-        <v>984.2</v>
+        <f>1050</f>
+        <v>1050</v>
       </c>
       <c r="C3" s="3">
         <f>B3/B$7</f>
-        <v>0.24097742519954951</v>
+        <v>0.25925925925925924</v>
       </c>
       <c r="D3" s="56">
         <f>D$7*C3</f>
-        <v>85.021655158905062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3856,16 +3856,15 @@
         <v>79</v>
       </c>
       <c r="B4" s="56">
-        <f>1230</f>
-        <v>1230</v>
+        <v>1350</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" si="0">B4/B$7</f>
-        <v>0.30116057000146906</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D4" s="56">
         <f t="shared" ref="D4:D6" si="1">D$7*C4</f>
-        <v>106.25547230791831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3873,15 +3872,15 @@
         <v>80</v>
       </c>
       <c r="B5" s="56">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" si="0"/>
-        <v>0.12242299593555654</v>
+        <v>0.13580246913580246</v>
       </c>
       <c r="D5" s="56">
         <f t="shared" si="1"/>
-        <v>43.193281425983059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3889,15 +3888,15 @@
         <v>117</v>
       </c>
       <c r="B6" s="56">
-        <v>1370</v>
+        <v>1100</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" si="0"/>
-        <v>0.33543900886342493</v>
+        <v>0.27160493827160492</v>
       </c>
       <c r="D6" s="56">
         <f t="shared" si="1"/>
-        <v>118.34959110719358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3906,14 +3905,14 @@
       </c>
       <c r="B7" s="56">
         <f>SUM(B3:B6)</f>
-        <v>4084.2</v>
+        <v>4050</v>
       </c>
       <c r="C7" s="3">
         <f>SUM(C3:C6)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D7" s="56">
-        <v>352.82</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>84</v>
@@ -3939,7 +3938,7 @@
       </c>
       <c r="B12" s="56">
         <f>B7+B11</f>
-        <v>9176.2799999999988</v>
+        <v>9142.08</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">

--- a/2019/Inversiones.xlsx
+++ b/2019/Inversiones.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609010E4-FDC9-4AB7-9349-EA1B3EAD6319}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1851E77-8079-4B00-AEAB-35B822B30D95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27525" windowHeight="10635" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27525" windowHeight="10635" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Operacion 1" sheetId="1" r:id="rId1"/>
@@ -1974,7 +1974,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2274,8 +2274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView topLeftCell="I37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S49" sqref="S49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3506,7 +3506,7 @@
         <v>70</v>
       </c>
       <c r="U35">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V35">
         <v>73.510000000000005</v>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="U37" s="3">
         <f>(U36/U35)-1</f>
-        <v>0.17576923076923068</v>
+        <v>0.13222222222222224</v>
       </c>
       <c r="V37" s="3">
         <f>(V36/V35)-1</f>
@@ -3808,8 +3808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2019/Inversiones.xlsx
+++ b/2019/Inversiones.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1851E77-8079-4B00-AEAB-35B822B30D95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC64A517-1222-4D1B-A5B3-180CBCA1B898}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27525" windowHeight="10635" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27528" windowHeight="10638" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Operacion 1" sheetId="1" r:id="rId1"/>
@@ -1388,17 +1388,17 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="50.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.41796875" customWidth="1"/>
+    <col min="2" max="2" width="16.41796875" customWidth="1"/>
+    <col min="4" max="4" width="50.15625" customWidth="1"/>
+    <col min="5" max="5" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.68359375" customWidth="1"/>
+    <col min="9" max="9" width="9.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="I1" s="59"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="J5" s="61"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
       <c r="D8" s="17" t="s">
         <v>38</v>
       </c>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
       <c r="D9" s="20" t="s">
         <v>6</v>
       </c>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B10" s="4"/>
       <c r="D10" s="17" t="s">
         <v>7</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="D11" s="21" t="s">
         <v>8</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="E12" s="35"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B13" s="5"/>
       <c r="D13" s="17" t="s">
         <v>36</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B14" s="5"/>
       <c r="D14" s="17" t="s">
         <v>27</v>
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B16">
         <f>186+91</f>
         <v>277</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B17">
         <f>B5/B16 *B4</f>
         <v>19.920577617328519</v>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B18">
         <f>(91/277)*6.6</f>
         <v>2.1682310469314077</v>
@@ -1654,18 +1654,18 @@
       </c>
       <c r="F18" s="37"/>
     </row>
-    <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="15.6" x14ac:dyDescent="0.6">
       <c r="D20" s="38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="33"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E23" s="33"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E28" s="4"/>
     </row>
   </sheetData>
@@ -1688,17 +1688,17 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="50.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.41796875" customWidth="1"/>
+    <col min="2" max="2" width="16.41796875" customWidth="1"/>
+    <col min="4" max="4" width="50.15625" customWidth="1"/>
+    <col min="5" max="5" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.68359375" customWidth="1"/>
+    <col min="9" max="9" width="9.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="I1" s="59"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="J5" s="61"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
       <c r="D8" s="17" t="s">
         <v>38</v>
       </c>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
       <c r="D9" s="20" t="s">
         <v>6</v>
       </c>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B10" s="4"/>
       <c r="D10" s="17" t="s">
         <v>7</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="D11" s="21" t="s">
         <v>8</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="E12" s="41"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B13" s="5"/>
       <c r="D13" s="17" t="s">
         <v>36</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B14" s="5"/>
       <c r="D14" s="17" t="s">
         <v>27</v>
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
       <c r="D15" s="17" t="s">
         <v>11</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
       <c r="D16" s="17" t="s">
         <v>7</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="D17" s="26" t="s">
         <v>8</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="D18" s="27" t="s">
         <v>9</v>
       </c>
@@ -1938,24 +1938,24 @@
       </c>
       <c r="F18" s="37"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B19">
         <f>273/3</f>
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="15.6" x14ac:dyDescent="0.6">
       <c r="D20" s="38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="33"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E23" s="33"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E28" s="4"/>
     </row>
   </sheetData>
@@ -1974,20 +1974,20 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="50.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.41796875" customWidth="1"/>
+    <col min="2" max="2" width="16.41796875" customWidth="1"/>
+    <col min="4" max="4" width="50.15625" customWidth="1"/>
+    <col min="5" max="5" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.68359375" customWidth="1"/>
+    <col min="9" max="9" width="9.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="I1" s="59"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="J5" s="61"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
       <c r="D8" s="17" t="s">
         <v>38</v>
       </c>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
       <c r="D9" s="20" t="s">
         <v>6</v>
       </c>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B10" s="4"/>
       <c r="D10" s="17" t="s">
         <v>7</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="D11" s="21" t="s">
         <v>8</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="E12" s="47"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B13" s="5"/>
       <c r="D13" s="17" t="s">
         <v>36</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B14" s="5"/>
       <c r="D14" s="17" t="s">
         <v>27</v>
@@ -2187,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
       <c r="D16" s="17" t="s">
         <v>7</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="D17" s="26" t="s">
         <v>8</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="D18" s="27" t="s">
         <v>9</v>
       </c>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="F18" s="37"/>
     </row>
-    <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B20" t="s">
         <v>55</v>
       </c>
@@ -2238,24 +2238,24 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
         <v>56</v>
       </c>
       <c r="E21" s="33"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="54" t="s">
         <v>67</v>
       </c>
       <c r="E23" s="33"/>
     </row>
-    <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="53" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E28" s="4"/>
     </row>
   </sheetData>
@@ -2274,24 +2274,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView topLeftCell="I37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S49" sqref="S49"/>
+    <sheetView tabSelected="1" topLeftCell="I22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="3" max="4" width="14.15625" customWidth="1"/>
+    <col min="5" max="5" width="18.26171875" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" customWidth="1"/>
-    <col min="18" max="18" width="17.7109375" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" customWidth="1"/>
-    <col min="20" max="20" width="24.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.15625" customWidth="1"/>
+    <col min="16" max="16" width="12.83984375" customWidth="1"/>
+    <col min="18" max="18" width="17.68359375" customWidth="1"/>
+    <col min="19" max="19" width="12.68359375" customWidth="1"/>
+    <col min="20" max="20" width="24.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="H1" s="65" t="s">
         <v>47</v>
       </c>
@@ -2310,7 +2310,7 @@
       <c r="Q1" s="67"/>
       <c r="R1" s="67"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>-6.54E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -2444,7 +2444,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>4.2278358399185385E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>0.10105569620253146</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -2560,7 +2560,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -2586,7 +2586,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -2612,7 +2612,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -2638,7 +2638,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -2664,7 +2664,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2691,7 +2691,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>0.2356</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>0.19146932203389827</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>24</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>3.287938787878788</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -2855,7 +2855,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -2881,7 +2881,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7" t="s">
         <v>46</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7" t="s">
         <v>46</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -3019,7 +3019,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -3046,7 +3046,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="39" t="s">
         <v>139</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7" t="s">
         <v>139</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -3164,7 +3164,7 @@
       <c r="R25" s="9"/>
       <c r="S25" s="10"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="H27" s="15">
         <f t="shared" ref="H27:O27" si="0">SUM(H3:H26)</f>
         <v>21656.039999999997</v>
@@ -3206,7 +3206,7 @@
         <v>3.8403392603883049</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="H28" s="52"/>
       <c r="I28" s="52"/>
       <c r="J28" s="52"/>
@@ -3222,7 +3222,7 @@
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="39" t="str">
         <f>'Operacion 1'!B$3</f>
         <v>ABI.BR</v>
@@ -3303,7 +3303,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="39" t="str">
         <f>'Operacion 2'!B$3</f>
         <v>DAI.DE</v>
@@ -3384,7 +3384,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="39" t="str">
         <f>'Operacion 3'!B3</f>
         <v>ITX.MC</v>
@@ -3465,7 +3465,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="R32" s="56">
         <f>R31+SUM(R19:R22)</f>
         <v>818.57820000000027</v>
@@ -3475,7 +3475,7 @@
         <v>0.15900610557748915</v>
       </c>
     </row>
-    <row r="33" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:23" x14ac:dyDescent="0.55000000000000004">
       <c r="D33" s="48"/>
       <c r="H33" s="48" t="s">
         <v>59</v>
@@ -3491,7 +3491,7 @@
       <c r="O33" s="48"/>
       <c r="R33" s="48"/>
     </row>
-    <row r="34" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:23" x14ac:dyDescent="0.55000000000000004">
       <c r="F34" s="5"/>
       <c r="G34" s="48"/>
       <c r="U34" t="s">
@@ -3501,18 +3501,18 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:23" x14ac:dyDescent="0.55000000000000004">
       <c r="T35" t="s">
         <v>70</v>
       </c>
       <c r="U35">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V35">
         <v>73.510000000000005</v>
       </c>
     </row>
-    <row r="36" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:23" x14ac:dyDescent="0.55000000000000004">
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -3536,7 +3536,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:23" x14ac:dyDescent="0.55000000000000004">
       <c r="D37" t="s">
         <v>64</v>
       </c>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="U37" s="3">
         <f>(U36/U35)-1</f>
-        <v>0.13222222222222224</v>
+        <v>9.1785714285714359E-2</v>
       </c>
       <c r="V37" s="3">
         <f>(V36/V35)-1</f>
@@ -3575,7 +3575,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:23" x14ac:dyDescent="0.55000000000000004">
       <c r="D38" t="s">
         <v>63</v>
       </c>
@@ -3603,7 +3603,7 @@
       </c>
       <c r="R38" s="5"/>
     </row>
-    <row r="39" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:23" x14ac:dyDescent="0.55000000000000004">
       <c r="D39" t="s">
         <v>65</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>154.728712</v>
       </c>
     </row>
-    <row r="40" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:23" x14ac:dyDescent="0.55000000000000004">
       <c r="C40" t="s">
         <v>109</v>
       </c>
@@ -3646,7 +3646,7 @@
       </c>
       <c r="R40" s="43"/>
     </row>
-    <row r="41" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:23" x14ac:dyDescent="0.55000000000000004">
       <c r="F41" s="5"/>
       <c r="R41" s="9"/>
       <c r="S41">
@@ -3654,7 +3654,7 @@
         <v>2.9039999999999996E-2</v>
       </c>
     </row>
-    <row r="42" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:23" x14ac:dyDescent="0.55000000000000004">
       <c r="O42" s="9"/>
       <c r="R42" s="45"/>
       <c r="S42">
@@ -3662,7 +3662,7 @@
         <v>136.48799999999997</v>
       </c>
     </row>
-    <row r="43" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:23" x14ac:dyDescent="0.55000000000000004">
       <c r="P43" s="3"/>
       <c r="R43" s="50" t="s">
         <v>122</v>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="T43" s="5"/>
     </row>
-    <row r="44" spans="3:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:23" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="F44" s="5"/>
       <c r="Q44" t="s">
         <v>119</v>
@@ -3683,7 +3683,7 @@
       <c r="S44" s="49"/>
       <c r="T44" s="5"/>
     </row>
-    <row r="45" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:23" x14ac:dyDescent="0.55000000000000004">
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="Q45" t="s">
@@ -3696,7 +3696,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:23" x14ac:dyDescent="0.55000000000000004">
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -3709,19 +3709,19 @@
       </c>
       <c r="T46" s="5"/>
     </row>
-    <row r="47" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:23" x14ac:dyDescent="0.55000000000000004">
       <c r="J47" s="58">
         <v>43587</v>
       </c>
       <c r="R47" s="43"/>
     </row>
-    <row r="48" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:23" x14ac:dyDescent="0.55000000000000004">
       <c r="J48" t="s">
         <v>126</v>
       </c>
       <c r="R48" s="44"/>
     </row>
-    <row r="49" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="10:19" x14ac:dyDescent="0.55000000000000004">
       <c r="J49" t="s">
         <v>127</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>416.66666666666669</v>
       </c>
     </row>
-    <row r="50" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="10:19" x14ac:dyDescent="0.55000000000000004">
       <c r="J50" t="s">
         <v>128</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>5.28E-3</v>
       </c>
     </row>
-    <row r="51" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="10:19" x14ac:dyDescent="0.55000000000000004">
       <c r="J51" t="s">
         <v>129</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>0.52800000000000002</v>
       </c>
     </row>
-    <row r="52" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="10:19" x14ac:dyDescent="0.55000000000000004">
       <c r="J52" t="s">
         <v>130</v>
       </c>
@@ -3758,37 +3758,37 @@
         <v>26.400000000000002</v>
       </c>
     </row>
-    <row r="53" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="10:19" x14ac:dyDescent="0.55000000000000004">
       <c r="J53" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="10:19" x14ac:dyDescent="0.55000000000000004">
       <c r="J54" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="55" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="10:19" x14ac:dyDescent="0.55000000000000004">
       <c r="J55" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="56" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="10:19" x14ac:dyDescent="0.55000000000000004">
       <c r="J56" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="57" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="10:19" x14ac:dyDescent="0.55000000000000004">
       <c r="J57" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="10:19" x14ac:dyDescent="0.55000000000000004">
       <c r="J58" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="10:19" x14ac:dyDescent="0.55000000000000004">
       <c r="J59" t="s">
         <v>137</v>
       </c>
@@ -3808,19 +3808,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.68359375" customWidth="1"/>
+    <col min="2" max="2" width="11.578125" customWidth="1"/>
+    <col min="3" max="3" width="10.83984375" customWidth="1"/>
+    <col min="4" max="4" width="26.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="55" t="s">
         <v>76</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>117</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -3918,13 +3918,13 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="56"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="56"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>5092.08</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -3941,10 +3941,10 @@
         <v>9142.08</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="56"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="56"/>
     </row>
   </sheetData>
@@ -3961,54 +3961,54 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="74.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="74.15625" customWidth="1"/>
+    <col min="2" max="2" width="16.83984375" customWidth="1"/>
+    <col min="4" max="4" width="10.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="55" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="55" t="s">
         <v>90</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>92</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>93</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>94</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>96</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>55</v>
       </c>

--- a/2019/Inversiones.xlsx
+++ b/2019/Inversiones.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC64A517-1222-4D1B-A5B3-180CBCA1B898}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BB483F-2F5C-4A10-8E53-D79E3171B995}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27528" windowHeight="10638" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27525" windowHeight="10635" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Operacion 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="149">
   <si>
     <t>% =</t>
   </si>
@@ -508,6 +508,21 @@
   </si>
   <si>
     <t>Custodia de acciones 2019</t>
+  </si>
+  <si>
+    <t>Dias</t>
+  </si>
+  <si>
+    <t>Dias/Total dias</t>
+  </si>
+  <si>
+    <t>Media invertido</t>
+  </si>
+  <si>
+    <t>% Total</t>
+  </si>
+  <si>
+    <t>%/año</t>
   </si>
 </sst>
 </file>
@@ -911,7 +926,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1044,6 +1059,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1388,17 +1404,17 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.41796875" customWidth="1"/>
-    <col min="2" max="2" width="16.41796875" customWidth="1"/>
-    <col min="4" max="4" width="50.15625" customWidth="1"/>
-    <col min="5" max="5" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.68359375" customWidth="1"/>
-    <col min="9" max="9" width="9.83984375" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="50.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1415,7 +1431,7 @@
       </c>
       <c r="I1" s="59"/>
     </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1433,7 +1449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1454,7 +1470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1476,7 +1492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1500,7 +1516,7 @@
       </c>
       <c r="J5" s="61"/>
     </row>
-    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1515,7 +1531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1531,7 +1547,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D8" s="17" t="s">
         <v>38</v>
       </c>
@@ -1540,7 +1556,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D9" s="20" t="s">
         <v>6</v>
       </c>
@@ -1549,7 +1565,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="D10" s="17" t="s">
         <v>7</v>
@@ -1558,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="21" t="s">
         <v>8</v>
       </c>
@@ -1567,7 +1583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -1580,7 +1596,7 @@
       </c>
       <c r="E12" s="35"/>
     </row>
-    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="D13" s="17" t="s">
         <v>36</v>
@@ -1590,7 +1606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="D14" s="17" t="s">
         <v>27</v>
@@ -1599,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -1614,7 +1630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16">
         <f>186+91</f>
         <v>277</v>
@@ -1627,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17">
         <f>B5/B16 *B4</f>
         <v>19.920577617328519</v>
@@ -1640,7 +1656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="18" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18">
         <f>(91/277)*6.6</f>
         <v>2.1682310469314077</v>
@@ -1654,18 +1670,18 @@
       </c>
       <c r="F18" s="37"/>
     </row>
-    <row r="20" spans="2:6" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D20" s="38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E21" s="33"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E23" s="33"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E28" s="4"/>
     </row>
   </sheetData>
@@ -1688,17 +1704,17 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.41796875" customWidth="1"/>
-    <col min="2" max="2" width="16.41796875" customWidth="1"/>
-    <col min="4" max="4" width="50.15625" customWidth="1"/>
-    <col min="5" max="5" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.68359375" customWidth="1"/>
-    <col min="9" max="9" width="9.83984375" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="50.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1715,7 +1731,7 @@
       </c>
       <c r="I1" s="59"/>
     </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1733,7 +1749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1754,7 +1770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1776,7 +1792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1800,7 +1816,7 @@
       </c>
       <c r="J5" s="61"/>
     </row>
-    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1818,7 +1834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1834,7 +1850,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D8" s="17" t="s">
         <v>38</v>
       </c>
@@ -1843,7 +1859,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D9" s="20" t="s">
         <v>6</v>
       </c>
@@ -1852,7 +1868,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="D10" s="17" t="s">
         <v>7</v>
@@ -1861,7 +1877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="21" t="s">
         <v>8</v>
       </c>
@@ -1870,7 +1886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -1883,7 +1899,7 @@
       </c>
       <c r="E12" s="41"/>
     </row>
-    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="D13" s="17" t="s">
         <v>36</v>
@@ -1893,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="D14" s="17" t="s">
         <v>27</v>
@@ -1902,7 +1918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D15" s="17" t="s">
         <v>11</v>
       </c>
@@ -1910,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D16" s="17" t="s">
         <v>7</v>
       </c>
@@ -1919,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" s="26" t="s">
         <v>8</v>
       </c>
@@ -1928,7 +1944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="18" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D18" s="27" t="s">
         <v>9</v>
       </c>
@@ -1938,24 +1954,24 @@
       </c>
       <c r="F18" s="37"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19">
         <f>273/3</f>
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D20" s="38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E21" s="33"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E23" s="33"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E28" s="4"/>
     </row>
   </sheetData>
@@ -1977,17 +1993,17 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.41796875" customWidth="1"/>
-    <col min="2" max="2" width="16.41796875" customWidth="1"/>
-    <col min="4" max="4" width="50.15625" customWidth="1"/>
-    <col min="5" max="5" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.68359375" customWidth="1"/>
-    <col min="9" max="9" width="9.83984375" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="50.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -2004,7 +2020,7 @@
       </c>
       <c r="I1" s="59"/>
     </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2022,7 +2038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2043,7 +2059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -2065,7 +2081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -2089,7 +2105,7 @@
       </c>
       <c r="J5" s="61"/>
     </row>
-    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -2104,7 +2120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -2120,7 +2136,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D8" s="17" t="s">
         <v>38</v>
       </c>
@@ -2129,7 +2145,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D9" s="20" t="s">
         <v>6</v>
       </c>
@@ -2138,7 +2154,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="D10" s="17" t="s">
         <v>7</v>
@@ -2147,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="21" t="s">
         <v>8</v>
       </c>
@@ -2156,7 +2172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -2168,7 +2184,7 @@
       </c>
       <c r="E12" s="47"/>
     </row>
-    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="D13" s="17" t="s">
         <v>36</v>
@@ -2178,7 +2194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="D14" s="17" t="s">
         <v>27</v>
@@ -2187,7 +2203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -2202,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D16" s="17" t="s">
         <v>7</v>
       </c>
@@ -2211,7 +2227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" s="26" t="s">
         <v>8</v>
       </c>
@@ -2220,7 +2236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="18" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D18" s="27" t="s">
         <v>9</v>
       </c>
@@ -2230,7 +2246,7 @@
       </c>
       <c r="F18" s="37"/>
     </row>
-    <row r="20" spans="2:6" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>55</v>
       </c>
@@ -2238,24 +2254,24 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>56</v>
       </c>
       <c r="E21" s="33"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="54" t="s">
         <v>67</v>
       </c>
       <c r="E23" s="33"/>
     </row>
-    <row r="24" spans="2:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="53" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E28" s="4"/>
     </row>
   </sheetData>
@@ -2272,26 +2288,31 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:W59"/>
+  <dimension ref="A1:AC59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U37" sqref="U37"/>
+    <sheetView tabSelected="1" topLeftCell="N14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="4" width="14.15625" customWidth="1"/>
-    <col min="5" max="5" width="18.26171875" customWidth="1"/>
+    <col min="3" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="13.15625" customWidth="1"/>
-    <col min="16" max="16" width="12.83984375" customWidth="1"/>
-    <col min="18" max="18" width="17.68359375" customWidth="1"/>
-    <col min="19" max="19" width="12.68359375" customWidth="1"/>
-    <col min="20" max="20" width="24.15625" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" customWidth="1"/>
+    <col min="18" max="18" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" customWidth="1"/>
+    <col min="20" max="20" width="24.140625" customWidth="1"/>
+    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.140625" customWidth="1"/>
+    <col min="28" max="28" width="15.28515625" customWidth="1"/>
+    <col min="29" max="29" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="H1" s="65" t="s">
         <v>47</v>
       </c>
@@ -2309,8 +2330,13 @@
       </c>
       <c r="Q1" s="67"/>
       <c r="R1" s="67"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="X1" s="68">
+        <f ca="1">_xlfn.DAYS(TODAY(),B3)</f>
+        <v>1504</v>
+      </c>
+      <c r="Y1" s="33"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
@@ -2368,8 +2394,23 @@
       <c r="S2" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -2417,8 +2458,21 @@
         <f>-0.0839+0.0185</f>
         <v>-6.54E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y3">
+        <f>_xlfn.DAYS(C3,B3)</f>
+        <v>62</v>
+      </c>
+      <c r="Z3" s="68">
+        <f ca="1">Y3/X$1</f>
+        <v>4.1223404255319146E-2</v>
+      </c>
+      <c r="AA3" s="56">
+        <f ca="1">Z3*H3</f>
+        <v>164.41954787234042</v>
+      </c>
+      <c r="AB3" s="5"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -2443,8 +2497,11 @@
       <c r="T4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="5"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
@@ -2488,8 +2545,21 @@
       <c r="S5" s="10">
         <v>4.2278358399185385E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y5">
+        <f t="shared" ref="Y4:Y26" si="0">_xlfn.DAYS(C5,B5)</f>
+        <v>55</v>
+      </c>
+      <c r="Z5" s="68">
+        <f t="shared" ref="Z5:Z26" ca="1" si="1">Y5/X$1</f>
+        <v>3.6569148936170214E-2</v>
+      </c>
+      <c r="AA5" s="56">
+        <f t="shared" ref="AA4:AA24" ca="1" si="2">Z5*H5</f>
+        <v>146.32998670212766</v>
+      </c>
+      <c r="AB5" s="5"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
@@ -2533,8 +2603,21 @@
       <c r="S6" s="10">
         <v>0.10105569620253146</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Z6" s="68">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.3085106382978719E-3</v>
+      </c>
+      <c r="AA6" s="56">
+        <f t="shared" ca="1" si="2"/>
+        <v>37.283377659574469</v>
+      </c>
+      <c r="AB6" s="5"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -2559,8 +2642,11 @@
       <c r="T7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="56"/>
+      <c r="AB7" s="5"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -2585,8 +2671,11 @@
       <c r="T8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="5"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -2611,8 +2700,11 @@
       <c r="T9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="5"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -2637,8 +2729,11 @@
       <c r="T10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="5"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -2663,8 +2758,11 @@
       <c r="T11" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z11" s="68"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="5"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2690,8 +2788,11 @@
       <c r="T12" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="5"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
@@ -2700,7 +2801,7 @@
         <v>43154</v>
       </c>
       <c r="C13" s="8">
-        <v>43077</v>
+        <v>43442</v>
       </c>
       <c r="D13" s="14">
         <f>'Operacion 3'!B$5</f>
@@ -2738,8 +2839,21 @@
       <c r="S13" s="10">
         <v>0.2356</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y13">
+        <f t="shared" si="0"/>
+        <v>288</v>
+      </c>
+      <c r="Z13" s="68">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.19148936170212766</v>
+      </c>
+      <c r="AA13" s="56">
+        <f t="shared" ca="1" si="2"/>
+        <v>112.28553191489361</v>
+      </c>
+      <c r="AB13" s="5"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
@@ -2783,8 +2897,21 @@
       <c r="S14" s="10">
         <v>0.19146932203389827</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y14">
+        <f t="shared" si="0"/>
+        <v>869</v>
+      </c>
+      <c r="Z14" s="68">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.57779255319148937</v>
+      </c>
+      <c r="AA14" s="56">
+        <f t="shared" ca="1" si="2"/>
+        <v>2536.2781914893621</v>
+      </c>
+      <c r="AB14" s="5"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>24</v>
       </c>
@@ -2828,8 +2955,21 @@
       <c r="S15" s="10">
         <v>3.287938787878788</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y15">
+        <f t="shared" si="0"/>
+        <v>632</v>
+      </c>
+      <c r="Z15" s="68">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.42021276595744683</v>
+      </c>
+      <c r="AA15" s="56">
+        <f t="shared" ca="1" si="2"/>
+        <v>252.37978723404257</v>
+      </c>
+      <c r="AB15" s="5"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -2854,8 +2994,11 @@
       <c r="T16" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z16" s="68"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="5"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -2880,8 +3023,11 @@
       <c r="T17" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z17" s="68"/>
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="5"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
@@ -2915,8 +3061,11 @@
       <c r="T18" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z18" s="68"/>
+      <c r="AA18" s="56"/>
+      <c r="AB18" s="5"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>46</v>
       </c>
@@ -2953,8 +3102,11 @@
       <c r="T19" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z19" s="68"/>
+      <c r="AA19" s="56"/>
+      <c r="AB19" s="5"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>46</v>
       </c>
@@ -2992,8 +3144,11 @@
       <c r="T20" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z20" s="68"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="5"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -3018,8 +3173,11 @@
       <c r="T21" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z21" s="68"/>
+      <c r="AA21" s="56"/>
+      <c r="AB21" s="5"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -3045,8 +3203,11 @@
       <c r="T22" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z22" s="68"/>
+      <c r="AA22" s="56"/>
+      <c r="AB22" s="5"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
         <v>139</v>
       </c>
@@ -3080,8 +3241,11 @@
       <c r="T23" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z23" s="68"/>
+      <c r="AA23" s="56"/>
+      <c r="AB23" s="5"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>139</v>
       </c>
@@ -3142,8 +3306,21 @@
       <c r="T24" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y24">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="Z24" s="68">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.4627659574468085E-2</v>
+      </c>
+      <c r="AA24" s="56">
+        <f t="shared" ca="1" si="2"/>
+        <v>59.74228723404255</v>
+      </c>
+      <c r="AB24" s="5"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -3163,38 +3340,55 @@
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
       <c r="S25" s="10"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z25" s="68"/>
+      <c r="AB25" s="5"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y26">
+        <f ca="1">_xlfn.DAYS(TODAY(),B31)</f>
+        <v>424</v>
+      </c>
+      <c r="Z26" s="68">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.28191489361702127</v>
+      </c>
+      <c r="AA26" s="56">
+        <f ca="1">Z26*H31</f>
+        <v>1435.5331914893616</v>
+      </c>
+      <c r="AB26" s="5"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="H27" s="15">
-        <f t="shared" ref="H27:O27" si="0">SUM(H3:H26)</f>
+        <f t="shared" ref="H27:O27" si="3">SUM(H3:H26)</f>
         <v>21656.039999999997</v>
       </c>
       <c r="I27" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>103.523</v>
       </c>
       <c r="J27" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42.339399999999998</v>
       </c>
       <c r="K27" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4129.1262000000006</v>
       </c>
       <c r="L27" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4531.8</v>
       </c>
       <c r="M27" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-33.988500000000002</v>
       </c>
       <c r="N27" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-15.861300000000002</v>
       </c>
       <c r="O27" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4481.9502000000002</v>
       </c>
       <c r="R27" s="15">
@@ -3205,8 +3399,28 @@
         <f>SUM(S3:S26)</f>
         <v>3.8403392603883049</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y27">
+        <f ca="1">SUM(Y3:Y26)</f>
+        <v>2366</v>
+      </c>
+      <c r="Z27" s="68">
+        <f ca="1">SUM(Z3:Z26)</f>
+        <v>1.5731382978723405</v>
+      </c>
+      <c r="AA27" s="56">
+        <f ca="1">SUM(AA3:AA26)</f>
+        <v>4744.251901595745</v>
+      </c>
+      <c r="AB27" s="3">
+        <f ca="1">R27/AA27</f>
+        <v>0.74357634062673628</v>
+      </c>
+      <c r="AC27" s="3">
+        <f ca="1">AB27/(X1/365)</f>
+        <v>0.18045569436752576</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="H28" s="52"/>
       <c r="I28" s="52"/>
       <c r="J28" s="52"/>
@@ -3222,7 +3436,7 @@
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="str">
         <f>'Operacion 1'!B$3</f>
         <v>ABI.BR</v>
@@ -3289,7 +3503,7 @@
         <v>34.960653000000001</v>
       </c>
       <c r="R29" s="9">
-        <f t="shared" ref="R29:R30" si="1">O29-K29</f>
+        <f t="shared" ref="R29:R30" si="4">O29-K29</f>
         <v>1822.2493470000009</v>
       </c>
       <c r="S29" s="10">
@@ -3303,7 +3517,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="str">
         <f>'Operacion 2'!B$3</f>
         <v>DAI.DE</v>
@@ -3330,7 +3544,7 @@
         <v>0.12316163152937776</v>
       </c>
       <c r="H30" s="9">
-        <f t="shared" ref="H30:H31" si="2">E30*D30</f>
+        <f t="shared" ref="H30:H31" si="5">E30*D30</f>
         <v>4002.87</v>
       </c>
       <c r="I30" s="9">
@@ -3342,11 +3556,11 @@
         <v>14.010045</v>
       </c>
       <c r="K30" s="9">
-        <f t="shared" ref="K30:K31" si="3">SUM(H30:J30)</f>
+        <f t="shared" ref="K30:K31" si="6">SUM(H30:J30)</f>
         <v>4046.90157</v>
       </c>
       <c r="L30" s="9">
-        <f t="shared" ref="L30:L31" si="4">D30*F30</f>
+        <f t="shared" ref="L30:L31" si="7">D30*F30</f>
         <v>4495.87</v>
       </c>
       <c r="M30" s="9">
@@ -3358,23 +3572,23 @@
         <v>-15.735545</v>
       </c>
       <c r="O30" s="9">
-        <f t="shared" ref="O30:O31" si="5">SUM(L30:N30)</f>
+        <f t="shared" ref="O30:O31" si="8">SUM(L30:N30)</f>
         <v>4446.41543</v>
       </c>
       <c r="P30" s="9">
-        <f t="shared" ref="P30:P31" si="6">I30-M30</f>
+        <f t="shared" ref="P30:P31" si="9">I30-M30</f>
         <v>63.740549999999992</v>
       </c>
       <c r="Q30" s="9">
-        <f t="shared" ref="Q30:Q31" si="7">J30-N30</f>
+        <f t="shared" ref="Q30:Q31" si="10">J30-N30</f>
         <v>29.74559</v>
       </c>
       <c r="R30" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>399.51386000000002</v>
       </c>
       <c r="S30" s="10">
-        <f t="shared" ref="S30" si="8">R30/K30</f>
+        <f t="shared" ref="S30" si="11">R30/K30</f>
         <v>9.8720923424880827E-2</v>
       </c>
       <c r="T30" t="s">
@@ -3384,7 +3598,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="39" t="str">
         <f>'Operacion 3'!B3</f>
         <v>ITX.MC</v>
@@ -3411,7 +3625,7 @@
         <v>0.1766743648960738</v>
       </c>
       <c r="H31" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5092.08</v>
       </c>
       <c r="I31" s="9">
@@ -3423,11 +3637,11 @@
         <v>13.748616</v>
       </c>
       <c r="K31" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5148.0928800000002</v>
       </c>
       <c r="L31" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5991.72</v>
       </c>
       <c r="M31" s="9">
@@ -3439,15 +3653,15 @@
         <v>-20.971020000000003</v>
       </c>
       <c r="O31" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5925.8110800000004</v>
       </c>
       <c r="P31" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>87.202163999999996</v>
       </c>
       <c r="Q31" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>34.719636000000001</v>
       </c>
       <c r="R31" s="9">
@@ -3465,7 +3679,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="R32" s="56">
         <f>R31+SUM(R19:R22)</f>
         <v>818.57820000000027</v>
@@ -3475,7 +3689,7 @@
         <v>0.15900610557748915</v>
       </c>
     </row>
-    <row r="33" spans="3:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="3:23" x14ac:dyDescent="0.25">
       <c r="D33" s="48"/>
       <c r="H33" s="48" t="s">
         <v>59</v>
@@ -3491,7 +3705,7 @@
       <c r="O33" s="48"/>
       <c r="R33" s="48"/>
     </row>
-    <row r="34" spans="3:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="3:23" x14ac:dyDescent="0.25">
       <c r="F34" s="5"/>
       <c r="G34" s="48"/>
       <c r="U34" t="s">
@@ -3501,7 +3715,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="3:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="3:23" x14ac:dyDescent="0.25">
       <c r="T35" t="s">
         <v>70</v>
       </c>
@@ -3512,7 +3726,7 @@
         <v>73.510000000000005</v>
       </c>
     </row>
-    <row r="36" spans="3:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="3:23" x14ac:dyDescent="0.25">
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -3536,7 +3750,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="3:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="3:23" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>64</v>
       </c>
@@ -3575,7 +3789,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="3:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="3:23" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>63</v>
       </c>
@@ -3603,7 +3817,7 @@
       </c>
       <c r="R38" s="5"/>
     </row>
-    <row r="39" spans="3:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="3:23" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>65</v>
       </c>
@@ -3626,7 +3840,7 @@
         <v>154.728712</v>
       </c>
     </row>
-    <row r="40" spans="3:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>109</v>
       </c>
@@ -3646,7 +3860,7 @@
       </c>
       <c r="R40" s="43"/>
     </row>
-    <row r="41" spans="3:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="3:23" x14ac:dyDescent="0.25">
       <c r="F41" s="5"/>
       <c r="R41" s="9"/>
       <c r="S41">
@@ -3654,7 +3868,7 @@
         <v>2.9039999999999996E-2</v>
       </c>
     </row>
-    <row r="42" spans="3:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="3:23" x14ac:dyDescent="0.25">
       <c r="O42" s="9"/>
       <c r="R42" s="45"/>
       <c r="S42">
@@ -3662,7 +3876,7 @@
         <v>136.48799999999997</v>
       </c>
     </row>
-    <row r="43" spans="3:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="3:23" x14ac:dyDescent="0.25">
       <c r="P43" s="3"/>
       <c r="R43" s="50" t="s">
         <v>122</v>
@@ -3672,7 +3886,7 @@
       </c>
       <c r="T43" s="5"/>
     </row>
-    <row r="44" spans="3:23" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="3:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F44" s="5"/>
       <c r="Q44" t="s">
         <v>119</v>
@@ -3683,7 +3897,7 @@
       <c r="S44" s="49"/>
       <c r="T44" s="5"/>
     </row>
-    <row r="45" spans="3:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="3:23" x14ac:dyDescent="0.25">
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="Q45" t="s">
@@ -3696,7 +3910,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="3:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="3:23" x14ac:dyDescent="0.25">
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -3709,19 +3923,19 @@
       </c>
       <c r="T46" s="5"/>
     </row>
-    <row r="47" spans="3:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="3:23" x14ac:dyDescent="0.25">
       <c r="J47" s="58">
         <v>43587</v>
       </c>
       <c r="R47" s="43"/>
     </row>
-    <row r="48" spans="3:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="3:23" x14ac:dyDescent="0.25">
       <c r="J48" t="s">
         <v>126</v>
       </c>
       <c r="R48" s="44"/>
     </row>
-    <row r="49" spans="10:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J49" t="s">
         <v>127</v>
       </c>
@@ -3731,7 +3945,7 @@
         <v>416.66666666666669</v>
       </c>
     </row>
-    <row r="50" spans="10:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J50" t="s">
         <v>128</v>
       </c>
@@ -3740,7 +3954,7 @@
         <v>5.28E-3</v>
       </c>
     </row>
-    <row r="51" spans="10:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J51" t="s">
         <v>129</v>
       </c>
@@ -3749,7 +3963,7 @@
         <v>0.52800000000000002</v>
       </c>
     </row>
-    <row r="52" spans="10:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J52" t="s">
         <v>130</v>
       </c>
@@ -3758,37 +3972,37 @@
         <v>26.400000000000002</v>
       </c>
     </row>
-    <row r="53" spans="10:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J53" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="10:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J54" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="55" spans="10:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J55" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="56" spans="10:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J56" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="57" spans="10:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J57" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="10:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J58" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="10:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J59" t="s">
         <v>137</v>
       </c>
@@ -3812,15 +4026,15 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.68359375" customWidth="1"/>
-    <col min="2" max="2" width="11.578125" customWidth="1"/>
-    <col min="3" max="3" width="10.83984375" customWidth="1"/>
-    <col min="4" max="4" width="26.26171875" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>76</v>
       </c>
@@ -3834,7 +4048,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -3851,7 +4065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -3867,7 +4081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -3883,7 +4097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>117</v>
       </c>
@@ -3899,7 +4113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -3918,13 +4132,13 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="56"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="56"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -3932,7 +4146,7 @@
         <v>5092.08</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -3941,10 +4155,10 @@
         <v>9142.08</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="56"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="56"/>
     </row>
   </sheetData>
@@ -3957,58 +4171,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="74.15625" customWidth="1"/>
-    <col min="2" max="2" width="16.83984375" customWidth="1"/>
-    <col min="4" max="4" width="10.578125" customWidth="1"/>
+    <col min="1" max="1" width="74.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="55" t="s">
         <v>90</v>
       </c>
@@ -4022,7 +4236,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -4036,7 +4250,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>92</v>
       </c>
@@ -4050,7 +4264,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>93</v>
       </c>
@@ -4064,7 +4278,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>94</v>
       </c>
@@ -4078,7 +4292,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -4092,7 +4306,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>96</v>
       </c>
@@ -4106,7 +4320,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -4120,7 +4334,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>

--- a/2019/Inversiones.xlsx
+++ b/2019/Inversiones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BB483F-2F5C-4A10-8E53-D79E3171B995}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F15EE26-289F-4AF7-8A9B-D3C33C71C42E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27525" windowHeight="10635" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="149">
   <si>
     <t>% =</t>
   </si>
@@ -1032,6 +1032,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1059,7 +1060,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1421,15 +1421,15 @@
       <c r="B1" s="5">
         <v>5600</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="64"/>
+      <c r="E1" s="65"/>
       <c r="F1" s="28"/>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="59"/>
+      <c r="I1" s="60"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1438,10 +1438,10 @@
       <c r="B2" s="4">
         <v>42234</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="63"/>
+      <c r="E2" s="64"/>
       <c r="H2" s="29" t="s">
         <v>26</v>
       </c>
@@ -1510,11 +1510,11 @@
       <c r="H5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="60" t="str">
+      <c r="I5" s="61" t="str">
         <f>IF(I4=2,"Se puede COMPRAR","Nada")</f>
         <v>Se puede COMPRAR</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="62"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1721,15 +1721,15 @@
       <c r="B1" s="5">
         <v>4050</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="64"/>
+      <c r="E1" s="65"/>
       <c r="F1" s="28"/>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="59"/>
+      <c r="I1" s="60"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1738,10 +1738,10 @@
       <c r="B2" s="4">
         <v>42471</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="63"/>
+      <c r="E2" s="64"/>
       <c r="H2" s="29" t="s">
         <v>26</v>
       </c>
@@ -1810,11 +1810,11 @@
       <c r="H5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="60" t="str">
+      <c r="I5" s="61" t="str">
         <f>IF(I4=2,"Se puede COMPRAR","Nada")</f>
         <v>Se puede COMPRAR</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="62"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1990,7 +1990,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2010,15 +2010,15 @@
       <c r="B1" s="5">
         <v>5100</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="64"/>
+      <c r="E1" s="65"/>
       <c r="F1" s="28"/>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="59"/>
+      <c r="I1" s="60"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2027,10 +2027,10 @@
       <c r="B2" s="4">
         <v>43154</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="63"/>
+      <c r="E2" s="64"/>
       <c r="H2" s="29" t="s">
         <v>26</v>
       </c>
@@ -2099,18 +2099,18 @@
       <c r="H5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="60" t="str">
+      <c r="I5" s="61" t="str">
         <f>IF(I4=2,"Se puede COMPRAR","Nada")</f>
         <v>Se puede COMPRAR</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="62"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="5">
-        <v>30.57</v>
+        <v>30.27</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>34</v>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="B7" s="3">
         <f>(B6/B4)-1</f>
-        <v>0.1766743648960738</v>
+        <v>0.16512702078521935</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>37</v>
@@ -2290,8 +2290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView tabSelected="1" topLeftCell="P16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z27" sqref="Z27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2313,26 +2313,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="66" t="s">
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="67" t="s">
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="X1" s="68">
-        <f ca="1">_xlfn.DAYS(TODAY(),B3)</f>
-        <v>1504</v>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="X1" s="59">
+        <f ca="1">_xlfn.DAYS(TODAY(),B3)-_xlfn.DAYS(B5,C3)-_xlfn.DAYS(B6,C5)-_xlfn.DAYS(B14,C6)-_xlfn.DAYS(B18,C15)</f>
+        <v>1427</v>
       </c>
       <c r="Y1" s="33"/>
     </row>
@@ -2462,13 +2462,13 @@
         <f>_xlfn.DAYS(C3,B3)</f>
         <v>62</v>
       </c>
-      <c r="Z3" s="68">
+      <c r="Z3" s="59">
         <f ca="1">Y3/X$1</f>
-        <v>4.1223404255319146E-2</v>
+        <v>4.3447792571829014E-2</v>
       </c>
       <c r="AA3" s="56">
         <f ca="1">Z3*H3</f>
-        <v>164.41954787234042</v>
+        <v>173.29152067274003</v>
       </c>
       <c r="AB3" s="5"/>
     </row>
@@ -2497,7 +2497,7 @@
       <c r="T4" t="s">
         <v>74</v>
       </c>
-      <c r="Z4" s="68"/>
+      <c r="Z4" s="59"/>
       <c r="AA4" s="56"/>
       <c r="AB4" s="5"/>
     </row>
@@ -2546,16 +2546,16 @@
         <v>4.2278358399185385E-3</v>
       </c>
       <c r="Y5">
-        <f t="shared" ref="Y4:Y26" si="0">_xlfn.DAYS(C5,B5)</f>
+        <f t="shared" ref="Y5:Y24" si="0">_xlfn.DAYS(C5,B5)</f>
         <v>55</v>
       </c>
-      <c r="Z5" s="68">
+      <c r="Z5" s="59">
         <f t="shared" ref="Z5:Z26" ca="1" si="1">Y5/X$1</f>
-        <v>3.6569148936170214E-2</v>
+        <v>3.8542396636299929E-2</v>
       </c>
       <c r="AA5" s="56">
-        <f t="shared" ref="AA4:AA24" ca="1" si="2">Z5*H5</f>
-        <v>146.32998670212766</v>
+        <f t="shared" ref="AA5:AA24" ca="1" si="2">Z5*H5</f>
+        <v>154.22585844428869</v>
       </c>
       <c r="AB5" s="5"/>
     </row>
@@ -2607,13 +2607,13 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="Z6" s="68">
+      <c r="Z6" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3085106382978719E-3</v>
+        <v>9.8107918710581641E-3</v>
       </c>
       <c r="AA6" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>37.283377659574469</v>
+        <v>39.295164681149267</v>
       </c>
       <c r="AB6" s="5"/>
     </row>
@@ -2642,7 +2642,7 @@
       <c r="T7" t="s">
         <v>41</v>
       </c>
-      <c r="Z7" s="68"/>
+      <c r="Z7" s="59"/>
       <c r="AA7" s="56"/>
       <c r="AB7" s="5"/>
     </row>
@@ -2671,7 +2671,7 @@
       <c r="T8" t="s">
         <v>42</v>
       </c>
-      <c r="Z8" s="68"/>
+      <c r="Z8" s="59"/>
       <c r="AA8" s="56"/>
       <c r="AB8" s="5"/>
     </row>
@@ -2700,7 +2700,7 @@
       <c r="T9" t="s">
         <v>43</v>
       </c>
-      <c r="Z9" s="68"/>
+      <c r="Z9" s="59"/>
       <c r="AA9" s="56"/>
       <c r="AB9" s="5"/>
     </row>
@@ -2729,7 +2729,7 @@
       <c r="T10" t="s">
         <v>41</v>
       </c>
-      <c r="Z10" s="68"/>
+      <c r="Z10" s="59"/>
       <c r="AA10" s="56"/>
       <c r="AB10" s="5"/>
     </row>
@@ -2758,7 +2758,7 @@
       <c r="T11" t="s">
         <v>60</v>
       </c>
-      <c r="Z11" s="68"/>
+      <c r="Z11" s="59"/>
       <c r="AA11" s="56"/>
       <c r="AB11" s="5"/>
     </row>
@@ -2788,7 +2788,7 @@
       <c r="T12" t="s">
         <v>44</v>
       </c>
-      <c r="Z12" s="68"/>
+      <c r="Z12" s="59"/>
       <c r="AA12" s="56"/>
       <c r="AB12" s="5"/>
     </row>
@@ -2843,13 +2843,13 @@
         <f t="shared" si="0"/>
         <v>288</v>
       </c>
-      <c r="Z13" s="68">
+      <c r="Z13" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19148936170212766</v>
+        <v>0.20182200420462509</v>
       </c>
       <c r="AA13" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>112.28553191489361</v>
+        <v>118.34438682550807</v>
       </c>
       <c r="AB13" s="5"/>
     </row>
@@ -2901,13 +2901,13 @@
         <f t="shared" si="0"/>
         <v>869</v>
       </c>
-      <c r="Z14" s="68">
+      <c r="Z14" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57779255319148937</v>
+        <v>0.60896986685353893</v>
       </c>
       <c r="AA14" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>2536.2781914893621</v>
+        <v>2673.1341275402947</v>
       </c>
       <c r="AB14" s="5"/>
     </row>
@@ -2959,13 +2959,13 @@
         <f t="shared" si="0"/>
         <v>632</v>
       </c>
-      <c r="Z15" s="68">
+      <c r="Z15" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42021276595744683</v>
+        <v>0.44288717589348281</v>
       </c>
       <c r="AA15" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>252.37978723404257</v>
+        <v>265.99803784162577</v>
       </c>
       <c r="AB15" s="5"/>
     </row>
@@ -2994,7 +2994,7 @@
       <c r="T16" t="s">
         <v>60</v>
       </c>
-      <c r="Z16" s="68"/>
+      <c r="Z16" s="59"/>
       <c r="AA16" s="56"/>
       <c r="AB16" s="5"/>
     </row>
@@ -3023,7 +3023,7 @@
       <c r="T17" t="s">
         <v>60</v>
       </c>
-      <c r="Z17" s="68"/>
+      <c r="Z17" s="59"/>
       <c r="AA17" s="56"/>
       <c r="AB17" s="5"/>
     </row>
@@ -3061,7 +3061,7 @@
       <c r="T18" t="s">
         <v>71</v>
       </c>
-      <c r="Z18" s="68"/>
+      <c r="Z18" s="59"/>
       <c r="AA18" s="56"/>
       <c r="AB18" s="5"/>
     </row>
@@ -3102,7 +3102,7 @@
       <c r="T19" t="s">
         <v>73</v>
       </c>
-      <c r="Z19" s="68"/>
+      <c r="Z19" s="59"/>
       <c r="AA19" s="56"/>
       <c r="AB19" s="5"/>
     </row>
@@ -3144,7 +3144,7 @@
       <c r="T20" t="s">
         <v>73</v>
       </c>
-      <c r="Z20" s="68"/>
+      <c r="Z20" s="59"/>
       <c r="AA20" s="56"/>
       <c r="AB20" s="5"/>
     </row>
@@ -3173,7 +3173,7 @@
       <c r="T21" t="s">
         <v>142</v>
       </c>
-      <c r="Z21" s="68"/>
+      <c r="Z21" s="59"/>
       <c r="AA21" s="56"/>
       <c r="AB21" s="5"/>
     </row>
@@ -3203,7 +3203,7 @@
       <c r="T22" t="s">
         <v>143</v>
       </c>
-      <c r="Z22" s="68"/>
+      <c r="Z22" s="59"/>
       <c r="AA22" s="56"/>
       <c r="AB22" s="5"/>
     </row>
@@ -3241,7 +3241,7 @@
       <c r="T23" t="s">
         <v>140</v>
       </c>
-      <c r="Z23" s="68"/>
+      <c r="Z23" s="59"/>
       <c r="AA23" s="56"/>
       <c r="AB23" s="5"/>
     </row>
@@ -3310,13 +3310,13 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="Z24" s="68">
+      <c r="Z24" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4627659574468085E-2</v>
+        <v>1.5416958654519973E-2</v>
       </c>
       <c r="AA24" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>59.74228723404255</v>
+        <v>62.965942536790472</v>
       </c>
       <c r="AB24" s="5"/>
     </row>
@@ -3340,21 +3340,21 @@
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
       <c r="S25" s="10"/>
-      <c r="Z25" s="68"/>
+      <c r="Z25" s="59"/>
       <c r="AB25" s="5"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="Y26">
         <f ca="1">_xlfn.DAYS(TODAY(),B31)</f>
-        <v>424</v>
-      </c>
-      <c r="Z26" s="68">
+        <v>427</v>
+      </c>
+      <c r="Z26" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28191489361702127</v>
+        <v>0.29922915206727402</v>
       </c>
       <c r="AA26" s="56">
         <f ca="1">Z26*H31</f>
-        <v>1435.5331914893616</v>
+        <v>1523.6987806587247</v>
       </c>
       <c r="AB26" s="5"/>
     </row>
@@ -3396,28 +3396,32 @@
         <v>3527.713467999999</v>
       </c>
       <c r="S27" s="16">
-        <f>SUM(S3:S26)</f>
-        <v>3.8403392603883049</v>
+        <f>SUM(S3:S26)/7</f>
+        <v>0.54861989434118641</v>
+      </c>
+      <c r="T27" s="16">
+        <f>S27/4</f>
+        <v>0.1371549735852966</v>
       </c>
       <c r="Y27">
         <f ca="1">SUM(Y3:Y26)</f>
-        <v>2366</v>
-      </c>
-      <c r="Z27" s="68">
+        <v>2369</v>
+      </c>
+      <c r="Z27" s="59">
         <f ca="1">SUM(Z3:Z26)</f>
-        <v>1.5731382978723405</v>
+        <v>1.6601261387526278</v>
       </c>
       <c r="AA27" s="56">
         <f ca="1">SUM(AA3:AA26)</f>
-        <v>4744.251901595745</v>
+        <v>5010.9538192011214</v>
       </c>
       <c r="AB27" s="3">
         <f ca="1">R27/AA27</f>
-        <v>0.74357634062673628</v>
+        <v>0.70400039499114964</v>
       </c>
       <c r="AC27" s="3">
         <f ca="1">AB27/(X1/365)</f>
-        <v>0.18045569436752576</v>
+        <v>0.18007017811616652</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
@@ -3618,11 +3622,11 @@
       </c>
       <c r="F31" s="9">
         <f>'Operacion 3'!B$6</f>
-        <v>30.57</v>
+        <v>30.27</v>
       </c>
       <c r="G31" s="10">
         <f>'Operacion 3'!B$7</f>
-        <v>0.1766743648960738</v>
+        <v>0.16512702078521935</v>
       </c>
       <c r="H31" s="9">
         <f t="shared" si="5"/>
@@ -3642,35 +3646,35 @@
       </c>
       <c r="L31" s="9">
         <f t="shared" si="7"/>
-        <v>5991.72</v>
+        <v>5932.92</v>
       </c>
       <c r="M31" s="9">
         <f>IF((L31*(0.0075))&lt;30,-30,-(L31*(0.0075)))</f>
-        <v>-44.937899999999999</v>
+        <v>-44.496899999999997</v>
       </c>
       <c r="N31" s="9">
         <f>-(L31*0.0035)</f>
-        <v>-20.971020000000003</v>
+        <v>-20.765219999999999</v>
       </c>
       <c r="O31" s="9">
         <f t="shared" si="8"/>
-        <v>5925.8110800000004</v>
+        <v>5867.6578799999997</v>
       </c>
       <c r="P31" s="9">
         <f t="shared" si="9"/>
-        <v>87.202163999999996</v>
+        <v>86.761163999999994</v>
       </c>
       <c r="Q31" s="9">
         <f t="shared" si="10"/>
-        <v>34.719636000000001</v>
+        <v>34.513835999999998</v>
       </c>
       <c r="R31" s="9">
         <f>O31-K31</f>
-        <v>777.71820000000025</v>
+        <v>719.5649999999996</v>
       </c>
       <c r="S31" s="10">
         <f>R31/K31</f>
-        <v>0.15106918583799914</v>
+        <v>0.13977311924488814</v>
       </c>
       <c r="T31" t="s">
         <v>58</v>
@@ -3678,18 +3682,19 @@
       <c r="U31" t="s">
         <v>113</v>
       </c>
+      <c r="AA31" s="56"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="R32" s="56">
         <f>R31+SUM(R19:R22)</f>
-        <v>818.57820000000027</v>
+        <v>760.42499999999961</v>
       </c>
       <c r="S32" s="10">
         <f>R32/K31</f>
-        <v>0.15900610557748915</v>
-      </c>
-    </row>
-    <row r="33" spans="3:23" x14ac:dyDescent="0.25">
+        <v>0.14771003898437815</v>
+      </c>
+    </row>
+    <row r="33" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D33" s="48"/>
       <c r="H33" s="48" t="s">
         <v>59</v>
@@ -3705,28 +3710,23 @@
       <c r="O33" s="48"/>
       <c r="R33" s="48"/>
     </row>
-    <row r="34" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:27" x14ac:dyDescent="0.25">
       <c r="F34" s="5"/>
       <c r="G34" s="48"/>
       <c r="U34" t="s">
         <v>46</v>
       </c>
-      <c r="V34" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" spans="3:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="3:27" x14ac:dyDescent="0.25">
       <c r="T35" t="s">
         <v>70</v>
       </c>
       <c r="U35">
-        <v>28</v>
-      </c>
-      <c r="V35">
-        <v>73.510000000000005</v>
-      </c>
-    </row>
-    <row r="36" spans="3:23" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="AA35" s="56"/>
+    </row>
+    <row r="36" spans="3:27" x14ac:dyDescent="0.25">
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -3743,14 +3743,11 @@
       <c r="U36">
         <v>30.57</v>
       </c>
-      <c r="V36">
-        <v>75.53</v>
-      </c>
       <c r="W36" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>64</v>
       </c>
@@ -3779,17 +3776,14 @@
       </c>
       <c r="U37" s="3">
         <f>(U36/U35)-1</f>
-        <v>9.1785714285714359E-2</v>
-      </c>
-      <c r="V37" s="3">
-        <f>(V36/V35)-1</f>
-        <v>2.7479254523194108E-2</v>
-      </c>
+        <v>0.13222222222222224</v>
+      </c>
+      <c r="V37" s="3"/>
       <c r="W37" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>63</v>
       </c>
@@ -3817,7 +3811,7 @@
       </c>
       <c r="R38" s="5"/>
     </row>
-    <row r="39" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>65</v>
       </c>
@@ -3840,7 +3834,7 @@
         <v>154.728712</v>
       </c>
     </row>
-    <row r="40" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>109</v>
       </c>
@@ -3860,7 +3854,7 @@
       </c>
       <c r="R40" s="43"/>
     </row>
-    <row r="41" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:27" x14ac:dyDescent="0.25">
       <c r="F41" s="5"/>
       <c r="R41" s="9"/>
       <c r="S41">
@@ -3868,7 +3862,7 @@
         <v>2.9039999999999996E-2</v>
       </c>
     </row>
-    <row r="42" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:27" x14ac:dyDescent="0.25">
       <c r="O42" s="9"/>
       <c r="R42" s="45"/>
       <c r="S42">
@@ -3876,7 +3870,7 @@
         <v>136.48799999999997</v>
       </c>
     </row>
-    <row r="43" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:27" x14ac:dyDescent="0.25">
       <c r="P43" s="3"/>
       <c r="R43" s="50" t="s">
         <v>122</v>
@@ -3886,7 +3880,7 @@
       </c>
       <c r="T43" s="5"/>
     </row>
-    <row r="44" spans="3:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F44" s="5"/>
       <c r="Q44" t="s">
         <v>119</v>
@@ -3897,7 +3891,7 @@
       <c r="S44" s="49"/>
       <c r="T44" s="5"/>
     </row>
-    <row r="45" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:27" x14ac:dyDescent="0.25">
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="Q45" t="s">
@@ -3910,7 +3904,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:27" x14ac:dyDescent="0.25">
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -3923,13 +3917,13 @@
       </c>
       <c r="T46" s="5"/>
     </row>
-    <row r="47" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:27" x14ac:dyDescent="0.25">
       <c r="J47" s="58">
         <v>43587</v>
       </c>
       <c r="R47" s="43"/>
     </row>
-    <row r="48" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:27" x14ac:dyDescent="0.25">
       <c r="J48" t="s">
         <v>126</v>
       </c>
@@ -4172,7 +4166,7 @@
   <dimension ref="A2:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2019/Inversiones.xlsx
+++ b/2019/Inversiones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F15EE26-289F-4AF7-8A9B-D3C33C71C42E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E08ED5-7E8D-41DC-874E-3EF2241E84C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27525" windowHeight="10635" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="150">
   <si>
     <t>% =</t>
   </si>
@@ -523,6 +523,9 @@
   </si>
   <si>
     <t>%/año</t>
+  </si>
+  <si>
+    <t>RBC</t>
   </si>
 </sst>
 </file>
@@ -2291,7 +2294,7 @@
   <dimension ref="A1:AC59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z27" sqref="Z27"/>
+      <selection activeCell="W33" sqref="W33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2332,7 +2335,7 @@
       <c r="R1" s="68"/>
       <c r="X1" s="59">
         <f ca="1">_xlfn.DAYS(TODAY(),B3)-_xlfn.DAYS(B5,C3)-_xlfn.DAYS(B6,C5)-_xlfn.DAYS(B14,C6)-_xlfn.DAYS(B18,C15)</f>
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="Y1" s="33"/>
     </row>
@@ -2464,11 +2467,11 @@
       </c>
       <c r="Z3" s="59">
         <f ca="1">Y3/X$1</f>
-        <v>4.3447792571829014E-2</v>
+        <v>4.3356643356643354E-2</v>
       </c>
       <c r="AA3" s="56">
         <f ca="1">Z3*H3</f>
-        <v>173.29152067274003</v>
+        <v>172.927972027972</v>
       </c>
       <c r="AB3" s="5"/>
     </row>
@@ -2551,11 +2554,11 @@
       </c>
       <c r="Z5" s="59">
         <f t="shared" ref="Z5:Z26" ca="1" si="1">Y5/X$1</f>
-        <v>3.8542396636299929E-2</v>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="AA5" s="56">
         <f t="shared" ref="AA5:AA24" ca="1" si="2">Z5*H5</f>
-        <v>154.22585844428869</v>
+        <v>153.90230769230769</v>
       </c>
       <c r="AB5" s="5"/>
     </row>
@@ -2609,11 +2612,11 @@
       </c>
       <c r="Z6" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8107918710581641E-3</v>
+        <v>9.7902097902097911E-3</v>
       </c>
       <c r="AA6" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>39.295164681149267</v>
+        <v>39.212727272727278</v>
       </c>
       <c r="AB6" s="5"/>
     </row>
@@ -2845,11 +2848,11 @@
       </c>
       <c r="Z13" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20182200420462509</v>
+        <v>0.20139860139860141</v>
       </c>
       <c r="AA13" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>118.34438682550807</v>
+        <v>118.09611188811189</v>
       </c>
       <c r="AB13" s="5"/>
     </row>
@@ -2903,11 +2906,11 @@
       </c>
       <c r="Z14" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60896986685353893</v>
+        <v>0.60769230769230764</v>
       </c>
       <c r="AA14" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>2673.1341275402947</v>
+        <v>2667.5261538461536</v>
       </c>
       <c r="AB14" s="5"/>
     </row>
@@ -2961,11 +2964,11 @@
       </c>
       <c r="Z15" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44288717589348281</v>
+        <v>0.44195804195804195</v>
       </c>
       <c r="AA15" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>265.99803784162577</v>
+        <v>265.44</v>
       </c>
       <c r="AB15" s="5"/>
     </row>
@@ -3312,11 +3315,11 @@
       </c>
       <c r="Z24" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5416958654519973E-2</v>
+        <v>1.5384615384615385E-2</v>
       </c>
       <c r="AA24" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>62.965942536790472</v>
+        <v>62.833846153846153</v>
       </c>
       <c r="AB24" s="5"/>
     </row>
@@ -3346,15 +3349,15 @@
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="Y26">
         <f ca="1">_xlfn.DAYS(TODAY(),B31)</f>
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="Z26" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29922915206727402</v>
+        <v>0.30069930069930068</v>
       </c>
       <c r="AA26" s="56">
         <f ca="1">Z26*H31</f>
-        <v>1523.6987806587247</v>
+        <v>1531.1848951048948</v>
       </c>
       <c r="AB26" s="5"/>
     </row>
@@ -3405,23 +3408,23 @@
       </c>
       <c r="Y27">
         <f ca="1">SUM(Y3:Y26)</f>
-        <v>2369</v>
+        <v>2372</v>
       </c>
       <c r="Z27" s="59">
         <f ca="1">SUM(Z3:Z26)</f>
-        <v>1.6601261387526278</v>
+        <v>1.6587412587412587</v>
       </c>
       <c r="AA27" s="56">
         <f ca="1">SUM(AA3:AA26)</f>
-        <v>5010.9538192011214</v>
+        <v>5011.1240139860138</v>
       </c>
       <c r="AB27" s="3">
         <f ca="1">R27/AA27</f>
-        <v>0.70400039499114964</v>
+        <v>0.70397648474756847</v>
       </c>
       <c r="AC27" s="3">
         <f ca="1">AB27/(X1/365)</f>
-        <v>0.18007017811616652</v>
+        <v>0.17968630554745629</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
@@ -4163,10 +4166,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A2:D24"/>
+  <dimension ref="A2:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4342,6 +4345,20 @@
         <v>101</v>
       </c>
     </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/2019/Inversiones.xlsx
+++ b/2019/Inversiones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E08ED5-7E8D-41DC-874E-3EF2241E84C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85BB34D-23EF-45F8-8B10-EA318CC79ACC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27525" windowHeight="10635" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2294,7 +2294,7 @@
   <dimension ref="A1:AC59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W33" sqref="W33"/>
+      <selection activeCell="AB29" sqref="AB29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2335,7 +2335,7 @@
       <c r="R1" s="68"/>
       <c r="X1" s="59">
         <f ca="1">_xlfn.DAYS(TODAY(),B3)-_xlfn.DAYS(B5,C3)-_xlfn.DAYS(B6,C5)-_xlfn.DAYS(B14,C6)-_xlfn.DAYS(B18,C15)</f>
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="Y1" s="33"/>
     </row>
@@ -2467,11 +2467,11 @@
       </c>
       <c r="Z3" s="59">
         <f ca="1">Y3/X$1</f>
-        <v>4.3356643356643354E-2</v>
+        <v>4.3326345213137663E-2</v>
       </c>
       <c r="AA3" s="56">
         <f ca="1">Z3*H3</f>
-        <v>172.927972027972</v>
+        <v>172.80712788259956</v>
       </c>
       <c r="AB3" s="5"/>
     </row>
@@ -2554,11 +2554,11 @@
       </c>
       <c r="Z5" s="59">
         <f t="shared" ref="Z5:Z26" ca="1" si="1">Y5/X$1</f>
-        <v>3.8461538461538464E-2</v>
+        <v>3.8434661076170509E-2</v>
       </c>
       <c r="AA5" s="56">
         <f t="shared" ref="AA5:AA24" ca="1" si="2">Z5*H5</f>
-        <v>153.90230769230769</v>
+        <v>153.79475890985324</v>
       </c>
       <c r="AB5" s="5"/>
     </row>
@@ -2612,11 +2612,11 @@
       </c>
       <c r="Z6" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>9.7902097902097911E-3</v>
+        <v>9.7833682739343116E-3</v>
       </c>
       <c r="AA6" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>39.212727272727278</v>
+        <v>39.185324947589102</v>
       </c>
       <c r="AB6" s="5"/>
     </row>
@@ -2848,11 +2848,11 @@
       </c>
       <c r="Z13" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20139860139860141</v>
+        <v>0.20125786163522014</v>
       </c>
       <c r="AA13" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>118.09611188811189</v>
+        <v>118.01358490566038</v>
       </c>
       <c r="AB13" s="5"/>
     </row>
@@ -2906,11 +2906,11 @@
       </c>
       <c r="Z14" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60769230769230764</v>
+        <v>0.60726764500349406</v>
       </c>
       <c r="AA14" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>2667.5261538461536</v>
+        <v>2665.6620545073379</v>
       </c>
       <c r="AB14" s="5"/>
     </row>
@@ -2964,11 +2964,11 @@
       </c>
       <c r="Z15" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44195804195804195</v>
+        <v>0.4416491963661775</v>
       </c>
       <c r="AA15" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>265.44</v>
+        <v>265.25450733752621</v>
       </c>
       <c r="AB15" s="5"/>
     </row>
@@ -3315,11 +3315,11 @@
       </c>
       <c r="Z24" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5384615384615385E-2</v>
+        <v>1.5373864430468204E-2</v>
       </c>
       <c r="AA24" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>62.833846153846153</v>
+        <v>62.789937106918238</v>
       </c>
       <c r="AB24" s="5"/>
     </row>
@@ -3349,15 +3349,15 @@
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="Y26">
         <f ca="1">_xlfn.DAYS(TODAY(),B31)</f>
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Z26" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30069930069930068</v>
+        <v>0.30118798043326345</v>
       </c>
       <c r="AA26" s="56">
         <f ca="1">Z26*H31</f>
-        <v>1531.1848951048948</v>
+        <v>1533.6732914046122</v>
       </c>
       <c r="AB26" s="5"/>
     </row>
@@ -3408,23 +3408,23 @@
       </c>
       <c r="Y27">
         <f ca="1">SUM(Y3:Y26)</f>
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="Z27" s="59">
         <f ca="1">SUM(Z3:Z26)</f>
-        <v>1.6587412587412587</v>
+        <v>1.658280922431866</v>
       </c>
       <c r="AA27" s="56">
         <f ca="1">SUM(AA3:AA26)</f>
-        <v>5011.1240139860138</v>
+        <v>5011.1805870020971</v>
       </c>
       <c r="AB27" s="3">
         <f ca="1">R27/AA27</f>
-        <v>0.70397648474756847</v>
+        <v>0.70396853730438569</v>
       </c>
       <c r="AC27" s="3">
         <f ca="1">AB27/(X1/365)</f>
-        <v>0.17968630554745629</v>
+        <v>0.17955871147176852</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
@@ -4020,7 +4020,7 @@
   <dimension ref="A2:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4169,7 +4169,7 @@
   <dimension ref="A2:D25"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2019/Inversiones.xlsx
+++ b/2019/Inversiones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85BB34D-23EF-45F8-8B10-EA318CC79ACC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8EF72A-CD97-4A00-83F4-938B2FE6BFE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27525" windowHeight="10635" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="151">
   <si>
     <t>% =</t>
   </si>
@@ -526,6 +526,9 @@
   </si>
   <si>
     <t>RBC</t>
+  </si>
+  <si>
+    <t>&lt;--</t>
   </si>
 </sst>
 </file>
@@ -2291,10 +2294,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AC59"/>
+  <dimension ref="A1:AC60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB29" sqref="AB29"/>
+    <sheetView tabSelected="1" topLeftCell="P28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB33" sqref="AB33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2304,6 +2307,7 @@
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.85546875" customWidth="1"/>
     <col min="18" max="18" width="17.7109375" customWidth="1"/>
     <col min="19" max="19" width="12.7109375" customWidth="1"/>
@@ -2334,8 +2338,8 @@
       <c r="Q1" s="68"/>
       <c r="R1" s="68"/>
       <c r="X1" s="59">
-        <f ca="1">_xlfn.DAYS(TODAY(),B3)-_xlfn.DAYS(B5,C3)-_xlfn.DAYS(B6,C5)-_xlfn.DAYS(B14,C6)-_xlfn.DAYS(B18,C15)</f>
-        <v>1431</v>
+        <f ca="1">_xlfn.DAYS(TODAY(),B3)</f>
+        <v>1513</v>
       </c>
       <c r="Y1" s="33"/>
     </row>
@@ -2467,11 +2471,11 @@
       </c>
       <c r="Z3" s="59">
         <f ca="1">Y3/X$1</f>
-        <v>4.3326345213137663E-2</v>
+        <v>4.0978189028420355E-2</v>
       </c>
       <c r="AA3" s="56">
         <f ca="1">Z3*H3</f>
-        <v>172.80712788259956</v>
+        <v>163.44150693985458</v>
       </c>
       <c r="AB3" s="5"/>
     </row>
@@ -2553,12 +2557,12 @@
         <v>55</v>
       </c>
       <c r="Z5" s="59">
-        <f t="shared" ref="Z5:Z26" ca="1" si="1">Y5/X$1</f>
-        <v>3.8434661076170509E-2</v>
+        <f t="shared" ref="Z5:Z27" ca="1" si="1">Y5/X$1</f>
+        <v>3.6351619299405155E-2</v>
       </c>
       <c r="AA5" s="56">
         <f t="shared" ref="AA5:AA24" ca="1" si="2">Z5*H5</f>
-        <v>153.79475890985324</v>
+        <v>145.45955056179773</v>
       </c>
       <c r="AB5" s="5"/>
     </row>
@@ -2612,11 +2616,11 @@
       </c>
       <c r="Z6" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>9.7833682739343116E-3</v>
+        <v>9.253139458030404E-3</v>
       </c>
       <c r="AA6" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>39.185324947589102</v>
+        <v>37.061599471249181</v>
       </c>
       <c r="AB6" s="5"/>
     </row>
@@ -2848,11 +2852,11 @@
       </c>
       <c r="Z13" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20125786163522014</v>
+        <v>0.19035029742233972</v>
       </c>
       <c r="AA13" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>118.01358490566038</v>
+        <v>111.61760740251157</v>
       </c>
       <c r="AB13" s="5"/>
     </row>
@@ -2906,11 +2910,11 @@
       </c>
       <c r="Z14" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60726764500349406</v>
+        <v>0.57435558493060146</v>
       </c>
       <c r="AA14" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>2665.6620545073379</v>
+        <v>2521.1912756113684</v>
       </c>
       <c r="AB14" s="5"/>
     </row>
@@ -2964,11 +2968,11 @@
       </c>
       <c r="Z15" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4416491963661775</v>
+        <v>0.41771315267680104</v>
       </c>
       <c r="AA15" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>265.25450733752621</v>
+        <v>250.87851949768671</v>
       </c>
       <c r="AB15" s="5"/>
     </row>
@@ -3315,21 +3319,26 @@
       </c>
       <c r="Z24" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5373864430468204E-2</v>
+        <v>1.4540647719762063E-2</v>
       </c>
       <c r="AA24" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>62.789937106918238</v>
+        <v>59.386913417052213</v>
       </c>
       <c r="AB24" s="5"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+      <c r="A25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="8">
+        <v>43587</v>
+      </c>
       <c r="D25" s="14"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="F25" s="9">
+        <v>86.24</v>
+      </c>
       <c r="G25" s="10"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -3339,668 +3348,707 @@
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
+      <c r="P25" s="9">
+        <f>2.5+0.53</f>
+        <v>3.0300000000000002</v>
+      </c>
+      <c r="Q25" s="9">
+        <f>16.39+20.96</f>
+        <v>37.35</v>
+      </c>
+      <c r="R25" s="9">
+        <f>F25-P25-Q25</f>
+        <v>45.859999999999992</v>
+      </c>
       <c r="S25" s="10"/>
+      <c r="T25" t="s">
+        <v>73</v>
+      </c>
       <c r="Z25" s="59"/>
+      <c r="AA25" s="56"/>
       <c r="AB25" s="5"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="Y26">
-        <f ca="1">_xlfn.DAYS(TODAY(),B31)</f>
-        <v>431</v>
-      </c>
-      <c r="Z26" s="59">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="10"/>
+      <c r="Z26" s="59"/>
+      <c r="AB26" s="5"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y27">
+        <f ca="1">_xlfn.DAYS(TODAY(),B32)</f>
+        <v>433</v>
+      </c>
+      <c r="Z27" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30118798043326345</v>
-      </c>
-      <c r="AA26" s="56">
-        <f ca="1">Z26*H31</f>
-        <v>1533.6732914046122</v>
-      </c>
-      <c r="AB26" s="5"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="H27" s="15">
-        <f t="shared" ref="H27:O27" si="3">SUM(H3:H26)</f>
+        <v>0.28618638466622603</v>
+      </c>
+      <c r="AA27" s="56">
+        <f ca="1">Z27*H32</f>
+        <v>1457.2839656311962</v>
+      </c>
+      <c r="AB27" s="5"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="H28" s="15">
+        <f t="shared" ref="H28:O28" si="3">SUM(H3:H27)</f>
         <v>21656.039999999997</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I28" s="15">
         <f t="shared" si="3"/>
         <v>103.523</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J28" s="15">
         <f t="shared" si="3"/>
         <v>42.339399999999998</v>
       </c>
-      <c r="K27" s="15">
+      <c r="K28" s="15">
         <f t="shared" si="3"/>
         <v>4129.1262000000006</v>
       </c>
-      <c r="L27" s="15">
+      <c r="L28" s="15">
         <f t="shared" si="3"/>
         <v>4531.8</v>
       </c>
-      <c r="M27" s="15">
+      <c r="M28" s="15">
         <f t="shared" si="3"/>
         <v>-33.988500000000002</v>
       </c>
-      <c r="N27" s="15">
+      <c r="N28" s="15">
         <f t="shared" si="3"/>
         <v>-15.861300000000002</v>
       </c>
-      <c r="O27" s="15">
+      <c r="O28" s="15">
         <f t="shared" si="3"/>
         <v>4481.9502000000002</v>
       </c>
-      <c r="R27" s="15">
-        <f>SUM(R3:R26)</f>
-        <v>3527.713467999999</v>
-      </c>
-      <c r="S27" s="16">
-        <f>SUM(S3:S26)/7</f>
+      <c r="R28" s="15">
+        <f>SUM(R3:R27)</f>
+        <v>3573.5734679999991</v>
+      </c>
+      <c r="S28" s="16">
+        <f>SUM(S3:S27)/7</f>
         <v>0.54861989434118641</v>
       </c>
-      <c r="T27" s="16">
-        <f>S27/4</f>
+      <c r="T28" s="16">
+        <f>S28/4</f>
         <v>0.1371549735852966</v>
       </c>
-      <c r="Y27">
-        <f ca="1">SUM(Y3:Y26)</f>
-        <v>2373</v>
-      </c>
-      <c r="Z27" s="59">
-        <f ca="1">SUM(Z3:Z26)</f>
-        <v>1.658280922431866</v>
-      </c>
-      <c r="AA27" s="56">
-        <f ca="1">SUM(AA3:AA26)</f>
-        <v>5011.1805870020971</v>
-      </c>
-      <c r="AB27" s="3">
-        <f ca="1">R27/AA27</f>
-        <v>0.70396853730438569</v>
-      </c>
-      <c r="AC27" s="3">
-        <f ca="1">AB27/(X1/365)</f>
-        <v>0.17955871147176852</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="51"/>
-      <c r="U28">
+      <c r="Y28">
+        <f ca="1">SUM(Y3:Y27)</f>
+        <v>2375</v>
+      </c>
+      <c r="Z28" s="59">
+        <f ca="1">SUM(Z3:Z27)</f>
+        <v>1.5697290152015861</v>
+      </c>
+      <c r="AA28" s="56">
+        <f ca="1">SUM(AA3:AA27)</f>
+        <v>4746.3209385327173</v>
+      </c>
+      <c r="AB28" s="3">
+        <f ca="1">R28/AA28</f>
+        <v>0.75291441819455585</v>
+      </c>
+      <c r="AC28" s="3">
+        <f ca="1">AB28/(X1/365)</f>
+        <v>0.18163500505023986</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="U29">
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="str">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A30" s="39" t="str">
         <f>'Operacion 1'!B$3</f>
         <v>ABI.BR</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B30" s="8">
         <f>'Operacion 1'!B$2</f>
         <v>42234</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="14">
+      <c r="C30" s="8"/>
+      <c r="D30" s="14">
         <f>'Operacion 1'!B$5</f>
         <v>62</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E30" s="9">
         <f>'Operacion 1'!B$4</f>
         <v>89</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F30" s="9">
         <f>'Operacion 1'!B$6</f>
         <v>120</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G30" s="10">
         <f>'Operacion 1'!B$7</f>
         <v>0.348314606741573</v>
       </c>
-      <c r="H29" s="9">
-        <f>(E29*D29)</f>
+      <c r="H30" s="9">
+        <f>(E30*D30)</f>
         <v>5518</v>
       </c>
-      <c r="I29" s="9">
-        <f>IF((H29*0.005)&lt;20,20,(H29*0.005))</f>
+      <c r="I30" s="9">
+        <f>IF((H30*0.005)&lt;20,20,(H30*0.005))</f>
         <v>27.59</v>
       </c>
-      <c r="J29" s="9">
-        <f>SUM(H29:I29)*0.0027</f>
+      <c r="J30" s="9">
+        <f>SUM(H30:I30)*0.0027</f>
         <v>14.973093</v>
       </c>
-      <c r="K29" s="9">
-        <f>SUM(H29:J29)</f>
+      <c r="K30" s="9">
+        <f>SUM(H30:J30)</f>
         <v>5560.5630929999998</v>
       </c>
-      <c r="L29" s="9">
-        <f>D29*F29</f>
+      <c r="L30" s="9">
+        <f>D30*F30</f>
         <v>7440</v>
       </c>
-      <c r="M29" s="9">
-        <f>IF((L29*0.005)&lt;20,-20,-(L29*0.005))</f>
+      <c r="M30" s="9">
+        <f>IF((L30*0.005)&lt;20,-20,-(L30*0.005))</f>
         <v>-37.200000000000003</v>
       </c>
-      <c r="N29" s="9">
-        <f>-(SUM(L29:M29)*0.0027)</f>
+      <c r="N30" s="9">
+        <f>-(SUM(L30:M30)*0.0027)</f>
         <v>-19.987560000000002</v>
       </c>
-      <c r="O29" s="9">
-        <f>SUM(L29:N29)</f>
+      <c r="O30" s="9">
+        <f>SUM(L30:N30)</f>
         <v>7382.8124400000006</v>
       </c>
-      <c r="P29" s="9">
-        <f>I29-M29</f>
+      <c r="P30" s="9">
+        <f>I30-M30</f>
         <v>64.790000000000006</v>
       </c>
-      <c r="Q29" s="9">
-        <f>J29-N29</f>
+      <c r="Q30" s="9">
+        <f>J30-N30</f>
         <v>34.960653000000001</v>
       </c>
-      <c r="R29" s="9">
-        <f t="shared" ref="R29:R30" si="4">O29-K29</f>
+      <c r="R30" s="9">
+        <f t="shared" ref="R30:R31" si="4">O30-K30</f>
         <v>1822.2493470000009</v>
       </c>
-      <c r="S29" s="10">
-        <f>R29/K29</f>
+      <c r="S30" s="10">
+        <f>R30/K30</f>
         <v>0.32770949929404947</v>
       </c>
-      <c r="T29" t="s">
+      <c r="T30" t="s">
         <v>111</v>
       </c>
-      <c r="U29" t="s">
+      <c r="U30" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="str">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31" s="39" t="str">
         <f>'Operacion 2'!B$3</f>
         <v>DAI.DE</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B31" s="8">
         <f>'Operacion 2'!B$2</f>
         <v>42471</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="14">
+      <c r="C31" s="8"/>
+      <c r="D31" s="14">
         <f>'Operacion 2'!B$5</f>
         <v>29</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E31" s="9">
         <f>'Operacion 2'!B$4</f>
         <v>138.03</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F31" s="9">
         <f>'Operacion 2'!B$6</f>
         <v>155.03</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G31" s="10">
         <f>'Operacion 2'!B$7</f>
         <v>0.12316163152937776</v>
       </c>
-      <c r="H30" s="9">
-        <f t="shared" ref="H30:H31" si="5">E30*D30</f>
+      <c r="H31" s="9">
+        <f t="shared" ref="H31:H32" si="5">E31*D31</f>
         <v>4002.87</v>
       </c>
-      <c r="I30" s="9">
-        <f>IF((H30*(0.0075))&lt;30,30,(H30*(0.0075)))</f>
+      <c r="I31" s="9">
+        <f>IF((H31*(0.0075))&lt;30,30,(H31*(0.0075)))</f>
         <v>30.021524999999997</v>
       </c>
-      <c r="J30" s="9">
-        <f>H30*0.0035</f>
+      <c r="J31" s="9">
+        <f>H31*0.0035</f>
         <v>14.010045</v>
       </c>
-      <c r="K30" s="9">
-        <f t="shared" ref="K30:K31" si="6">SUM(H30:J30)</f>
+      <c r="K31" s="9">
+        <f t="shared" ref="K31:K32" si="6">SUM(H31:J31)</f>
         <v>4046.90157</v>
       </c>
-      <c r="L30" s="9">
-        <f t="shared" ref="L30:L31" si="7">D30*F30</f>
+      <c r="L31" s="9">
+        <f t="shared" ref="L31:L32" si="7">D31*F31</f>
         <v>4495.87</v>
       </c>
-      <c r="M30" s="9">
-        <f>IF((L30*(0.0075))&lt;30,-30,-(L30*(0.0075)))</f>
+      <c r="M31" s="9">
+        <f>IF((L31*(0.0075))&lt;30,-30,-(L31*(0.0075)))</f>
         <v>-33.719024999999995</v>
       </c>
-      <c r="N30" s="9">
-        <f>-(L30*0.0035)</f>
+      <c r="N31" s="9">
+        <f>-(L31*0.0035)</f>
         <v>-15.735545</v>
       </c>
-      <c r="O30" s="9">
-        <f t="shared" ref="O30:O31" si="8">SUM(L30:N30)</f>
+      <c r="O31" s="9">
+        <f t="shared" ref="O31:O32" si="8">SUM(L31:N31)</f>
         <v>4446.41543</v>
       </c>
-      <c r="P30" s="9">
-        <f t="shared" ref="P30:P31" si="9">I30-M30</f>
+      <c r="P31" s="9">
+        <f t="shared" ref="P31:P32" si="9">I31-M31</f>
         <v>63.740549999999992</v>
       </c>
-      <c r="Q30" s="9">
-        <f t="shared" ref="Q30:Q31" si="10">J30-N30</f>
+      <c r="Q31" s="9">
+        <f t="shared" ref="Q31:Q32" si="10">J31-N31</f>
         <v>29.74559</v>
       </c>
-      <c r="R30" s="9">
+      <c r="R31" s="9">
         <f t="shared" si="4"/>
         <v>399.51386000000002</v>
       </c>
-      <c r="S30" s="10">
-        <f t="shared" ref="S30" si="11">R30/K30</f>
+      <c r="S31" s="10">
+        <f t="shared" ref="S31" si="11">R31/K31</f>
         <v>9.8720923424880827E-2</v>
       </c>
-      <c r="T30" t="s">
+      <c r="T31" t="s">
         <v>110</v>
       </c>
-      <c r="U30" t="s">
+      <c r="U31" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="str">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A32" s="39" t="str">
         <f>'Operacion 3'!B3</f>
         <v>ITX.MC</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B32" s="8">
         <f>'Operacion 3'!B$2</f>
         <v>43154</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="14">
+      <c r="C32" s="8"/>
+      <c r="D32" s="14">
         <f>'Operacion 3'!B$5</f>
         <v>196</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E32" s="9">
         <f>'Operacion 3'!B$4</f>
         <v>25.98</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F32" s="9">
         <f>'Operacion 3'!B$6</f>
         <v>30.27</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G32" s="10">
         <f>'Operacion 3'!B$7</f>
         <v>0.16512702078521935</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H32" s="9">
         <f t="shared" si="5"/>
         <v>5092.08</v>
       </c>
-      <c r="I31" s="9">
-        <f>IF((H31*(0.0075+0.0008))&lt;30,30,(H31*(0.0075+0.0008)))</f>
+      <c r="I32" s="9">
+        <f>IF((H32*(0.0075+0.0008))&lt;30,30,(H32*(0.0075+0.0008)))</f>
         <v>42.264263999999997</v>
       </c>
-      <c r="J31" s="9">
-        <f>H31*0.0027</f>
+      <c r="J32" s="9">
+        <f>H32*0.0027</f>
         <v>13.748616</v>
       </c>
-      <c r="K31" s="9">
+      <c r="K32" s="9">
         <f t="shared" si="6"/>
         <v>5148.0928800000002</v>
       </c>
-      <c r="L31" s="9">
+      <c r="L32" s="9">
         <f t="shared" si="7"/>
         <v>5932.92</v>
       </c>
-      <c r="M31" s="9">
-        <f>IF((L31*(0.0075))&lt;30,-30,-(L31*(0.0075)))</f>
+      <c r="M32" s="9">
+        <f>IF((L32*(0.0075))&lt;30,-30,-(L32*(0.0075)))</f>
         <v>-44.496899999999997</v>
       </c>
-      <c r="N31" s="9">
-        <f>-(L31*0.0035)</f>
+      <c r="N32" s="9">
+        <f>-(L32*0.0035)</f>
         <v>-20.765219999999999</v>
       </c>
-      <c r="O31" s="9">
+      <c r="O32" s="9">
         <f t="shared" si="8"/>
         <v>5867.6578799999997</v>
       </c>
-      <c r="P31" s="9">
+      <c r="P32" s="9">
         <f t="shared" si="9"/>
         <v>86.761163999999994</v>
       </c>
-      <c r="Q31" s="9">
+      <c r="Q32" s="9">
         <f t="shared" si="10"/>
         <v>34.513835999999998</v>
       </c>
-      <c r="R31" s="9">
-        <f>O31-K31</f>
+      <c r="R32" s="9">
+        <f>O32-K32</f>
         <v>719.5649999999996</v>
       </c>
-      <c r="S31" s="10">
-        <f>R31/K31</f>
+      <c r="S32" s="10">
+        <f>R32/K32</f>
         <v>0.13977311924488814</v>
       </c>
-      <c r="T31" t="s">
+      <c r="T32" t="s">
         <v>58</v>
       </c>
-      <c r="U31" t="s">
+      <c r="U32" t="s">
         <v>113</v>
       </c>
-      <c r="AA31" s="56"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="R32" s="56">
-        <f>R31+SUM(R19:R22)</f>
-        <v>760.42499999999961</v>
-      </c>
-      <c r="S32" s="10">
-        <f>R32/K31</f>
-        <v>0.14771003898437815</v>
-      </c>
+      <c r="AA32" s="56"/>
     </row>
     <row r="33" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="D33" s="48"/>
-      <c r="H33" s="48" t="s">
+      <c r="R33" s="56">
+        <f>R32+SUM(R19:R22)+R25</f>
+        <v>806.28499999999963</v>
+      </c>
+      <c r="S33" s="10">
+        <f>R33/K32</f>
+        <v>0.15661819217216602</v>
+      </c>
+    </row>
+    <row r="34" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="D34" s="48"/>
+      <c r="H34" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48" t="s">
+      <c r="I34" s="48"/>
+      <c r="J34" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="48"/>
-      <c r="R33" s="48"/>
-    </row>
-    <row r="34" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F34" s="5"/>
-      <c r="G34" s="48"/>
-      <c r="U34" t="s">
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="48"/>
+      <c r="R34" s="48"/>
+    </row>
+    <row r="35" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F35" s="5"/>
+      <c r="G35" s="48"/>
+      <c r="U35" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="T35" t="s">
+    <row r="36" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="T36" t="s">
         <v>70</v>
       </c>
-      <c r="U35">
+      <c r="U36">
         <v>27</v>
       </c>
-      <c r="AA35" s="56"/>
-    </row>
-    <row r="36" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="T36" t="s">
+      <c r="AA36" s="56"/>
+    </row>
+    <row r="37" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="T37" t="s">
         <v>68</v>
       </c>
-      <c r="U36">
+      <c r="U37">
         <v>30.57</v>
       </c>
-      <c r="W36" t="s">
+      <c r="W37" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37">
-        <v>74.89</v>
-      </c>
-      <c r="F37">
-        <v>52</v>
-      </c>
-      <c r="G37" s="10">
-        <f>1-(F37/E37)</f>
-        <v>0.30564828415008682</v>
-      </c>
-      <c r="N37">
-        <v>6769.84</v>
-      </c>
-      <c r="O37">
-        <v>74.459999999999994</v>
-      </c>
-      <c r="P37" s="5">
-        <v>6695.38</v>
-      </c>
-      <c r="S37" s="10"/>
-      <c r="T37" t="s">
-        <v>69</v>
-      </c>
-      <c r="U37" s="3">
-        <f>(U36/U35)-1</f>
-        <v>0.13222222222222224</v>
-      </c>
-      <c r="V37" s="3"/>
-      <c r="W37" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="38" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E38">
-        <v>182.08</v>
+        <v>74.89</v>
       </c>
       <c r="F38">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="G38" s="10">
         <f>1-(F38/E38)</f>
-        <v>0.30799648506151145</v>
-      </c>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
+        <v>0.30564828415008682</v>
+      </c>
+      <c r="N38">
+        <v>6769.84</v>
+      </c>
+      <c r="O38">
+        <v>74.459999999999994</v>
+      </c>
       <c r="P38" s="5">
-        <f>P37-K31</f>
-        <v>1547.28712</v>
-      </c>
-      <c r="R38" s="5"/>
+        <v>6695.38</v>
+      </c>
+      <c r="S38" s="10"/>
+      <c r="T38" t="s">
+        <v>69</v>
+      </c>
+      <c r="U38" s="3">
+        <f>(U37/U36)-1</f>
+        <v>0.13222222222222224</v>
+      </c>
+      <c r="V38" s="3"/>
+      <c r="W38" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="39" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E39">
-        <v>93.54</v>
+        <v>182.08</v>
       </c>
       <c r="F39">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="G39" s="10">
         <f>1-(F39/E39)</f>
-        <v>0.30511011332050464</v>
-      </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
+        <v>0.30799648506151145</v>
+      </c>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-      <c r="P39" s="56">
-        <f>P38*0.1</f>
-        <v>154.728712</v>
-      </c>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5">
+        <f>P38-K32</f>
+        <v>1547.28712</v>
+      </c>
+      <c r="R39" s="5"/>
     </row>
     <row r="40" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>109</v>
+      <c r="D40" t="s">
+        <v>65</v>
       </c>
       <c r="E40">
-        <v>20</v>
+        <v>93.54</v>
       </c>
       <c r="F40">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="G40" s="10">
         <f>1-(F40/E40)</f>
+        <v>0.30511011332050464</v>
+      </c>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="5"/>
+      <c r="P40" s="56">
+        <f>P39*0.1</f>
+        <v>154.728712</v>
+      </c>
+    </row>
+    <row r="41" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41">
+        <v>20</v>
+      </c>
+      <c r="F41">
+        <v>14</v>
+      </c>
+      <c r="G41" s="10">
+        <f>1-(F41/E41)</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="P40" s="56">
-        <f>P38-P39</f>
+      <c r="P41" s="56">
+        <f>P39-P40</f>
         <v>1392.5584079999999</v>
       </c>
-      <c r="R40" s="43"/>
-    </row>
-    <row r="41" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F41" s="5"/>
-      <c r="R41" s="9"/>
-      <c r="S41">
+      <c r="R41" s="43"/>
+    </row>
+    <row r="42" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F42" s="5"/>
+      <c r="R42" s="9"/>
+      <c r="S42">
         <f>(0.00242*12)</f>
         <v>2.9039999999999996E-2</v>
       </c>
     </row>
-    <row r="42" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="O42" s="9"/>
-      <c r="R42" s="45"/>
-      <c r="S42">
-        <f>4700*S41</f>
+    <row r="43" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="O43" s="9"/>
+      <c r="R43" s="45"/>
+      <c r="S43">
+        <f>4700*S42</f>
         <v>136.48799999999997</v>
       </c>
     </row>
-    <row r="43" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="P43" s="3"/>
-      <c r="R43" s="50" t="s">
+    <row r="44" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="P44" s="3"/>
+      <c r="R44" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="S43" s="48" t="s">
+      <c r="S44" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="T43" s="5"/>
-    </row>
-    <row r="44" spans="3:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F44" s="5"/>
-      <c r="Q44" t="s">
-        <v>119</v>
-      </c>
-      <c r="R44" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="S44" s="49"/>
       <c r="T44" s="5"/>
     </row>
-    <row r="45" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="E45" s="5"/>
+    <row r="45" spans="3:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F45" s="5"/>
       <c r="Q45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R45" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="S45" t="s">
-        <v>124</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="S45" s="49"/>
+      <c r="T45" s="5"/>
     </row>
     <row r="46" spans="3:27" x14ac:dyDescent="0.25">
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="J46" t="s">
+      <c r="Q46" t="s">
+        <v>120</v>
+      </c>
+      <c r="R46" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="S46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="J47" t="s">
         <v>125</v>
       </c>
-      <c r="R46" s="5"/>
-      <c r="S46" t="s">
+      <c r="R47" s="5"/>
+      <c r="S47" t="s">
         <v>138</v>
       </c>
-      <c r="T46" s="5"/>
-    </row>
-    <row r="47" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J47" s="58">
+      <c r="T47" s="5"/>
+    </row>
+    <row r="48" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="J48" s="58">
         <v>43587</v>
       </c>
-      <c r="R47" s="43"/>
-    </row>
-    <row r="48" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J48" t="s">
-        <v>126</v>
-      </c>
-      <c r="R48" s="44"/>
+      <c r="R48" s="43"/>
     </row>
     <row r="49" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J49" t="s">
+        <v>126</v>
+      </c>
+      <c r="R49" s="44"/>
+    </row>
+    <row r="50" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J50" t="s">
         <v>127</v>
       </c>
-      <c r="R49" s="57"/>
-      <c r="S49">
+      <c r="L50" t="s">
+        <v>150</v>
+      </c>
+      <c r="R50" s="57"/>
+      <c r="S50">
         <f>5000/12</f>
         <v>416.66666666666669</v>
       </c>
     </row>
-    <row r="50" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J50" t="s">
-        <v>128</v>
-      </c>
-      <c r="S50">
-        <f>2.2/S49</f>
-        <v>5.28E-3</v>
-      </c>
-    </row>
     <row r="51" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S51">
-        <f>100*S50</f>
-        <v>0.52800000000000002</v>
+        <f>2.2/S50</f>
+        <v>5.28E-3</v>
       </c>
     </row>
     <row r="52" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J52" t="s">
+        <v>129</v>
+      </c>
+      <c r="S52">
+        <f>100*S51</f>
+        <v>0.52800000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
         <v>130</v>
       </c>
-      <c r="S52">
+      <c r="S53">
         <f>2.2*12</f>
         <v>26.400000000000002</v>
       </c>
     </row>
-    <row r="53" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J53" t="s">
-        <v>131</v>
-      </c>
-    </row>
     <row r="54" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J57" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J59" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J60" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4020,7 +4068,7 @@
   <dimension ref="A2:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4050,12 +4098,12 @@
         <v>75</v>
       </c>
       <c r="B3" s="56">
-        <f>1050</f>
-        <v>1050</v>
+        <f>1100</f>
+        <v>1100</v>
       </c>
       <c r="C3" s="3">
         <f>B3/B$7</f>
-        <v>0.25925925925925924</v>
+        <v>0.27160493827160492</v>
       </c>
       <c r="D3" s="56">
         <f>D$7*C3</f>
@@ -4099,11 +4147,11 @@
         <v>117</v>
       </c>
       <c r="B6" s="56">
-        <v>1100</v>
+        <v>1050</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" si="0"/>
-        <v>0.27160493827160492</v>
+        <v>0.25925925925925924</v>
       </c>
       <c r="D6" s="56">
         <f t="shared" si="1"/>
@@ -4120,7 +4168,7 @@
       </c>
       <c r="C7" s="3">
         <f>SUM(C3:C6)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="D7" s="56">
         <v>0</v>

--- a/2019/Inversiones.xlsx
+++ b/2019/Inversiones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8EF72A-CD97-4A00-83F4-938B2FE6BFE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB64AC52-AF35-4813-B5FB-DE114D5651DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27525" windowHeight="10635" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="149">
   <si>
     <t>% =</t>
   </si>
@@ -206,16 +206,10 @@
     <t>OPERACION 3 (ES)</t>
   </si>
   <si>
-    <t>TEF.MC = 7.7 -- 11</t>
-  </si>
-  <si>
     <t>Custodia de acciones MT.AS</t>
   </si>
   <si>
     <t>ABI.BR</t>
-  </si>
-  <si>
-    <t>Noviembre Compra</t>
   </si>
   <si>
     <t>VOW3.DE</t>
@@ -432,9 +426,6 @@
     <t>Coche</t>
   </si>
   <si>
-    <t>Entre 25 y 27.5</t>
-  </si>
-  <si>
     <t>Inditex</t>
   </si>
   <si>
@@ -529,6 +520,9 @@
   </si>
   <si>
     <t>&lt;--</t>
+  </si>
+  <si>
+    <t>Entre 25 y 28</t>
   </si>
 </sst>
 </file>
@@ -1460,7 +1454,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>3</v>
@@ -1760,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>3</v>
@@ -2180,7 +2174,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B12" s="5">
         <v>29.22</v>
@@ -2268,13 +2262,13 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="54" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E23" s="33"/>
     </row>
     <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="53" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
@@ -2296,8 +2290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB33" sqref="AB33"/>
+    <sheetView tabSelected="1" topLeftCell="H28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2339,7 +2333,7 @@
       <c r="R1" s="68"/>
       <c r="X1" s="59">
         <f ca="1">_xlfn.DAYS(TODAY(),B3)</f>
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="Y1" s="33"/>
     </row>
@@ -2402,19 +2396,19 @@
         <v>23</v>
       </c>
       <c r="Y2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB2" t="s">
         <v>144</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>145</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -2471,11 +2465,11 @@
       </c>
       <c r="Z3" s="59">
         <f ca="1">Y3/X$1</f>
-        <v>4.0978189028420355E-2</v>
+        <v>4.0951122853368563E-2</v>
       </c>
       <c r="AA3" s="56">
         <f ca="1">Z3*H3</f>
-        <v>163.44150693985458</v>
+        <v>163.33355350066051</v>
       </c>
       <c r="AB3" s="5"/>
     </row>
@@ -2502,7 +2496,7 @@
       </c>
       <c r="S4" s="42"/>
       <c r="T4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Z4" s="59"/>
       <c r="AA4" s="56"/>
@@ -2558,11 +2552,11 @@
       </c>
       <c r="Z5" s="59">
         <f t="shared" ref="Z5:Z27" ca="1" si="1">Y5/X$1</f>
-        <v>3.6351619299405155E-2</v>
+        <v>3.6327608982826949E-2</v>
       </c>
       <c r="AA5" s="56">
         <f t="shared" ref="AA5:AA24" ca="1" si="2">Z5*H5</f>
-        <v>145.45955056179773</v>
+        <v>145.3634742404227</v>
       </c>
       <c r="AB5" s="5"/>
     </row>
@@ -2616,11 +2610,11 @@
       </c>
       <c r="Z6" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>9.253139458030404E-3</v>
+        <v>9.247027741083224E-3</v>
       </c>
       <c r="AA6" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>37.061599471249181</v>
+        <v>37.037120211360637</v>
       </c>
       <c r="AB6" s="5"/>
     </row>
@@ -2763,7 +2757,7 @@
       </c>
       <c r="S11" s="10"/>
       <c r="T11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z11" s="59"/>
       <c r="AA11" s="56"/>
@@ -2852,11 +2846,11 @@
       </c>
       <c r="Z13" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19035029742233972</v>
+        <v>0.19022457067371201</v>
       </c>
       <c r="AA13" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>111.61760740251157</v>
+        <v>111.54388375165125</v>
       </c>
       <c r="AB13" s="5"/>
     </row>
@@ -2910,11 +2904,11 @@
       </c>
       <c r="Z14" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57435558493060146</v>
+        <v>0.57397622192866582</v>
       </c>
       <c r="AA14" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>2521.1912756113684</v>
+        <v>2519.5260237780717</v>
       </c>
       <c r="AB14" s="5"/>
     </row>
@@ -2968,11 +2962,11 @@
       </c>
       <c r="Z15" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41771315267680104</v>
+        <v>0.41743725231175693</v>
       </c>
       <c r="AA15" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>250.87851949768671</v>
+        <v>250.71281373844121</v>
       </c>
       <c r="AB15" s="5"/>
     </row>
@@ -2999,7 +2993,7 @@
       </c>
       <c r="S16" s="10"/>
       <c r="T16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z16" s="59"/>
       <c r="AA16" s="56"/>
@@ -3028,7 +3022,7 @@
       </c>
       <c r="S17" s="10"/>
       <c r="T17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z17" s="59"/>
       <c r="AA17" s="56"/>
@@ -3066,7 +3060,7 @@
       </c>
       <c r="S18" s="10"/>
       <c r="T18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Z18" s="59"/>
       <c r="AA18" s="56"/>
@@ -3107,7 +3101,7 @@
       </c>
       <c r="S19" s="10"/>
       <c r="T19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z19" s="59"/>
       <c r="AA19" s="56"/>
@@ -3149,7 +3143,7 @@
       </c>
       <c r="S20" s="10"/>
       <c r="T20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z20" s="59"/>
       <c r="AA20" s="56"/>
@@ -3178,7 +3172,7 @@
       </c>
       <c r="S21" s="10"/>
       <c r="T21" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Z21" s="59"/>
       <c r="AA21" s="56"/>
@@ -3203,12 +3197,12 @@
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9">
-        <f>-2.18-2.26-3.09</f>
-        <v>-7.5299999999999994</v>
+        <f>-2.18-2.26-3.09-2.27</f>
+        <v>-9.7999999999999989</v>
       </c>
       <c r="S22" s="10"/>
       <c r="T22" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Z22" s="59"/>
       <c r="AA22" s="56"/>
@@ -3216,7 +3210,7 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B23" s="8">
         <v>43550</v>
@@ -3246,7 +3240,7 @@
       </c>
       <c r="S23" s="10"/>
       <c r="T23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Z23" s="59"/>
       <c r="AA23" s="56"/>
@@ -3254,7 +3248,7 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B24" s="8">
         <v>43545</v>
@@ -3311,7 +3305,7 @@
         <v>8.5447618433168629E-2</v>
       </c>
       <c r="T24" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y24">
         <f t="shared" si="0"/>
@@ -3319,11 +3313,11 @@
       </c>
       <c r="Z24" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4540647719762063E-2</v>
+        <v>1.4531043593130779E-2</v>
       </c>
       <c r="AA24" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>59.386913417052213</v>
+        <v>59.347688243064724</v>
       </c>
       <c r="AB24" s="5"/>
     </row>
@@ -3362,7 +3356,7 @@
       </c>
       <c r="S25" s="10"/>
       <c r="T25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z25" s="59"/>
       <c r="AA25" s="56"/>
@@ -3394,15 +3388,15 @@
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="Y27">
         <f ca="1">_xlfn.DAYS(TODAY(),B32)</f>
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Z27" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28618638466622603</v>
+        <v>0.2866578599735799</v>
       </c>
       <c r="AA27" s="56">
         <f ca="1">Z27*H32</f>
-        <v>1457.2839656311962</v>
+        <v>1459.6847556142668</v>
       </c>
       <c r="AB27" s="5"/>
     </row>
@@ -3441,7 +3435,7 @@
       </c>
       <c r="R28" s="15">
         <f>SUM(R3:R27)</f>
-        <v>3573.5734679999991</v>
+        <v>3571.3034679999992</v>
       </c>
       <c r="S28" s="16">
         <f>SUM(S3:S27)/7</f>
@@ -3453,23 +3447,23 @@
       </c>
       <c r="Y28">
         <f ca="1">SUM(Y3:Y27)</f>
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="Z28" s="59">
         <f ca="1">SUM(Z3:Z27)</f>
-        <v>1.5697290152015861</v>
+        <v>1.569352708058124</v>
       </c>
       <c r="AA28" s="56">
         <f ca="1">SUM(AA3:AA27)</f>
-        <v>4746.3209385327173</v>
+        <v>4746.5493130779396</v>
       </c>
       <c r="AB28" s="3">
         <f ca="1">R28/AA28</f>
-        <v>0.75291441819455585</v>
+        <v>0.75239995045667341</v>
       </c>
       <c r="AC28" s="3">
         <f ca="1">AB28/(X1/365)</f>
-        <v>0.18163500505023986</v>
+        <v>0.18139100522898666</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
@@ -3563,10 +3557,10 @@
         <v>0.32770949929404947</v>
       </c>
       <c r="T30" t="s">
+        <v>109</v>
+      </c>
+      <c r="U30" t="s">
         <v>111</v>
-      </c>
-      <c r="U30" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
@@ -3644,10 +3638,10 @@
         <v>9.8720923424880827E-2</v>
       </c>
       <c r="T31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="U31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
@@ -3728,29 +3722,25 @@
         <v>58</v>
       </c>
       <c r="U32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AA32" s="56"/>
     </row>
     <row r="33" spans="3:27" x14ac:dyDescent="0.25">
       <c r="R33" s="56">
         <f>R32+SUM(R19:R22)+R25</f>
-        <v>806.28499999999963</v>
+        <v>804.01499999999965</v>
       </c>
       <c r="S33" s="10">
         <f>R33/K32</f>
-        <v>0.15661819217216602</v>
+        <v>0.1561772521866388</v>
       </c>
     </row>
     <row r="34" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D34" s="48"/>
-      <c r="H34" s="48" t="s">
-        <v>59</v>
-      </c>
+      <c r="H34" s="48"/>
       <c r="I34" s="48"/>
-      <c r="J34" s="48" t="s">
-        <v>62</v>
-      </c>
+      <c r="J34" s="48"/>
       <c r="K34" s="48"/>
       <c r="L34" s="48"/>
       <c r="M34" s="48"/>
@@ -3767,10 +3757,10 @@
     </row>
     <row r="36" spans="3:27" x14ac:dyDescent="0.25">
       <c r="T36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="U36">
-        <v>27</v>
+        <v>26.25</v>
       </c>
       <c r="AA36" s="56"/>
     </row>
@@ -3786,18 +3776,18 @@
       <c r="P37" s="5"/>
       <c r="R37" s="5"/>
       <c r="T37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="U37">
-        <v>30.57</v>
+        <v>30.27</v>
       </c>
       <c r="W37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E38">
         <v>74.89</v>
@@ -3820,20 +3810,20 @@
       </c>
       <c r="S38" s="10"/>
       <c r="T38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U38" s="3">
         <f>(U37/U36)-1</f>
-        <v>0.13222222222222224</v>
+        <v>0.15314285714285703</v>
       </c>
       <c r="V38" s="3"/>
       <c r="W38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E39">
         <v>182.08</v>
@@ -3861,7 +3851,7 @@
     </row>
     <row r="40" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E40">
         <v>93.54</v>
@@ -3884,7 +3874,7 @@
     </row>
     <row r="41" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E41">
         <v>20</v>
@@ -3921,20 +3911,20 @@
     <row r="44" spans="3:27" x14ac:dyDescent="0.25">
       <c r="P44" s="3"/>
       <c r="R44" s="50" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="S44" s="48" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="T44" s="5"/>
     </row>
     <row r="45" spans="3:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F45" s="5"/>
       <c r="Q45" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="R45" s="57" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="S45" s="49"/>
       <c r="T45" s="5"/>
@@ -3943,13 +3933,13 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="Q46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="R46" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="S46" t="s">
         <v>121</v>
-      </c>
-      <c r="S46" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="47" spans="3:27" x14ac:dyDescent="0.25">
@@ -3957,11 +3947,11 @@
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="J47" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="R47" s="5"/>
       <c r="S47" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="T47" s="5"/>
     </row>
@@ -3973,16 +3963,16 @@
     </row>
     <row r="49" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J49" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="R49" s="44"/>
     </row>
     <row r="50" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J50" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L50" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="R50" s="57"/>
       <c r="S50">
@@ -3992,7 +3982,7 @@
     </row>
     <row r="51" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J51" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="S51">
         <f>2.2/S50</f>
@@ -4001,7 +3991,7 @@
     </row>
     <row r="52" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J52" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="S52">
         <f>100*S51</f>
@@ -4010,7 +4000,7 @@
     </row>
     <row r="53" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J53" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="S53">
         <f>2.2*12</f>
@@ -4019,37 +4009,37 @@
     </row>
     <row r="54" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J54" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J55" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J56" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J57" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J58" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J59" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J60" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -4068,7 +4058,7 @@
   <dimension ref="A2:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4081,21 +4071,21 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>78</v>
-      </c>
       <c r="D2" s="55" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3" s="56">
         <f>1100</f>
@@ -4112,7 +4102,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B4" s="56">
         <v>1350</v>
@@ -4128,7 +4118,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B5" s="56">
         <v>550</v>
@@ -4144,7 +4134,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B6" s="56">
         <v>1050</v>
@@ -4174,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4185,7 +4175,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" s="56">
         <v>5092.08</v>
@@ -4216,7 +4206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -4229,154 +4219,154 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="55" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C15" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="55" t="s">
         <v>98</v>
-      </c>
-      <c r="D15" s="55" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" t="s">
         <v>106</v>
-      </c>
-      <c r="D20" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" t="s">
         <v>105</v>
-      </c>
-      <c r="C22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -4384,27 +4374,27 @@
         <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" t="s">
         <v>105</v>
-      </c>
-      <c r="C25" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/2019/Inversiones.xlsx
+++ b/2019/Inversiones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB64AC52-AF35-4813-B5FB-DE114D5651DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AE0149-77A6-4586-A392-DF1737CDEE10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27525" windowHeight="10635" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>3</v>
@@ -1775,7 +1775,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="5">
-        <v>138.03</v>
+        <v>67.77</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>4</v>
@@ -1798,7 +1798,7 @@
       </c>
       <c r="B5" s="32">
         <f>TRUNC(B1/B4)</f>
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>5</v>
@@ -1821,7 +1821,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="5">
-        <v>155.03</v>
+        <v>76.03</v>
       </c>
       <c r="C6">
         <v>76.430000000000007</v>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="B7" s="3">
         <f>(B6/B4)-1</f>
-        <v>0.12316163152937776</v>
+        <v>0.12188283901431318</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>37</v>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="B12" s="5">
         <f>(B4*0.1155)+B4</f>
-        <v>153.972465</v>
+        <v>75.59743499999999</v>
       </c>
       <c r="D12" s="40" t="s">
         <v>10</v>
@@ -2290,8 +2290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U37" sqref="U37"/>
+    <sheetView tabSelected="1" topLeftCell="H22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2333,7 +2333,7 @@
       <c r="R1" s="68"/>
       <c r="X1" s="59">
         <f ca="1">_xlfn.DAYS(TODAY(),B3)</f>
-        <v>1514</v>
+        <v>1518</v>
       </c>
       <c r="Y1" s="33"/>
     </row>
@@ -2465,11 +2465,11 @@
       </c>
       <c r="Z3" s="59">
         <f ca="1">Y3/X$1</f>
-        <v>4.0951122853368563E-2</v>
+        <v>4.0843214756258232E-2</v>
       </c>
       <c r="AA3" s="56">
         <f ca="1">Z3*H3</f>
-        <v>163.33355350066051</v>
+        <v>162.90316205533597</v>
       </c>
       <c r="AB3" s="5"/>
     </row>
@@ -2552,11 +2552,11 @@
       </c>
       <c r="Z5" s="59">
         <f t="shared" ref="Z5:Z27" ca="1" si="1">Y5/X$1</f>
-        <v>3.6327608982826949E-2</v>
+        <v>3.6231884057971016E-2</v>
       </c>
       <c r="AA5" s="56">
         <f t="shared" ref="AA5:AA24" ca="1" si="2">Z5*H5</f>
-        <v>145.3634742404227</v>
+        <v>144.98043478260868</v>
       </c>
       <c r="AB5" s="5"/>
     </row>
@@ -2610,11 +2610,11 @@
       </c>
       <c r="Z6" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>9.247027741083224E-3</v>
+        <v>9.22266139657444E-3</v>
       </c>
       <c r="AA6" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>37.037120211360637</v>
+        <v>36.939525691699608</v>
       </c>
       <c r="AB6" s="5"/>
     </row>
@@ -2846,11 +2846,11 @@
       </c>
       <c r="Z13" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19022457067371201</v>
+        <v>0.18972332015810275</v>
       </c>
       <c r="AA13" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>111.54388375165125</v>
+        <v>111.2499604743083</v>
       </c>
       <c r="AB13" s="5"/>
     </row>
@@ -2904,11 +2904,11 @@
       </c>
       <c r="Z14" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57397622192866582</v>
+        <v>0.57246376811594202</v>
       </c>
       <c r="AA14" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>2519.5260237780717</v>
+        <v>2512.8869565217392</v>
       </c>
       <c r="AB14" s="5"/>
     </row>
@@ -2962,11 +2962,11 @@
       </c>
       <c r="Z15" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41743725231175693</v>
+        <v>0.4163372859025033</v>
       </c>
       <c r="AA15" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>250.71281373844121</v>
+        <v>250.05217391304348</v>
       </c>
       <c r="AB15" s="5"/>
     </row>
@@ -3313,11 +3313,11 @@
       </c>
       <c r="Z24" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4531043593130779E-2</v>
+        <v>1.4492753623188406E-2</v>
       </c>
       <c r="AA24" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>59.347688243064724</v>
+        <v>59.191304347826083</v>
       </c>
       <c r="AB24" s="5"/>
     </row>
@@ -3388,15 +3388,15 @@
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="Y27">
         <f ca="1">_xlfn.DAYS(TODAY(),B32)</f>
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="Z27" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2866578599735799</v>
+        <v>0.28853754940711462</v>
       </c>
       <c r="AA27" s="56">
         <f ca="1">Z27*H32</f>
-        <v>1459.6847556142668</v>
+        <v>1469.2562845849802</v>
       </c>
       <c r="AB27" s="5"/>
     </row>
@@ -3447,23 +3447,23 @@
       </c>
       <c r="Y28">
         <f ca="1">SUM(Y3:Y27)</f>
-        <v>2376</v>
+        <v>2380</v>
       </c>
       <c r="Z28" s="59">
         <f ca="1">SUM(Z3:Z27)</f>
-        <v>1.569352708058124</v>
+        <v>1.5678524374176548</v>
       </c>
       <c r="AA28" s="56">
         <f ca="1">SUM(AA3:AA27)</f>
-        <v>4746.5493130779396</v>
+        <v>4747.4598023715416</v>
       </c>
       <c r="AB28" s="3">
         <f ca="1">R28/AA28</f>
-        <v>0.75239995045667341</v>
+        <v>0.75225565179424869</v>
       </c>
       <c r="AC28" s="3">
         <f ca="1">AB28/(X1/365)</f>
-        <v>0.18139100522898666</v>
+        <v>0.18087833524697022</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
@@ -3566,7 +3566,7 @@
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="39" t="str">
         <f>'Operacion 2'!B$3</f>
-        <v>DAI.DE</v>
+        <v>BMW.DE</v>
       </c>
       <c r="B31" s="8">
         <f>'Operacion 2'!B$2</f>
@@ -3575,67 +3575,67 @@
       <c r="C31" s="8"/>
       <c r="D31" s="14">
         <f>'Operacion 2'!B$5</f>
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="E31" s="9">
         <f>'Operacion 2'!B$4</f>
-        <v>138.03</v>
+        <v>67.77</v>
       </c>
       <c r="F31" s="9">
         <f>'Operacion 2'!B$6</f>
-        <v>155.03</v>
+        <v>76.03</v>
       </c>
       <c r="G31" s="10">
         <f>'Operacion 2'!B$7</f>
-        <v>0.12316163152937776</v>
+        <v>0.12188283901431318</v>
       </c>
       <c r="H31" s="9">
         <f t="shared" ref="H31:H32" si="5">E31*D31</f>
-        <v>4002.87</v>
+        <v>3998.43</v>
       </c>
       <c r="I31" s="9">
         <f>IF((H31*(0.0075))&lt;30,30,(H31*(0.0075)))</f>
-        <v>30.021524999999997</v>
+        <v>30</v>
       </c>
       <c r="J31" s="9">
         <f>H31*0.0035</f>
-        <v>14.010045</v>
+        <v>13.994505</v>
       </c>
       <c r="K31" s="9">
         <f t="shared" ref="K31:K32" si="6">SUM(H31:J31)</f>
-        <v>4046.90157</v>
+        <v>4042.424505</v>
       </c>
       <c r="L31" s="9">
         <f t="shared" ref="L31:L32" si="7">D31*F31</f>
-        <v>4495.87</v>
+        <v>4485.7700000000004</v>
       </c>
       <c r="M31" s="9">
         <f>IF((L31*(0.0075))&lt;30,-30,-(L31*(0.0075)))</f>
-        <v>-33.719024999999995</v>
+        <v>-33.643275000000003</v>
       </c>
       <c r="N31" s="9">
         <f>-(L31*0.0035)</f>
-        <v>-15.735545</v>
+        <v>-15.700195000000003</v>
       </c>
       <c r="O31" s="9">
         <f t="shared" ref="O31:O32" si="8">SUM(L31:N31)</f>
-        <v>4446.41543</v>
+        <v>4436.4265299999997</v>
       </c>
       <c r="P31" s="9">
         <f t="shared" ref="P31:P32" si="9">I31-M31</f>
-        <v>63.740549999999992</v>
+        <v>63.643275000000003</v>
       </c>
       <c r="Q31" s="9">
         <f t="shared" ref="Q31:Q32" si="10">J31-N31</f>
-        <v>29.74559</v>
+        <v>29.694700000000005</v>
       </c>
       <c r="R31" s="9">
         <f t="shared" si="4"/>
-        <v>399.51386000000002</v>
+        <v>394.00202499999978</v>
       </c>
       <c r="S31" s="10">
         <f t="shared" ref="S31" si="11">R31/K31</f>
-        <v>9.8720923424880827E-2</v>
+        <v>9.7466761472642466E-2</v>
       </c>
       <c r="T31" t="s">
         <v>108</v>

--- a/2019/Inversiones.xlsx
+++ b/2019/Inversiones.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AE0149-77A6-4586-A392-DF1737CDEE10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8B86C6-20B8-48F7-B738-13C1670B6C32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27525" windowHeight="10635" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27525" windowHeight="10635" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Operacion 1" sheetId="1" r:id="rId1"/>
     <sheet name="Operacion 2" sheetId="2" r:id="rId2"/>
     <sheet name="Operacion 3" sheetId="4" r:id="rId3"/>
     <sheet name="Historial" sheetId="3" r:id="rId4"/>
-    <sheet name="Fondo" sheetId="6" r:id="rId5"/>
-    <sheet name="Criterios" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
+    <sheet name="Fondo" sheetId="6" r:id="rId6"/>
+    <sheet name="Criterios" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="149">
   <si>
     <t>% =</t>
   </si>
@@ -1701,7 +1702,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1775,7 +1776,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="5">
-        <v>67.77</v>
+        <v>67.53</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>4</v>
@@ -1840,7 +1841,7 @@
       </c>
       <c r="B7" s="3">
         <f>(B6/B4)-1</f>
-        <v>0.12188283901431318</v>
+        <v>0.12586998371094338</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>37</v>
@@ -1892,7 +1893,7 @@
       </c>
       <c r="B12" s="5">
         <f>(B4*0.1155)+B4</f>
-        <v>75.59743499999999</v>
+        <v>75.329715000000007</v>
       </c>
       <c r="D12" s="40" t="s">
         <v>10</v>
@@ -2290,8 +2291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2333,7 +2334,7 @@
       <c r="R1" s="68"/>
       <c r="X1" s="59">
         <f ca="1">_xlfn.DAYS(TODAY(),B3)</f>
-        <v>1518</v>
+        <v>1521</v>
       </c>
       <c r="Y1" s="33"/>
     </row>
@@ -2465,11 +2466,11 @@
       </c>
       <c r="Z3" s="59">
         <f ca="1">Y3/X$1</f>
-        <v>4.0843214756258232E-2</v>
+        <v>4.076265614727153E-2</v>
       </c>
       <c r="AA3" s="56">
         <f ca="1">Z3*H3</f>
-        <v>162.90316205533597</v>
+        <v>162.5818540433925</v>
       </c>
       <c r="AB3" s="5"/>
     </row>
@@ -2552,11 +2553,11 @@
       </c>
       <c r="Z5" s="59">
         <f t="shared" ref="Z5:Z27" ca="1" si="1">Y5/X$1</f>
-        <v>3.6231884057971016E-2</v>
+        <v>3.6160420775805391E-2</v>
       </c>
       <c r="AA5" s="56">
         <f t="shared" ref="AA5:AA24" ca="1" si="2">Z5*H5</f>
-        <v>144.98043478260868</v>
+        <v>144.69447731755423</v>
       </c>
       <c r="AB5" s="5"/>
     </row>
@@ -2610,11 +2611,11 @@
       </c>
       <c r="Z6" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>9.22266139657444E-3</v>
+        <v>9.204470742932281E-3</v>
       </c>
       <c r="AA6" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>36.939525691699608</v>
+        <v>36.866666666666667</v>
       </c>
       <c r="AB6" s="5"/>
     </row>
@@ -2846,11 +2847,11 @@
       </c>
       <c r="Z13" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18972332015810275</v>
+        <v>0.1893491124260355</v>
       </c>
       <c r="AA13" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>111.2499604743083</v>
+        <v>111.0305325443787</v>
       </c>
       <c r="AB13" s="5"/>
     </row>
@@ -2904,11 +2905,11 @@
       </c>
       <c r="Z14" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57246376811594202</v>
+        <v>0.57133464825772518</v>
       </c>
       <c r="AA14" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>2512.8869565217392</v>
+        <v>2507.9305719921108</v>
       </c>
       <c r="AB14" s="5"/>
     </row>
@@ -2962,11 +2963,11 @@
       </c>
       <c r="Z15" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4163372859025033</v>
+        <v>0.41551610782380011</v>
       </c>
       <c r="AA15" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>250.05217391304348</v>
+        <v>249.55897435897435</v>
       </c>
       <c r="AB15" s="5"/>
     </row>
@@ -3313,11 +3314,11 @@
       </c>
       <c r="Z24" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4492753623188406E-2</v>
+        <v>1.4464168310322156E-2</v>
       </c>
       <c r="AA24" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>59.191304347826083</v>
+        <v>59.07455621301775</v>
       </c>
       <c r="AB24" s="5"/>
     </row>
@@ -3388,15 +3389,15 @@
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="Y27">
         <f ca="1">_xlfn.DAYS(TODAY(),B32)</f>
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="Z27" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28853754940711462</v>
+        <v>0.28994082840236685</v>
       </c>
       <c r="AA27" s="56">
         <f ca="1">Z27*H32</f>
-        <v>1469.2562845849802</v>
+        <v>1476.4018934911242</v>
       </c>
       <c r="AB27" s="5"/>
     </row>
@@ -3447,23 +3448,23 @@
       </c>
       <c r="Y28">
         <f ca="1">SUM(Y3:Y27)</f>
-        <v>2380</v>
+        <v>2383</v>
       </c>
       <c r="Z28" s="59">
         <f ca="1">SUM(Z3:Z27)</f>
-        <v>1.5678524374176548</v>
+        <v>1.566732412886259</v>
       </c>
       <c r="AA28" s="56">
         <f ca="1">SUM(AA3:AA27)</f>
-        <v>4747.4598023715416</v>
+        <v>4748.1395266272193</v>
       </c>
       <c r="AB28" s="3">
         <f ca="1">R28/AA28</f>
-        <v>0.75225565179424869</v>
+        <v>0.7521479619485465</v>
       </c>
       <c r="AC28" s="3">
         <f ca="1">AB28/(X1/365)</f>
-        <v>0.18087833524697022</v>
+        <v>0.18049573051362228</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
@@ -3579,7 +3580,7 @@
       </c>
       <c r="E31" s="9">
         <f>'Operacion 2'!B$4</f>
-        <v>67.77</v>
+        <v>67.53</v>
       </c>
       <c r="F31" s="9">
         <f>'Operacion 2'!B$6</f>
@@ -3587,11 +3588,11 @@
       </c>
       <c r="G31" s="10">
         <f>'Operacion 2'!B$7</f>
-        <v>0.12188283901431318</v>
+        <v>0.12586998371094338</v>
       </c>
       <c r="H31" s="9">
         <f t="shared" ref="H31:H32" si="5">E31*D31</f>
-        <v>3998.43</v>
+        <v>3984.27</v>
       </c>
       <c r="I31" s="9">
         <f>IF((H31*(0.0075))&lt;30,30,(H31*(0.0075)))</f>
@@ -3599,11 +3600,11 @@
       </c>
       <c r="J31" s="9">
         <f>H31*0.0035</f>
-        <v>13.994505</v>
+        <v>13.944945000000001</v>
       </c>
       <c r="K31" s="9">
         <f t="shared" ref="K31:K32" si="6">SUM(H31:J31)</f>
-        <v>4042.424505</v>
+        <v>4028.2149450000002</v>
       </c>
       <c r="L31" s="9">
         <f t="shared" ref="L31:L32" si="7">D31*F31</f>
@@ -3627,15 +3628,15 @@
       </c>
       <c r="Q31" s="9">
         <f t="shared" ref="Q31:Q32" si="10">J31-N31</f>
-        <v>29.694700000000005</v>
+        <v>29.645140000000005</v>
       </c>
       <c r="R31" s="9">
         <f t="shared" si="4"/>
-        <v>394.00202499999978</v>
+        <v>408.21158499999956</v>
       </c>
       <c r="S31" s="10">
         <f t="shared" ref="S31" si="11">R31/K31</f>
-        <v>9.7466761472642466E-2</v>
+        <v>0.10133808413244928</v>
       </c>
       <c r="T31" t="s">
         <v>108</v>
@@ -4054,11 +4055,1777 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92FD1EA0-B43D-4A2A-807D-31E3E3AB62CB}">
+  <dimension ref="A1:AC60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" customWidth="1"/>
+    <col min="18" max="18" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" customWidth="1"/>
+    <col min="20" max="20" width="24.140625" customWidth="1"/>
+    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.140625" customWidth="1"/>
+    <col min="28" max="28" width="15.28515625" customWidth="1"/>
+    <col min="29" max="29" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="H1" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="X1" s="59">
+        <f ca="1">_xlfn.DAYS(TODAY(),B3)</f>
+        <v>1521</v>
+      </c>
+      <c r="Y1" s="33"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="8">
+        <v>42074</v>
+      </c>
+      <c r="C3" s="8">
+        <v>42136</v>
+      </c>
+      <c r="D3" s="14">
+        <v>150</v>
+      </c>
+      <c r="E3" s="9">
+        <v>26.59</v>
+      </c>
+      <c r="F3" s="9">
+        <f>24.77+0.4916</f>
+        <v>25.261599999999998</v>
+      </c>
+      <c r="G3" s="10">
+        <f>(F3/E3)-1</f>
+        <v>-4.9958631064309977E-2</v>
+      </c>
+      <c r="H3" s="9">
+        <v>3988.5</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>21.54</v>
+      </c>
+      <c r="R3" s="9">
+        <f>-334.54</f>
+        <v>-334.54</v>
+      </c>
+      <c r="S3" s="42">
+        <f>-0.0839+0.0185</f>
+        <v>-6.54E-2</v>
+      </c>
+      <c r="Y3">
+        <f>_xlfn.DAYS(C3,B3)</f>
+        <v>62</v>
+      </c>
+      <c r="Z3" s="59">
+        <f ca="1">Y3/X$1</f>
+        <v>4.076265614727153E-2</v>
+      </c>
+      <c r="AA3" s="56">
+        <f ca="1">Z3*H3</f>
+        <v>162.5818540433925</v>
+      </c>
+      <c r="AB3" s="5"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9">
+        <v>73.47</v>
+      </c>
+      <c r="S4" s="42"/>
+      <c r="T4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="5"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="8">
+        <v>42143</v>
+      </c>
+      <c r="C5" s="8">
+        <v>42198</v>
+      </c>
+      <c r="D5" s="14">
+        <v>102</v>
+      </c>
+      <c r="E5" s="9">
+        <v>39.229999999999997</v>
+      </c>
+      <c r="F5" s="9">
+        <v>40</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1.962783583991845E-2</v>
+      </c>
+      <c r="H5" s="9">
+        <v>4001.4599999999996</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9">
+        <v>40.014599999999994</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>21.607883999999999</v>
+      </c>
+      <c r="R5" s="9">
+        <v>16.917516000000433</v>
+      </c>
+      <c r="S5" s="10">
+        <v>4.2278358399185385E-3</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" ref="Y5:Y24" si="0">_xlfn.DAYS(C5,B5)</f>
+        <v>55</v>
+      </c>
+      <c r="Z5" s="59">
+        <f t="shared" ref="Z5:Z27" ca="1" si="1">Y5/X$1</f>
+        <v>3.6160420775805391E-2</v>
+      </c>
+      <c r="AA5" s="56">
+        <f t="shared" ref="AA5:AA24" ca="1" si="2">Z5*H5</f>
+        <v>144.69447731755423</v>
+      </c>
+      <c r="AB5" s="5"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="8">
+        <v>42209</v>
+      </c>
+      <c r="C6" s="8">
+        <v>42223</v>
+      </c>
+      <c r="D6" s="14">
+        <v>507</v>
+      </c>
+      <c r="E6" s="9">
+        <v>7.9</v>
+      </c>
+      <c r="F6" s="9">
+        <v>8.82</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.1164556962025316</v>
+      </c>
+      <c r="H6" s="9">
+        <v>4005.3</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9">
+        <v>40.053000000000004</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>21.628620000000002</v>
+      </c>
+      <c r="R6" s="9">
+        <v>404.75837999999931</v>
+      </c>
+      <c r="S6" s="10">
+        <v>0.10105569620253146</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Z6" s="59">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.204470742932281E-3</v>
+      </c>
+      <c r="AA6" s="56">
+        <f t="shared" ca="1" si="2"/>
+        <v>36.866666666666667</v>
+      </c>
+      <c r="AB6" s="5"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="S7" s="10"/>
+      <c r="T7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z7" s="59"/>
+      <c r="AA7" s="56"/>
+      <c r="AB7" s="5"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9">
+        <v>-27.23</v>
+      </c>
+      <c r="S8" s="10"/>
+      <c r="T8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="5"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9">
+        <v>188.26</v>
+      </c>
+      <c r="S9" s="10"/>
+      <c r="T9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="5"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9">
+        <v>-0.08</v>
+      </c>
+      <c r="S10" s="10"/>
+      <c r="T10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="5"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9">
+        <v>-24.2</v>
+      </c>
+      <c r="S11" s="10"/>
+      <c r="T11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="5"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9">
+        <f>13.5+13.5</f>
+        <v>27</v>
+      </c>
+      <c r="S12" s="10"/>
+      <c r="T12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="5"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="8">
+        <f>'Operacion 3'!B$2</f>
+        <v>43154</v>
+      </c>
+      <c r="C13" s="8">
+        <v>43442</v>
+      </c>
+      <c r="D13" s="14">
+        <f>'Operacion 3'!B$5</f>
+        <v>196</v>
+      </c>
+      <c r="E13" s="9">
+        <v>20.22</v>
+      </c>
+      <c r="F13" s="9">
+        <v>26.49</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0.31009999999999999</v>
+      </c>
+      <c r="H13" s="9">
+        <v>586.38</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9">
+        <v>40</v>
+      </c>
+      <c r="Q13" s="9">
+        <f>1.62+2.07</f>
+        <v>3.69</v>
+      </c>
+      <c r="R13" s="9">
+        <v>138.16</v>
+      </c>
+      <c r="S13" s="10">
+        <v>0.2356</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="0"/>
+        <v>288</v>
+      </c>
+      <c r="Z13" s="59">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.1893491124260355</v>
+      </c>
+      <c r="AA13" s="56">
+        <f t="shared" ca="1" si="2"/>
+        <v>111.0305325443787</v>
+      </c>
+      <c r="AB13" s="5"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="8">
+        <v>42234</v>
+      </c>
+      <c r="C14" s="8">
+        <v>43103</v>
+      </c>
+      <c r="D14" s="14">
+        <v>186</v>
+      </c>
+      <c r="E14" s="9">
+        <v>23.6</v>
+      </c>
+      <c r="F14" s="9">
+        <v>28.52</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0.20847457627118637</v>
+      </c>
+      <c r="H14" s="9">
+        <v>4389.6000000000004</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9">
+        <v>48.471600000000009</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>26.174664000000003</v>
+      </c>
+      <c r="R14" s="9">
+        <v>840.47373599999992</v>
+      </c>
+      <c r="S14" s="10">
+        <v>0.19146932203389827</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="0"/>
+        <v>869</v>
+      </c>
+      <c r="Z14" s="59">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.57133464825772518</v>
+      </c>
+      <c r="AA14" s="56">
+        <f t="shared" ca="1" si="2"/>
+        <v>2507.9305719921108</v>
+      </c>
+      <c r="AB14" s="5"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="8">
+        <v>42471</v>
+      </c>
+      <c r="C15" s="8">
+        <v>43103</v>
+      </c>
+      <c r="D15" s="14">
+        <v>91</v>
+      </c>
+      <c r="E15" s="9">
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="F15" s="9">
+        <v>28.52</v>
+      </c>
+      <c r="G15" s="10">
+        <v>3.3212121212121204</v>
+      </c>
+      <c r="H15" s="9">
+        <v>600.6</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9">
+        <v>12.976600000000001</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>7.0073640000000008</v>
+      </c>
+      <c r="R15" s="9">
+        <v>1974.7360360000002</v>
+      </c>
+      <c r="S15" s="10">
+        <v>3.287938787878788</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="0"/>
+        <v>632</v>
+      </c>
+      <c r="Z15" s="59">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.41551610782380011</v>
+      </c>
+      <c r="AA15" s="56">
+        <f t="shared" ca="1" si="2"/>
+        <v>249.55897435897435</v>
+      </c>
+      <c r="AB15" s="5"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9">
+        <v>-30.78</v>
+      </c>
+      <c r="S16" s="10"/>
+      <c r="T16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z16" s="59"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="5"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9">
+        <v>-12.1</v>
+      </c>
+      <c r="S17" s="10"/>
+      <c r="T17" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z17" s="59"/>
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="5"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="8">
+        <v>43154</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9">
+        <v>42.26</v>
+      </c>
+      <c r="J18" s="9">
+        <v>13.75</v>
+      </c>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9">
+        <f>-I18-J18</f>
+        <v>-56.01</v>
+      </c>
+      <c r="S18" s="10"/>
+      <c r="T18" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z18" s="59"/>
+      <c r="AA18" s="56"/>
+      <c r="AB18" s="5"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="8">
+        <v>43222</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9">
+        <v>73.5</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9">
+        <f>2.5+0.53</f>
+        <v>3.0300000000000002</v>
+      </c>
+      <c r="Q19" s="9">
+        <f>13.97+17.86</f>
+        <v>31.83</v>
+      </c>
+      <c r="R19" s="9">
+        <f>F19-P19-Q19</f>
+        <v>38.64</v>
+      </c>
+      <c r="S19" s="10"/>
+      <c r="T19" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z19" s="59"/>
+      <c r="AA19" s="56"/>
+      <c r="AB19" s="5"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="8">
+        <v>43406</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9">
+        <f>32.34+41.16</f>
+        <v>73.5</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9">
+        <f>2.5+2.5+0.53+0.53</f>
+        <v>6.0600000000000005</v>
+      </c>
+      <c r="Q20" s="9">
+        <f>6.14+7.86+7.82+10</f>
+        <v>31.82</v>
+      </c>
+      <c r="R20" s="9">
+        <f>F20-P20-Q20</f>
+        <v>35.619999999999997</v>
+      </c>
+      <c r="S20" s="10"/>
+      <c r="T20" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z20" s="59"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="5"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9">
+        <v>-25.87</v>
+      </c>
+      <c r="S21" s="10"/>
+      <c r="T21" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z21" s="59"/>
+      <c r="AA21" s="56"/>
+      <c r="AB21" s="5"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9">
+        <f>-2.18-2.26-3.09-2.27</f>
+        <v>-9.7999999999999989</v>
+      </c>
+      <c r="S22" s="10"/>
+      <c r="T22" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z22" s="59"/>
+      <c r="AA22" s="56"/>
+      <c r="AB22" s="5"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="8">
+        <v>43550</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9">
+        <v>30.631499999999999</v>
+      </c>
+      <c r="J23" s="9">
+        <v>14.294699999999999</v>
+      </c>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9">
+        <f>-I23-J23</f>
+        <v>-44.926199999999994</v>
+      </c>
+      <c r="S23" s="10"/>
+      <c r="T23" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z23" s="59"/>
+      <c r="AA23" s="56"/>
+      <c r="AB23" s="5"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="8">
+        <v>43545</v>
+      </c>
+      <c r="C24" s="8">
+        <v>43567</v>
+      </c>
+      <c r="D24" s="14">
+        <v>60</v>
+      </c>
+      <c r="E24" s="9">
+        <v>68.069999999999993</v>
+      </c>
+      <c r="F24" s="9">
+        <v>75.53</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0.10959306596151031</v>
+      </c>
+      <c r="H24" s="9">
+        <v>4084.2</v>
+      </c>
+      <c r="I24" s="9">
+        <v>30.631499999999999</v>
+      </c>
+      <c r="J24" s="9">
+        <v>14.294699999999999</v>
+      </c>
+      <c r="K24" s="9">
+        <v>4129.1262000000006</v>
+      </c>
+      <c r="L24" s="9">
+        <v>4531.8</v>
+      </c>
+      <c r="M24" s="9">
+        <v>-33.988500000000002</v>
+      </c>
+      <c r="N24" s="9">
+        <v>-15.861300000000002</v>
+      </c>
+      <c r="O24" s="9">
+        <v>4481.9502000000002</v>
+      </c>
+      <c r="P24" s="9">
+        <v>64.62</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>30.155999999999999</v>
+      </c>
+      <c r="R24" s="9">
+        <v>352.82399999999961</v>
+      </c>
+      <c r="S24" s="10">
+        <v>8.5447618433168629E-2</v>
+      </c>
+      <c r="T24" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="Z24" s="59">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.4464168310322156E-2</v>
+      </c>
+      <c r="AA24" s="56">
+        <f t="shared" ca="1" si="2"/>
+        <v>59.07455621301775</v>
+      </c>
+      <c r="AB24" s="5"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="8">
+        <v>43587</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9">
+        <v>86.24</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9">
+        <f>2.5+0.53</f>
+        <v>3.0300000000000002</v>
+      </c>
+      <c r="Q25" s="9">
+        <f>16.39+20.96</f>
+        <v>37.35</v>
+      </c>
+      <c r="R25" s="9">
+        <f>F25-P25-Q25</f>
+        <v>45.859999999999992</v>
+      </c>
+      <c r="S25" s="10"/>
+      <c r="T25" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z25" s="59"/>
+      <c r="AA25" s="56"/>
+      <c r="AB25" s="5"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="10"/>
+      <c r="Z26" s="59"/>
+      <c r="AB26" s="5"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y27">
+        <f ca="1">_xlfn.DAYS(TODAY(),B32)</f>
+        <v>441</v>
+      </c>
+      <c r="Z27" s="59">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="AA27" s="56">
+        <f ca="1">Z27*H32</f>
+        <v>1476.4018934911242</v>
+      </c>
+      <c r="AB27" s="5"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="H28" s="15">
+        <f t="shared" ref="H28:O28" si="3">SUM(H3:H27)</f>
+        <v>21656.039999999997</v>
+      </c>
+      <c r="I28" s="15">
+        <f t="shared" si="3"/>
+        <v>103.523</v>
+      </c>
+      <c r="J28" s="15">
+        <f t="shared" si="3"/>
+        <v>42.339399999999998</v>
+      </c>
+      <c r="K28" s="15">
+        <f t="shared" si="3"/>
+        <v>4129.1262000000006</v>
+      </c>
+      <c r="L28" s="15">
+        <f t="shared" si="3"/>
+        <v>4531.8</v>
+      </c>
+      <c r="M28" s="15">
+        <f t="shared" si="3"/>
+        <v>-33.988500000000002</v>
+      </c>
+      <c r="N28" s="15">
+        <f t="shared" si="3"/>
+        <v>-15.861300000000002</v>
+      </c>
+      <c r="O28" s="15">
+        <f t="shared" si="3"/>
+        <v>4481.9502000000002</v>
+      </c>
+      <c r="R28" s="15">
+        <f>SUM(R3:R27)</f>
+        <v>3571.3034679999992</v>
+      </c>
+      <c r="S28" s="16">
+        <f>SUM(S3:S27)/7</f>
+        <v>0.54861989434118641</v>
+      </c>
+      <c r="T28" s="16">
+        <f>S28/4</f>
+        <v>0.1371549735852966</v>
+      </c>
+      <c r="Y28">
+        <f ca="1">SUM(Y3:Y27)</f>
+        <v>2383</v>
+      </c>
+      <c r="Z28" s="59">
+        <f ca="1">SUM(Z3:Z27)</f>
+        <v>1.566732412886259</v>
+      </c>
+      <c r="AA28" s="56">
+        <f ca="1">SUM(AA3:AA27)</f>
+        <v>4748.1395266272193</v>
+      </c>
+      <c r="AB28" s="3">
+        <f ca="1">R28/AA28</f>
+        <v>0.7521479619485465</v>
+      </c>
+      <c r="AC28" s="3">
+        <f ca="1">AB28/(X1/365)</f>
+        <v>0.18049573051362228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="U29">
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A30" s="39" t="str">
+        <f>'Operacion 1'!B$3</f>
+        <v>ABI.BR</v>
+      </c>
+      <c r="B30" s="8">
+        <f>'Operacion 1'!B$2</f>
+        <v>42234</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="14">
+        <f>'Operacion 1'!B$5</f>
+        <v>62</v>
+      </c>
+      <c r="E30" s="9">
+        <f>'Operacion 1'!B$4</f>
+        <v>89</v>
+      </c>
+      <c r="F30" s="9">
+        <f>'Operacion 1'!B$6</f>
+        <v>120</v>
+      </c>
+      <c r="G30" s="10">
+        <f>'Operacion 1'!B$7</f>
+        <v>0.348314606741573</v>
+      </c>
+      <c r="H30" s="9">
+        <f>(E30*D30)</f>
+        <v>5518</v>
+      </c>
+      <c r="I30" s="9">
+        <f>IF((H30*0.005)&lt;20,20,(H30*0.005))</f>
+        <v>27.59</v>
+      </c>
+      <c r="J30" s="9">
+        <f>SUM(H30:I30)*0.0027</f>
+        <v>14.973093</v>
+      </c>
+      <c r="K30" s="9">
+        <f>SUM(H30:J30)</f>
+        <v>5560.5630929999998</v>
+      </c>
+      <c r="L30" s="9">
+        <f>D30*F30</f>
+        <v>7440</v>
+      </c>
+      <c r="M30" s="9">
+        <f>IF((L30*0.005)&lt;20,-20,-(L30*0.005))</f>
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="N30" s="9">
+        <f>-(SUM(L30:M30)*0.0027)</f>
+        <v>-19.987560000000002</v>
+      </c>
+      <c r="O30" s="9">
+        <f>SUM(L30:N30)</f>
+        <v>7382.8124400000006</v>
+      </c>
+      <c r="P30" s="9">
+        <f>I30-M30</f>
+        <v>64.790000000000006</v>
+      </c>
+      <c r="Q30" s="9">
+        <f>J30-N30</f>
+        <v>34.960653000000001</v>
+      </c>
+      <c r="R30" s="9">
+        <f t="shared" ref="R30:R31" si="4">O30-K30</f>
+        <v>1822.2493470000009</v>
+      </c>
+      <c r="S30" s="10">
+        <f>R30/K30</f>
+        <v>0.32770949929404947</v>
+      </c>
+      <c r="T30" t="s">
+        <v>109</v>
+      </c>
+      <c r="U30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31" s="39" t="str">
+        <f>'Operacion 2'!B$3</f>
+        <v>BMW.DE</v>
+      </c>
+      <c r="B31" s="8">
+        <f>'Operacion 2'!B$2</f>
+        <v>42471</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="14">
+        <f>'Operacion 2'!B$5</f>
+        <v>59</v>
+      </c>
+      <c r="E31" s="9">
+        <f>'Operacion 2'!B$4</f>
+        <v>67.53</v>
+      </c>
+      <c r="F31" s="9">
+        <f>'Operacion 2'!B$6</f>
+        <v>76.03</v>
+      </c>
+      <c r="G31" s="10">
+        <f>'Operacion 2'!B$7</f>
+        <v>0.12586998371094338</v>
+      </c>
+      <c r="H31" s="9">
+        <f t="shared" ref="H31:H32" si="5">E31*D31</f>
+        <v>3984.27</v>
+      </c>
+      <c r="I31" s="9">
+        <f>IF((H31*(0.0075))&lt;30,30,(H31*(0.0075)))</f>
+        <v>30</v>
+      </c>
+      <c r="J31" s="9">
+        <f>H31*0.0035</f>
+        <v>13.944945000000001</v>
+      </c>
+      <c r="K31" s="9">
+        <f t="shared" ref="K31:K32" si="6">SUM(H31:J31)</f>
+        <v>4028.2149450000002</v>
+      </c>
+      <c r="L31" s="9">
+        <f t="shared" ref="L31:L32" si="7">D31*F31</f>
+        <v>4485.7700000000004</v>
+      </c>
+      <c r="M31" s="9">
+        <f>IF((L31*(0.0075))&lt;30,-30,-(L31*(0.0075)))</f>
+        <v>-33.643275000000003</v>
+      </c>
+      <c r="N31" s="9">
+        <f>-(L31*0.0035)</f>
+        <v>-15.700195000000003</v>
+      </c>
+      <c r="O31" s="9">
+        <f t="shared" ref="O31:O32" si="8">SUM(L31:N31)</f>
+        <v>4436.4265299999997</v>
+      </c>
+      <c r="P31" s="9">
+        <f t="shared" ref="P31:Q32" si="9">I31-M31</f>
+        <v>63.643275000000003</v>
+      </c>
+      <c r="Q31" s="9">
+        <f t="shared" si="9"/>
+        <v>29.645140000000005</v>
+      </c>
+      <c r="R31" s="9">
+        <f t="shared" si="4"/>
+        <v>408.21158499999956</v>
+      </c>
+      <c r="S31" s="10">
+        <f t="shared" ref="S31" si="10">R31/K31</f>
+        <v>0.10133808413244928</v>
+      </c>
+      <c r="T31" t="s">
+        <v>108</v>
+      </c>
+      <c r="U31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A32" s="39" t="str">
+        <f>'Operacion 3'!B3</f>
+        <v>ITX.MC</v>
+      </c>
+      <c r="B32" s="8">
+        <f>'Operacion 3'!B$2</f>
+        <v>43154</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="14">
+        <f>'Operacion 3'!B$5</f>
+        <v>196</v>
+      </c>
+      <c r="E32" s="9">
+        <f>'Operacion 3'!B$4</f>
+        <v>25.98</v>
+      </c>
+      <c r="F32" s="9">
+        <f>'Operacion 3'!B$6</f>
+        <v>30.27</v>
+      </c>
+      <c r="G32" s="10">
+        <f>'Operacion 3'!B$7</f>
+        <v>0.16512702078521935</v>
+      </c>
+      <c r="H32" s="9">
+        <f t="shared" si="5"/>
+        <v>5092.08</v>
+      </c>
+      <c r="I32" s="9">
+        <f>IF((H32*(0.0075+0.0008))&lt;30,30,(H32*(0.0075+0.0008)))</f>
+        <v>42.264263999999997</v>
+      </c>
+      <c r="J32" s="9">
+        <f>H32*0.0027</f>
+        <v>13.748616</v>
+      </c>
+      <c r="K32" s="9">
+        <f t="shared" si="6"/>
+        <v>5148.0928800000002</v>
+      </c>
+      <c r="L32" s="9">
+        <f t="shared" si="7"/>
+        <v>5932.92</v>
+      </c>
+      <c r="M32" s="9">
+        <f>IF((L32*(0.0075))&lt;30,-30,-(L32*(0.0075)))</f>
+        <v>-44.496899999999997</v>
+      </c>
+      <c r="N32" s="9">
+        <f>-(L32*0.0035)</f>
+        <v>-20.765219999999999</v>
+      </c>
+      <c r="O32" s="9">
+        <f t="shared" si="8"/>
+        <v>5867.6578799999997</v>
+      </c>
+      <c r="P32" s="9">
+        <f t="shared" si="9"/>
+        <v>86.761163999999994</v>
+      </c>
+      <c r="Q32" s="9">
+        <f t="shared" si="9"/>
+        <v>34.513835999999998</v>
+      </c>
+      <c r="R32" s="9">
+        <f>O32-K32</f>
+        <v>719.5649999999996</v>
+      </c>
+      <c r="S32" s="10">
+        <f>R32/K32</f>
+        <v>0.13977311924488814</v>
+      </c>
+      <c r="T32" t="s">
+        <v>58</v>
+      </c>
+      <c r="U32" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA32" s="56"/>
+    </row>
+    <row r="33" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="R33" s="56">
+        <f>R32+SUM(R19:R22)+R25</f>
+        <v>804.01499999999965</v>
+      </c>
+      <c r="S33" s="10">
+        <f>R33/K32</f>
+        <v>0.1561772521866388</v>
+      </c>
+    </row>
+    <row r="34" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="D34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="48"/>
+      <c r="R34" s="48"/>
+    </row>
+    <row r="35" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F35" s="5"/>
+      <c r="G35" s="48"/>
+      <c r="U35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="T36" t="s">
+        <v>68</v>
+      </c>
+      <c r="U36">
+        <v>26.25</v>
+      </c>
+      <c r="AA36" s="56"/>
+    </row>
+    <row r="37" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="T37" t="s">
+        <v>66</v>
+      </c>
+      <c r="U37">
+        <v>30.27</v>
+      </c>
+      <c r="W37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38">
+        <v>74.89</v>
+      </c>
+      <c r="F38">
+        <v>52</v>
+      </c>
+      <c r="G38" s="10">
+        <f>1-(F38/E38)</f>
+        <v>0.30564828415008682</v>
+      </c>
+      <c r="N38">
+        <v>6769.84</v>
+      </c>
+      <c r="O38">
+        <v>74.459999999999994</v>
+      </c>
+      <c r="P38" s="5">
+        <v>6695.38</v>
+      </c>
+      <c r="S38" s="10"/>
+      <c r="T38" t="s">
+        <v>67</v>
+      </c>
+      <c r="U38" s="3">
+        <f>(U37/U36)-1</f>
+        <v>0.15314285714285703</v>
+      </c>
+      <c r="V38" s="3"/>
+      <c r="W38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39">
+        <v>182.08</v>
+      </c>
+      <c r="F39">
+        <v>126</v>
+      </c>
+      <c r="G39" s="10">
+        <f>1-(F39/E39)</f>
+        <v>0.30799648506151145</v>
+      </c>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5">
+        <f>P38-K32</f>
+        <v>1547.28712</v>
+      </c>
+      <c r="R39" s="5"/>
+    </row>
+    <row r="40" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40">
+        <v>93.54</v>
+      </c>
+      <c r="F40">
+        <v>65</v>
+      </c>
+      <c r="G40" s="10">
+        <f>1-(F40/E40)</f>
+        <v>0.30511011332050464</v>
+      </c>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="5"/>
+      <c r="P40" s="56">
+        <f>P39*0.1</f>
+        <v>154.728712</v>
+      </c>
+    </row>
+    <row r="41" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41">
+        <v>20</v>
+      </c>
+      <c r="F41">
+        <v>14</v>
+      </c>
+      <c r="G41" s="10">
+        <f>1-(F41/E41)</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="P41" s="56">
+        <f>P39-P40</f>
+        <v>1392.5584079999999</v>
+      </c>
+      <c r="R41" s="43"/>
+    </row>
+    <row r="42" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F42" s="5"/>
+      <c r="R42" s="9"/>
+      <c r="S42">
+        <f>(0.00242*12)</f>
+        <v>2.9039999999999996E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="O43" s="9"/>
+      <c r="R43" s="45"/>
+      <c r="S43">
+        <f>4700*S42</f>
+        <v>136.48799999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="P44" s="3"/>
+      <c r="R44" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="S44" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="T44" s="5"/>
+    </row>
+    <row r="45" spans="3:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F45" s="5"/>
+      <c r="Q45" t="s">
+        <v>116</v>
+      </c>
+      <c r="R45" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="S45" s="49"/>
+      <c r="T45" s="5"/>
+    </row>
+    <row r="46" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="Q46" t="s">
+        <v>117</v>
+      </c>
+      <c r="R46" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="S46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="J47" t="s">
+        <v>122</v>
+      </c>
+      <c r="R47" s="5"/>
+      <c r="S47" t="s">
+        <v>135</v>
+      </c>
+      <c r="T47" s="5"/>
+    </row>
+    <row r="48" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="J48" s="58">
+        <v>43587</v>
+      </c>
+      <c r="R48" s="43"/>
+    </row>
+    <row r="49" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J49" t="s">
+        <v>123</v>
+      </c>
+      <c r="R49" s="44"/>
+    </row>
+    <row r="50" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J50" t="s">
+        <v>124</v>
+      </c>
+      <c r="L50" t="s">
+        <v>147</v>
+      </c>
+      <c r="R50" s="57"/>
+      <c r="S50">
+        <f>5000/12</f>
+        <v>416.66666666666669</v>
+      </c>
+    </row>
+    <row r="51" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J51" t="s">
+        <v>125</v>
+      </c>
+      <c r="S51">
+        <f>2.2/S50</f>
+        <v>5.28E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J52" t="s">
+        <v>126</v>
+      </c>
+      <c r="S52">
+        <f>100*S51</f>
+        <v>0.52800000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>127</v>
+      </c>
+      <c r="S53">
+        <f>2.2*12</f>
+        <v>26.400000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J55" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J56" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J57" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J58" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J59" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J60" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4202,7 +5969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:D25"/>
   <sheetViews>

--- a/2019/Inversiones.xlsx
+++ b/2019/Inversiones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8B86C6-20B8-48F7-B738-13C1670B6C32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7AEFA4-216B-4ED3-918D-C87D38F64684}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27525" windowHeight="10635" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="166">
   <si>
     <t>% =</t>
   </si>
@@ -525,20 +525,72 @@
   <si>
     <t>Entre 25 y 28</t>
   </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>PRECIO/VALOR</t>
+  </si>
+  <si>
+    <t>DINERO ACCIONES</t>
+  </si>
+  <si>
+    <t>GASTOS</t>
+  </si>
+  <si>
+    <t>BALANCE</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>INFO</t>
+  </si>
+  <si>
+    <t>DINERO INVERTIDO</t>
+  </si>
+  <si>
+    <t>GENERAL</t>
+  </si>
+  <si>
+    <t>FECHA</t>
+  </si>
+  <si>
+    <t>BENELUX</t>
+  </si>
+  <si>
+    <t>DINERO INICIAL</t>
+  </si>
+  <si>
+    <t>EURO</t>
+  </si>
+  <si>
+    <t>RESTO &gt; 0</t>
+  </si>
+  <si>
+    <t>HISTORICO</t>
+  </si>
+  <si>
+    <t>Venta PHI.AS</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="&quot;€&quot;#,##0.00;[Red]\-&quot;€&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;€&quot;\ #,##0.00"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="167" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="168" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="169" formatCode="0_ ;[Red]\-0\ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -614,8 +666,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -646,8 +713,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -923,11 +996,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1034,6 +1178,15 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1061,12 +1214,139 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="12" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="12" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFD5"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1402,7 +1682,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,15 +1702,15 @@
       <c r="B1" s="5">
         <v>5600</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="65"/>
+      <c r="E1" s="68"/>
       <c r="F1" s="28"/>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="60"/>
+      <c r="I1" s="63"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1439,10 +1719,10 @@
       <c r="B2" s="4">
         <v>42234</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="64"/>
+      <c r="E2" s="67"/>
       <c r="H2" s="29" t="s">
         <v>26</v>
       </c>
@@ -1511,11 +1791,11 @@
       <c r="H5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="61" t="str">
+      <c r="I5" s="64" t="str">
         <f>IF(I4=2,"Se puede COMPRAR","Nada")</f>
         <v>Se puede COMPRAR</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="65"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1702,7 +1982,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1722,15 +2002,15 @@
       <c r="B1" s="5">
         <v>4050</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="65"/>
+      <c r="E1" s="68"/>
       <c r="F1" s="28"/>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="60"/>
+      <c r="I1" s="63"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1739,10 +2019,10 @@
       <c r="B2" s="4">
         <v>42471</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="64"/>
+      <c r="E2" s="67"/>
       <c r="H2" s="29" t="s">
         <v>26</v>
       </c>
@@ -1776,7 +2056,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="5">
-        <v>67.53</v>
+        <v>66.97</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>4</v>
@@ -1799,7 +2079,7 @@
       </c>
       <c r="B5" s="32">
         <f>TRUNC(B1/B4)</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>5</v>
@@ -1811,11 +2091,11 @@
       <c r="H5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="61" t="str">
+      <c r="I5" s="64" t="str">
         <f>IF(I4=2,"Se puede COMPRAR","Nada")</f>
         <v>Se puede COMPRAR</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="65"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1841,7 +2121,7 @@
       </c>
       <c r="B7" s="3">
         <f>(B6/B4)-1</f>
-        <v>0.12586998371094338</v>
+        <v>0.13528445572644476</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>37</v>
@@ -1893,7 +2173,7 @@
       </c>
       <c r="B12" s="5">
         <f>(B4*0.1155)+B4</f>
-        <v>75.329715000000007</v>
+        <v>74.705034999999995</v>
       </c>
       <c r="D12" s="40" t="s">
         <v>10</v>
@@ -2011,15 +2291,15 @@
       <c r="B1" s="5">
         <v>5100</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="65"/>
+      <c r="E1" s="68"/>
       <c r="F1" s="28"/>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="60"/>
+      <c r="I1" s="63"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2028,10 +2308,10 @@
       <c r="B2" s="4">
         <v>43154</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="64"/>
+      <c r="E2" s="67"/>
       <c r="H2" s="29" t="s">
         <v>26</v>
       </c>
@@ -2100,11 +2380,11 @@
       <c r="H5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="61" t="str">
+      <c r="I5" s="64" t="str">
         <f>IF(I4=2,"Se puede COMPRAR","Nada")</f>
         <v>Se puede COMPRAR</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="65"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2291,8 +2571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2315,26 +2595,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="67" t="s">
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="68" t="s">
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
       <c r="X1" s="59">
         <f ca="1">_xlfn.DAYS(TODAY(),B3)</f>
-        <v>1521</v>
+        <v>1528</v>
       </c>
       <c r="Y1" s="33"/>
     </row>
@@ -2466,11 +2746,11 @@
       </c>
       <c r="Z3" s="59">
         <f ca="1">Y3/X$1</f>
-        <v>4.076265614727153E-2</v>
+        <v>4.0575916230366493E-2</v>
       </c>
       <c r="AA3" s="56">
         <f ca="1">Z3*H3</f>
-        <v>162.5818540433925</v>
+        <v>161.83704188481676</v>
       </c>
       <c r="AB3" s="5"/>
     </row>
@@ -2553,11 +2833,11 @@
       </c>
       <c r="Z5" s="59">
         <f t="shared" ref="Z5:Z27" ca="1" si="1">Y5/X$1</f>
-        <v>3.6160420775805391E-2</v>
+        <v>3.5994764397905762E-2</v>
       </c>
       <c r="AA5" s="56">
         <f t="shared" ref="AA5:AA24" ca="1" si="2">Z5*H5</f>
-        <v>144.69447731755423</v>
+        <v>144.03160994764397</v>
       </c>
       <c r="AB5" s="5"/>
     </row>
@@ -2611,11 +2891,11 @@
       </c>
       <c r="Z6" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>9.204470742932281E-3</v>
+        <v>9.1623036649214652E-3</v>
       </c>
       <c r="AA6" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>36.866666666666667</v>
+        <v>36.697774869109949</v>
       </c>
       <c r="AB6" s="5"/>
     </row>
@@ -2847,11 +3127,11 @@
       </c>
       <c r="Z13" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1893491124260355</v>
+        <v>0.18848167539267016</v>
       </c>
       <c r="AA13" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>111.0305325443787</v>
+        <v>110.52188481675392</v>
       </c>
       <c r="AB13" s="5"/>
     </row>
@@ -2905,11 +3185,11 @@
       </c>
       <c r="Z14" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57133464825772518</v>
+        <v>0.56871727748691103</v>
       </c>
       <c r="AA14" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>2507.9305719921108</v>
+        <v>2496.441361256545</v>
       </c>
       <c r="AB14" s="5"/>
     </row>
@@ -2963,11 +3243,11 @@
       </c>
       <c r="Z15" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41551610782380011</v>
+        <v>0.41361256544502617</v>
       </c>
       <c r="AA15" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>249.55897435897435</v>
+        <v>248.41570680628271</v>
       </c>
       <c r="AB15" s="5"/>
     </row>
@@ -3314,11 +3594,11 @@
       </c>
       <c r="Z24" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4464168310322156E-2</v>
+        <v>1.4397905759162303E-2</v>
       </c>
       <c r="AA24" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>59.07455621301775</v>
+        <v>58.803926701570674</v>
       </c>
       <c r="AB24" s="5"/>
     </row>
@@ -3389,15 +3669,15 @@
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="Y27">
         <f ca="1">_xlfn.DAYS(TODAY(),B32)</f>
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="Z27" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28994082840236685</v>
+        <v>0.29319371727748689</v>
       </c>
       <c r="AA27" s="56">
         <f ca="1">Z27*H32</f>
-        <v>1476.4018934911242</v>
+        <v>1492.9658638743454</v>
       </c>
       <c r="AB27" s="5"/>
     </row>
@@ -3448,23 +3728,23 @@
       </c>
       <c r="Y28">
         <f ca="1">SUM(Y3:Y27)</f>
-        <v>2383</v>
+        <v>2390</v>
       </c>
       <c r="Z28" s="59">
         <f ca="1">SUM(Z3:Z27)</f>
-        <v>1.566732412886259</v>
+        <v>1.5641361256544504</v>
       </c>
       <c r="AA28" s="56">
         <f ca="1">SUM(AA3:AA27)</f>
-        <v>4748.1395266272193</v>
+        <v>4749.7151701570683</v>
       </c>
       <c r="AB28" s="3">
         <f ca="1">R28/AA28</f>
-        <v>0.7521479619485465</v>
+        <v>0.75189844865621691</v>
       </c>
       <c r="AC28" s="3">
         <f ca="1">AB28/(X1/365)</f>
-        <v>0.18049573051362228</v>
+        <v>0.17960924984261728</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
@@ -3576,11 +3856,11 @@
       <c r="C31" s="8"/>
       <c r="D31" s="14">
         <f>'Operacion 2'!B$5</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E31" s="9">
         <f>'Operacion 2'!B$4</f>
-        <v>67.53</v>
+        <v>66.97</v>
       </c>
       <c r="F31" s="9">
         <f>'Operacion 2'!B$6</f>
@@ -3588,55 +3868,55 @@
       </c>
       <c r="G31" s="10">
         <f>'Operacion 2'!B$7</f>
-        <v>0.12586998371094338</v>
+        <v>0.13528445572644476</v>
       </c>
       <c r="H31" s="9">
         <f t="shared" ref="H31:H32" si="5">E31*D31</f>
-        <v>3984.27</v>
+        <v>4018.2</v>
       </c>
       <c r="I31" s="9">
         <f>IF((H31*(0.0075))&lt;30,30,(H31*(0.0075)))</f>
-        <v>30</v>
+        <v>30.136499999999998</v>
       </c>
       <c r="J31" s="9">
         <f>H31*0.0035</f>
-        <v>13.944945000000001</v>
+        <v>14.063699999999999</v>
       </c>
       <c r="K31" s="9">
         <f t="shared" ref="K31:K32" si="6">SUM(H31:J31)</f>
-        <v>4028.2149450000002</v>
+        <v>4062.4002</v>
       </c>
       <c r="L31" s="9">
         <f t="shared" ref="L31:L32" si="7">D31*F31</f>
-        <v>4485.7700000000004</v>
+        <v>4561.8</v>
       </c>
       <c r="M31" s="9">
         <f>IF((L31*(0.0075))&lt;30,-30,-(L31*(0.0075)))</f>
-        <v>-33.643275000000003</v>
+        <v>-34.213500000000003</v>
       </c>
       <c r="N31" s="9">
         <f>-(L31*0.0035)</f>
-        <v>-15.700195000000003</v>
+        <v>-15.9663</v>
       </c>
       <c r="O31" s="9">
         <f t="shared" ref="O31:O32" si="8">SUM(L31:N31)</f>
-        <v>4436.4265299999997</v>
+        <v>4511.6202000000003</v>
       </c>
       <c r="P31" s="9">
         <f t="shared" ref="P31:P32" si="9">I31-M31</f>
-        <v>63.643275000000003</v>
+        <v>64.349999999999994</v>
       </c>
       <c r="Q31" s="9">
         <f t="shared" ref="Q31:Q32" si="10">J31-N31</f>
-        <v>29.645140000000005</v>
+        <v>30.03</v>
       </c>
       <c r="R31" s="9">
         <f t="shared" si="4"/>
-        <v>408.21158499999956</v>
+        <v>449.22000000000025</v>
       </c>
       <c r="S31" s="10">
         <f t="shared" ref="S31" si="11">R31/K31</f>
-        <v>0.10133808413244928</v>
+        <v>0.11057994729322834</v>
       </c>
       <c r="T31" t="s">
         <v>108</v>
@@ -4056,877 +4336,738 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92FD1EA0-B43D-4A2A-807D-31E3E3AB62CB}">
-  <dimension ref="A1:AC60"/>
+  <dimension ref="A1:AD78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" customWidth="1"/>
-    <col min="18" max="18" width="17.7109375" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" customWidth="1"/>
-    <col min="20" max="20" width="24.140625" customWidth="1"/>
-    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.140625" customWidth="1"/>
-    <col min="28" max="28" width="15.28515625" customWidth="1"/>
-    <col min="29" max="29" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" customWidth="1"/>
+    <col min="18" max="18" width="34.42578125" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" customWidth="1"/>
+    <col min="21" max="21" width="24.140625" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.140625" customWidth="1"/>
+    <col min="29" max="29" width="15.28515625" customWidth="1"/>
+    <col min="30" max="30" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="H1" s="66" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="67" t="s">
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="68" t="s">
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="X1" s="59">
-        <f ca="1">_xlfn.DAYS(TODAY(),B3)</f>
-        <v>1521</v>
-      </c>
-      <c r="Y1" s="33"/>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="P1" s="78"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="91"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="75" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="75" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="75" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" s="74" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" s="86" t="s">
+        <v>158</v>
+      </c>
+      <c r="L2" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="M2" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="N2" s="88" t="s">
+        <v>152</v>
+      </c>
+      <c r="O2" s="92" t="s">
+        <v>152</v>
+      </c>
+      <c r="P2" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q2" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="R2" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="S2" s="72"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="94" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="95">
+        <v>5600</v>
+      </c>
+      <c r="D3" s="84">
+        <f>C3-E3</f>
+        <v>39.511400000000322</v>
+      </c>
+      <c r="E3" s="84">
+        <f>I3-J3</f>
+        <v>5560.4885999999997</v>
+      </c>
+      <c r="F3" s="99">
+        <v>42209</v>
+      </c>
+      <c r="G3" s="95">
+        <v>89</v>
+      </c>
+      <c r="H3" s="96">
+        <f>TRUNC(C3/G3)</f>
+        <v>62</v>
+      </c>
+      <c r="I3" s="84">
+        <f>(G3*H3)</f>
+        <v>5518</v>
+      </c>
+      <c r="J3" s="84">
+        <f>-(IF((I3*0.005)&lt;20,20,(I3*0.005))+(I3*0.0027))</f>
+        <v>-42.488599999999998</v>
+      </c>
+      <c r="K3" s="99"/>
+      <c r="L3" s="95">
+        <v>120</v>
+      </c>
+      <c r="M3" s="84">
+        <f>(H3*L3)</f>
+        <v>7440</v>
+      </c>
+      <c r="N3" s="84">
+        <f>-(IF((M3*0.005)&lt;20,20,(M3*0.005)) + (M3*0.0027))</f>
+        <v>-57.288000000000004</v>
+      </c>
+      <c r="O3" s="97">
+        <f>J3+N3</f>
+        <v>-99.776600000000002</v>
+      </c>
+      <c r="P3" s="106">
+        <f>M3-I3+N3</f>
+        <v>1864.712</v>
+      </c>
+      <c r="Q3" s="107">
+        <f>P3/E3</f>
+        <v>0.33535038629518998</v>
+      </c>
+      <c r="R3" s="109"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="94" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="95">
+        <v>4050</v>
+      </c>
+      <c r="D4" s="84">
+        <f t="shared" ref="D4:D5" si="0">C4-E4</f>
+        <v>-26.210460000000239</v>
+      </c>
+      <c r="E4" s="84">
+        <f>I4-J4</f>
+        <v>4076.2104600000002</v>
+      </c>
+      <c r="F4" s="100"/>
+      <c r="G4" s="95">
+        <v>65.03</v>
+      </c>
+      <c r="H4" s="96">
+        <f>TRUNC(C4/G4)</f>
+        <v>62</v>
+      </c>
+      <c r="I4" s="84">
+        <f>(G4*H4)</f>
+        <v>4031.86</v>
+      </c>
+      <c r="J4" s="84">
+        <f>-(IF((I4*0.0075)&lt;30,30,(I4*0.0075))+(I4*0.0035))</f>
+        <v>-44.350459999999998</v>
+      </c>
+      <c r="K4" s="100"/>
+      <c r="L4" s="95">
+        <v>73.069999999999993</v>
+      </c>
+      <c r="M4" s="84">
+        <f>(H4*L4)</f>
+        <v>4530.3399999999992</v>
+      </c>
+      <c r="N4" s="84">
+        <f>-(IF((M4*0.0075)&lt;30,30,(M4*0.0075)) + (M4*0.0035))</f>
+        <v>-49.833739999999992</v>
+      </c>
+      <c r="O4" s="98">
+        <f>J4+N4</f>
+        <v>-94.18419999999999</v>
+      </c>
+      <c r="P4" s="102">
+        <f>M4-E4+N4</f>
+        <v>404.29579999999902</v>
+      </c>
+      <c r="Q4" s="108">
+        <f>P4/E4</f>
+        <v>9.9184231032074577E-2</v>
+      </c>
+      <c r="R4" s="110"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="94" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="95">
+        <v>5100</v>
+      </c>
+      <c r="D5" s="84">
+        <f t="shared" si="0"/>
+        <v>-48.09288000000015</v>
+      </c>
+      <c r="E5" s="84">
+        <f>I5-J5</f>
+        <v>5148.0928800000002</v>
+      </c>
+      <c r="F5" s="100">
+        <v>43154</v>
+      </c>
+      <c r="G5" s="95">
+        <v>25.98</v>
+      </c>
+      <c r="H5" s="96">
+        <f>TRUNC(C5/G5)</f>
+        <v>196</v>
+      </c>
+      <c r="I5" s="84">
+        <f>(G5*H5)</f>
+        <v>5092.08</v>
+      </c>
+      <c r="J5" s="84">
+        <f>-(IF((I5*0.0075)&lt;30,30,(I5*0.0075))+(I5*0.0035))</f>
+        <v>-56.012879999999996</v>
+      </c>
+      <c r="K5" s="100"/>
+      <c r="L5" s="95">
+        <v>30.27</v>
+      </c>
+      <c r="M5" s="84">
+        <f>(H5*L5)</f>
+        <v>5932.92</v>
+      </c>
+      <c r="N5" s="84">
+        <f>-(IF((M5*0.0075)&lt;30,30,(M5*0.0075)) + (M5*0.0035))</f>
+        <v>-65.262119999999996</v>
+      </c>
+      <c r="O5" s="98">
+        <f>J5+N5</f>
+        <v>-121.27499999999999</v>
+      </c>
+      <c r="P5" s="102">
+        <f>M5-E5+N5</f>
+        <v>719.56499999999994</v>
+      </c>
+      <c r="Q5" s="108">
+        <f>P5/E5</f>
+        <v>0.13977311924488819</v>
+      </c>
+      <c r="R5" s="110"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="94"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="98"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="108"/>
+      <c r="R6" s="110"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="94"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="110"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="94"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="108"/>
+      <c r="R8" s="110"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="122"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="124"/>
+      <c r="N9" s="124"/>
+      <c r="O9" s="129"/>
+      <c r="P9" s="124"/>
+      <c r="Q9" s="130"/>
+      <c r="R9" s="131"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="121"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="120"/>
+      <c r="N10" s="120"/>
+      <c r="O10" s="120"/>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="120"/>
+      <c r="R10" s="120"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="132" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="133"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
+      <c r="K11" s="133"/>
+      <c r="L11" s="133"/>
+      <c r="M11" s="133"/>
+      <c r="N11" s="133"/>
+      <c r="O11" s="133"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="133"/>
+      <c r="R11" s="133"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="111" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="111" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="111" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="111" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="111" t="s">
+        <v>156</v>
+      </c>
+      <c r="F12" s="112" t="s">
+        <v>158</v>
+      </c>
+      <c r="G12" s="113" t="s">
+        <v>150</v>
+      </c>
+      <c r="H12" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="113" t="s">
+        <v>151</v>
+      </c>
+      <c r="J12" s="113" t="s">
+        <v>152</v>
+      </c>
+      <c r="K12" s="114" t="s">
+        <v>158</v>
+      </c>
+      <c r="L12" s="115" t="s">
+        <v>150</v>
+      </c>
+      <c r="M12" s="115" t="s">
+        <v>151</v>
+      </c>
+      <c r="N12" s="116" t="s">
+        <v>152</v>
+      </c>
+      <c r="O12" s="117" t="s">
+        <v>152</v>
+      </c>
+      <c r="P12" s="118" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q12" s="118" t="s">
+        <v>154</v>
+      </c>
+      <c r="R12" s="119" t="s">
+        <v>155</v>
+      </c>
+      <c r="S12" s="72"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="95">
+        <v>4000</v>
+      </c>
+      <c r="D13" s="84">
+        <f>C13-E13</f>
+        <v>-19.268950000000132</v>
+      </c>
+      <c r="E13" s="84">
+        <f>I13-J13</f>
+        <v>4019.2689500000001</v>
+      </c>
+      <c r="F13" s="8">
+        <v>42074</v>
+      </c>
+      <c r="G13" s="95">
+        <v>26.59</v>
+      </c>
+      <c r="H13" s="96">
+        <f>TRUNC(C13/G13)</f>
+        <v>150</v>
+      </c>
+      <c r="I13" s="84">
+        <f>(G13*H13)</f>
+        <v>3988.5</v>
+      </c>
+      <c r="J13" s="84">
+        <f>-(IF((I13*0.005)&lt;20,20,(I13*0.005))+(I13*0.0027))</f>
+        <v>-30.76895</v>
+      </c>
+      <c r="K13" s="99">
+        <v>42136</v>
+      </c>
+      <c r="L13" s="95">
+        <v>25.261599999999998</v>
+      </c>
+      <c r="M13" s="84">
+        <f>(H13*L13)</f>
+        <v>3789.24</v>
+      </c>
+      <c r="N13" s="84">
+        <f>-(IF((M13*0.005)&lt;20,20,(M13*0.005)) + (M13*0.0027))</f>
+        <v>-30.230947999999998</v>
+      </c>
+      <c r="O13" s="97">
+        <v>-61.54</v>
+      </c>
+      <c r="P13" s="106">
+        <v>-334.54</v>
+      </c>
+      <c r="Q13" s="107">
+        <v>-6.54E-2</v>
+      </c>
+      <c r="R13" s="109" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="P14">
+        <v>73.47</v>
+      </c>
+      <c r="Q14" s="108">
+        <f>P14/E13</f>
+        <v>1.8279443578912528E-2</v>
+      </c>
+      <c r="R14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="Q15" s="108"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="Q16" s="108"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="Q17" s="108"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="G19" s="56"/>
+      <c r="I19" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="R19" s="71"/>
+      <c r="S19" s="71"/>
+      <c r="Y19" s="59">
+        <f ca="1">_xlfn.DAYS(TODAY(),C21)</f>
+        <v>1528</v>
+      </c>
+      <c r="Z19" s="33"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F20" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G20" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I20" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J20" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K20" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L20" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="M20" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="N20" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="O20" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P20" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="Q20" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="R20" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="S20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="T20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z20" t="s">
         <v>141</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA20" t="s">
         <v>142</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB20" t="s">
         <v>143</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC20" t="s">
         <v>144</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD20" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="8">
+      <c r="C21" s="8">
         <v>42074</v>
       </c>
-      <c r="C3" s="8">
+      <c r="D21" s="8">
         <v>42136</v>
       </c>
-      <c r="D3" s="14">
+      <c r="E21" s="14">
         <v>150</v>
       </c>
-      <c r="E3" s="9">
+      <c r="F21" s="9">
         <v>26.59</v>
       </c>
-      <c r="F3" s="9">
+      <c r="G21" s="9">
         <f>24.77+0.4916</f>
         <v>25.261599999999998</v>
       </c>
-      <c r="G3" s="10">
-        <f>(F3/E3)-1</f>
+      <c r="H21" s="10">
+        <f>(G21/F21)-1</f>
         <v>-4.9958631064309977E-2</v>
       </c>
-      <c r="H3" s="9">
+      <c r="I21" s="9">
         <v>3988.5</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>21.54</v>
-      </c>
-      <c r="R3" s="9">
-        <f>-334.54</f>
-        <v>-334.54</v>
-      </c>
-      <c r="S3" s="42">
-        <f>-0.0839+0.0185</f>
-        <v>-6.54E-2</v>
-      </c>
-      <c r="Y3">
-        <f>_xlfn.DAYS(C3,B3)</f>
-        <v>62</v>
-      </c>
-      <c r="Z3" s="59">
-        <f ca="1">Y3/X$1</f>
-        <v>4.076265614727153E-2</v>
-      </c>
-      <c r="AA3" s="56">
-        <f ca="1">Z3*H3</f>
-        <v>162.5818540433925</v>
-      </c>
-      <c r="AB3" s="5"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9">
-        <v>73.47</v>
-      </c>
-      <c r="S4" s="42"/>
-      <c r="T4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z4" s="59"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="5"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="8">
-        <v>42143</v>
-      </c>
-      <c r="C5" s="8">
-        <v>42198</v>
-      </c>
-      <c r="D5" s="14">
-        <v>102</v>
-      </c>
-      <c r="E5" s="9">
-        <v>39.229999999999997</v>
-      </c>
-      <c r="F5" s="9">
-        <v>40</v>
-      </c>
-      <c r="G5" s="10">
-        <v>1.962783583991845E-2</v>
-      </c>
-      <c r="H5" s="9">
-        <v>4001.4599999999996</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9">
-        <v>40.014599999999994</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>21.607883999999999</v>
-      </c>
-      <c r="R5" s="9">
-        <v>16.917516000000433</v>
-      </c>
-      <c r="S5" s="10">
-        <v>4.2278358399185385E-3</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" ref="Y5:Y24" si="0">_xlfn.DAYS(C5,B5)</f>
-        <v>55</v>
-      </c>
-      <c r="Z5" s="59">
-        <f t="shared" ref="Z5:Z27" ca="1" si="1">Y5/X$1</f>
-        <v>3.6160420775805391E-2</v>
-      </c>
-      <c r="AA5" s="56">
-        <f t="shared" ref="AA5:AA24" ca="1" si="2">Z5*H5</f>
-        <v>144.69447731755423</v>
-      </c>
-      <c r="AB5" s="5"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="8">
-        <v>42209</v>
-      </c>
-      <c r="C6" s="8">
-        <v>42223</v>
-      </c>
-      <c r="D6" s="14">
-        <v>507</v>
-      </c>
-      <c r="E6" s="9">
-        <v>7.9</v>
-      </c>
-      <c r="F6" s="9">
-        <v>8.82</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0.1164556962025316</v>
-      </c>
-      <c r="H6" s="9">
-        <v>4005.3</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9">
-        <v>40.053000000000004</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>21.628620000000002</v>
-      </c>
-      <c r="R6" s="9">
-        <v>404.75837999999931</v>
-      </c>
-      <c r="S6" s="10">
-        <v>0.10105569620253146</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="Z6" s="59">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.204470742932281E-3</v>
-      </c>
-      <c r="AA6" s="56">
-        <f t="shared" ca="1" si="2"/>
-        <v>36.866666666666667</v>
-      </c>
-      <c r="AB6" s="5"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="S7" s="10"/>
-      <c r="T7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="56"/>
-      <c r="AB7" s="5"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9">
-        <v>-27.23</v>
-      </c>
-      <c r="S8" s="10"/>
-      <c r="T8" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="56"/>
-      <c r="AB8" s="5"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9">
-        <v>188.26</v>
-      </c>
-      <c r="S9" s="10"/>
-      <c r="T9" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="5"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9">
-        <v>-0.08</v>
-      </c>
-      <c r="S10" s="10"/>
-      <c r="T10" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="5"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9">
-        <v>-24.2</v>
-      </c>
-      <c r="S11" s="10"/>
-      <c r="T11" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="5"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9">
-        <f>13.5+13.5</f>
-        <v>27</v>
-      </c>
-      <c r="S12" s="10"/>
-      <c r="T12" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="56"/>
-      <c r="AB12" s="5"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="8">
-        <f>'Operacion 3'!B$2</f>
-        <v>43154</v>
-      </c>
-      <c r="C13" s="8">
-        <v>43442</v>
-      </c>
-      <c r="D13" s="14">
-        <f>'Operacion 3'!B$5</f>
-        <v>196</v>
-      </c>
-      <c r="E13" s="9">
-        <v>20.22</v>
-      </c>
-      <c r="F13" s="9">
-        <v>26.49</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0.31009999999999999</v>
-      </c>
-      <c r="H13" s="9">
-        <v>586.38</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9">
-        <v>40</v>
-      </c>
-      <c r="Q13" s="9">
-        <f>1.62+2.07</f>
-        <v>3.69</v>
-      </c>
-      <c r="R13" s="9">
-        <v>138.16</v>
-      </c>
-      <c r="S13" s="10">
-        <v>0.2356</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" si="0"/>
-        <v>288</v>
-      </c>
-      <c r="Z13" s="59">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.1893491124260355</v>
-      </c>
-      <c r="AA13" s="56">
-        <f t="shared" ca="1" si="2"/>
-        <v>111.0305325443787</v>
-      </c>
-      <c r="AB13" s="5"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="8">
-        <v>42234</v>
-      </c>
-      <c r="C14" s="8">
-        <v>43103</v>
-      </c>
-      <c r="D14" s="14">
-        <v>186</v>
-      </c>
-      <c r="E14" s="9">
-        <v>23.6</v>
-      </c>
-      <c r="F14" s="9">
-        <v>28.52</v>
-      </c>
-      <c r="G14" s="10">
-        <v>0.20847457627118637</v>
-      </c>
-      <c r="H14" s="9">
-        <v>4389.6000000000004</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9">
-        <v>48.471600000000009</v>
-      </c>
-      <c r="Q14" s="9">
-        <v>26.174664000000003</v>
-      </c>
-      <c r="R14" s="9">
-        <v>840.47373599999992</v>
-      </c>
-      <c r="S14" s="10">
-        <v>0.19146932203389827</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" si="0"/>
-        <v>869</v>
-      </c>
-      <c r="Z14" s="59">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.57133464825772518</v>
-      </c>
-      <c r="AA14" s="56">
-        <f t="shared" ca="1" si="2"/>
-        <v>2507.9305719921108</v>
-      </c>
-      <c r="AB14" s="5"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="8">
-        <v>42471</v>
-      </c>
-      <c r="C15" s="8">
-        <v>43103</v>
-      </c>
-      <c r="D15" s="14">
-        <v>91</v>
-      </c>
-      <c r="E15" s="9">
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="F15" s="9">
-        <v>28.52</v>
-      </c>
-      <c r="G15" s="10">
-        <v>3.3212121212121204</v>
-      </c>
-      <c r="H15" s="9">
-        <v>600.6</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9">
-        <v>12.976600000000001</v>
-      </c>
-      <c r="Q15" s="9">
-        <v>7.0073640000000008</v>
-      </c>
-      <c r="R15" s="9">
-        <v>1974.7360360000002</v>
-      </c>
-      <c r="S15" s="10">
-        <v>3.287938787878788</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" si="0"/>
-        <v>632</v>
-      </c>
-      <c r="Z15" s="59">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.41551610782380011</v>
-      </c>
-      <c r="AA15" s="56">
-        <f t="shared" ca="1" si="2"/>
-        <v>249.55897435897435</v>
-      </c>
-      <c r="AB15" s="5"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9">
-        <v>-30.78</v>
-      </c>
-      <c r="S16" s="10"/>
-      <c r="T16" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z16" s="59"/>
-      <c r="AA16" s="56"/>
-      <c r="AB16" s="5"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9">
-        <v>-12.1</v>
-      </c>
-      <c r="S17" s="10"/>
-      <c r="T17" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z17" s="59"/>
-      <c r="AA17" s="56"/>
-      <c r="AB17" s="5"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="8">
-        <v>43154</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9">
-        <v>42.26</v>
-      </c>
-      <c r="J18" s="9">
-        <v>13.75</v>
-      </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9">
-        <f>-I18-J18</f>
-        <v>-56.01</v>
-      </c>
-      <c r="S18" s="10"/>
-      <c r="T18" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z18" s="59"/>
-      <c r="AA18" s="56"/>
-      <c r="AB18" s="5"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="8">
-        <v>43222</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9">
-        <v>73.5</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9">
-        <f>2.5+0.53</f>
-        <v>3.0300000000000002</v>
-      </c>
-      <c r="Q19" s="9">
-        <f>13.97+17.86</f>
-        <v>31.83</v>
-      </c>
-      <c r="R19" s="9">
-        <f>F19-P19-Q19</f>
-        <v>38.64</v>
-      </c>
-      <c r="S19" s="10"/>
-      <c r="T19" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z19" s="59"/>
-      <c r="AA19" s="56"/>
-      <c r="AB19" s="5"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="8">
-        <v>43406</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9">
-        <f>32.34+41.16</f>
-        <v>73.5</v>
-      </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9">
-        <f>2.5+2.5+0.53+0.53</f>
-        <v>6.0600000000000005</v>
-      </c>
-      <c r="Q20" s="9">
-        <f>6.14+7.86+7.82+10</f>
-        <v>31.82</v>
-      </c>
-      <c r="R20" s="9">
-        <f>F20-P20-Q20</f>
-        <v>35.619999999999997</v>
-      </c>
-      <c r="S20" s="10"/>
-      <c r="T20" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z20" s="59"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="5"/>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
@@ -4934,27 +5075,42 @@
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
+      <c r="Q21" s="9">
+        <v>40</v>
+      </c>
       <c r="R21" s="9">
-        <v>-25.87</v>
-      </c>
-      <c r="S21" s="10"/>
-      <c r="T21" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z21" s="59"/>
-      <c r="AA21" s="56"/>
-      <c r="AB21" s="5"/>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
+        <v>21.54</v>
+      </c>
+      <c r="S21" s="9">
+        <f>-334.54</f>
+        <v>-334.54</v>
+      </c>
+      <c r="T21" s="42">
+        <f>-0.0839+0.0185</f>
+        <v>-6.54E-2</v>
+      </c>
+      <c r="Z21">
+        <f>_xlfn.DAYS(D21,C21)</f>
+        <v>62</v>
+      </c>
+      <c r="AA21" s="59">
+        <f ca="1">Z21/Y$19</f>
+        <v>4.0575916230366493E-2</v>
+      </c>
+      <c r="AB21" s="56">
+        <f ca="1">AA21*I21</f>
+        <v>161.83704188481676</v>
+      </c>
+      <c r="AC21" s="5"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="9"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="14"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="10"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -4964,145 +5120,145 @@
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
-      <c r="R22" s="9">
-        <f>-2.18-2.26-3.09-2.27</f>
-        <v>-9.7999999999999989</v>
-      </c>
-      <c r="S22" s="10"/>
-      <c r="T22" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z22" s="59"/>
-      <c r="AA22" s="56"/>
-      <c r="AB22" s="5"/>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="B23" s="8">
-        <v>43550</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9">
+        <v>73.47</v>
+      </c>
+      <c r="T22" s="42"/>
+      <c r="U22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA22" s="59"/>
+      <c r="AB22" s="56"/>
+      <c r="AC22" s="5"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="8">
+        <v>42143</v>
+      </c>
+      <c r="D23" s="8">
+        <v>42198</v>
+      </c>
+      <c r="E23" s="14">
+        <v>102</v>
+      </c>
+      <c r="F23" s="9">
+        <v>39.229999999999997</v>
+      </c>
+      <c r="G23" s="9">
+        <v>40</v>
+      </c>
+      <c r="H23" s="10">
+        <v>1.962783583991845E-2</v>
+      </c>
       <c r="I23" s="9">
-        <v>30.631499999999999</v>
-      </c>
-      <c r="J23" s="9">
-        <v>14.294699999999999</v>
-      </c>
+        <v>4001.4599999999996</v>
+      </c>
+      <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
+      <c r="Q23" s="9">
+        <v>40.014599999999994</v>
+      </c>
       <c r="R23" s="9">
-        <f>-I23-J23</f>
-        <v>-44.926199999999994</v>
-      </c>
-      <c r="S23" s="10"/>
-      <c r="T23" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z23" s="59"/>
-      <c r="AA23" s="56"/>
-      <c r="AB23" s="5"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B24" s="8">
-        <v>43545</v>
+        <v>21.607883999999999</v>
+      </c>
+      <c r="S23" s="9">
+        <v>16.917516000000433</v>
+      </c>
+      <c r="T23" s="10">
+        <v>4.2278358399185385E-3</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" ref="Z23:Z42" si="1">_xlfn.DAYS(D23,C23)</f>
+        <v>55</v>
+      </c>
+      <c r="AA23" s="59">
+        <f t="shared" ref="AA23:AA45" ca="1" si="2">Z23/Y$19</f>
+        <v>3.5994764397905762E-2</v>
+      </c>
+      <c r="AB23" s="56">
+        <f t="shared" ref="AB23:AB42" ca="1" si="3">AA23*I23</f>
+        <v>144.03160994764397</v>
+      </c>
+      <c r="AC23" s="5"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="C24" s="8">
-        <v>43567</v>
-      </c>
-      <c r="D24" s="14">
-        <v>60</v>
-      </c>
-      <c r="E24" s="9">
-        <v>68.069999999999993</v>
+        <v>42209</v>
+      </c>
+      <c r="D24" s="8">
+        <v>42223</v>
+      </c>
+      <c r="E24" s="14">
+        <v>507</v>
       </c>
       <c r="F24" s="9">
-        <v>75.53</v>
-      </c>
-      <c r="G24" s="10">
-        <v>0.10959306596151031</v>
-      </c>
-      <c r="H24" s="9">
-        <v>4084.2</v>
+        <v>7.9</v>
+      </c>
+      <c r="G24" s="9">
+        <v>8.82</v>
+      </c>
+      <c r="H24" s="10">
+        <v>0.1164556962025316</v>
       </c>
       <c r="I24" s="9">
-        <v>30.631499999999999</v>
-      </c>
-      <c r="J24" s="9">
-        <v>14.294699999999999</v>
-      </c>
-      <c r="K24" s="9">
-        <v>4129.1262000000006</v>
-      </c>
-      <c r="L24" s="9">
-        <v>4531.8</v>
-      </c>
-      <c r="M24" s="9">
-        <v>-33.988500000000002</v>
-      </c>
-      <c r="N24" s="9">
-        <v>-15.861300000000002</v>
-      </c>
-      <c r="O24" s="9">
-        <v>4481.9502000000002</v>
-      </c>
-      <c r="P24" s="9">
-        <v>64.62</v>
-      </c>
+        <v>4005.3</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
       <c r="Q24" s="9">
-        <v>30.155999999999999</v>
+        <v>40.053000000000004</v>
       </c>
       <c r="R24" s="9">
-        <v>352.82399999999961</v>
-      </c>
-      <c r="S24" s="10">
-        <v>8.5447618433168629E-2</v>
-      </c>
-      <c r="T24" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y24">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="Z24" s="59">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.4464168310322156E-2</v>
-      </c>
-      <c r="AA24" s="56">
+        <v>21.628620000000002</v>
+      </c>
+      <c r="S24" s="9">
+        <v>404.75837999999931</v>
+      </c>
+      <c r="T24" s="10">
+        <v>0.10105569620253146</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="AA24" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>59.07455621301775</v>
-      </c>
-      <c r="AB24" s="5"/>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="8">
-        <v>43587</v>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9">
-        <v>86.24</v>
-      </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="9"/>
+        <v>9.1623036649214652E-3</v>
+      </c>
+      <c r="AB24" s="56">
+        <f t="shared" ca="1" si="3"/>
+        <v>36.697774869109949</v>
+      </c>
+      <c r="AC24" s="5"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
@@ -5110,35 +5266,28 @@
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
-      <c r="P25" s="9">
-        <f>2.5+0.53</f>
-        <v>3.0300000000000002</v>
-      </c>
-      <c r="Q25" s="9">
-        <f>16.39+20.96</f>
-        <v>37.35</v>
-      </c>
-      <c r="R25" s="9">
-        <f>F25-P25-Q25</f>
-        <v>45.859999999999992</v>
-      </c>
-      <c r="S25" s="10"/>
-      <c r="T25" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z25" s="59"/>
-      <c r="AA25" s="56"/>
-      <c r="AB25" s="5"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="T25" s="10"/>
+      <c r="U25" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA25" s="59"/>
+      <c r="AB25" s="56"/>
+      <c r="AC25" s="5"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B26" s="7"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="9"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="14"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -5149,674 +5298,1393 @@
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
-      <c r="S26" s="10"/>
-      <c r="Z26" s="59"/>
-      <c r="AB26" s="5"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="Y27">
-        <f ca="1">_xlfn.DAYS(TODAY(),B32)</f>
-        <v>441</v>
-      </c>
-      <c r="Z27" s="59">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.28994082840236685</v>
-      </c>
-      <c r="AA27" s="56">
-        <f ca="1">Z27*H32</f>
-        <v>1476.4018934911242</v>
-      </c>
-      <c r="AB27" s="5"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="H28" s="15">
-        <f t="shared" ref="H28:O28" si="3">SUM(H3:H27)</f>
+      <c r="S26" s="9">
+        <v>-27.23</v>
+      </c>
+      <c r="T26" s="10"/>
+      <c r="U26" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA26" s="59"/>
+      <c r="AB26" s="56"/>
+      <c r="AC26" s="5"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9">
+        <v>188.26</v>
+      </c>
+      <c r="T27" s="10"/>
+      <c r="U27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA27" s="59"/>
+      <c r="AB27" s="56"/>
+      <c r="AC27" s="5"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9">
+        <v>-0.08</v>
+      </c>
+      <c r="T28" s="10"/>
+      <c r="U28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA28" s="59"/>
+      <c r="AB28" s="56"/>
+      <c r="AC28" s="5"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9">
+        <v>-24.2</v>
+      </c>
+      <c r="T29" s="10"/>
+      <c r="U29" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA29" s="59"/>
+      <c r="AB29" s="56"/>
+      <c r="AC29" s="5"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9">
+        <f>13.5+13.5</f>
+        <v>27</v>
+      </c>
+      <c r="T30" s="10"/>
+      <c r="U30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA30" s="59"/>
+      <c r="AB30" s="56"/>
+      <c r="AC30" s="5"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="8">
+        <f>'Operacion 3'!B$2</f>
+        <v>43154</v>
+      </c>
+      <c r="D31" s="8">
+        <v>43442</v>
+      </c>
+      <c r="E31" s="14">
+        <f>'Operacion 3'!B$5</f>
+        <v>196</v>
+      </c>
+      <c r="F31" s="9">
+        <v>20.22</v>
+      </c>
+      <c r="G31" s="9">
+        <v>26.49</v>
+      </c>
+      <c r="H31" s="10">
+        <v>0.31009999999999999</v>
+      </c>
+      <c r="I31" s="9">
+        <v>586.38</v>
+      </c>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9">
+        <v>40</v>
+      </c>
+      <c r="R31" s="9">
+        <f>1.62+2.07</f>
+        <v>3.69</v>
+      </c>
+      <c r="S31" s="9">
+        <v>138.16</v>
+      </c>
+      <c r="T31" s="10">
+        <v>0.2356</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="1"/>
+        <v>288</v>
+      </c>
+      <c r="AA31" s="59">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.18848167539267016</v>
+      </c>
+      <c r="AB31" s="56">
+        <f t="shared" ca="1" si="3"/>
+        <v>110.52188481675392</v>
+      </c>
+      <c r="AC31" s="5"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="8">
+        <v>42234</v>
+      </c>
+      <c r="D32" s="8">
+        <v>43103</v>
+      </c>
+      <c r="E32" s="14">
+        <v>186</v>
+      </c>
+      <c r="F32" s="9">
+        <v>23.6</v>
+      </c>
+      <c r="G32" s="9">
+        <v>28.52</v>
+      </c>
+      <c r="H32" s="10">
+        <v>0.20847457627118637</v>
+      </c>
+      <c r="I32" s="9">
+        <v>4389.6000000000004</v>
+      </c>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9">
+        <v>48.471600000000009</v>
+      </c>
+      <c r="R32" s="9">
+        <v>26.174664000000003</v>
+      </c>
+      <c r="S32" s="9">
+        <v>840.47373599999992</v>
+      </c>
+      <c r="T32" s="10">
+        <v>0.19146932203389827</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="1"/>
+        <v>869</v>
+      </c>
+      <c r="AA32" s="59">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.56871727748691103</v>
+      </c>
+      <c r="AB32" s="56">
+        <f t="shared" ca="1" si="3"/>
+        <v>2496.441361256545</v>
+      </c>
+      <c r="AC32" s="5"/>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="8">
+        <v>42471</v>
+      </c>
+      <c r="D33" s="8">
+        <v>43103</v>
+      </c>
+      <c r="E33" s="14">
+        <v>91</v>
+      </c>
+      <c r="F33" s="9">
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="G33" s="9">
+        <v>28.52</v>
+      </c>
+      <c r="H33" s="10">
+        <v>3.3212121212121204</v>
+      </c>
+      <c r="I33" s="9">
+        <v>600.6</v>
+      </c>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9">
+        <v>12.976600000000001</v>
+      </c>
+      <c r="R33" s="9">
+        <v>7.0073640000000008</v>
+      </c>
+      <c r="S33" s="9">
+        <v>1974.7360360000002</v>
+      </c>
+      <c r="T33" s="10">
+        <v>3.287938787878788</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="1"/>
+        <v>632</v>
+      </c>
+      <c r="AA33" s="59">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.41361256544502617</v>
+      </c>
+      <c r="AB33" s="56">
+        <f t="shared" ca="1" si="3"/>
+        <v>248.41570680628271</v>
+      </c>
+      <c r="AC33" s="5"/>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9">
+        <v>-30.78</v>
+      </c>
+      <c r="T34" s="10"/>
+      <c r="U34" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA34" s="59"/>
+      <c r="AB34" s="56"/>
+      <c r="AC34" s="5"/>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9">
+        <v>-12.1</v>
+      </c>
+      <c r="T35" s="10"/>
+      <c r="U35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA35" s="59"/>
+      <c r="AB35" s="56"/>
+      <c r="AC35" s="5"/>
+    </row>
+    <row r="36" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B36" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="8">
+        <v>43154</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9">
+        <v>42.26</v>
+      </c>
+      <c r="K36" s="9">
+        <v>13.75</v>
+      </c>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9">
+        <f>-J36-K36</f>
+        <v>-56.01</v>
+      </c>
+      <c r="T36" s="10"/>
+      <c r="U36" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA36" s="59"/>
+      <c r="AB36" s="56"/>
+      <c r="AC36" s="5"/>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B37" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="8">
+        <v>43222</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9">
+        <v>73.5</v>
+      </c>
+      <c r="H37" s="10"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9">
+        <f>2.5+0.53</f>
+        <v>3.0300000000000002</v>
+      </c>
+      <c r="R37" s="9">
+        <f>13.97+17.86</f>
+        <v>31.83</v>
+      </c>
+      <c r="S37" s="9">
+        <f>G37-Q37-R37</f>
+        <v>38.64</v>
+      </c>
+      <c r="T37" s="10"/>
+      <c r="U37" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA37" s="59"/>
+      <c r="AB37" s="56"/>
+      <c r="AC37" s="5"/>
+    </row>
+    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B38" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="8">
+        <v>43406</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9">
+        <f>32.34+41.16</f>
+        <v>73.5</v>
+      </c>
+      <c r="H38" s="10"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9">
+        <f>2.5+2.5+0.53+0.53</f>
+        <v>6.0600000000000005</v>
+      </c>
+      <c r="R38" s="9">
+        <f>6.14+7.86+7.82+10</f>
+        <v>31.82</v>
+      </c>
+      <c r="S38" s="9">
+        <f>G38-Q38-R38</f>
+        <v>35.619999999999997</v>
+      </c>
+      <c r="T38" s="10"/>
+      <c r="U38" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA38" s="59"/>
+      <c r="AB38" s="56"/>
+      <c r="AC38" s="5"/>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9">
+        <v>-25.87</v>
+      </c>
+      <c r="T39" s="10"/>
+      <c r="U39" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA39" s="59"/>
+      <c r="AB39" s="56"/>
+      <c r="AC39" s="5"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9">
+        <f>-2.18-2.26-3.09-2.27</f>
+        <v>-9.7999999999999989</v>
+      </c>
+      <c r="T40" s="10"/>
+      <c r="U40" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA40" s="59"/>
+      <c r="AB40" s="56"/>
+      <c r="AC40" s="5"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B41" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="8">
+        <v>43550</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9">
+        <v>30.631499999999999</v>
+      </c>
+      <c r="K41" s="9">
+        <v>14.294699999999999</v>
+      </c>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9">
+        <f>-J41-K41</f>
+        <v>-44.926199999999994</v>
+      </c>
+      <c r="T41" s="10"/>
+      <c r="U41" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA41" s="59"/>
+      <c r="AB41" s="56"/>
+      <c r="AC41" s="5"/>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B42" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="8">
+        <v>43545</v>
+      </c>
+      <c r="D42" s="8">
+        <v>43567</v>
+      </c>
+      <c r="E42" s="14">
+        <v>60</v>
+      </c>
+      <c r="F42" s="9">
+        <v>68.069999999999993</v>
+      </c>
+      <c r="G42" s="9">
+        <v>75.53</v>
+      </c>
+      <c r="H42" s="10">
+        <v>0.10959306596151031</v>
+      </c>
+      <c r="I42" s="9">
+        <v>4084.2</v>
+      </c>
+      <c r="J42" s="9">
+        <v>30.631499999999999</v>
+      </c>
+      <c r="K42" s="9">
+        <v>14.294699999999999</v>
+      </c>
+      <c r="L42" s="9">
+        <v>4129.1262000000006</v>
+      </c>
+      <c r="M42" s="9">
+        <v>4531.8</v>
+      </c>
+      <c r="N42" s="9">
+        <v>-33.988500000000002</v>
+      </c>
+      <c r="O42" s="9">
+        <v>-15.861300000000002</v>
+      </c>
+      <c r="P42" s="9">
+        <v>4481.9502000000002</v>
+      </c>
+      <c r="Q42" s="9">
+        <v>64.62</v>
+      </c>
+      <c r="R42" s="9">
+        <v>30.155999999999999</v>
+      </c>
+      <c r="S42" s="9">
+        <v>352.82399999999961</v>
+      </c>
+      <c r="T42" s="10">
+        <v>8.5447618433168629E-2</v>
+      </c>
+      <c r="U42" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="AA42" s="59">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.4397905759162303E-2</v>
+      </c>
+      <c r="AB42" s="56">
+        <f t="shared" ca="1" si="3"/>
+        <v>58.803926701570674</v>
+      </c>
+      <c r="AC42" s="5"/>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B43" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="8">
+        <v>43587</v>
+      </c>
+      <c r="E43" s="14"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9">
+        <v>86.24</v>
+      </c>
+      <c r="H43" s="10"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9">
+        <f>2.5+0.53</f>
+        <v>3.0300000000000002</v>
+      </c>
+      <c r="R43" s="9">
+        <f>16.39+20.96</f>
+        <v>37.35</v>
+      </c>
+      <c r="S43" s="9">
+        <f>G43-Q43-R43</f>
+        <v>45.859999999999992</v>
+      </c>
+      <c r="T43" s="10"/>
+      <c r="U43" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA43" s="59"/>
+      <c r="AB43" s="56"/>
+      <c r="AC43" s="5"/>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B44" s="7"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="10"/>
+      <c r="AA44" s="59"/>
+      <c r="AC44" s="5"/>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="Z45">
+        <f ca="1">_xlfn.DAYS(TODAY(),C50)</f>
+        <v>448</v>
+      </c>
+      <c r="AA45" s="59">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.29319371727748689</v>
+      </c>
+      <c r="AB45" s="56">
+        <f ca="1">AA45*I50</f>
+        <v>1492.9658638743454</v>
+      </c>
+      <c r="AC45" s="5"/>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="I46" s="15">
+        <f t="shared" ref="I46:P46" si="4">SUM(I21:I45)</f>
         <v>21656.039999999997</v>
       </c>
-      <c r="I28" s="15">
-        <f t="shared" si="3"/>
+      <c r="J46" s="15">
+        <f t="shared" si="4"/>
         <v>103.523</v>
       </c>
-      <c r="J28" s="15">
-        <f t="shared" si="3"/>
+      <c r="K46" s="15">
+        <f t="shared" si="4"/>
         <v>42.339399999999998</v>
       </c>
-      <c r="K28" s="15">
-        <f t="shared" si="3"/>
+      <c r="L46" s="15">
+        <f t="shared" si="4"/>
         <v>4129.1262000000006</v>
       </c>
-      <c r="L28" s="15">
-        <f t="shared" si="3"/>
+      <c r="M46" s="15">
+        <f t="shared" si="4"/>
         <v>4531.8</v>
       </c>
-      <c r="M28" s="15">
-        <f t="shared" si="3"/>
+      <c r="N46" s="15">
+        <f t="shared" si="4"/>
         <v>-33.988500000000002</v>
       </c>
-      <c r="N28" s="15">
-        <f t="shared" si="3"/>
+      <c r="O46" s="15">
+        <f t="shared" si="4"/>
         <v>-15.861300000000002</v>
       </c>
-      <c r="O28" s="15">
-        <f t="shared" si="3"/>
+      <c r="P46" s="15">
+        <f t="shared" si="4"/>
         <v>4481.9502000000002</v>
       </c>
-      <c r="R28" s="15">
-        <f>SUM(R3:R27)</f>
+      <c r="S46" s="15">
+        <f>SUM(S21:S45)</f>
         <v>3571.3034679999992</v>
       </c>
-      <c r="S28" s="16">
-        <f>SUM(S3:S27)/7</f>
+      <c r="T46" s="16">
+        <f>SUM(T21:T45)/7</f>
         <v>0.54861989434118641</v>
       </c>
-      <c r="T28" s="16">
-        <f>S28/4</f>
+      <c r="U46" s="16">
+        <f>T46/4</f>
         <v>0.1371549735852966</v>
       </c>
-      <c r="Y28">
-        <f ca="1">SUM(Y3:Y27)</f>
-        <v>2383</v>
-      </c>
-      <c r="Z28" s="59">
-        <f ca="1">SUM(Z3:Z27)</f>
-        <v>1.566732412886259</v>
-      </c>
-      <c r="AA28" s="56">
-        <f ca="1">SUM(AA3:AA27)</f>
-        <v>4748.1395266272193</v>
-      </c>
-      <c r="AB28" s="3">
-        <f ca="1">R28/AA28</f>
-        <v>0.7521479619485465</v>
-      </c>
-      <c r="AC28" s="3">
-        <f ca="1">AB28/(X1/365)</f>
-        <v>0.18049573051362228</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="51"/>
-      <c r="U29">
+      <c r="Z46">
+        <f ca="1">SUM(Z21:Z45)</f>
+        <v>2390</v>
+      </c>
+      <c r="AA46" s="59">
+        <f ca="1">SUM(AA21:AA45)</f>
+        <v>1.5641361256544504</v>
+      </c>
+      <c r="AB46" s="56">
+        <f ca="1">SUM(AB21:AB45)</f>
+        <v>4749.7151701570683</v>
+      </c>
+      <c r="AC46" s="3">
+        <f ca="1">S46/AB46</f>
+        <v>0.75189844865621691</v>
+      </c>
+      <c r="AD46" s="3">
+        <f ca="1">AC46/(Y19/365)</f>
+        <v>0.17960924984261728</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="52"/>
+      <c r="O47" s="52"/>
+      <c r="P47" s="52"/>
+      <c r="S47" s="52"/>
+      <c r="T47" s="51"/>
+      <c r="U47" s="51"/>
+      <c r="V47">
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="str">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B48" s="39" t="str">
         <f>'Operacion 1'!B$3</f>
         <v>ABI.BR</v>
       </c>
-      <c r="B30" s="8">
+      <c r="C48" s="8">
         <f>'Operacion 1'!B$2</f>
         <v>42234</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="14">
+      <c r="D48" s="8"/>
+      <c r="E48" s="14">
         <f>'Operacion 1'!B$5</f>
         <v>62</v>
       </c>
-      <c r="E30" s="9">
+      <c r="F48" s="9">
         <f>'Operacion 1'!B$4</f>
         <v>89</v>
       </c>
-      <c r="F30" s="9">
+      <c r="G48" s="9">
         <f>'Operacion 1'!B$6</f>
         <v>120</v>
       </c>
-      <c r="G30" s="10">
+      <c r="H48" s="10">
         <f>'Operacion 1'!B$7</f>
         <v>0.348314606741573</v>
       </c>
-      <c r="H30" s="9">
-        <f>(E30*D30)</f>
+      <c r="I48" s="9">
+        <f>(F48*E48)</f>
         <v>5518</v>
       </c>
-      <c r="I30" s="9">
-        <f>IF((H30*0.005)&lt;20,20,(H30*0.005))</f>
+      <c r="J48" s="9">
+        <f>IF((I48*0.005)&lt;20,20,(I48*0.005))</f>
         <v>27.59</v>
       </c>
-      <c r="J30" s="9">
-        <f>SUM(H30:I30)*0.0027</f>
+      <c r="K48" s="9">
+        <f>SUM(I48:J48)*0.0027</f>
         <v>14.973093</v>
       </c>
-      <c r="K30" s="9">
-        <f>SUM(H30:J30)</f>
+      <c r="L48" s="9">
+        <f>SUM(I48:K48)</f>
         <v>5560.5630929999998</v>
       </c>
-      <c r="L30" s="9">
-        <f>D30*F30</f>
+      <c r="M48" s="9">
+        <f>E48*G48</f>
         <v>7440</v>
       </c>
-      <c r="M30" s="9">
-        <f>IF((L30*0.005)&lt;20,-20,-(L30*0.005))</f>
+      <c r="N48" s="9">
+        <f>IF((M48*0.005)&lt;20,-20,-(M48*0.005))</f>
         <v>-37.200000000000003</v>
       </c>
-      <c r="N30" s="9">
-        <f>-(SUM(L30:M30)*0.0027)</f>
+      <c r="O48" s="9">
+        <f>-(SUM(M48:N48)*0.0027)</f>
         <v>-19.987560000000002</v>
       </c>
-      <c r="O30" s="9">
-        <f>SUM(L30:N30)</f>
+      <c r="P48" s="9">
+        <f>SUM(M48:O48)</f>
         <v>7382.8124400000006</v>
       </c>
-      <c r="P30" s="9">
-        <f>I30-M30</f>
+      <c r="Q48" s="9">
+        <f>J48-N48</f>
         <v>64.790000000000006</v>
       </c>
-      <c r="Q30" s="9">
-        <f>J30-N30</f>
+      <c r="R48" s="9">
+        <f>K48-O48</f>
         <v>34.960653000000001</v>
       </c>
-      <c r="R30" s="9">
-        <f t="shared" ref="R30:R31" si="4">O30-K30</f>
+      <c r="S48" s="9">
+        <f t="shared" ref="S48:S49" si="5">P48-L48</f>
         <v>1822.2493470000009</v>
       </c>
-      <c r="S30" s="10">
-        <f>R30/K30</f>
+      <c r="T48" s="10">
+        <f>S48/L48</f>
         <v>0.32770949929404947</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U48" t="s">
         <v>109</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V48" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="str">
+    <row r="49" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B49" s="39" t="str">
         <f>'Operacion 2'!B$3</f>
         <v>BMW.DE</v>
       </c>
-      <c r="B31" s="8">
+      <c r="C49" s="8">
         <f>'Operacion 2'!B$2</f>
         <v>42471</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="14">
+      <c r="D49" s="8"/>
+      <c r="E49" s="14">
         <f>'Operacion 2'!B$5</f>
-        <v>59</v>
-      </c>
-      <c r="E31" s="9">
+        <v>60</v>
+      </c>
+      <c r="F49" s="9">
         <f>'Operacion 2'!B$4</f>
-        <v>67.53</v>
-      </c>
-      <c r="F31" s="9">
+        <v>66.97</v>
+      </c>
+      <c r="G49" s="9">
         <f>'Operacion 2'!B$6</f>
         <v>76.03</v>
       </c>
-      <c r="G31" s="10">
+      <c r="H49" s="10">
         <f>'Operacion 2'!B$7</f>
-        <v>0.12586998371094338</v>
-      </c>
-      <c r="H31" s="9">
-        <f t="shared" ref="H31:H32" si="5">E31*D31</f>
-        <v>3984.27</v>
-      </c>
-      <c r="I31" s="9">
-        <f>IF((H31*(0.0075))&lt;30,30,(H31*(0.0075)))</f>
-        <v>30</v>
-      </c>
-      <c r="J31" s="9">
-        <f>H31*0.0035</f>
-        <v>13.944945000000001</v>
-      </c>
-      <c r="K31" s="9">
-        <f t="shared" ref="K31:K32" si="6">SUM(H31:J31)</f>
-        <v>4028.2149450000002</v>
-      </c>
-      <c r="L31" s="9">
-        <f t="shared" ref="L31:L32" si="7">D31*F31</f>
-        <v>4485.7700000000004</v>
-      </c>
-      <c r="M31" s="9">
-        <f>IF((L31*(0.0075))&lt;30,-30,-(L31*(0.0075)))</f>
-        <v>-33.643275000000003</v>
-      </c>
-      <c r="N31" s="9">
-        <f>-(L31*0.0035)</f>
-        <v>-15.700195000000003</v>
-      </c>
-      <c r="O31" s="9">
-        <f t="shared" ref="O31:O32" si="8">SUM(L31:N31)</f>
-        <v>4436.4265299999997</v>
-      </c>
-      <c r="P31" s="9">
-        <f t="shared" ref="P31:Q32" si="9">I31-M31</f>
-        <v>63.643275000000003</v>
-      </c>
-      <c r="Q31" s="9">
-        <f t="shared" si="9"/>
-        <v>29.645140000000005</v>
-      </c>
-      <c r="R31" s="9">
-        <f t="shared" si="4"/>
-        <v>408.21158499999956</v>
-      </c>
-      <c r="S31" s="10">
-        <f t="shared" ref="S31" si="10">R31/K31</f>
-        <v>0.10133808413244928</v>
-      </c>
-      <c r="T31" t="s">
+        <v>0.13528445572644476</v>
+      </c>
+      <c r="I49" s="9">
+        <f t="shared" ref="I49:I50" si="6">F49*E49</f>
+        <v>4018.2</v>
+      </c>
+      <c r="J49" s="9">
+        <f>IF((I49*(0.0075))&lt;30,30,(I49*(0.0075)))</f>
+        <v>30.136499999999998</v>
+      </c>
+      <c r="K49" s="9">
+        <f>I49*0.0035</f>
+        <v>14.063699999999999</v>
+      </c>
+      <c r="L49" s="9">
+        <f t="shared" ref="L49:L50" si="7">SUM(I49:K49)</f>
+        <v>4062.4002</v>
+      </c>
+      <c r="M49" s="9">
+        <f t="shared" ref="M49:M50" si="8">E49*G49</f>
+        <v>4561.8</v>
+      </c>
+      <c r="N49" s="9">
+        <f>IF((M49*(0.0075))&lt;30,-30,-(M49*(0.0075)))</f>
+        <v>-34.213500000000003</v>
+      </c>
+      <c r="O49" s="9">
+        <f>-(M49*0.0035)</f>
+        <v>-15.9663</v>
+      </c>
+      <c r="P49" s="9">
+        <f t="shared" ref="P49:P50" si="9">SUM(M49:O49)</f>
+        <v>4511.6202000000003</v>
+      </c>
+      <c r="Q49" s="9">
+        <f t="shared" ref="Q49:R50" si="10">J49-N49</f>
+        <v>64.349999999999994</v>
+      </c>
+      <c r="R49" s="9">
+        <f t="shared" si="10"/>
+        <v>30.03</v>
+      </c>
+      <c r="S49" s="9">
+        <f t="shared" si="5"/>
+        <v>449.22000000000025</v>
+      </c>
+      <c r="T49" s="10">
+        <f t="shared" ref="T49" si="11">S49/L49</f>
+        <v>0.11057994729322834</v>
+      </c>
+      <c r="U49" t="s">
         <v>108</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V49" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="str">
+    <row r="50" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B50" s="39" t="str">
         <f>'Operacion 3'!B3</f>
         <v>ITX.MC</v>
       </c>
-      <c r="B32" s="8">
+      <c r="C50" s="8">
         <f>'Operacion 3'!B$2</f>
         <v>43154</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="14">
+      <c r="D50" s="8"/>
+      <c r="E50" s="14">
         <f>'Operacion 3'!B$5</f>
         <v>196</v>
       </c>
-      <c r="E32" s="9">
+      <c r="F50" s="9">
         <f>'Operacion 3'!B$4</f>
         <v>25.98</v>
       </c>
-      <c r="F32" s="9">
+      <c r="G50" s="9">
         <f>'Operacion 3'!B$6</f>
         <v>30.27</v>
       </c>
-      <c r="G32" s="10">
+      <c r="H50" s="10">
         <f>'Operacion 3'!B$7</f>
         <v>0.16512702078521935</v>
       </c>
-      <c r="H32" s="9">
-        <f t="shared" si="5"/>
+      <c r="I50" s="9">
+        <f t="shared" si="6"/>
         <v>5092.08</v>
       </c>
-      <c r="I32" s="9">
-        <f>IF((H32*(0.0075+0.0008))&lt;30,30,(H32*(0.0075+0.0008)))</f>
+      <c r="J50" s="9">
+        <f>IF((I50*(0.0075+0.0008))&lt;30,30,(I50*(0.0075+0.0008)))</f>
         <v>42.264263999999997</v>
       </c>
-      <c r="J32" s="9">
-        <f>H32*0.0027</f>
+      <c r="K50" s="9">
+        <f>I50*0.0027</f>
         <v>13.748616</v>
       </c>
-      <c r="K32" s="9">
-        <f t="shared" si="6"/>
+      <c r="L50" s="9">
+        <f t="shared" si="7"/>
         <v>5148.0928800000002</v>
       </c>
-      <c r="L32" s="9">
-        <f t="shared" si="7"/>
+      <c r="M50" s="9">
+        <f t="shared" si="8"/>
         <v>5932.92</v>
       </c>
-      <c r="M32" s="9">
-        <f>IF((L32*(0.0075))&lt;30,-30,-(L32*(0.0075)))</f>
+      <c r="N50" s="9">
+        <f>IF((M50*(0.0075))&lt;30,-30,-(M50*(0.0075)))</f>
         <v>-44.496899999999997</v>
       </c>
-      <c r="N32" s="9">
-        <f>-(L32*0.0035)</f>
+      <c r="O50" s="9">
+        <f>-(M50*0.0035)</f>
         <v>-20.765219999999999</v>
       </c>
-      <c r="O32" s="9">
-        <f t="shared" si="8"/>
+      <c r="P50" s="9">
+        <f t="shared" si="9"/>
         <v>5867.6578799999997</v>
       </c>
-      <c r="P32" s="9">
-        <f t="shared" si="9"/>
+      <c r="Q50" s="9">
+        <f t="shared" si="10"/>
         <v>86.761163999999994</v>
       </c>
-      <c r="Q32" s="9">
-        <f t="shared" si="9"/>
+      <c r="R50" s="9">
+        <f t="shared" si="10"/>
         <v>34.513835999999998</v>
       </c>
-      <c r="R32" s="9">
-        <f>O32-K32</f>
+      <c r="S50" s="9">
+        <f>P50-L50</f>
         <v>719.5649999999996</v>
       </c>
-      <c r="S32" s="10">
-        <f>R32/K32</f>
+      <c r="T50" s="10">
+        <f>S50/L50</f>
         <v>0.13977311924488814</v>
       </c>
-      <c r="T32" t="s">
+      <c r="U50" t="s">
         <v>58</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V50" t="s">
         <v>111</v>
       </c>
-      <c r="AA32" s="56"/>
-    </row>
-    <row r="33" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="R33" s="56">
-        <f>R32+SUM(R19:R22)+R25</f>
+      <c r="AB50" s="56"/>
+    </row>
+    <row r="51" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="S51" s="56">
+        <f>S50+SUM(S37:S40)+S43</f>
         <v>804.01499999999965</v>
       </c>
-      <c r="S33" s="10">
-        <f>R33/K32</f>
+      <c r="T51" s="10">
+        <f>S51/L50</f>
         <v>0.1561772521866388</v>
       </c>
     </row>
-    <row r="34" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="D34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="48"/>
-      <c r="R34" s="48"/>
-    </row>
-    <row r="35" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F35" s="5"/>
-      <c r="G35" s="48"/>
-      <c r="U35" t="s">
+    <row r="52" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="E52" s="48"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="48"/>
+      <c r="M52" s="48"/>
+      <c r="N52" s="48"/>
+      <c r="O52" s="48"/>
+      <c r="P52" s="48"/>
+      <c r="S52" s="48"/>
+    </row>
+    <row r="53" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="G53" s="5"/>
+      <c r="H53" s="48"/>
+      <c r="V53" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="T36" t="s">
+    <row r="54" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="U54" t="s">
         <v>68</v>
       </c>
-      <c r="U36">
+      <c r="V54">
         <v>26.25</v>
       </c>
-      <c r="AA36" s="56"/>
-    </row>
-    <row r="37" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="T37" t="s">
+      <c r="AB54" s="56"/>
+    </row>
+    <row r="55" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="U55" t="s">
         <v>66</v>
       </c>
-      <c r="U37">
+      <c r="V55">
         <v>30.27</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X55" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
+    <row r="56" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
         <v>62</v>
       </c>
-      <c r="E38">
+      <c r="F56">
         <v>74.89</v>
       </c>
-      <c r="F38">
+      <c r="G56">
         <v>52</v>
       </c>
-      <c r="G38" s="10">
-        <f>1-(F38/E38)</f>
+      <c r="H56" s="10">
+        <f>1-(G56/F56)</f>
         <v>0.30564828415008682</v>
       </c>
-      <c r="N38">
+      <c r="O56">
         <v>6769.84</v>
       </c>
-      <c r="O38">
+      <c r="P56">
         <v>74.459999999999994</v>
       </c>
-      <c r="P38" s="5">
+      <c r="Q56" s="5">
         <v>6695.38</v>
       </c>
-      <c r="S38" s="10"/>
-      <c r="T38" t="s">
+      <c r="T56" s="10"/>
+      <c r="U56" t="s">
         <v>67</v>
       </c>
-      <c r="U38" s="3">
-        <f>(U37/U36)-1</f>
+      <c r="V56" s="3">
+        <f>(V55/V54)-1</f>
         <v>0.15314285714285703</v>
       </c>
-      <c r="V38" s="3"/>
-      <c r="W38" t="s">
+      <c r="W56" s="3"/>
+      <c r="X56" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
+    <row r="57" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
         <v>61</v>
       </c>
-      <c r="E39">
+      <c r="F57">
         <v>182.08</v>
       </c>
-      <c r="F39">
+      <c r="G57">
         <v>126</v>
       </c>
-      <c r="G39" s="10">
-        <f>1-(F39/E39)</f>
+      <c r="H57" s="10">
+        <f>1-(G57/F57)</f>
         <v>0.30799648506151145</v>
       </c>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5">
-        <f>P38-K32</f>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5">
+        <f>Q56-L50</f>
         <v>1547.28712</v>
       </c>
-      <c r="R39" s="5"/>
-    </row>
-    <row r="40" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
+      <c r="S57" s="5"/>
+    </row>
+    <row r="58" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
         <v>63</v>
       </c>
-      <c r="E40">
+      <c r="F58">
         <v>93.54</v>
       </c>
-      <c r="F40">
+      <c r="G58">
         <v>65</v>
       </c>
-      <c r="G40" s="10">
-        <f>1-(F40/E40)</f>
+      <c r="H58" s="10">
+        <f>1-(G58/F58)</f>
         <v>0.30511011332050464</v>
       </c>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="5"/>
-      <c r="P40" s="56">
-        <f>P39*0.1</f>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="5"/>
+      <c r="Q58" s="56">
+        <f>Q57*0.1</f>
         <v>154.728712</v>
       </c>
     </row>
-    <row r="41" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
+    <row r="59" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
         <v>107</v>
       </c>
-      <c r="E41">
+      <c r="F59">
         <v>20</v>
       </c>
-      <c r="F41">
+      <c r="G59">
         <v>14</v>
       </c>
-      <c r="G41" s="10">
-        <f>1-(F41/E41)</f>
+      <c r="H59" s="10">
+        <f>1-(G59/F59)</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="P41" s="56">
-        <f>P39-P40</f>
+      <c r="Q59" s="56">
+        <f>Q57-Q58</f>
         <v>1392.5584079999999</v>
       </c>
-      <c r="R41" s="43"/>
-    </row>
-    <row r="42" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F42" s="5"/>
-      <c r="R42" s="9"/>
-      <c r="S42">
+      <c r="S59" s="43"/>
+    </row>
+    <row r="60" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="G60" s="5"/>
+      <c r="S60" s="9"/>
+      <c r="T60">
         <f>(0.00242*12)</f>
         <v>2.9039999999999996E-2</v>
       </c>
     </row>
-    <row r="43" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="O43" s="9"/>
-      <c r="R43" s="45"/>
-      <c r="S43">
-        <f>4700*S42</f>
+    <row r="61" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="P61" s="9"/>
+      <c r="S61" s="45"/>
+      <c r="T61">
+        <f>4700*T60</f>
         <v>136.48799999999997</v>
       </c>
     </row>
-    <row r="44" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="P44" s="3"/>
-      <c r="R44" s="50" t="s">
+    <row r="62" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="Q62" s="3"/>
+      <c r="S62" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="S44" s="48" t="s">
+      <c r="T62" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="T44" s="5"/>
-    </row>
-    <row r="45" spans="3:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F45" s="5"/>
-      <c r="Q45" t="s">
+      <c r="U62" s="5"/>
+    </row>
+    <row r="63" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G63" s="5"/>
+      <c r="R63" t="s">
         <v>116</v>
       </c>
-      <c r="R45" s="57" t="s">
+      <c r="S63" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="S45" s="49"/>
-      <c r="T45" s="5"/>
-    </row>
-    <row r="46" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="Q46" t="s">
+      <c r="T63" s="49"/>
+      <c r="U63" s="5"/>
+    </row>
+    <row r="64" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="R64" t="s">
         <v>117</v>
       </c>
-      <c r="R46" s="57" t="s">
+      <c r="S64" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="S46" t="s">
+      <c r="T64" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="J47" t="s">
+    <row r="65" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="K65" t="s">
         <v>122</v>
       </c>
-      <c r="R47" s="5"/>
-      <c r="S47" t="s">
+      <c r="S65" s="5"/>
+      <c r="T65" t="s">
         <v>135</v>
       </c>
-      <c r="T47" s="5"/>
-    </row>
-    <row r="48" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J48" s="58">
+      <c r="U65" s="5"/>
+    </row>
+    <row r="66" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="K66" s="58">
         <v>43587</v>
       </c>
-      <c r="R48" s="43"/>
-    </row>
-    <row r="49" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J49" t="s">
+      <c r="S66" s="43"/>
+    </row>
+    <row r="67" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="K67" t="s">
         <v>123</v>
       </c>
-      <c r="R49" s="44"/>
-    </row>
-    <row r="50" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J50" t="s">
+      <c r="S67" s="44"/>
+    </row>
+    <row r="68" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="K68" t="s">
         <v>124</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M68" t="s">
         <v>147</v>
       </c>
-      <c r="R50" s="57"/>
-      <c r="S50">
+      <c r="S68" s="57"/>
+      <c r="T68">
         <f>5000/12</f>
         <v>416.66666666666669</v>
       </c>
     </row>
-    <row r="51" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J51" t="s">
+    <row r="69" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="K69" t="s">
         <v>125</v>
       </c>
-      <c r="S51">
-        <f>2.2/S50</f>
+      <c r="T69">
+        <f>2.2/T68</f>
         <v>5.28E-3</v>
       </c>
     </row>
-    <row r="52" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J52" t="s">
+    <row r="70" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="K70" t="s">
         <v>126</v>
       </c>
-      <c r="S52">
-        <f>100*S51</f>
+      <c r="T70">
+        <f>100*T69</f>
         <v>0.52800000000000002</v>
       </c>
     </row>
-    <row r="53" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J53" t="s">
+    <row r="71" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="K71" t="s">
         <v>127</v>
       </c>
-      <c r="S53">
+      <c r="T71">
         <f>2.2*12</f>
         <v>26.400000000000002</v>
       </c>
     </row>
-    <row r="54" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J54" t="s">
+    <row r="72" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="K72" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J55" t="s">
+    <row r="73" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="K73" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J56" t="s">
+    <row r="74" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="K74" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J57" t="s">
+    <row r="75" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="K75" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J58" t="s">
+    <row r="76" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="K76" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J59" t="s">
+    <row r="77" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="K77" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J60" t="s">
+    <row r="78" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="K78" t="s">
         <v>134</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:R1"/>
+  <mergeCells count="5">
+    <mergeCell ref="A11:R11"/>
+    <mergeCell ref="A10:R10"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="Q19:S19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/2019/Inversiones.xlsx
+++ b/2019/Inversiones.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7AEFA4-216B-4ED3-918D-C87D38F64684}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF139F6C-F6BC-4AFC-8D57-904060EE1FA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27525" windowHeight="10635" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27525" windowHeight="10635" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Operacion 1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="167">
   <si>
     <t>% =</t>
   </si>
@@ -571,10 +571,13 @@
     <t>HISTORICO</t>
   </si>
   <si>
-    <t>Venta PHI.AS</t>
-  </si>
-  <si>
-    <t>&gt;</t>
+    <t>Custodia de acciones 2015</t>
+  </si>
+  <si>
+    <t>Custodia de acciones 2016</t>
+  </si>
+  <si>
+    <t>Custodia de acciones 2017</t>
   </si>
 </sst>
 </file>
@@ -682,7 +685,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -716,6 +719,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,7 +1080,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1187,33 +1196,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1308,12 +1290,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1330,11 +1306,49 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1702,15 +1716,15 @@
       <c r="B1" s="5">
         <v>5600</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="68"/>
+      <c r="E1" s="129"/>
       <c r="F1" s="28"/>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="63"/>
+      <c r="I1" s="124"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1719,10 +1733,10 @@
       <c r="B2" s="4">
         <v>42234</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="67"/>
+      <c r="E2" s="128"/>
       <c r="H2" s="29" t="s">
         <v>26</v>
       </c>
@@ -1791,11 +1805,11 @@
       <c r="H5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="64" t="str">
+      <c r="I5" s="125" t="str">
         <f>IF(I4=2,"Se puede COMPRAR","Nada")</f>
         <v>Se puede COMPRAR</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="126"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1982,7 +1996,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2002,27 +2016,27 @@
       <c r="B1" s="5">
         <v>4050</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="68"/>
+      <c r="E1" s="129"/>
       <c r="F1" s="28"/>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="63"/>
+      <c r="I1" s="124"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="4">
-        <v>42471</v>
-      </c>
-      <c r="D2" s="66" t="s">
+        <v>43605</v>
+      </c>
+      <c r="D2" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="67"/>
+      <c r="E2" s="128"/>
       <c r="H2" s="29" t="s">
         <v>26</v>
       </c>
@@ -2056,7 +2070,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="5">
-        <v>66.97</v>
+        <v>65.23</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>4</v>
@@ -2079,7 +2093,7 @@
       </c>
       <c r="B5" s="32">
         <f>TRUNC(B1/B4)</f>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>5</v>
@@ -2091,11 +2105,11 @@
       <c r="H5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="64" t="str">
+      <c r="I5" s="125" t="str">
         <f>IF(I4=2,"Se puede COMPRAR","Nada")</f>
         <v>Se puede COMPRAR</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="126"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2112,7 +2126,7 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">IF(AND(B$7 &gt;= 0.0279, TODAY()-B$2 &gt; 28),1,IF(AND(B$7 &gt;= 0.0404, TODAY()-B$2 &lt; 4),1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2121,7 +2135,7 @@
       </c>
       <c r="B7" s="3">
         <f>(B6/B4)-1</f>
-        <v>0.13528445572644476</v>
+        <v>0.16556799018856339</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>37</v>
@@ -2164,7 +2178,7 @@
       </c>
       <c r="E11" s="22">
         <f ca="1">SUM(E3:E10)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2173,7 +2187,7 @@
       </c>
       <c r="B12" s="5">
         <f>(B4*0.1155)+B4</f>
-        <v>74.705034999999995</v>
+        <v>72.764065000000002</v>
       </c>
       <c r="D12" s="40" t="s">
         <v>10</v>
@@ -2291,15 +2305,15 @@
       <c r="B1" s="5">
         <v>5100</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="68"/>
+      <c r="E1" s="129"/>
       <c r="F1" s="28"/>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="63"/>
+      <c r="I1" s="124"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2308,10 +2322,10 @@
       <c r="B2" s="4">
         <v>43154</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="67"/>
+      <c r="E2" s="128"/>
       <c r="H2" s="29" t="s">
         <v>26</v>
       </c>
@@ -2380,11 +2394,11 @@
       <c r="H5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="64" t="str">
+      <c r="I5" s="125" t="str">
         <f>IF(I4=2,"Se puede COMPRAR","Nada")</f>
         <v>Se puede COMPRAR</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="126"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2569,10 +2583,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AC60"/>
+  <dimension ref="A1:AC61"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+    <sheetView tabSelected="1" topLeftCell="F37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2595,26 +2609,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="H1" s="69" t="s">
+      <c r="H1" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="70" t="s">
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="71" t="s">
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
       <c r="X1" s="59">
         <f ca="1">_xlfn.DAYS(TODAY(),B3)</f>
-        <v>1528</v>
+        <v>1535</v>
       </c>
       <c r="Y1" s="33"/>
     </row>
@@ -2746,11 +2760,11 @@
       </c>
       <c r="Z3" s="59">
         <f ca="1">Y3/X$1</f>
-        <v>4.0575916230366493E-2</v>
+        <v>4.0390879478827364E-2</v>
       </c>
       <c r="AA3" s="56">
         <f ca="1">Z3*H3</f>
-        <v>161.83704188481676</v>
+        <v>161.09902280130294</v>
       </c>
       <c r="AB3" s="5"/>
     </row>
@@ -2832,12 +2846,12 @@
         <v>55</v>
       </c>
       <c r="Z5" s="59">
-        <f t="shared" ref="Z5:Z27" ca="1" si="1">Y5/X$1</f>
-        <v>3.5994764397905762E-2</v>
+        <f t="shared" ref="Z5:Z28" ca="1" si="1">Y5/X$1</f>
+        <v>3.5830618892508145E-2</v>
       </c>
       <c r="AA5" s="56">
         <f t="shared" ref="AA5:AA24" ca="1" si="2">Z5*H5</f>
-        <v>144.03160994764397</v>
+        <v>143.37478827361562</v>
       </c>
       <c r="AB5" s="5"/>
     </row>
@@ -2891,11 +2905,11 @@
       </c>
       <c r="Z6" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1623036649214652E-3</v>
+        <v>9.120521172638436E-3</v>
       </c>
       <c r="AA6" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>36.697774869109949</v>
+        <v>36.53042345276873</v>
       </c>
       <c r="AB6" s="5"/>
     </row>
@@ -3127,11 +3141,11 @@
       </c>
       <c r="Z13" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18848167539267016</v>
+        <v>0.18762214983713354</v>
       </c>
       <c r="AA13" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>110.52188481675392</v>
+        <v>110.01787622149837</v>
       </c>
       <c r="AB13" s="5"/>
     </row>
@@ -3185,11 +3199,11 @@
       </c>
       <c r="Z14" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56871727748691103</v>
+        <v>0.56612377850162865</v>
       </c>
       <c r="AA14" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>2496.441361256545</v>
+        <v>2485.0569381107493</v>
       </c>
       <c r="AB14" s="5"/>
     </row>
@@ -3243,11 +3257,11 @@
       </c>
       <c r="Z15" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41361256544502617</v>
+        <v>0.41172638436482084</v>
       </c>
       <c r="AA15" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>248.41570680628271</v>
+        <v>247.2828664495114</v>
       </c>
       <c r="AB15" s="5"/>
     </row>
@@ -3594,11 +3608,11 @@
       </c>
       <c r="Z24" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4397905759162303E-2</v>
+        <v>1.4332247557003257E-2</v>
       </c>
       <c r="AA24" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>58.803926701570674</v>
+        <v>58.535765472312697</v>
       </c>
       <c r="AB24" s="5"/>
     </row>
@@ -3644,7 +3658,7 @@
       <c r="AB25" s="5"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="14"/>
@@ -3663,663 +3677,682 @@
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
       <c r="S26" s="10"/>
-      <c r="Z26" s="59"/>
-      <c r="AB26" s="5"/>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="Y27">
-        <f ca="1">_xlfn.DAYS(TODAY(),B32)</f>
-        <v>448</v>
-      </c>
-      <c r="Z27" s="59">
+      <c r="A27" s="39"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="10"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y28">
+        <f ca="1">_xlfn.DAYS(TODAY(),B33)</f>
+        <v>455</v>
+      </c>
+      <c r="Z28" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29319371727748689</v>
-      </c>
-      <c r="AA27" s="56">
-        <f ca="1">Z27*H32</f>
-        <v>1492.9658638743454</v>
-      </c>
-      <c r="AB27" s="5"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="H28" s="15">
-        <f t="shared" ref="H28:O28" si="3">SUM(H3:H27)</f>
+        <v>0.29641693811074921</v>
+      </c>
+      <c r="AA28" s="56">
+        <f ca="1">Z28*H33</f>
+        <v>1509.3787622149839</v>
+      </c>
+      <c r="AB28" s="5"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="H29" s="15">
+        <f t="shared" ref="H29:O29" si="3">SUM(H3:H28)</f>
         <v>21656.039999999997</v>
       </c>
-      <c r="I28" s="15">
+      <c r="I29" s="15">
         <f t="shared" si="3"/>
         <v>103.523</v>
       </c>
-      <c r="J28" s="15">
+      <c r="J29" s="15">
         <f t="shared" si="3"/>
         <v>42.339399999999998</v>
       </c>
-      <c r="K28" s="15">
+      <c r="K29" s="15">
         <f t="shared" si="3"/>
         <v>4129.1262000000006</v>
       </c>
-      <c r="L28" s="15">
+      <c r="L29" s="15">
         <f t="shared" si="3"/>
         <v>4531.8</v>
       </c>
-      <c r="M28" s="15">
+      <c r="M29" s="15">
         <f t="shared" si="3"/>
         <v>-33.988500000000002</v>
       </c>
-      <c r="N28" s="15">
+      <c r="N29" s="15">
         <f t="shared" si="3"/>
         <v>-15.861300000000002</v>
       </c>
-      <c r="O28" s="15">
+      <c r="O29" s="15">
         <f t="shared" si="3"/>
         <v>4481.9502000000002</v>
       </c>
-      <c r="R28" s="15">
-        <f>SUM(R3:R27)</f>
+      <c r="R29" s="15">
+        <f>SUM(R3:R28)</f>
         <v>3571.3034679999992</v>
       </c>
-      <c r="S28" s="16">
-        <f>SUM(S3:S27)/7</f>
+      <c r="S29" s="16">
+        <f>SUM(S3:S28)/7</f>
         <v>0.54861989434118641</v>
       </c>
-      <c r="T28" s="16">
-        <f>S28/4</f>
+      <c r="T29" s="16">
+        <f>S29/4</f>
         <v>0.1371549735852966</v>
       </c>
-      <c r="Y28">
-        <f ca="1">SUM(Y3:Y27)</f>
-        <v>2390</v>
-      </c>
-      <c r="Z28" s="59">
-        <f ca="1">SUM(Z3:Z27)</f>
-        <v>1.5641361256544504</v>
-      </c>
-      <c r="AA28" s="56">
-        <f ca="1">SUM(AA3:AA27)</f>
-        <v>4749.7151701570683</v>
-      </c>
-      <c r="AB28" s="3">
-        <f ca="1">R28/AA28</f>
-        <v>0.75189844865621691</v>
-      </c>
-      <c r="AC28" s="3">
-        <f ca="1">AB28/(X1/365)</f>
-        <v>0.17960924984261728</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="51"/>
-      <c r="U29">
+      <c r="Y29">
+        <f ca="1">SUM(Y3:Y28)</f>
+        <v>2397</v>
+      </c>
+      <c r="Z29" s="59">
+        <f ca="1">SUM(Z3:Z28)</f>
+        <v>1.5615635179153098</v>
+      </c>
+      <c r="AA29" s="56">
+        <f ca="1">SUM(AA3:AA28)</f>
+        <v>4751.2764429967428</v>
+      </c>
+      <c r="AB29" s="3">
+        <f ca="1">R29/AA29</f>
+        <v>0.75165137428785211</v>
+      </c>
+      <c r="AC29" s="3">
+        <f ca="1">AB29/(X1/365)</f>
+        <v>0.17873143427691596</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="51"/>
+      <c r="U30">
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="str">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31" s="39" t="str">
         <f>'Operacion 1'!B$3</f>
         <v>ABI.BR</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B31" s="8">
         <f>'Operacion 1'!B$2</f>
         <v>42234</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="14">
+      <c r="C31" s="8"/>
+      <c r="D31" s="14">
         <f>'Operacion 1'!B$5</f>
         <v>62</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E31" s="9">
         <f>'Operacion 1'!B$4</f>
         <v>89</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F31" s="9">
         <f>'Operacion 1'!B$6</f>
         <v>120</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G31" s="10">
         <f>'Operacion 1'!B$7</f>
         <v>0.348314606741573</v>
       </c>
-      <c r="H30" s="9">
-        <f>(E30*D30)</f>
+      <c r="H31" s="9">
+        <f>(E31*D31)</f>
         <v>5518</v>
       </c>
-      <c r="I30" s="9">
-        <f>IF((H30*0.005)&lt;20,20,(H30*0.005))</f>
+      <c r="I31" s="9">
+        <f>IF((H31*0.005)&lt;20,20,(H31*0.005))</f>
         <v>27.59</v>
       </c>
-      <c r="J30" s="9">
-        <f>SUM(H30:I30)*0.0027</f>
+      <c r="J31" s="9">
+        <f>SUM(H31:I31)*0.0027</f>
         <v>14.973093</v>
       </c>
-      <c r="K30" s="9">
-        <f>SUM(H30:J30)</f>
+      <c r="K31" s="9">
+        <f>SUM(H31:J31)</f>
         <v>5560.5630929999998</v>
       </c>
-      <c r="L30" s="9">
-        <f>D30*F30</f>
+      <c r="L31" s="9">
+        <f>D31*F31</f>
         <v>7440</v>
       </c>
-      <c r="M30" s="9">
-        <f>IF((L30*0.005)&lt;20,-20,-(L30*0.005))</f>
+      <c r="M31" s="9">
+        <f>IF((L31*0.005)&lt;20,-20,-(L31*0.005))</f>
         <v>-37.200000000000003</v>
       </c>
-      <c r="N30" s="9">
-        <f>-(SUM(L30:M30)*0.0027)</f>
+      <c r="N31" s="9">
+        <f>-(SUM(L31:M31)*0.0027)</f>
         <v>-19.987560000000002</v>
       </c>
-      <c r="O30" s="9">
-        <f>SUM(L30:N30)</f>
+      <c r="O31" s="9">
+        <f>SUM(L31:N31)</f>
         <v>7382.8124400000006</v>
       </c>
-      <c r="P30" s="9">
-        <f>I30-M30</f>
+      <c r="P31" s="9">
+        <f>I31-M31</f>
         <v>64.790000000000006</v>
       </c>
-      <c r="Q30" s="9">
-        <f>J30-N30</f>
+      <c r="Q31" s="9">
+        <f>J31-N31</f>
         <v>34.960653000000001</v>
       </c>
-      <c r="R30" s="9">
-        <f t="shared" ref="R30:R31" si="4">O30-K30</f>
+      <c r="R31" s="9">
+        <f t="shared" ref="R31:R32" si="4">O31-K31</f>
         <v>1822.2493470000009</v>
       </c>
-      <c r="S30" s="10">
-        <f>R30/K30</f>
+      <c r="S31" s="10">
+        <f>R31/K31</f>
         <v>0.32770949929404947</v>
       </c>
-      <c r="T30" t="s">
+      <c r="T31" t="s">
         <v>109</v>
       </c>
-      <c r="U30" t="s">
+      <c r="U31" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="str">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A32" s="39" t="str">
         <f>'Operacion 2'!B$3</f>
         <v>BMW.DE</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B32" s="8">
         <f>'Operacion 2'!B$2</f>
-        <v>42471</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="14">
+        <v>43605</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="14">
         <f>'Operacion 2'!B$5</f>
-        <v>60</v>
-      </c>
-      <c r="E31" s="9">
+        <v>62</v>
+      </c>
+      <c r="E32" s="9">
         <f>'Operacion 2'!B$4</f>
-        <v>66.97</v>
-      </c>
-      <c r="F31" s="9">
+        <v>65.23</v>
+      </c>
+      <c r="F32" s="9">
         <f>'Operacion 2'!B$6</f>
         <v>76.03</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G32" s="10">
         <f>'Operacion 2'!B$7</f>
-        <v>0.13528445572644476</v>
-      </c>
-      <c r="H31" s="9">
-        <f t="shared" ref="H31:H32" si="5">E31*D31</f>
-        <v>4018.2</v>
-      </c>
-      <c r="I31" s="9">
-        <f>IF((H31*(0.0075))&lt;30,30,(H31*(0.0075)))</f>
-        <v>30.136499999999998</v>
-      </c>
-      <c r="J31" s="9">
-        <f>H31*0.0035</f>
-        <v>14.063699999999999</v>
-      </c>
-      <c r="K31" s="9">
-        <f t="shared" ref="K31:K32" si="6">SUM(H31:J31)</f>
-        <v>4062.4002</v>
-      </c>
-      <c r="L31" s="9">
-        <f t="shared" ref="L31:L32" si="7">D31*F31</f>
-        <v>4561.8</v>
-      </c>
-      <c r="M31" s="9">
-        <f>IF((L31*(0.0075))&lt;30,-30,-(L31*(0.0075)))</f>
-        <v>-34.213500000000003</v>
-      </c>
-      <c r="N31" s="9">
-        <f>-(L31*0.0035)</f>
-        <v>-15.9663</v>
-      </c>
-      <c r="O31" s="9">
-        <f t="shared" ref="O31:O32" si="8">SUM(L31:N31)</f>
-        <v>4511.6202000000003</v>
-      </c>
-      <c r="P31" s="9">
-        <f t="shared" ref="P31:P32" si="9">I31-M31</f>
-        <v>64.349999999999994</v>
-      </c>
-      <c r="Q31" s="9">
-        <f t="shared" ref="Q31:Q32" si="10">J31-N31</f>
-        <v>30.03</v>
-      </c>
-      <c r="R31" s="9">
+        <v>0.16556799018856339</v>
+      </c>
+      <c r="H32" s="9">
+        <f t="shared" ref="H32:H33" si="5">E32*D32</f>
+        <v>4044.26</v>
+      </c>
+      <c r="I32" s="9">
+        <f>IF((H32*(0.0075))&lt;30,30,(H32*(0.0075)))</f>
+        <v>30.331949999999999</v>
+      </c>
+      <c r="J32" s="9">
+        <f>H32*0.0035</f>
+        <v>14.154910000000001</v>
+      </c>
+      <c r="K32" s="9">
+        <f t="shared" ref="K32:K33" si="6">SUM(H32:J32)</f>
+        <v>4088.7468600000002</v>
+      </c>
+      <c r="L32" s="9">
+        <f t="shared" ref="L32:L33" si="7">D32*F32</f>
+        <v>4713.8599999999997</v>
+      </c>
+      <c r="M32" s="9">
+        <f>IF((L32*(0.0075))&lt;30,-30,-(L32*(0.0075)))</f>
+        <v>-35.353949999999998</v>
+      </c>
+      <c r="N32" s="9">
+        <f>-(L32*0.0035)</f>
+        <v>-16.49851</v>
+      </c>
+      <c r="O32" s="9">
+        <f t="shared" ref="O32:O33" si="8">SUM(L32:N32)</f>
+        <v>4662.0075399999996</v>
+      </c>
+      <c r="P32" s="9">
+        <f t="shared" ref="P32:P33" si="9">I32-M32</f>
+        <v>65.685900000000004</v>
+      </c>
+      <c r="Q32" s="9">
+        <f t="shared" ref="Q32:Q33" si="10">J32-N32</f>
+        <v>30.653420000000001</v>
+      </c>
+      <c r="R32" s="9">
         <f t="shared" si="4"/>
-        <v>449.22000000000025</v>
-      </c>
-      <c r="S31" s="10">
-        <f t="shared" ref="S31" si="11">R31/K31</f>
-        <v>0.11057994729322834</v>
-      </c>
-      <c r="T31" t="s">
+        <v>573.26067999999941</v>
+      </c>
+      <c r="S32" s="10">
+        <f t="shared" ref="S32" si="11">R32/K32</f>
+        <v>0.14020449287486567</v>
+      </c>
+      <c r="T32" t="s">
         <v>108</v>
       </c>
-      <c r="U31" t="s">
+      <c r="U32" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="str">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A33" s="39" t="str">
         <f>'Operacion 3'!B3</f>
         <v>ITX.MC</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B33" s="8">
         <f>'Operacion 3'!B$2</f>
         <v>43154</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="14">
+      <c r="C33" s="8"/>
+      <c r="D33" s="14">
         <f>'Operacion 3'!B$5</f>
         <v>196</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E33" s="9">
         <f>'Operacion 3'!B$4</f>
         <v>25.98</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F33" s="9">
         <f>'Operacion 3'!B$6</f>
         <v>30.27</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G33" s="10">
         <f>'Operacion 3'!B$7</f>
         <v>0.16512702078521935</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H33" s="9">
         <f t="shared" si="5"/>
         <v>5092.08</v>
       </c>
-      <c r="I32" s="9">
-        <f>IF((H32*(0.0075+0.0008))&lt;30,30,(H32*(0.0075+0.0008)))</f>
+      <c r="I33" s="9">
+        <f>IF((H33*(0.0075+0.0008))&lt;30,30,(H33*(0.0075+0.0008)))</f>
         <v>42.264263999999997</v>
       </c>
-      <c r="J32" s="9">
-        <f>H32*0.0027</f>
+      <c r="J33" s="9">
+        <f>H33*0.0027</f>
         <v>13.748616</v>
       </c>
-      <c r="K32" s="9">
+      <c r="K33" s="9">
         <f t="shared" si="6"/>
         <v>5148.0928800000002</v>
       </c>
-      <c r="L32" s="9">
+      <c r="L33" s="9">
         <f t="shared" si="7"/>
         <v>5932.92</v>
       </c>
-      <c r="M32" s="9">
-        <f>IF((L32*(0.0075))&lt;30,-30,-(L32*(0.0075)))</f>
+      <c r="M33" s="9">
+        <f>IF((L33*(0.0075))&lt;30,-30,-(L33*(0.0075)))</f>
         <v>-44.496899999999997</v>
       </c>
-      <c r="N32" s="9">
-        <f>-(L32*0.0035)</f>
+      <c r="N33" s="9">
+        <f>-(L33*0.0035)</f>
         <v>-20.765219999999999</v>
       </c>
-      <c r="O32" s="9">
+      <c r="O33" s="9">
         <f t="shared" si="8"/>
         <v>5867.6578799999997</v>
       </c>
-      <c r="P32" s="9">
+      <c r="P33" s="9">
         <f t="shared" si="9"/>
         <v>86.761163999999994</v>
       </c>
-      <c r="Q32" s="9">
+      <c r="Q33" s="9">
         <f t="shared" si="10"/>
         <v>34.513835999999998</v>
       </c>
-      <c r="R32" s="9">
-        <f>O32-K32</f>
+      <c r="R33" s="9">
+        <f>O33-K33</f>
         <v>719.5649999999996</v>
       </c>
-      <c r="S32" s="10">
-        <f>R32/K32</f>
+      <c r="S33" s="10">
+        <f>R33/K33</f>
         <v>0.13977311924488814</v>
       </c>
-      <c r="T32" t="s">
+      <c r="T33" t="s">
         <v>58</v>
       </c>
-      <c r="U32" t="s">
+      <c r="U33" t="s">
         <v>111</v>
       </c>
-      <c r="AA32" s="56"/>
-    </row>
-    <row r="33" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="R33" s="56">
-        <f>R32+SUM(R19:R22)+R25</f>
+      <c r="AA33" s="56"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="R34" s="56">
+        <f>R33+SUM(R19:R22)+R25</f>
         <v>804.01499999999965</v>
       </c>
-      <c r="S33" s="10">
-        <f>R33/K32</f>
+      <c r="S34" s="10">
+        <f>R34/K33</f>
         <v>0.1561772521866388</v>
       </c>
     </row>
-    <row r="34" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="D34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="48"/>
-      <c r="R34" s="48"/>
-    </row>
-    <row r="35" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F35" s="5"/>
-      <c r="G35" s="48"/>
-      <c r="U35" t="s">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="R35" s="48"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="F36" s="5"/>
+      <c r="G36" s="48"/>
+      <c r="U36" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="T36" t="s">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="T37" t="s">
         <v>68</v>
       </c>
-      <c r="U36">
+      <c r="U37">
         <v>26.25</v>
       </c>
-      <c r="AA36" s="56"/>
-    </row>
-    <row r="37" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="T37" t="s">
+      <c r="AA37" s="56"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="T38" t="s">
         <v>66</v>
       </c>
-      <c r="U37">
+      <c r="U38">
         <v>30.27</v>
       </c>
-      <c r="W37" t="s">
+      <c r="W38" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
         <v>62</v>
       </c>
-      <c r="E38">
+      <c r="E39">
         <v>74.89</v>
       </c>
-      <c r="F38">
+      <c r="F39">
         <v>52</v>
-      </c>
-      <c r="G38" s="10">
-        <f>1-(F38/E38)</f>
-        <v>0.30564828415008682</v>
-      </c>
-      <c r="N38">
-        <v>6769.84</v>
-      </c>
-      <c r="O38">
-        <v>74.459999999999994</v>
-      </c>
-      <c r="P38" s="5">
-        <v>6695.38</v>
-      </c>
-      <c r="S38" s="10"/>
-      <c r="T38" t="s">
-        <v>67</v>
-      </c>
-      <c r="U38" s="3">
-        <f>(U37/U36)-1</f>
-        <v>0.15314285714285703</v>
-      </c>
-      <c r="V38" s="3"/>
-      <c r="W38" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39">
-        <v>182.08</v>
-      </c>
-      <c r="F39">
-        <v>126</v>
       </c>
       <c r="G39" s="10">
         <f>1-(F39/E39)</f>
-        <v>0.30799648506151145</v>
-      </c>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
+        <v>0.30564828415008682</v>
+      </c>
+      <c r="N39">
+        <v>6769.84</v>
+      </c>
+      <c r="O39">
+        <v>74.459999999999994</v>
+      </c>
       <c r="P39" s="5">
-        <f>P38-K32</f>
-        <v>1547.28712</v>
-      </c>
-      <c r="R39" s="5"/>
-    </row>
-    <row r="40" spans="3:27" x14ac:dyDescent="0.25">
+        <v>6695.38</v>
+      </c>
+      <c r="S39" s="10"/>
+      <c r="T39" t="s">
+        <v>67</v>
+      </c>
+      <c r="U39" s="3">
+        <f>(U38/U37)-1</f>
+        <v>0.15314285714285703</v>
+      </c>
+      <c r="V39" s="3"/>
+      <c r="W39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E40">
-        <v>93.54</v>
+        <v>182.08</v>
       </c>
       <c r="F40">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="G40" s="10">
         <f>1-(F40/E40)</f>
-        <v>0.30511011332050464</v>
-      </c>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
+        <v>0.30799648506151145</v>
+      </c>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
       <c r="K40" s="5"/>
-      <c r="P40" s="56">
-        <f>P39*0.1</f>
-        <v>154.728712</v>
-      </c>
-    </row>
-    <row r="41" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>107</v>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5">
+        <f>P39-K33</f>
+        <v>1547.28712</v>
+      </c>
+      <c r="R40" s="5"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>63</v>
       </c>
       <c r="E41">
-        <v>20</v>
+        <v>93.54</v>
       </c>
       <c r="F41">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="G41" s="10">
         <f>1-(F41/E41)</f>
+        <v>0.30511011332050464</v>
+      </c>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="5"/>
+      <c r="P41" s="56">
+        <f>P40*0.1</f>
+        <v>154.728712</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42">
+        <v>20</v>
+      </c>
+      <c r="F42">
+        <v>14</v>
+      </c>
+      <c r="G42" s="10">
+        <f>1-(F42/E42)</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="P41" s="56">
-        <f>P39-P40</f>
+      <c r="P42" s="56">
+        <f>P40-P41</f>
         <v>1392.5584079999999</v>
       </c>
-      <c r="R41" s="43"/>
-    </row>
-    <row r="42" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F42" s="5"/>
-      <c r="R42" s="9"/>
-      <c r="S42">
+      <c r="R42" s="43"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="F43" s="5"/>
+      <c r="R43" s="9"/>
+      <c r="S43">
         <f>(0.00242*12)</f>
         <v>2.9039999999999996E-2</v>
       </c>
     </row>
-    <row r="43" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="O43" s="9"/>
-      <c r="R43" s="45"/>
-      <c r="S43">
-        <f>4700*S42</f>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O44" s="9"/>
+      <c r="R44" s="45"/>
+      <c r="S44">
+        <f>4700*S43</f>
         <v>136.48799999999997</v>
       </c>
     </row>
-    <row r="44" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="P44" s="3"/>
-      <c r="R44" s="50" t="s">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P45" s="3"/>
+      <c r="R45" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="S44" s="48" t="s">
+      <c r="S45" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="T44" s="5"/>
-    </row>
-    <row r="45" spans="3:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F45" s="5"/>
-      <c r="Q45" t="s">
-        <v>116</v>
-      </c>
-      <c r="R45" s="57" t="s">
-        <v>148</v>
-      </c>
-      <c r="S45" s="49"/>
       <c r="T45" s="5"/>
     </row>
-    <row r="46" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="E46" s="5"/>
+    <row r="46" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F46" s="5"/>
       <c r="Q46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R46" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="S46" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" spans="3:27" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="S46" s="49"/>
+      <c r="T46" s="5"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="J47" t="s">
+      <c r="Q47" t="s">
+        <v>117</v>
+      </c>
+      <c r="R47" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="S47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="J48" t="s">
         <v>122</v>
       </c>
-      <c r="R47" s="5"/>
-      <c r="S47" t="s">
+      <c r="R48" s="5"/>
+      <c r="S48" t="s">
         <v>135</v>
       </c>
-      <c r="T47" s="5"/>
-    </row>
-    <row r="48" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J48" s="58">
+      <c r="T48" s="5"/>
+    </row>
+    <row r="49" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J49" s="58">
         <v>43587</v>
       </c>
-      <c r="R48" s="43"/>
-    </row>
-    <row r="49" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J49" t="s">
-        <v>123</v>
-      </c>
-      <c r="R49" s="44"/>
+      <c r="R49" s="43"/>
     </row>
     <row r="50" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J50" t="s">
+        <v>123</v>
+      </c>
+      <c r="R50" s="44"/>
+    </row>
+    <row r="51" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J51" t="s">
         <v>124</v>
       </c>
-      <c r="L50" t="s">
+      <c r="L51" t="s">
         <v>147</v>
       </c>
-      <c r="R50" s="57"/>
-      <c r="S50">
+      <c r="R51" s="57"/>
+      <c r="S51">
         <f>5000/12</f>
         <v>416.66666666666669</v>
       </c>
     </row>
-    <row r="51" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J51" t="s">
-        <v>125</v>
-      </c>
-      <c r="S51">
-        <f>2.2/S50</f>
-        <v>5.28E-3</v>
-      </c>
-    </row>
     <row r="52" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S52">
-        <f>100*S51</f>
-        <v>0.52800000000000002</v>
+        <f>2.2/S51</f>
+        <v>5.28E-3</v>
       </c>
     </row>
     <row r="53" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J53" t="s">
+        <v>126</v>
+      </c>
+      <c r="S53">
+        <f>100*S52</f>
+        <v>0.52800000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J54" t="s">
         <v>127</v>
       </c>
-      <c r="S53">
+      <c r="S54">
         <f>2.2*12</f>
         <v>26.400000000000002</v>
       </c>
     </row>
-    <row r="54" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J54" t="s">
-        <v>128</v>
-      </c>
-    </row>
     <row r="55" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J55" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J56" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J57" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J60" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J61" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4336,10 +4369,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92FD1EA0-B43D-4A2A-807D-31E3E3AB62CB}">
-  <dimension ref="A1:AD78"/>
+  <dimension ref="A1:AD102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4369,50 +4402,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="76" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="85" t="s">
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="89" t="s">
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="91"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="82"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="F2" s="74" t="s">
+      <c r="F2" s="65" t="s">
         <v>158</v>
       </c>
       <c r="G2" s="60" t="s">
@@ -4427,7 +4460,7 @@
       <c r="J2" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="K2" s="86" t="s">
+      <c r="K2" s="77" t="s">
         <v>158</v>
       </c>
       <c r="L2" s="61" t="s">
@@ -4436,10 +4469,10 @@
       <c r="M2" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="N2" s="88" t="s">
+      <c r="N2" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="O2" s="92" t="s">
+      <c r="O2" s="83" t="s">
         <v>152</v>
       </c>
       <c r="P2" s="62" t="s">
@@ -4448,2230 +4481,3138 @@
       <c r="Q2" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="R2" s="93" t="s">
+      <c r="R2" s="84" t="s">
         <v>155</v>
       </c>
-      <c r="S2" s="72"/>
+      <c r="S2" s="63"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="95">
+      <c r="C3" s="86">
         <v>5600</v>
       </c>
-      <c r="D3" s="84">
+      <c r="D3" s="75">
         <f>C3-E3</f>
         <v>39.511400000000322</v>
       </c>
-      <c r="E3" s="84">
+      <c r="E3" s="75">
         <f>I3-J3</f>
         <v>5560.4885999999997</v>
       </c>
-      <c r="F3" s="99">
+      <c r="F3" s="90">
         <v>42209</v>
       </c>
-      <c r="G3" s="95">
+      <c r="G3" s="86">
         <v>89</v>
       </c>
-      <c r="H3" s="96">
+      <c r="H3" s="87">
         <f>TRUNC(C3/G3)</f>
         <v>62</v>
       </c>
-      <c r="I3" s="84">
+      <c r="I3" s="75">
         <f>(G3*H3)</f>
         <v>5518</v>
       </c>
-      <c r="J3" s="84">
+      <c r="J3" s="75">
         <f>-(IF((I3*0.005)&lt;20,20,(I3*0.005))+(I3*0.0027))</f>
         <v>-42.488599999999998</v>
       </c>
-      <c r="K3" s="99"/>
-      <c r="L3" s="95">
+      <c r="K3" s="90"/>
+      <c r="L3" s="86">
         <v>120</v>
       </c>
-      <c r="M3" s="84">
+      <c r="M3" s="75">
         <f>(H3*L3)</f>
         <v>7440</v>
       </c>
-      <c r="N3" s="84">
+      <c r="N3" s="75">
         <f>-(IF((M3*0.005)&lt;20,20,(M3*0.005)) + (M3*0.0027))</f>
         <v>-57.288000000000004</v>
       </c>
-      <c r="O3" s="97">
+      <c r="O3" s="88">
         <f>J3+N3</f>
         <v>-99.776600000000002</v>
       </c>
-      <c r="P3" s="106">
+      <c r="P3" s="97">
         <f>M3-I3+N3</f>
         <v>1864.712</v>
       </c>
-      <c r="Q3" s="107">
+      <c r="Q3" s="98">
         <f>P3/E3</f>
         <v>0.33535038629518998</v>
       </c>
-      <c r="R3" s="109"/>
+      <c r="R3" s="100"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="85" t="s">
         <v>161</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="95">
-        <v>4050</v>
-      </c>
-      <c r="D4" s="84">
+      <c r="C4" s="86">
+        <v>4090</v>
+      </c>
+      <c r="D4" s="75">
         <f t="shared" ref="D4:D5" si="0">C4-E4</f>
-        <v>-26.210460000000239</v>
-      </c>
-      <c r="E4" s="84">
+        <v>1.253139999999803</v>
+      </c>
+      <c r="E4" s="75">
         <f>I4-J4</f>
-        <v>4076.2104600000002</v>
-      </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="95">
-        <v>65.03</v>
-      </c>
-      <c r="H4" s="96">
+        <v>4088.7468600000002</v>
+      </c>
+      <c r="F4" s="91">
+        <v>43605</v>
+      </c>
+      <c r="G4" s="86">
+        <v>65.23</v>
+      </c>
+      <c r="H4" s="87">
         <f>TRUNC(C4/G4)</f>
         <v>62</v>
       </c>
-      <c r="I4" s="84">
+      <c r="I4" s="75">
         <f>(G4*H4)</f>
-        <v>4031.86</v>
-      </c>
-      <c r="J4" s="84">
+        <v>4044.26</v>
+      </c>
+      <c r="J4" s="75">
         <f>-(IF((I4*0.0075)&lt;30,30,(I4*0.0075))+(I4*0.0035))</f>
-        <v>-44.350459999999998</v>
-      </c>
-      <c r="K4" s="100"/>
-      <c r="L4" s="95">
-        <v>73.069999999999993</v>
-      </c>
-      <c r="M4" s="84">
+        <v>-44.48686</v>
+      </c>
+      <c r="K4" s="91"/>
+      <c r="L4" s="86">
+        <v>73.97</v>
+      </c>
+      <c r="M4" s="75">
         <f>(H4*L4)</f>
-        <v>4530.3399999999992</v>
-      </c>
-      <c r="N4" s="84">
+        <v>4586.1400000000003</v>
+      </c>
+      <c r="N4" s="75">
         <f>-(IF((M4*0.0075)&lt;30,30,(M4*0.0075)) + (M4*0.0035))</f>
-        <v>-49.833739999999992</v>
-      </c>
-      <c r="O4" s="98">
+        <v>-50.447540000000004</v>
+      </c>
+      <c r="O4" s="89">
         <f>J4+N4</f>
-        <v>-94.18419999999999</v>
-      </c>
-      <c r="P4" s="102">
+        <v>-94.934400000000011</v>
+      </c>
+      <c r="P4" s="93">
         <f>M4-E4+N4</f>
-        <v>404.29579999999902</v>
-      </c>
-      <c r="Q4" s="108">
+        <v>446.94560000000013</v>
+      </c>
+      <c r="Q4" s="99">
         <f>P4/E4</f>
-        <v>9.9184231032074577E-2</v>
-      </c>
-      <c r="R4" s="110"/>
+        <v>0.109311144784346</v>
+      </c>
+      <c r="R4" s="101"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="85" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="95">
+      <c r="C5" s="86">
         <v>5100</v>
       </c>
-      <c r="D5" s="84">
+      <c r="D5" s="75">
         <f t="shared" si="0"/>
         <v>-48.09288000000015</v>
       </c>
-      <c r="E5" s="84">
+      <c r="E5" s="75">
         <f>I5-J5</f>
         <v>5148.0928800000002</v>
       </c>
-      <c r="F5" s="100">
+      <c r="F5" s="91">
         <v>43154</v>
       </c>
-      <c r="G5" s="95">
+      <c r="G5" s="86">
         <v>25.98</v>
       </c>
-      <c r="H5" s="96">
+      <c r="H5" s="87">
         <f>TRUNC(C5/G5)</f>
         <v>196</v>
       </c>
-      <c r="I5" s="84">
+      <c r="I5" s="75">
         <f>(G5*H5)</f>
         <v>5092.08</v>
       </c>
-      <c r="J5" s="84">
+      <c r="J5" s="75">
         <f>-(IF((I5*0.0075)&lt;30,30,(I5*0.0075))+(I5*0.0035))</f>
         <v>-56.012879999999996</v>
       </c>
-      <c r="K5" s="100"/>
-      <c r="L5" s="95">
+      <c r="K5" s="91"/>
+      <c r="L5" s="86">
         <v>30.27</v>
       </c>
-      <c r="M5" s="84">
+      <c r="M5" s="75">
         <f>(H5*L5)</f>
         <v>5932.92</v>
       </c>
-      <c r="N5" s="84">
+      <c r="N5" s="75">
         <f>-(IF((M5*0.0075)&lt;30,30,(M5*0.0075)) + (M5*0.0035))</f>
         <v>-65.262119999999996</v>
       </c>
-      <c r="O5" s="98">
+      <c r="O5" s="89">
         <f>J5+N5</f>
         <v>-121.27499999999999</v>
       </c>
-      <c r="P5" s="102">
+      <c r="P5" s="93">
         <f>M5-E5+N5</f>
         <v>719.56499999999994</v>
       </c>
-      <c r="Q5" s="108">
+      <c r="Q5" s="99">
         <f>P5/E5</f>
         <v>0.13977311924488819</v>
       </c>
-      <c r="R5" s="110"/>
+      <c r="R5" s="101"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="94"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="98"/>
-      <c r="P6" s="102"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="110"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="99"/>
+      <c r="R6" s="101"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="94"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="110"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="101"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="94"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="98"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="110"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="99"/>
+      <c r="R8" s="101"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="122"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="123"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="123"/>
-      <c r="M9" s="124"/>
-      <c r="N9" s="124"/>
-      <c r="O9" s="129"/>
-      <c r="P9" s="124"/>
-      <c r="Q9" s="130"/>
-      <c r="R9" s="131"/>
+      <c r="A9" s="111"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="113"/>
+      <c r="N9" s="113"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="113"/>
+      <c r="Q9" s="119"/>
+      <c r="R9" s="120"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="121"/>
-      <c r="B10" s="120"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120"/>
-      <c r="P10" s="120"/>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="120"/>
+      <c r="A10" s="135"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="136"/>
+      <c r="K10" s="136"/>
+      <c r="L10" s="136"/>
+      <c r="M10" s="136"/>
+      <c r="N10" s="136"/>
+      <c r="O10" s="136"/>
+      <c r="P10" s="136"/>
+      <c r="Q10" s="136"/>
+      <c r="R10" s="136"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="132" t="s">
+      <c r="A11" s="133" t="s">
         <v>163</v>
       </c>
-      <c r="B11" s="133"/>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="133"/>
-      <c r="K11" s="133"/>
-      <c r="L11" s="133"/>
-      <c r="M11" s="133"/>
-      <c r="N11" s="133"/>
-      <c r="O11" s="133"/>
-      <c r="P11" s="133"/>
-      <c r="Q11" s="133"/>
-      <c r="R11" s="133"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="134"/>
+      <c r="K11" s="134"/>
+      <c r="L11" s="134"/>
+      <c r="M11" s="134"/>
+      <c r="N11" s="134"/>
+      <c r="O11" s="134"/>
+      <c r="P11" s="134"/>
+      <c r="Q11" s="134"/>
+      <c r="R11" s="134"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="102" t="s">
         <v>149</v>
       </c>
-      <c r="B12" s="111" t="s">
+      <c r="B12" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="111" t="s">
+      <c r="C12" s="102" t="s">
         <v>160</v>
       </c>
-      <c r="D12" s="111" t="s">
+      <c r="D12" s="102" t="s">
         <v>162</v>
       </c>
-      <c r="E12" s="111" t="s">
+      <c r="E12" s="102" t="s">
         <v>156</v>
       </c>
-      <c r="F12" s="112" t="s">
+      <c r="F12" s="103" t="s">
         <v>158</v>
       </c>
-      <c r="G12" s="113" t="s">
+      <c r="G12" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="H12" s="113" t="s">
+      <c r="H12" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="113" t="s">
+      <c r="I12" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="J12" s="113" t="s">
+      <c r="J12" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="K12" s="114" t="s">
+      <c r="K12" s="105" t="s">
         <v>158</v>
       </c>
-      <c r="L12" s="115" t="s">
+      <c r="L12" s="106" t="s">
         <v>150</v>
       </c>
-      <c r="M12" s="115" t="s">
+      <c r="M12" s="106" t="s">
         <v>151</v>
       </c>
-      <c r="N12" s="116" t="s">
+      <c r="N12" s="107" t="s">
         <v>152</v>
       </c>
-      <c r="O12" s="117" t="s">
+      <c r="O12" s="108" t="s">
         <v>152</v>
       </c>
-      <c r="P12" s="118" t="s">
+      <c r="P12" s="109" t="s">
         <v>153</v>
       </c>
-      <c r="Q12" s="118" t="s">
+      <c r="Q12" s="109" t="s">
         <v>154</v>
       </c>
-      <c r="R12" s="119" t="s">
+      <c r="R12" s="110" t="s">
         <v>155</v>
       </c>
-      <c r="S12" s="72"/>
+      <c r="S12" s="63"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="95">
+      <c r="C13" s="86">
         <v>4000</v>
       </c>
-      <c r="D13" s="84">
+      <c r="D13" s="75">
         <f>C13-E13</f>
         <v>-19.268950000000132</v>
       </c>
-      <c r="E13" s="84">
+      <c r="E13" s="121">
         <f>I13-J13</f>
         <v>4019.2689500000001</v>
       </c>
       <c r="F13" s="8">
         <v>42074</v>
       </c>
-      <c r="G13" s="95">
+      <c r="G13" s="86">
         <v>26.59</v>
       </c>
-      <c r="H13" s="96">
+      <c r="H13" s="87">
         <f>TRUNC(C13/G13)</f>
         <v>150</v>
       </c>
-      <c r="I13" s="84">
+      <c r="I13" s="75">
         <f>(G13*H13)</f>
         <v>3988.5</v>
       </c>
-      <c r="J13" s="84">
+      <c r="J13" s="75">
         <f>-(IF((I13*0.005)&lt;20,20,(I13*0.005))+(I13*0.0027))</f>
         <v>-30.76895</v>
       </c>
-      <c r="K13" s="99">
+      <c r="K13" s="90">
         <v>42136</v>
       </c>
-      <c r="L13" s="95">
+      <c r="L13" s="86">
         <v>25.261599999999998</v>
       </c>
-      <c r="M13" s="84">
+      <c r="M13" s="75">
         <f>(H13*L13)</f>
         <v>3789.24</v>
       </c>
-      <c r="N13" s="84">
+      <c r="N13" s="75">
         <f>-(IF((M13*0.005)&lt;20,20,(M13*0.005)) + (M13*0.0027))</f>
         <v>-30.230947999999998</v>
       </c>
-      <c r="O13" s="97">
+      <c r="O13" s="88">
         <v>-61.54</v>
       </c>
-      <c r="P13" s="106">
+      <c r="P13" s="97">
         <v>-334.54</v>
       </c>
-      <c r="Q13" s="107">
+      <c r="Q13" s="98">
         <v>-6.54E-2</v>
       </c>
-      <c r="R13" s="109" t="s">
+      <c r="R13" s="100" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="85" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="85" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="86"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="96">
+        <v>4019.2689500000001</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="93">
+        <v>73.47</v>
+      </c>
+      <c r="Q14" s="99">
+        <f>P14/E14</f>
+        <v>1.8279443578912528E-2</v>
+      </c>
+      <c r="R14" s="101" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="85" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="86"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="8">
+        <v>42143</v>
+      </c>
+      <c r="G15" s="86">
+        <v>39.229999999999997</v>
+      </c>
+      <c r="H15" s="87">
+        <v>102</v>
+      </c>
+      <c r="I15" s="75">
+        <v>4001.4599999999996</v>
+      </c>
+      <c r="J15" s="75"/>
+      <c r="K15" s="91">
+        <v>42198</v>
+      </c>
+      <c r="L15" s="86">
+        <v>40</v>
+      </c>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="99">
+        <v>4.2278358399185385E-3</v>
+      </c>
+      <c r="R15" s="101" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="85" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="86"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="8">
+        <v>42209</v>
+      </c>
+      <c r="G16" s="86">
+        <v>7.9</v>
+      </c>
+      <c r="H16" s="87">
+        <v>507</v>
+      </c>
+      <c r="I16" s="75">
+        <v>4005.3</v>
+      </c>
+      <c r="J16" s="75"/>
+      <c r="K16" s="91">
+        <v>42223</v>
+      </c>
+      <c r="L16" s="86">
+        <v>8.82</v>
+      </c>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="89">
+        <v>-61.68</v>
+      </c>
+      <c r="P16" s="93">
+        <v>404.75837999999931</v>
+      </c>
+      <c r="Q16" s="99">
+        <v>0.10105569620253146</v>
+      </c>
+      <c r="R16" s="101" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="85"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="93">
+        <v>0.12</v>
+      </c>
+      <c r="Q17" s="99"/>
+      <c r="R17" s="101" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="85"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="75">
+        <v>4389.6000000000004</v>
+      </c>
+      <c r="J18" s="75"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="89"/>
+      <c r="P18" s="93">
+        <v>-27.23</v>
+      </c>
+      <c r="Q18" s="99"/>
+      <c r="R18" s="101" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="P14">
-        <v>73.47</v>
-      </c>
-      <c r="Q14" s="108">
-        <f>P14/E13</f>
-        <v>1.8279443578912528E-2</v>
-      </c>
-      <c r="R14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="Q15" s="108"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="Q16" s="108"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="Q17" s="108"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="G19" s="56"/>
-      <c r="I19" s="69" t="s">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="85" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="86">
+        <v>4400</v>
+      </c>
+      <c r="D19" s="75">
+        <f>C19-E19</f>
+        <v>-23.399920000000748</v>
+      </c>
+      <c r="E19" s="75">
+        <f>I19-J19</f>
+        <v>4423.3999200000007</v>
+      </c>
+      <c r="F19" s="91">
+        <v>42234</v>
+      </c>
+      <c r="G19" s="86">
+        <v>23.6</v>
+      </c>
+      <c r="H19" s="87">
+        <f>TRUNC(C19/G19)</f>
+        <v>186</v>
+      </c>
+      <c r="I19" s="75">
+        <f>(G19*H19)</f>
+        <v>4389.6000000000004</v>
+      </c>
+      <c r="J19" s="75">
+        <f>-(IF((I19*0.005)&lt;20,20,(I19*0.005))+(I19*0.0027))</f>
+        <v>-33.799920000000007</v>
+      </c>
+      <c r="K19" s="91">
+        <v>43103</v>
+      </c>
+      <c r="L19" s="86">
+        <v>28.52</v>
+      </c>
+      <c r="M19" s="75">
+        <f>(H19*L19)</f>
+        <v>5304.72</v>
+      </c>
+      <c r="N19" s="75">
+        <f>-(IF((M19*0.005)&lt;20,20,(M19*0.005)) + (M19*0.0027))</f>
+        <v>-40.846344000000002</v>
+      </c>
+      <c r="O19" s="89">
+        <f>J19+N19</f>
+        <v>-74.646264000000002</v>
+      </c>
+      <c r="P19" s="93">
+        <v>840.47373599999992</v>
+      </c>
+      <c r="Q19" s="99">
+        <v>0.19146932203389827</v>
+      </c>
+      <c r="R19" s="101" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="85" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="86"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75">
+        <v>4423.3999200000007</v>
+      </c>
+      <c r="F20" s="91"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="89"/>
+      <c r="P20" s="93">
+        <v>188.26</v>
+      </c>
+      <c r="Q20" s="99">
+        <f>P20/E20</f>
+        <v>4.2560022472487621E-2</v>
+      </c>
+      <c r="R20" s="101" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="85"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="89"/>
+      <c r="P21" s="93">
+        <v>-0.08</v>
+      </c>
+      <c r="Q21" s="99"/>
+      <c r="R21" s="101" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="85"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="89"/>
+      <c r="P22" s="93">
+        <v>-24.2</v>
+      </c>
+      <c r="Q22" s="99"/>
+      <c r="R22" s="101" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="85" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="86"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="96">
+        <v>4423.3999200000007</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="89"/>
+      <c r="P23" s="93">
+        <v>27</v>
+      </c>
+      <c r="Q23" s="99">
+        <f>P23/E23</f>
+        <v>6.1039020862486242E-3</v>
+      </c>
+      <c r="R23" s="101" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="85" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="86">
+        <v>600</v>
+      </c>
+      <c r="D24" s="75">
+        <f>C24-E24</f>
+        <v>-7.9632259999999633</v>
+      </c>
+      <c r="E24" s="75">
+        <f>I24-J24</f>
+        <v>607.96322599999996</v>
+      </c>
+      <c r="F24" s="91">
+        <v>43154</v>
+      </c>
+      <c r="G24" s="86">
+        <v>20.22</v>
+      </c>
+      <c r="H24" s="87">
+        <f>TRUNC(C24/G24)</f>
+        <v>29</v>
+      </c>
+      <c r="I24" s="75">
+        <f>(G24*H24)</f>
+        <v>586.38</v>
+      </c>
+      <c r="J24" s="75">
+        <f>-(IF((I24*0.005)&lt;20,20,(I24*0.005))+(I24*0.0027))</f>
+        <v>-21.583226</v>
+      </c>
+      <c r="K24" s="91">
+        <v>43442</v>
+      </c>
+      <c r="L24" s="86">
+        <v>26.49</v>
+      </c>
+      <c r="M24" s="75">
+        <f>(H24*L24)</f>
+        <v>768.20999999999992</v>
+      </c>
+      <c r="N24" s="75">
+        <f>-(IF((M24*0.005)&lt;20,20,(M24*0.005)) + (M24*0.0027))</f>
+        <v>-22.074166999999999</v>
+      </c>
+      <c r="O24" s="89">
+        <f>J24+N24</f>
+        <v>-43.657392999999999</v>
+      </c>
+      <c r="P24" s="93">
+        <f>M24-E24+N24</f>
+        <v>138.17260699999997</v>
+      </c>
+      <c r="Q24" s="99">
+        <f>P24/E24</f>
+        <v>0.22727132347968687</v>
+      </c>
+      <c r="R24" s="101" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="85"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="89"/>
+      <c r="P25" s="93">
+        <v>-30.78</v>
+      </c>
+      <c r="Q25" s="99"/>
+      <c r="R25" s="101" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="85"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="91"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="89"/>
+      <c r="P26" s="93">
+        <v>-12.1</v>
+      </c>
+      <c r="Q26" s="99"/>
+      <c r="R26" s="101" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" s="85" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="86">
+        <v>5100</v>
+      </c>
+      <c r="D27" s="75">
+        <f t="shared" ref="D27" si="1">C27-E27</f>
+        <v>-48.09288000000015</v>
+      </c>
+      <c r="E27" s="75">
+        <f>I27-J27</f>
+        <v>5148.0928800000002</v>
+      </c>
+      <c r="F27" s="91">
+        <v>43154</v>
+      </c>
+      <c r="G27" s="86">
+        <v>25.98</v>
+      </c>
+      <c r="H27" s="87">
+        <f>TRUNC(C27/G27)</f>
+        <v>196</v>
+      </c>
+      <c r="I27" s="75">
+        <f>(G27*H27)</f>
+        <v>5092.08</v>
+      </c>
+      <c r="J27" s="75">
+        <f>-(IF((I27*0.0075)&lt;30,30,(I27*0.0075))+(I27*0.0035))</f>
+        <v>-56.012879999999996</v>
+      </c>
+      <c r="K27" s="123">
+        <f ca="1">TODAY()</f>
+        <v>43609</v>
+      </c>
+      <c r="L27" s="122">
+        <v>25.2</v>
+      </c>
+      <c r="M27" s="75">
+        <f>(H27*L27)</f>
+        <v>4939.2</v>
+      </c>
+      <c r="N27" s="75">
+        <f>-(IF((M27*0.0075)&lt;30,30,(M27*0.0075)) + (M27*0.0035))</f>
+        <v>-54.331199999999995</v>
+      </c>
+      <c r="O27" s="89">
+        <f>J27+N27</f>
+        <v>-110.34407999999999</v>
+      </c>
+      <c r="P27" s="93">
+        <f ca="1">IF(K27=0,0,M27-E27+N27)</f>
+        <v>-263.2240800000003</v>
+      </c>
+      <c r="Q27" s="99">
+        <f ca="1">P27/E27</f>
+        <v>-5.1130406178685785E-2</v>
+      </c>
+      <c r="R27" s="101" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" s="85" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="86"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="96">
+        <v>5148.0928800000002</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="91">
+        <v>43222</v>
+      </c>
+      <c r="L28" s="86">
+        <v>73.5</v>
+      </c>
+      <c r="M28" s="75"/>
+      <c r="N28" s="75">
+        <v>-34.86</v>
+      </c>
+      <c r="O28" s="89"/>
+      <c r="P28" s="93">
+        <f>L28+N28</f>
+        <v>38.64</v>
+      </c>
+      <c r="Q28" s="99">
+        <f>P28/E28</f>
+        <v>7.5056920884457702E-3</v>
+      </c>
+      <c r="R28" s="101" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" s="85" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="86"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="96">
+        <v>5148.0928800000002</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="91">
+        <v>43406</v>
+      </c>
+      <c r="L29" s="86">
+        <v>73.5</v>
+      </c>
+      <c r="M29" s="75"/>
+      <c r="N29" s="75">
+        <v>-37.880000000000003</v>
+      </c>
+      <c r="O29" s="89"/>
+      <c r="P29" s="93">
+        <f>L29+N29</f>
+        <v>35.619999999999997</v>
+      </c>
+      <c r="Q29" s="99">
+        <f>P29/E29</f>
+        <v>6.9190670856738691E-3</v>
+      </c>
+      <c r="R29" s="101" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" s="85"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="89"/>
+      <c r="P30" s="93">
+        <v>-25.87</v>
+      </c>
+      <c r="Q30" s="99"/>
+      <c r="R30" s="101" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="85"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="75"/>
+      <c r="K31" s="91"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="75"/>
+      <c r="N31" s="75"/>
+      <c r="O31" s="89"/>
+      <c r="P31" s="93">
+        <f>-2.18-2.26-3.09-2.27</f>
+        <v>-9.7999999999999989</v>
+      </c>
+      <c r="Q31" s="99"/>
+      <c r="R31" s="101" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" s="85" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="86">
+        <v>4090</v>
+      </c>
+      <c r="D32" s="75">
+        <f t="shared" ref="D32" si="2">C32-E32</f>
+        <v>-39.126199999999699</v>
+      </c>
+      <c r="E32" s="75">
+        <f>I32-J32</f>
+        <v>4129.1261999999997</v>
+      </c>
+      <c r="F32" s="91">
+        <v>43545</v>
+      </c>
+      <c r="G32" s="86">
+        <v>68.069999999999993</v>
+      </c>
+      <c r="H32" s="87">
+        <f>TRUNC(C32/G32)</f>
+        <v>60</v>
+      </c>
+      <c r="I32" s="75">
+        <f>(G32*H32)</f>
+        <v>4084.2</v>
+      </c>
+      <c r="J32" s="75">
+        <f>-(IF((I32*0.0075)&lt;30,30,(I32*0.0075))+(I32*0.0035))</f>
+        <v>-44.926199999999994</v>
+      </c>
+      <c r="K32" s="91">
+        <v>43567</v>
+      </c>
+      <c r="L32" s="86">
+        <v>75.53</v>
+      </c>
+      <c r="M32" s="75">
+        <f>(H32*L32)</f>
+        <v>4531.8</v>
+      </c>
+      <c r="N32" s="75">
+        <f>-(IF((M32*0.0075)&lt;30,30,(M32*0.0075)) + (M32*0.0035))</f>
+        <v>-49.849800000000002</v>
+      </c>
+      <c r="O32" s="89">
+        <f>J32+N32</f>
+        <v>-94.775999999999996</v>
+      </c>
+      <c r="P32" s="93">
+        <f>M32-E32+N32</f>
+        <v>352.82400000000047</v>
+      </c>
+      <c r="Q32" s="99">
+        <f>P32/E32</f>
+        <v>8.5447618433168865E-2</v>
+      </c>
+      <c r="R32" s="101" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A33" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33" s="85" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="86"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="96">
+        <v>5148.0928800000002</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="91">
+        <v>43587</v>
+      </c>
+      <c r="L33" s="86">
+        <v>86.24</v>
+      </c>
+      <c r="M33" s="75"/>
+      <c r="N33" s="75">
+        <v>-34.86</v>
+      </c>
+      <c r="O33" s="89"/>
+      <c r="P33" s="93">
+        <f>L33+N33</f>
+        <v>51.379999999999995</v>
+      </c>
+      <c r="Q33" s="99">
+        <f>P33/E33</f>
+        <v>9.9803949147086856E-3</v>
+      </c>
+      <c r="R33" s="101" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A34" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="B34" s="85" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="86">
+        <v>4090</v>
+      </c>
+      <c r="D34" s="75">
+        <f t="shared" ref="D34" si="3">C34-E34</f>
+        <v>1.253139999999803</v>
+      </c>
+      <c r="E34" s="75">
+        <f>I34-J34</f>
+        <v>4088.7468600000002</v>
+      </c>
+      <c r="F34" s="91">
+        <v>43605</v>
+      </c>
+      <c r="G34" s="86">
+        <v>65.23</v>
+      </c>
+      <c r="H34" s="87">
+        <f>TRUNC(C34/G34)</f>
+        <v>62</v>
+      </c>
+      <c r="I34" s="75">
+        <f>(G34*H34)</f>
+        <v>4044.26</v>
+      </c>
+      <c r="J34" s="75">
+        <f>-(IF((I34*0.0075)&lt;30,30,(I34*0.0075))+(I34*0.0035))</f>
+        <v>-44.48686</v>
+      </c>
+      <c r="K34" s="123">
+        <f ca="1">TODAY()</f>
+        <v>43609</v>
+      </c>
+      <c r="L34" s="122">
+        <v>64</v>
+      </c>
+      <c r="M34" s="75">
+        <f>(H34*L34)</f>
+        <v>3968</v>
+      </c>
+      <c r="N34" s="75">
+        <f>-(IF((M34*0.0075)&lt;30,30,(M34*0.0075)) + (M34*0.0035))</f>
+        <v>-43.887999999999998</v>
+      </c>
+      <c r="O34" s="89">
+        <f>J34+N34</f>
+        <v>-88.374859999999998</v>
+      </c>
+      <c r="P34" s="93">
+        <f ca="1">IF(K34=0,0,M34-E34+N34)</f>
+        <v>-164.6348600000002</v>
+      </c>
+      <c r="Q34" s="99">
+        <f ca="1">P34/E34</f>
+        <v>-4.0265358956460363E-2</v>
+      </c>
+      <c r="R34" s="101" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A35" s="85"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="91"/>
+      <c r="L35" s="86"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="89"/>
+      <c r="P35" s="93"/>
+      <c r="Q35" s="99"/>
+      <c r="R35" s="101"/>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A36" s="85"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="96"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="91"/>
+      <c r="L36" s="86"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="75"/>
+      <c r="O36" s="89"/>
+      <c r="P36" s="93"/>
+      <c r="Q36" s="99"/>
+      <c r="R36" s="101"/>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A37" s="85"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="91"/>
+      <c r="L37" s="86"/>
+      <c r="M37" s="75"/>
+      <c r="N37" s="75"/>
+      <c r="O37" s="89"/>
+      <c r="P37" s="93"/>
+      <c r="Q37" s="99"/>
+      <c r="R37" s="101"/>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A38" s="85"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="96"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="91"/>
+      <c r="L38" s="86"/>
+      <c r="M38" s="75"/>
+      <c r="N38" s="75"/>
+      <c r="O38" s="89"/>
+      <c r="P38" s="93"/>
+      <c r="Q38" s="99"/>
+      <c r="R38" s="101"/>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A39" s="85"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="91"/>
+      <c r="L39" s="86"/>
+      <c r="M39" s="75"/>
+      <c r="N39" s="75"/>
+      <c r="O39" s="89"/>
+      <c r="P39" s="93"/>
+      <c r="Q39" s="99"/>
+      <c r="R39" s="101"/>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A40" s="85"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="91"/>
+      <c r="L40" s="86"/>
+      <c r="M40" s="75"/>
+      <c r="N40" s="75"/>
+      <c r="O40" s="89"/>
+      <c r="P40" s="93"/>
+      <c r="Q40" s="99"/>
+      <c r="R40" s="101"/>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="G43" s="56"/>
+      <c r="I43" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="70" t="s">
+      <c r="J43" s="130"/>
+      <c r="K43" s="130"/>
+      <c r="L43" s="130"/>
+      <c r="M43" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="71" t="s">
+      <c r="N43" s="131"/>
+      <c r="O43" s="131"/>
+      <c r="P43" s="131"/>
+      <c r="Q43" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="R19" s="71"/>
-      <c r="S19" s="71"/>
-      <c r="Y19" s="59">
-        <f ca="1">_xlfn.DAYS(TODAY(),C21)</f>
-        <v>1528</v>
-      </c>
-      <c r="Z19" s="33"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
+      <c r="R43" s="132"/>
+      <c r="S43" s="132"/>
+      <c r="Y43" s="59">
+        <f ca="1">_xlfn.DAYS(TODAY(),C45)</f>
+        <v>1535</v>
+      </c>
+      <c r="Z43" s="33"/>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B44" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C44" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D44" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E44" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F44" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G44" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H44" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I44" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="J44" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="K44" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="L44" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="M20" s="12" t="s">
+      <c r="M44" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="N20" s="12" t="s">
+      <c r="N44" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="O20" s="12" t="s">
+      <c r="O44" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="P20" s="12" t="s">
+      <c r="P44" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q20" s="12" t="s">
+      <c r="Q44" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="R20" s="12" t="s">
+      <c r="R44" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="S20" s="13" t="s">
+      <c r="S44" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T20" s="13" t="s">
+      <c r="T44" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Z44" t="s">
         <v>141</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AA44" t="s">
         <v>142</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AB44" t="s">
         <v>143</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AC44" t="s">
         <v>144</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AD44" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B45" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C45" s="8">
         <v>42074</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D45" s="8">
         <v>42136</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E45" s="14">
         <v>150</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F45" s="9">
         <v>26.59</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G45" s="9">
         <f>24.77+0.4916</f>
         <v>25.261599999999998</v>
       </c>
-      <c r="H21" s="10">
-        <f>(G21/F21)-1</f>
+      <c r="H45" s="10">
+        <f>(G45/F45)-1</f>
         <v>-4.9958631064309977E-2</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I45" s="9">
         <v>3988.5</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9">
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9">
         <v>40</v>
       </c>
-      <c r="R21" s="9">
+      <c r="R45" s="9">
         <v>21.54</v>
       </c>
-      <c r="S21" s="9">
+      <c r="S45" s="9">
         <f>-334.54</f>
         <v>-334.54</v>
       </c>
-      <c r="T21" s="42">
+      <c r="T45" s="42">
         <f>-0.0839+0.0185</f>
         <v>-6.54E-2</v>
       </c>
-      <c r="Z21">
-        <f>_xlfn.DAYS(D21,C21)</f>
+      <c r="Z45">
+        <f>_xlfn.DAYS(D45,C45)</f>
         <v>62</v>
       </c>
-      <c r="AA21" s="59">
-        <f ca="1">Z21/Y$19</f>
-        <v>4.0575916230366493E-2</v>
-      </c>
-      <c r="AB21" s="56">
-        <f ca="1">AA21*I21</f>
-        <v>161.83704188481676</v>
-      </c>
-      <c r="AC21" s="5"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9">
+      <c r="AA45" s="59">
+        <f ca="1">Z45/Y$43</f>
+        <v>4.0390879478827364E-2</v>
+      </c>
+      <c r="AB45" s="56">
+        <f ca="1">AA45*I45</f>
+        <v>161.09902280130294</v>
+      </c>
+      <c r="AC45" s="5"/>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B46" s="7"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9">
         <v>73.47</v>
       </c>
-      <c r="T22" s="42"/>
-      <c r="U22" t="s">
+      <c r="T46" s="42"/>
+      <c r="U46" t="s">
         <v>72</v>
       </c>
-      <c r="AA22" s="59"/>
-      <c r="AB22" s="56"/>
-      <c r="AC22" s="5"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>165</v>
-      </c>
-      <c r="B23" s="7" t="s">
+      <c r="AA46" s="59"/>
+      <c r="AB46" s="56"/>
+      <c r="AC46" s="5"/>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B47" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C47" s="8">
         <v>42143</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D47" s="8">
         <v>42198</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E47" s="14">
         <v>102</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F47" s="9">
         <v>39.229999999999997</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G47" s="9">
         <v>40</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H47" s="10">
         <v>1.962783583991845E-2</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I47" s="9">
         <v>4001.4599999999996</v>
       </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9">
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9">
         <v>40.014599999999994</v>
       </c>
-      <c r="R23" s="9">
+      <c r="R47" s="9">
         <v>21.607883999999999</v>
       </c>
-      <c r="S23" s="9">
+      <c r="S47" s="9">
         <v>16.917516000000433</v>
       </c>
-      <c r="T23" s="10">
+      <c r="T47" s="10">
         <v>4.2278358399185385E-3</v>
       </c>
-      <c r="Z23">
-        <f t="shared" ref="Z23:Z42" si="1">_xlfn.DAYS(D23,C23)</f>
+      <c r="Z47">
+        <f t="shared" ref="Z47:Z66" si="4">_xlfn.DAYS(D47,C47)</f>
         <v>55</v>
       </c>
-      <c r="AA23" s="59">
-        <f t="shared" ref="AA23:AA45" ca="1" si="2">Z23/Y$19</f>
-        <v>3.5994764397905762E-2</v>
-      </c>
-      <c r="AB23" s="56">
-        <f t="shared" ref="AB23:AB42" ca="1" si="3">AA23*I23</f>
-        <v>144.03160994764397</v>
-      </c>
-      <c r="AC23" s="5"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
+      <c r="AA47" s="59">
+        <f t="shared" ref="AA47:AA69" ca="1" si="5">Z47/Y$43</f>
+        <v>3.5830618892508145E-2</v>
+      </c>
+      <c r="AB47" s="56">
+        <f t="shared" ref="AB47:AB66" ca="1" si="6">AA47*I47</f>
+        <v>143.37478827361562</v>
+      </c>
+      <c r="AC47" s="5"/>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B48" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C48" s="8">
         <v>42209</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D48" s="8">
         <v>42223</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E48" s="14">
         <v>507</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F48" s="9">
         <v>7.9</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G48" s="9">
         <v>8.82</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H48" s="10">
         <v>0.1164556962025316</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I48" s="9">
         <v>4005.3</v>
       </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9">
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9">
         <v>40.053000000000004</v>
       </c>
-      <c r="R24" s="9">
+      <c r="R48" s="9">
         <v>21.628620000000002</v>
       </c>
-      <c r="S24" s="9">
+      <c r="S48" s="9">
         <v>404.75837999999931</v>
       </c>
-      <c r="T24" s="10">
+      <c r="T48" s="10">
         <v>0.10105569620253146</v>
       </c>
-      <c r="Z24">
-        <f t="shared" si="1"/>
+      <c r="Z48">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="AA24" s="59">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.1623036649214652E-3</v>
-      </c>
-      <c r="AB24" s="56">
-        <f t="shared" ca="1" si="3"/>
-        <v>36.697774869109949</v>
-      </c>
-      <c r="AC24" s="5"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9">
+      <c r="AA48" s="59">
+        <f t="shared" ca="1" si="5"/>
+        <v>9.120521172638436E-3</v>
+      </c>
+      <c r="AB48" s="56">
+        <f t="shared" ca="1" si="6"/>
+        <v>36.53042345276873</v>
+      </c>
+      <c r="AC48" s="5"/>
+    </row>
+    <row r="49" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B49" s="7"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9">
         <v>0.12</v>
       </c>
-      <c r="T25" s="10"/>
-      <c r="U25" t="s">
+      <c r="T49" s="10"/>
+      <c r="U49" t="s">
         <v>41</v>
       </c>
-      <c r="AA25" s="59"/>
-      <c r="AB25" s="56"/>
-      <c r="AC25" s="5"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9">
+      <c r="AA49" s="59"/>
+      <c r="AB49" s="56"/>
+      <c r="AC49" s="5"/>
+    </row>
+    <row r="50" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B50" s="7"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9">
         <v>-27.23</v>
       </c>
-      <c r="T26" s="10"/>
-      <c r="U26" t="s">
+      <c r="T50" s="10"/>
+      <c r="U50" t="s">
         <v>42</v>
       </c>
-      <c r="AA26" s="59"/>
-      <c r="AB26" s="56"/>
-      <c r="AC26" s="5"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9">
+      <c r="AA50" s="59"/>
+      <c r="AB50" s="56"/>
+      <c r="AC50" s="5"/>
+    </row>
+    <row r="51" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B51" s="7"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9">
         <v>188.26</v>
       </c>
-      <c r="T27" s="10"/>
-      <c r="U27" t="s">
+      <c r="T51" s="10"/>
+      <c r="U51" t="s">
         <v>43</v>
       </c>
-      <c r="AA27" s="59"/>
-      <c r="AB27" s="56"/>
-      <c r="AC27" s="5"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9">
+      <c r="AA51" s="59"/>
+      <c r="AB51" s="56"/>
+      <c r="AC51" s="5"/>
+    </row>
+    <row r="52" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B52" s="7"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="64"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9">
         <v>-0.08</v>
       </c>
-      <c r="T28" s="10"/>
-      <c r="U28" t="s">
+      <c r="T52" s="10"/>
+      <c r="U52" t="s">
         <v>41</v>
       </c>
-      <c r="AA28" s="59"/>
-      <c r="AB28" s="56"/>
-      <c r="AC28" s="5"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9">
+      <c r="AA52" s="59"/>
+      <c r="AB52" s="56"/>
+      <c r="AC52" s="5"/>
+    </row>
+    <row r="53" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B53" s="7"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9">
         <v>-24.2</v>
       </c>
-      <c r="T29" s="10"/>
-      <c r="U29" t="s">
+      <c r="T53" s="10"/>
+      <c r="U53" t="s">
         <v>59</v>
       </c>
-      <c r="AA29" s="59"/>
-      <c r="AB29" s="56"/>
-      <c r="AC29" s="5"/>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9">
+      <c r="AA53" s="59"/>
+      <c r="AB53" s="56"/>
+      <c r="AC53" s="5"/>
+    </row>
+    <row r="54" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B54" s="7"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9">
         <f>13.5+13.5</f>
         <v>27</v>
       </c>
-      <c r="T30" s="10"/>
-      <c r="U30" t="s">
+      <c r="T54" s="10"/>
+      <c r="U54" t="s">
         <v>44</v>
       </c>
-      <c r="AA30" s="59"/>
-      <c r="AB30" s="56"/>
-      <c r="AC30" s="5"/>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B31" s="7" t="s">
+      <c r="AA54" s="59"/>
+      <c r="AB54" s="56"/>
+      <c r="AC54" s="5"/>
+    </row>
+    <row r="55" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B55" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C55" s="8">
         <f>'Operacion 3'!B$2</f>
         <v>43154</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D55" s="8">
         <v>43442</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E55" s="14">
         <f>'Operacion 3'!B$5</f>
         <v>196</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F55" s="9">
         <v>20.22</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G55" s="9">
         <v>26.49</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H55" s="10">
         <v>0.31009999999999999</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I55" s="9">
         <v>586.38</v>
       </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9">
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9">
         <v>40</v>
       </c>
-      <c r="R31" s="9">
+      <c r="R55" s="9">
         <f>1.62+2.07</f>
         <v>3.69</v>
       </c>
-      <c r="S31" s="9">
+      <c r="S55" s="9">
         <v>138.16</v>
       </c>
-      <c r="T31" s="10">
+      <c r="T55" s="10">
         <v>0.2356</v>
       </c>
-      <c r="Z31">
-        <f t="shared" si="1"/>
+      <c r="Z55">
+        <f t="shared" si="4"/>
         <v>288</v>
       </c>
-      <c r="AA31" s="59">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.18848167539267016</v>
-      </c>
-      <c r="AB31" s="56">
-        <f t="shared" ca="1" si="3"/>
-        <v>110.52188481675392</v>
-      </c>
-      <c r="AC31" s="5"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B32" s="7" t="s">
+      <c r="AA55" s="59">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.18762214983713354</v>
+      </c>
+      <c r="AB55" s="56">
+        <f t="shared" ca="1" si="6"/>
+        <v>110.01787622149837</v>
+      </c>
+      <c r="AC55" s="5"/>
+    </row>
+    <row r="56" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B56" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C56" s="8">
         <v>42234</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D56" s="8">
         <v>43103</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E56" s="14">
         <v>186</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F56" s="9">
         <v>23.6</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G56" s="9">
         <v>28.52</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H56" s="10">
         <v>0.20847457627118637</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I56" s="9">
         <v>4389.6000000000004</v>
       </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9">
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9">
         <v>48.471600000000009</v>
       </c>
-      <c r="R32" s="9">
+      <c r="R56" s="9">
         <v>26.174664000000003</v>
       </c>
-      <c r="S32" s="9">
+      <c r="S56" s="9">
         <v>840.47373599999992</v>
       </c>
-      <c r="T32" s="10">
+      <c r="T56" s="10">
         <v>0.19146932203389827</v>
       </c>
-      <c r="Z32">
-        <f t="shared" si="1"/>
+      <c r="Z56">
+        <f t="shared" si="4"/>
         <v>869</v>
       </c>
-      <c r="AA32" s="59">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.56871727748691103</v>
-      </c>
-      <c r="AB32" s="56">
-        <f t="shared" ca="1" si="3"/>
-        <v>2496.441361256545</v>
-      </c>
-      <c r="AC32" s="5"/>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B33" s="7" t="s">
+      <c r="AA56" s="59">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.56612377850162865</v>
+      </c>
+      <c r="AB56" s="56">
+        <f t="shared" ca="1" si="6"/>
+        <v>2485.0569381107493</v>
+      </c>
+      <c r="AC56" s="5"/>
+    </row>
+    <row r="57" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B57" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C57" s="8">
         <v>42471</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D57" s="8">
         <v>43103</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E57" s="14">
         <v>91</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F57" s="9">
         <v>6.6000000000000005</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G57" s="9">
         <v>28.52</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H57" s="10">
         <v>3.3212121212121204</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I57" s="9">
         <v>600.6</v>
       </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9">
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9">
         <v>12.976600000000001</v>
       </c>
-      <c r="R33" s="9">
+      <c r="R57" s="9">
         <v>7.0073640000000008</v>
       </c>
-      <c r="S33" s="9">
+      <c r="S57" s="9">
         <v>1974.7360360000002</v>
       </c>
-      <c r="T33" s="10">
+      <c r="T57" s="10">
         <v>3.287938787878788</v>
       </c>
-      <c r="Z33">
-        <f t="shared" si="1"/>
+      <c r="Z57">
+        <f t="shared" si="4"/>
         <v>632</v>
       </c>
-      <c r="AA33" s="59">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.41361256544502617</v>
-      </c>
-      <c r="AB33" s="56">
-        <f t="shared" ca="1" si="3"/>
-        <v>248.41570680628271</v>
-      </c>
-      <c r="AC33" s="5"/>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9">
-        <v>-30.78</v>
-      </c>
-      <c r="T34" s="10"/>
-      <c r="U34" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA34" s="59"/>
-      <c r="AB34" s="56"/>
-      <c r="AC34" s="5"/>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9">
-        <v>-12.1</v>
-      </c>
-      <c r="T35" s="10"/>
-      <c r="U35" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA35" s="59"/>
-      <c r="AB35" s="56"/>
-      <c r="AC35" s="5"/>
-    </row>
-    <row r="36" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B36" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="8">
-        <v>43154</v>
-      </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9">
-        <v>42.26</v>
-      </c>
-      <c r="K36" s="9">
-        <v>13.75</v>
-      </c>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9">
-        <f>-J36-K36</f>
-        <v>-56.01</v>
-      </c>
-      <c r="T36" s="10"/>
-      <c r="U36" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA36" s="59"/>
-      <c r="AB36" s="56"/>
-      <c r="AC36" s="5"/>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B37" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="8">
-        <v>43222</v>
-      </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9">
-        <v>73.5</v>
-      </c>
-      <c r="H37" s="10"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9">
-        <f>2.5+0.53</f>
-        <v>3.0300000000000002</v>
-      </c>
-      <c r="R37" s="9">
-        <f>13.97+17.86</f>
-        <v>31.83</v>
-      </c>
-      <c r="S37" s="9">
-        <f>G37-Q37-R37</f>
-        <v>38.64</v>
-      </c>
-      <c r="T37" s="10"/>
-      <c r="U37" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA37" s="59"/>
-      <c r="AB37" s="56"/>
-      <c r="AC37" s="5"/>
-    </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B38" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="8">
-        <v>43406</v>
-      </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9">
-        <f>32.34+41.16</f>
-        <v>73.5</v>
-      </c>
-      <c r="H38" s="10"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9">
-        <f>2.5+2.5+0.53+0.53</f>
-        <v>6.0600000000000005</v>
-      </c>
-      <c r="R38" s="9">
-        <f>6.14+7.86+7.82+10</f>
-        <v>31.82</v>
-      </c>
-      <c r="S38" s="9">
-        <f>G38-Q38-R38</f>
-        <v>35.619999999999997</v>
-      </c>
-      <c r="T38" s="10"/>
-      <c r="U38" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA38" s="59"/>
-      <c r="AB38" s="56"/>
-      <c r="AC38" s="5"/>
-    </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9">
-        <v>-25.87</v>
-      </c>
-      <c r="T39" s="10"/>
-      <c r="U39" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA39" s="59"/>
-      <c r="AB39" s="56"/>
-      <c r="AC39" s="5"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9">
-        <f>-2.18-2.26-3.09-2.27</f>
-        <v>-9.7999999999999989</v>
-      </c>
-      <c r="T40" s="10"/>
-      <c r="U40" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA40" s="59"/>
-      <c r="AB40" s="56"/>
-      <c r="AC40" s="5"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B41" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="C41" s="8">
-        <v>43550</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9">
-        <v>30.631499999999999</v>
-      </c>
-      <c r="K41" s="9">
-        <v>14.294699999999999</v>
-      </c>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9">
-        <f>-J41-K41</f>
-        <v>-44.926199999999994</v>
-      </c>
-      <c r="T41" s="10"/>
-      <c r="U41" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA41" s="59"/>
-      <c r="AB41" s="56"/>
-      <c r="AC41" s="5"/>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B42" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C42" s="8">
-        <v>43545</v>
-      </c>
-      <c r="D42" s="8">
-        <v>43567</v>
-      </c>
-      <c r="E42" s="14">
-        <v>60</v>
-      </c>
-      <c r="F42" s="9">
-        <v>68.069999999999993</v>
-      </c>
-      <c r="G42" s="9">
-        <v>75.53</v>
-      </c>
-      <c r="H42" s="10">
-        <v>0.10959306596151031</v>
-      </c>
-      <c r="I42" s="9">
-        <v>4084.2</v>
-      </c>
-      <c r="J42" s="9">
-        <v>30.631499999999999</v>
-      </c>
-      <c r="K42" s="9">
-        <v>14.294699999999999</v>
-      </c>
-      <c r="L42" s="9">
-        <v>4129.1262000000006</v>
-      </c>
-      <c r="M42" s="9">
-        <v>4531.8</v>
-      </c>
-      <c r="N42" s="9">
-        <v>-33.988500000000002</v>
-      </c>
-      <c r="O42" s="9">
-        <v>-15.861300000000002</v>
-      </c>
-      <c r="P42" s="9">
-        <v>4481.9502000000002</v>
-      </c>
-      <c r="Q42" s="9">
-        <v>64.62</v>
-      </c>
-      <c r="R42" s="9">
-        <v>30.155999999999999</v>
-      </c>
-      <c r="S42" s="9">
-        <v>352.82399999999961</v>
-      </c>
-      <c r="T42" s="10">
-        <v>8.5447618433168629E-2</v>
-      </c>
-      <c r="U42" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z42">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="AA42" s="59">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.4397905759162303E-2</v>
-      </c>
-      <c r="AB42" s="56">
-        <f t="shared" ca="1" si="3"/>
-        <v>58.803926701570674</v>
-      </c>
-      <c r="AC42" s="5"/>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B43" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="8">
-        <v>43587</v>
-      </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9">
-        <v>86.24</v>
-      </c>
-      <c r="H43" s="10"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9">
-        <f>2.5+0.53</f>
-        <v>3.0300000000000002</v>
-      </c>
-      <c r="R43" s="9">
-        <f>16.39+20.96</f>
-        <v>37.35</v>
-      </c>
-      <c r="S43" s="9">
-        <f>G43-Q43-R43</f>
-        <v>45.859999999999992</v>
-      </c>
-      <c r="T43" s="10"/>
-      <c r="U43" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA43" s="59"/>
-      <c r="AB43" s="56"/>
-      <c r="AC43" s="5"/>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B44" s="7"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="9"/>
-      <c r="T44" s="10"/>
-      <c r="AA44" s="59"/>
-      <c r="AC44" s="5"/>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="Z45">
-        <f ca="1">_xlfn.DAYS(TODAY(),C50)</f>
-        <v>448</v>
-      </c>
-      <c r="AA45" s="59">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.29319371727748689</v>
-      </c>
-      <c r="AB45" s="56">
-        <f ca="1">AA45*I50</f>
-        <v>1492.9658638743454</v>
-      </c>
-      <c r="AC45" s="5"/>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="I46" s="15">
-        <f t="shared" ref="I46:P46" si="4">SUM(I21:I45)</f>
-        <v>21656.039999999997</v>
-      </c>
-      <c r="J46" s="15">
-        <f t="shared" si="4"/>
-        <v>103.523</v>
-      </c>
-      <c r="K46" s="15">
-        <f t="shared" si="4"/>
-        <v>42.339399999999998</v>
-      </c>
-      <c r="L46" s="15">
-        <f t="shared" si="4"/>
-        <v>4129.1262000000006</v>
-      </c>
-      <c r="M46" s="15">
-        <f t="shared" si="4"/>
-        <v>4531.8</v>
-      </c>
-      <c r="N46" s="15">
-        <f t="shared" si="4"/>
-        <v>-33.988500000000002</v>
-      </c>
-      <c r="O46" s="15">
-        <f t="shared" si="4"/>
-        <v>-15.861300000000002</v>
-      </c>
-      <c r="P46" s="15">
-        <f t="shared" si="4"/>
-        <v>4481.9502000000002</v>
-      </c>
-      <c r="S46" s="15">
-        <f>SUM(S21:S45)</f>
-        <v>3571.3034679999992</v>
-      </c>
-      <c r="T46" s="16">
-        <f>SUM(T21:T45)/7</f>
-        <v>0.54861989434118641</v>
-      </c>
-      <c r="U46" s="16">
-        <f>T46/4</f>
-        <v>0.1371549735852966</v>
-      </c>
-      <c r="Z46">
-        <f ca="1">SUM(Z21:Z45)</f>
-        <v>2390</v>
-      </c>
-      <c r="AA46" s="59">
-        <f ca="1">SUM(AA21:AA45)</f>
-        <v>1.5641361256544504</v>
-      </c>
-      <c r="AB46" s="56">
-        <f ca="1">SUM(AB21:AB45)</f>
-        <v>4749.7151701570683</v>
-      </c>
-      <c r="AC46" s="3">
-        <f ca="1">S46/AB46</f>
-        <v>0.75189844865621691</v>
-      </c>
-      <c r="AD46" s="3">
-        <f ca="1">AC46/(Y19/365)</f>
-        <v>0.17960924984261728</v>
-      </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="I47" s="52"/>
-      <c r="J47" s="52"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="52"/>
-      <c r="M47" s="52"/>
-      <c r="N47" s="52"/>
-      <c r="O47" s="52"/>
-      <c r="P47" s="52"/>
-      <c r="S47" s="52"/>
-      <c r="T47" s="51"/>
-      <c r="U47" s="51"/>
-      <c r="V47">
-        <v>0.24199999999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B48" s="39" t="str">
-        <f>'Operacion 1'!B$3</f>
-        <v>ABI.BR</v>
-      </c>
-      <c r="C48" s="8">
-        <f>'Operacion 1'!B$2</f>
-        <v>42234</v>
-      </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="14">
-        <f>'Operacion 1'!B$5</f>
-        <v>62</v>
-      </c>
-      <c r="F48" s="9">
-        <f>'Operacion 1'!B$4</f>
-        <v>89</v>
-      </c>
-      <c r="G48" s="9">
-        <f>'Operacion 1'!B$6</f>
-        <v>120</v>
-      </c>
-      <c r="H48" s="10">
-        <f>'Operacion 1'!B$7</f>
-        <v>0.348314606741573</v>
-      </c>
-      <c r="I48" s="9">
-        <f>(F48*E48)</f>
-        <v>5518</v>
-      </c>
-      <c r="J48" s="9">
-        <f>IF((I48*0.005)&lt;20,20,(I48*0.005))</f>
-        <v>27.59</v>
-      </c>
-      <c r="K48" s="9">
-        <f>SUM(I48:J48)*0.0027</f>
-        <v>14.973093</v>
-      </c>
-      <c r="L48" s="9">
-        <f>SUM(I48:K48)</f>
-        <v>5560.5630929999998</v>
-      </c>
-      <c r="M48" s="9">
-        <f>E48*G48</f>
-        <v>7440</v>
-      </c>
-      <c r="N48" s="9">
-        <f>IF((M48*0.005)&lt;20,-20,-(M48*0.005))</f>
-        <v>-37.200000000000003</v>
-      </c>
-      <c r="O48" s="9">
-        <f>-(SUM(M48:N48)*0.0027)</f>
-        <v>-19.987560000000002</v>
-      </c>
-      <c r="P48" s="9">
-        <f>SUM(M48:O48)</f>
-        <v>7382.8124400000006</v>
-      </c>
-      <c r="Q48" s="9">
-        <f>J48-N48</f>
-        <v>64.790000000000006</v>
-      </c>
-      <c r="R48" s="9">
-        <f>K48-O48</f>
-        <v>34.960653000000001</v>
-      </c>
-      <c r="S48" s="9">
-        <f t="shared" ref="S48:S49" si="5">P48-L48</f>
-        <v>1822.2493470000009</v>
-      </c>
-      <c r="T48" s="10">
-        <f>S48/L48</f>
-        <v>0.32770949929404947</v>
-      </c>
-      <c r="U48" t="s">
-        <v>109</v>
-      </c>
-      <c r="V48" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="49" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B49" s="39" t="str">
-        <f>'Operacion 2'!B$3</f>
-        <v>BMW.DE</v>
-      </c>
-      <c r="C49" s="8">
-        <f>'Operacion 2'!B$2</f>
-        <v>42471</v>
-      </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="14">
-        <f>'Operacion 2'!B$5</f>
-        <v>60</v>
-      </c>
-      <c r="F49" s="9">
-        <f>'Operacion 2'!B$4</f>
-        <v>66.97</v>
-      </c>
-      <c r="G49" s="9">
-        <f>'Operacion 2'!B$6</f>
-        <v>76.03</v>
-      </c>
-      <c r="H49" s="10">
-        <f>'Operacion 2'!B$7</f>
-        <v>0.13528445572644476</v>
-      </c>
-      <c r="I49" s="9">
-        <f t="shared" ref="I49:I50" si="6">F49*E49</f>
-        <v>4018.2</v>
-      </c>
-      <c r="J49" s="9">
-        <f>IF((I49*(0.0075))&lt;30,30,(I49*(0.0075)))</f>
-        <v>30.136499999999998</v>
-      </c>
-      <c r="K49" s="9">
-        <f>I49*0.0035</f>
-        <v>14.063699999999999</v>
-      </c>
-      <c r="L49" s="9">
-        <f t="shared" ref="L49:L50" si="7">SUM(I49:K49)</f>
-        <v>4062.4002</v>
-      </c>
-      <c r="M49" s="9">
-        <f t="shared" ref="M49:M50" si="8">E49*G49</f>
-        <v>4561.8</v>
-      </c>
-      <c r="N49" s="9">
-        <f>IF((M49*(0.0075))&lt;30,-30,-(M49*(0.0075)))</f>
-        <v>-34.213500000000003</v>
-      </c>
-      <c r="O49" s="9">
-        <f>-(M49*0.0035)</f>
-        <v>-15.9663</v>
-      </c>
-      <c r="P49" s="9">
-        <f t="shared" ref="P49:P50" si="9">SUM(M49:O49)</f>
-        <v>4511.6202000000003</v>
-      </c>
-      <c r="Q49" s="9">
-        <f t="shared" ref="Q49:R50" si="10">J49-N49</f>
-        <v>64.349999999999994</v>
-      </c>
-      <c r="R49" s="9">
-        <f t="shared" si="10"/>
-        <v>30.03</v>
-      </c>
-      <c r="S49" s="9">
-        <f t="shared" si="5"/>
-        <v>449.22000000000025</v>
-      </c>
-      <c r="T49" s="10">
-        <f t="shared" ref="T49" si="11">S49/L49</f>
-        <v>0.11057994729322834</v>
-      </c>
-      <c r="U49" t="s">
-        <v>108</v>
-      </c>
-      <c r="V49" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="50" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B50" s="39" t="str">
-        <f>'Operacion 3'!B3</f>
-        <v>ITX.MC</v>
-      </c>
-      <c r="C50" s="8">
-        <f>'Operacion 3'!B$2</f>
-        <v>43154</v>
-      </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="14">
-        <f>'Operacion 3'!B$5</f>
-        <v>196</v>
-      </c>
-      <c r="F50" s="9">
-        <f>'Operacion 3'!B$4</f>
-        <v>25.98</v>
-      </c>
-      <c r="G50" s="9">
-        <f>'Operacion 3'!B$6</f>
-        <v>30.27</v>
-      </c>
-      <c r="H50" s="10">
-        <f>'Operacion 3'!B$7</f>
-        <v>0.16512702078521935</v>
-      </c>
-      <c r="I50" s="9">
-        <f t="shared" si="6"/>
-        <v>5092.08</v>
-      </c>
-      <c r="J50" s="9">
-        <f>IF((I50*(0.0075+0.0008))&lt;30,30,(I50*(0.0075+0.0008)))</f>
-        <v>42.264263999999997</v>
-      </c>
-      <c r="K50" s="9">
-        <f>I50*0.0027</f>
-        <v>13.748616</v>
-      </c>
-      <c r="L50" s="9">
-        <f t="shared" si="7"/>
-        <v>5148.0928800000002</v>
-      </c>
-      <c r="M50" s="9">
-        <f t="shared" si="8"/>
-        <v>5932.92</v>
-      </c>
-      <c r="N50" s="9">
-        <f>IF((M50*(0.0075))&lt;30,-30,-(M50*(0.0075)))</f>
-        <v>-44.496899999999997</v>
-      </c>
-      <c r="O50" s="9">
-        <f>-(M50*0.0035)</f>
-        <v>-20.765219999999999</v>
-      </c>
-      <c r="P50" s="9">
-        <f t="shared" si="9"/>
-        <v>5867.6578799999997</v>
-      </c>
-      <c r="Q50" s="9">
-        <f t="shared" si="10"/>
-        <v>86.761163999999994</v>
-      </c>
-      <c r="R50" s="9">
-        <f t="shared" si="10"/>
-        <v>34.513835999999998</v>
-      </c>
-      <c r="S50" s="9">
-        <f>P50-L50</f>
-        <v>719.5649999999996</v>
-      </c>
-      <c r="T50" s="10">
-        <f>S50/L50</f>
-        <v>0.13977311924488814</v>
-      </c>
-      <c r="U50" t="s">
-        <v>58</v>
-      </c>
-      <c r="V50" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB50" s="56"/>
-    </row>
-    <row r="51" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="S51" s="56">
-        <f>S50+SUM(S37:S40)+S43</f>
-        <v>804.01499999999965</v>
-      </c>
-      <c r="T51" s="10">
-        <f>S51/L50</f>
-        <v>0.1561772521866388</v>
-      </c>
-    </row>
-    <row r="52" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="E52" s="48"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="48"/>
-      <c r="K52" s="48"/>
-      <c r="L52" s="48"/>
-      <c r="M52" s="48"/>
-      <c r="N52" s="48"/>
-      <c r="O52" s="48"/>
-      <c r="P52" s="48"/>
-      <c r="S52" s="48"/>
-    </row>
-    <row r="53" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="G53" s="5"/>
-      <c r="H53" s="48"/>
-      <c r="V53" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="U54" t="s">
-        <v>68</v>
-      </c>
-      <c r="V54">
-        <v>26.25</v>
-      </c>
-      <c r="AB54" s="56"/>
-    </row>
-    <row r="55" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="U55" t="s">
-        <v>66</v>
-      </c>
-      <c r="V55">
-        <v>30.27</v>
-      </c>
-      <c r="X55" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="56" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="E56" t="s">
-        <v>62</v>
-      </c>
-      <c r="F56">
-        <v>74.89</v>
-      </c>
-      <c r="G56">
-        <v>52</v>
-      </c>
-      <c r="H56" s="10">
-        <f>1-(G56/F56)</f>
-        <v>0.30564828415008682</v>
-      </c>
-      <c r="O56">
-        <v>6769.84</v>
-      </c>
-      <c r="P56">
-        <v>74.459999999999994</v>
-      </c>
-      <c r="Q56" s="5">
-        <v>6695.38</v>
-      </c>
-      <c r="T56" s="10"/>
-      <c r="U56" t="s">
-        <v>67</v>
-      </c>
-      <c r="V56" s="3">
-        <f>(V55/V54)-1</f>
-        <v>0.15314285714285703</v>
-      </c>
-      <c r="W56" s="3"/>
-      <c r="X56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="E57" t="s">
-        <v>61</v>
-      </c>
-      <c r="F57">
-        <v>182.08</v>
-      </c>
-      <c r="G57">
-        <v>126</v>
-      </c>
-      <c r="H57" s="10">
-        <f>1-(G57/F57)</f>
-        <v>0.30799648506151145</v>
-      </c>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5">
-        <f>Q56-L50</f>
-        <v>1547.28712</v>
-      </c>
-      <c r="S57" s="5"/>
-    </row>
-    <row r="58" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="E58" t="s">
-        <v>63</v>
-      </c>
-      <c r="F58">
-        <v>93.54</v>
-      </c>
-      <c r="G58">
-        <v>65</v>
-      </c>
-      <c r="H58" s="10">
-        <f>1-(G58/F58)</f>
-        <v>0.30511011332050464</v>
-      </c>
+      <c r="AA57" s="59">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.41172638436482084</v>
+      </c>
+      <c r="AB57" s="56">
+        <f t="shared" ca="1" si="6"/>
+        <v>247.2828664495114</v>
+      </c>
+      <c r="AC57" s="5"/>
+    </row>
+    <row r="58" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B58" s="7"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="10"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
-      <c r="L58" s="5"/>
-      <c r="Q58" s="56">
-        <f>Q57*0.1</f>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9">
+        <v>-30.78</v>
+      </c>
+      <c r="T58" s="10"/>
+      <c r="U58" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA58" s="59"/>
+      <c r="AB58" s="56"/>
+      <c r="AC58" s="5"/>
+    </row>
+    <row r="59" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B59" s="7"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9">
+        <v>-12.1</v>
+      </c>
+      <c r="T59" s="10"/>
+      <c r="U59" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA59" s="59"/>
+      <c r="AB59" s="56"/>
+      <c r="AC59" s="5"/>
+    </row>
+    <row r="60" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B60" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" s="8">
+        <v>43154</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9">
+        <v>42.26</v>
+      </c>
+      <c r="K60" s="9">
+        <v>13.75</v>
+      </c>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9">
+        <f>-J60-K60</f>
+        <v>-56.01</v>
+      </c>
+      <c r="T60" s="10"/>
+      <c r="U60" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA60" s="59"/>
+      <c r="AB60" s="56"/>
+      <c r="AC60" s="5"/>
+    </row>
+    <row r="61" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B61" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D61" s="8">
+        <v>43222</v>
+      </c>
+      <c r="E61" s="14"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9">
+        <v>73.5</v>
+      </c>
+      <c r="H61" s="10"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9">
+        <f>2.5+0.53</f>
+        <v>3.0300000000000002</v>
+      </c>
+      <c r="R61" s="9">
+        <f>13.97+17.86</f>
+        <v>31.83</v>
+      </c>
+      <c r="S61" s="9">
+        <f>G61-Q61-R61</f>
+        <v>38.64</v>
+      </c>
+      <c r="T61" s="10"/>
+      <c r="U61" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA61" s="59"/>
+      <c r="AB61" s="56"/>
+      <c r="AC61" s="5"/>
+    </row>
+    <row r="62" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B62" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D62" s="8">
+        <v>43406</v>
+      </c>
+      <c r="E62" s="14"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9">
+        <f>32.34+41.16</f>
+        <v>73.5</v>
+      </c>
+      <c r="H62" s="10"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9">
+        <f>2.5+2.5+0.53+0.53</f>
+        <v>6.0600000000000005</v>
+      </c>
+      <c r="R62" s="9">
+        <f>6.14+7.86+7.82+10</f>
+        <v>31.82</v>
+      </c>
+      <c r="S62" s="9">
+        <f>G62-Q62-R62</f>
+        <v>35.619999999999997</v>
+      </c>
+      <c r="T62" s="10"/>
+      <c r="U62" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA62" s="59"/>
+      <c r="AB62" s="56"/>
+      <c r="AC62" s="5"/>
+    </row>
+    <row r="63" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B63" s="7"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9">
+        <v>-25.87</v>
+      </c>
+      <c r="T63" s="10"/>
+      <c r="U63" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA63" s="59"/>
+      <c r="AB63" s="56"/>
+      <c r="AC63" s="5"/>
+    </row>
+    <row r="64" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B64" s="7"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="9">
+        <f>-2.18-2.26-3.09-2.27</f>
+        <v>-9.7999999999999989</v>
+      </c>
+      <c r="T64" s="10"/>
+      <c r="U64" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA64" s="59"/>
+      <c r="AB64" s="56"/>
+      <c r="AC64" s="5"/>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B65" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" s="8">
+        <v>43550</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9">
+        <v>30.631499999999999</v>
+      </c>
+      <c r="K65" s="9">
+        <v>14.294699999999999</v>
+      </c>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9">
+        <f>-J65-K65</f>
+        <v>-44.926199999999994</v>
+      </c>
+      <c r="T65" s="10"/>
+      <c r="U65" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA65" s="59"/>
+      <c r="AB65" s="56"/>
+      <c r="AC65" s="5"/>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B66" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" s="8">
+        <v>43545</v>
+      </c>
+      <c r="D66" s="8">
+        <v>43567</v>
+      </c>
+      <c r="E66" s="14">
+        <v>60</v>
+      </c>
+      <c r="F66" s="9">
+        <v>68.069999999999993</v>
+      </c>
+      <c r="G66" s="9">
+        <v>75.53</v>
+      </c>
+      <c r="H66" s="10">
+        <v>0.10959306596151031</v>
+      </c>
+      <c r="I66" s="9">
+        <v>4084.2</v>
+      </c>
+      <c r="J66" s="9">
+        <v>30.631499999999999</v>
+      </c>
+      <c r="K66" s="9">
+        <v>14.294699999999999</v>
+      </c>
+      <c r="L66" s="9">
+        <v>4129.1262000000006</v>
+      </c>
+      <c r="M66" s="9">
+        <v>4531.8</v>
+      </c>
+      <c r="N66" s="9">
+        <v>-33.988500000000002</v>
+      </c>
+      <c r="O66" s="9">
+        <v>-15.861300000000002</v>
+      </c>
+      <c r="P66" s="9">
+        <v>4481.9502000000002</v>
+      </c>
+      <c r="Q66" s="9">
+        <v>64.62</v>
+      </c>
+      <c r="R66" s="9">
+        <v>30.155999999999999</v>
+      </c>
+      <c r="S66" s="9">
+        <v>352.82399999999961</v>
+      </c>
+      <c r="T66" s="10">
+        <v>8.5447618433168629E-2</v>
+      </c>
+      <c r="U66" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z66">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="AA66" s="59">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.4332247557003257E-2</v>
+      </c>
+      <c r="AB66" s="56">
+        <f t="shared" ca="1" si="6"/>
+        <v>58.535765472312697</v>
+      </c>
+      <c r="AC66" s="5"/>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B67" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D67" s="8">
+        <v>43587</v>
+      </c>
+      <c r="E67" s="14"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9">
+        <v>86.24</v>
+      </c>
+      <c r="H67" s="10"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9">
+        <f>2.5+0.53</f>
+        <v>3.0300000000000002</v>
+      </c>
+      <c r="R67" s="9">
+        <f>16.39+20.96</f>
+        <v>37.35</v>
+      </c>
+      <c r="S67" s="9">
+        <f>G67-Q67-R67</f>
+        <v>45.859999999999992</v>
+      </c>
+      <c r="T67" s="10"/>
+      <c r="U67" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA67" s="59"/>
+      <c r="AB67" s="56"/>
+      <c r="AC67" s="5"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B68" s="7"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="10"/>
+      <c r="AA68" s="59"/>
+      <c r="AC68" s="5"/>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="Z69">
+        <f ca="1">_xlfn.DAYS(TODAY(),C74)</f>
+        <v>455</v>
+      </c>
+      <c r="AA69" s="59">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.29641693811074921</v>
+      </c>
+      <c r="AB69" s="56">
+        <f ca="1">AA69*I74</f>
+        <v>1509.3787622149839</v>
+      </c>
+      <c r="AC69" s="5"/>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="I70" s="15">
+        <f t="shared" ref="I70:P70" si="7">SUM(I45:I69)</f>
+        <v>21656.039999999997</v>
+      </c>
+      <c r="J70" s="15">
+        <f t="shared" si="7"/>
+        <v>103.523</v>
+      </c>
+      <c r="K70" s="15">
+        <f t="shared" si="7"/>
+        <v>42.339399999999998</v>
+      </c>
+      <c r="L70" s="15">
+        <f t="shared" si="7"/>
+        <v>4129.1262000000006</v>
+      </c>
+      <c r="M70" s="15">
+        <f t="shared" si="7"/>
+        <v>4531.8</v>
+      </c>
+      <c r="N70" s="15">
+        <f t="shared" si="7"/>
+        <v>-33.988500000000002</v>
+      </c>
+      <c r="O70" s="15">
+        <f t="shared" si="7"/>
+        <v>-15.861300000000002</v>
+      </c>
+      <c r="P70" s="15">
+        <f t="shared" si="7"/>
+        <v>4481.9502000000002</v>
+      </c>
+      <c r="S70" s="15">
+        <f>SUM(S45:S69)</f>
+        <v>3571.3034679999992</v>
+      </c>
+      <c r="T70" s="16">
+        <f>SUM(T45:T69)/7</f>
+        <v>0.54861989434118641</v>
+      </c>
+      <c r="U70" s="16">
+        <f>T70/4</f>
+        <v>0.1371549735852966</v>
+      </c>
+      <c r="Z70">
+        <f ca="1">SUM(Z45:Z69)</f>
+        <v>2397</v>
+      </c>
+      <c r="AA70" s="59">
+        <f ca="1">SUM(AA45:AA69)</f>
+        <v>1.5615635179153098</v>
+      </c>
+      <c r="AB70" s="56">
+        <f ca="1">SUM(AB45:AB69)</f>
+        <v>4751.2764429967428</v>
+      </c>
+      <c r="AC70" s="3">
+        <f ca="1">S70/AB70</f>
+        <v>0.75165137428785211</v>
+      </c>
+      <c r="AD70" s="3">
+        <f ca="1">AC70/(Y43/365)</f>
+        <v>0.17873143427691596</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="I71" s="52"/>
+      <c r="J71" s="52"/>
+      <c r="K71" s="52"/>
+      <c r="L71" s="52"/>
+      <c r="M71" s="52"/>
+      <c r="N71" s="52"/>
+      <c r="O71" s="52"/>
+      <c r="P71" s="52"/>
+      <c r="S71" s="52"/>
+      <c r="T71" s="51"/>
+      <c r="U71" s="51"/>
+      <c r="V71">
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B72" s="39" t="str">
+        <f>'Operacion 1'!B$3</f>
+        <v>ABI.BR</v>
+      </c>
+      <c r="C72" s="8">
+        <f>'Operacion 1'!B$2</f>
+        <v>42234</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="14">
+        <f>'Operacion 1'!B$5</f>
+        <v>62</v>
+      </c>
+      <c r="F72" s="9">
+        <f>'Operacion 1'!B$4</f>
+        <v>89</v>
+      </c>
+      <c r="G72" s="9">
+        <f>'Operacion 1'!B$6</f>
+        <v>120</v>
+      </c>
+      <c r="H72" s="10">
+        <f>'Operacion 1'!B$7</f>
+        <v>0.348314606741573</v>
+      </c>
+      <c r="I72" s="9">
+        <f>(F72*E72)</f>
+        <v>5518</v>
+      </c>
+      <c r="J72" s="9">
+        <f>IF((I72*0.005)&lt;20,20,(I72*0.005))</f>
+        <v>27.59</v>
+      </c>
+      <c r="K72" s="9">
+        <f>SUM(I72:J72)*0.0027</f>
+        <v>14.973093</v>
+      </c>
+      <c r="L72" s="9">
+        <f>SUM(I72:K72)</f>
+        <v>5560.5630929999998</v>
+      </c>
+      <c r="M72" s="9">
+        <f>E72*G72</f>
+        <v>7440</v>
+      </c>
+      <c r="N72" s="9">
+        <f>IF((M72*0.005)&lt;20,-20,-(M72*0.005))</f>
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="O72" s="9">
+        <f>-(SUM(M72:N72)*0.0027)</f>
+        <v>-19.987560000000002</v>
+      </c>
+      <c r="P72" s="9">
+        <f>SUM(M72:O72)</f>
+        <v>7382.8124400000006</v>
+      </c>
+      <c r="Q72" s="9">
+        <f>J72-N72</f>
+        <v>64.790000000000006</v>
+      </c>
+      <c r="R72" s="9">
+        <f>K72-O72</f>
+        <v>34.960653000000001</v>
+      </c>
+      <c r="S72" s="9">
+        <f t="shared" ref="S72:S73" si="8">P72-L72</f>
+        <v>1822.2493470000009</v>
+      </c>
+      <c r="T72" s="10">
+        <f>S72/L72</f>
+        <v>0.32770949929404947</v>
+      </c>
+      <c r="U72" t="s">
+        <v>109</v>
+      </c>
+      <c r="V72" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B73" s="39" t="str">
+        <f>'Operacion 2'!B$3</f>
+        <v>BMW.DE</v>
+      </c>
+      <c r="C73" s="8">
+        <f>'Operacion 2'!B$2</f>
+        <v>43605</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="14">
+        <f>'Operacion 2'!B$5</f>
+        <v>62</v>
+      </c>
+      <c r="F73" s="9">
+        <f>'Operacion 2'!B$4</f>
+        <v>65.23</v>
+      </c>
+      <c r="G73" s="9">
+        <f>'Operacion 2'!B$6</f>
+        <v>76.03</v>
+      </c>
+      <c r="H73" s="10">
+        <f>'Operacion 2'!B$7</f>
+        <v>0.16556799018856339</v>
+      </c>
+      <c r="I73" s="9">
+        <f t="shared" ref="I73:I74" si="9">F73*E73</f>
+        <v>4044.26</v>
+      </c>
+      <c r="J73" s="9">
+        <f>IF((I73*(0.0075))&lt;30,30,(I73*(0.0075)))</f>
+        <v>30.331949999999999</v>
+      </c>
+      <c r="K73" s="9">
+        <f>I73*0.0035</f>
+        <v>14.154910000000001</v>
+      </c>
+      <c r="L73" s="9">
+        <f t="shared" ref="L73:L74" si="10">SUM(I73:K73)</f>
+        <v>4088.7468600000002</v>
+      </c>
+      <c r="M73" s="9">
+        <f t="shared" ref="M73:M74" si="11">E73*G73</f>
+        <v>4713.8599999999997</v>
+      </c>
+      <c r="N73" s="9">
+        <f>IF((M73*(0.0075))&lt;30,-30,-(M73*(0.0075)))</f>
+        <v>-35.353949999999998</v>
+      </c>
+      <c r="O73" s="9">
+        <f>-(M73*0.0035)</f>
+        <v>-16.49851</v>
+      </c>
+      <c r="P73" s="9">
+        <f t="shared" ref="P73:P74" si="12">SUM(M73:O73)</f>
+        <v>4662.0075399999996</v>
+      </c>
+      <c r="Q73" s="9">
+        <f t="shared" ref="Q73:R74" si="13">J73-N73</f>
+        <v>65.685900000000004</v>
+      </c>
+      <c r="R73" s="9">
+        <f t="shared" si="13"/>
+        <v>30.653420000000001</v>
+      </c>
+      <c r="S73" s="9">
+        <f t="shared" si="8"/>
+        <v>573.26067999999941</v>
+      </c>
+      <c r="T73" s="10">
+        <f t="shared" ref="T73" si="14">S73/L73</f>
+        <v>0.14020449287486567</v>
+      </c>
+      <c r="U73" t="s">
+        <v>108</v>
+      </c>
+      <c r="V73" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B74" s="39" t="str">
+        <f>'Operacion 3'!B3</f>
+        <v>ITX.MC</v>
+      </c>
+      <c r="C74" s="8">
+        <f>'Operacion 3'!B$2</f>
+        <v>43154</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="14">
+        <f>'Operacion 3'!B$5</f>
+        <v>196</v>
+      </c>
+      <c r="F74" s="9">
+        <f>'Operacion 3'!B$4</f>
+        <v>25.98</v>
+      </c>
+      <c r="G74" s="9">
+        <f>'Operacion 3'!B$6</f>
+        <v>30.27</v>
+      </c>
+      <c r="H74" s="10">
+        <f>'Operacion 3'!B$7</f>
+        <v>0.16512702078521935</v>
+      </c>
+      <c r="I74" s="9">
+        <f t="shared" si="9"/>
+        <v>5092.08</v>
+      </c>
+      <c r="J74" s="9">
+        <f>IF((I74*(0.0075+0.0008))&lt;30,30,(I74*(0.0075+0.0008)))</f>
+        <v>42.264263999999997</v>
+      </c>
+      <c r="K74" s="9">
+        <f>I74*0.0027</f>
+        <v>13.748616</v>
+      </c>
+      <c r="L74" s="9">
+        <f t="shared" si="10"/>
+        <v>5148.0928800000002</v>
+      </c>
+      <c r="M74" s="9">
+        <f t="shared" si="11"/>
+        <v>5932.92</v>
+      </c>
+      <c r="N74" s="9">
+        <f>IF((M74*(0.0075))&lt;30,-30,-(M74*(0.0075)))</f>
+        <v>-44.496899999999997</v>
+      </c>
+      <c r="O74" s="9">
+        <f>-(M74*0.0035)</f>
+        <v>-20.765219999999999</v>
+      </c>
+      <c r="P74" s="9">
+        <f t="shared" si="12"/>
+        <v>5867.6578799999997</v>
+      </c>
+      <c r="Q74" s="9">
+        <f t="shared" si="13"/>
+        <v>86.761163999999994</v>
+      </c>
+      <c r="R74" s="9">
+        <f t="shared" si="13"/>
+        <v>34.513835999999998</v>
+      </c>
+      <c r="S74" s="9">
+        <f>P74-L74</f>
+        <v>719.5649999999996</v>
+      </c>
+      <c r="T74" s="10">
+        <f>S74/L74</f>
+        <v>0.13977311924488814</v>
+      </c>
+      <c r="U74" t="s">
+        <v>58</v>
+      </c>
+      <c r="V74" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB74" s="56"/>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="S75" s="56">
+        <f>S74+SUM(S61:S64)+S67</f>
+        <v>804.01499999999965</v>
+      </c>
+      <c r="T75" s="10">
+        <f>S75/L74</f>
+        <v>0.1561772521866388</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="E76" s="48"/>
+      <c r="I76" s="48"/>
+      <c r="J76" s="48"/>
+      <c r="K76" s="48"/>
+      <c r="L76" s="48"/>
+      <c r="M76" s="48"/>
+      <c r="N76" s="48"/>
+      <c r="O76" s="48"/>
+      <c r="P76" s="48"/>
+      <c r="S76" s="48"/>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="G77" s="5"/>
+      <c r="H77" s="48"/>
+      <c r="V77" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="U78" t="s">
+        <v>68</v>
+      </c>
+      <c r="V78">
+        <v>26.25</v>
+      </c>
+      <c r="AB78" s="56"/>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="5"/>
+      <c r="S79" s="5"/>
+      <c r="U79" t="s">
+        <v>66</v>
+      </c>
+      <c r="V79">
+        <v>30.27</v>
+      </c>
+      <c r="X79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>62</v>
+      </c>
+      <c r="F80">
+        <v>74.89</v>
+      </c>
+      <c r="G80">
+        <v>52</v>
+      </c>
+      <c r="H80" s="10">
+        <f>1-(G80/F80)</f>
+        <v>0.30564828415008682</v>
+      </c>
+      <c r="O80">
+        <v>6769.84</v>
+      </c>
+      <c r="P80">
+        <v>74.459999999999994</v>
+      </c>
+      <c r="Q80" s="5">
+        <v>6695.38</v>
+      </c>
+      <c r="T80" s="10"/>
+      <c r="U80" t="s">
+        <v>67</v>
+      </c>
+      <c r="V80" s="3">
+        <f>(V79/V78)-1</f>
+        <v>0.15314285714285703</v>
+      </c>
+      <c r="W80" s="3"/>
+      <c r="X80" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>61</v>
+      </c>
+      <c r="F81">
+        <v>182.08</v>
+      </c>
+      <c r="G81">
+        <v>126</v>
+      </c>
+      <c r="H81" s="10">
+        <f>1-(G81/F81)</f>
+        <v>0.30799648506151145</v>
+      </c>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="5"/>
+      <c r="Q81" s="5">
+        <f>Q80-L74</f>
+        <v>1547.28712</v>
+      </c>
+      <c r="S81" s="5"/>
+    </row>
+    <row r="82" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>63</v>
+      </c>
+      <c r="F82">
+        <v>93.54</v>
+      </c>
+      <c r="G82">
+        <v>65</v>
+      </c>
+      <c r="H82" s="10">
+        <f>1-(G82/F82)</f>
+        <v>0.30511011332050464</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="5"/>
+      <c r="Q82" s="56">
+        <f>Q81*0.1</f>
         <v>154.728712</v>
       </c>
     </row>
-    <row r="59" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="D59" t="s">
+    <row r="83" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
         <v>107</v>
       </c>
-      <c r="F59">
+      <c r="F83">
         <v>20</v>
       </c>
-      <c r="G59">
+      <c r="G83">
         <v>14</v>
       </c>
-      <c r="H59" s="10">
-        <f>1-(G59/F59)</f>
+      <c r="H83" s="10">
+        <f>1-(G83/F83)</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="Q59" s="56">
-        <f>Q57-Q58</f>
+      <c r="Q83" s="56">
+        <f>Q81-Q82</f>
         <v>1392.5584079999999</v>
       </c>
-      <c r="S59" s="43"/>
-    </row>
-    <row r="60" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="G60" s="5"/>
-      <c r="S60" s="9"/>
-      <c r="T60">
+      <c r="S83" s="43"/>
+    </row>
+    <row r="84" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="G84" s="5"/>
+      <c r="S84" s="9"/>
+      <c r="T84">
         <f>(0.00242*12)</f>
         <v>2.9039999999999996E-2</v>
       </c>
     </row>
-    <row r="61" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="P61" s="9"/>
-      <c r="S61" s="45"/>
-      <c r="T61">
-        <f>4700*T60</f>
+    <row r="85" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="P85" s="9"/>
+      <c r="S85" s="45"/>
+      <c r="T85">
+        <f>4700*T84</f>
         <v>136.48799999999997</v>
       </c>
     </row>
-    <row r="62" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="Q62" s="3"/>
-      <c r="S62" s="50" t="s">
+    <row r="86" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="Q86" s="3"/>
+      <c r="S86" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="T62" s="48" t="s">
+      <c r="T86" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="U62" s="5"/>
-    </row>
-    <row r="63" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G63" s="5"/>
-      <c r="R63" t="s">
+      <c r="U86" s="5"/>
+    </row>
+    <row r="87" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G87" s="5"/>
+      <c r="R87" t="s">
         <v>116</v>
       </c>
-      <c r="S63" s="57" t="s">
+      <c r="S87" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="T63" s="49"/>
-      <c r="U63" s="5"/>
-    </row>
-    <row r="64" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="R64" t="s">
+      <c r="T87" s="49"/>
+      <c r="U87" s="5"/>
+    </row>
+    <row r="88" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="R88" t="s">
         <v>117</v>
       </c>
-      <c r="S64" s="57" t="s">
+      <c r="S88" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="T64" t="s">
+      <c r="T88" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="K65" t="s">
+    <row r="89" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="K89" t="s">
         <v>122</v>
       </c>
-      <c r="S65" s="5"/>
-      <c r="T65" t="s">
+      <c r="S89" s="5"/>
+      <c r="T89" t="s">
         <v>135</v>
       </c>
-      <c r="U65" s="5"/>
-    </row>
-    <row r="66" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="K66" s="58">
+      <c r="U89" s="5"/>
+    </row>
+    <row r="90" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="K90" s="58">
         <v>43587</v>
       </c>
-      <c r="S66" s="43"/>
-    </row>
-    <row r="67" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="K67" t="s">
+      <c r="S90" s="43"/>
+    </row>
+    <row r="91" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="K91" t="s">
         <v>123</v>
       </c>
-      <c r="S67" s="44"/>
-    </row>
-    <row r="68" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="K68" t="s">
+      <c r="S91" s="44"/>
+    </row>
+    <row r="92" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="K92" t="s">
         <v>124</v>
       </c>
-      <c r="M68" t="s">
+      <c r="M92" t="s">
         <v>147</v>
       </c>
-      <c r="S68" s="57"/>
-      <c r="T68">
+      <c r="S92" s="57"/>
+      <c r="T92">
         <f>5000/12</f>
         <v>416.66666666666669</v>
       </c>
     </row>
-    <row r="69" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="K69" t="s">
+    <row r="93" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="K93" t="s">
         <v>125</v>
       </c>
-      <c r="T69">
-        <f>2.2/T68</f>
+      <c r="T93">
+        <f>2.2/T92</f>
         <v>5.28E-3</v>
       </c>
     </row>
-    <row r="70" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="K70" t="s">
+    <row r="94" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="K94" t="s">
         <v>126</v>
       </c>
-      <c r="T70">
-        <f>100*T69</f>
+      <c r="T94">
+        <f>100*T93</f>
         <v>0.52800000000000002</v>
       </c>
     </row>
-    <row r="71" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="K71" t="s">
+    <row r="95" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="K95" t="s">
         <v>127</v>
       </c>
-      <c r="T71">
+      <c r="T95">
         <f>2.2*12</f>
         <v>26.400000000000002</v>
       </c>
     </row>
-    <row r="72" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="K72" t="s">
+    <row r="96" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="K96" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="K73" t="s">
+    <row r="97" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K97" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="K74" t="s">
+    <row r="98" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K98" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="75" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="K75" t="s">
+    <row r="99" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K99" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="K76" t="s">
+    <row r="100" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K100" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="77" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="K77" t="s">
+    <row r="101" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K101" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="78" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="K78" t="s">
+    <row r="102" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K102" t="s">
         <v>134</v>
       </c>
     </row>
@@ -6679,9 +7620,9 @@
   <mergeCells count="5">
     <mergeCell ref="A11:R11"/>
     <mergeCell ref="A10:R10"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="Q43:S43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6693,7 +7634,7 @@
   <dimension ref="A2:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6723,12 +7664,12 @@
         <v>73</v>
       </c>
       <c r="B3" s="56">
-        <f>1100</f>
-        <v>1100</v>
+        <f>1094.26</f>
+        <v>1094.26</v>
       </c>
       <c r="C3" s="3">
         <f>B3/B$7</f>
-        <v>0.27160493827160492</v>
+        <v>0.27057113044166298</v>
       </c>
       <c r="D3" s="56">
         <f>D$7*C3</f>
@@ -6744,7 +7685,7 @@
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" si="0">B4/B$7</f>
-        <v>0.33333333333333331</v>
+        <v>0.33380643183178133</v>
       </c>
       <c r="D4" s="56">
         <f t="shared" ref="D4:D6" si="1">D$7*C4</f>
@@ -6760,7 +7701,7 @@
       </c>
       <c r="C5" s="3">
         <f t="shared" si="0"/>
-        <v>0.13580246913580246</v>
+        <v>0.1359952129685035</v>
       </c>
       <c r="D5" s="56">
         <f t="shared" si="1"/>
@@ -6776,7 +7717,7 @@
       </c>
       <c r="C6" s="3">
         <f t="shared" si="0"/>
-        <v>0.25925925925925924</v>
+        <v>0.25962722475805217</v>
       </c>
       <c r="D6" s="56">
         <f t="shared" si="1"/>
@@ -6789,7 +7730,7 @@
       </c>
       <c r="B7" s="56">
         <f>SUM(B3:B6)</f>
-        <v>4050</v>
+        <v>4044.26</v>
       </c>
       <c r="C7" s="3">
         <f>SUM(C3:C6)</f>
@@ -6822,7 +7763,7 @@
       </c>
       <c r="B12" s="56">
         <f>B7+B11</f>
-        <v>9142.08</v>
+        <v>9136.34</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
@@ -6841,8 +7782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
